--- a/Model.xlsx
+++ b/Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aditya.Tiwari\Documents\Product Management\Begin AI\TSAI\Repositories\Session 8 assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB64045-EAEF-4D6A-973B-DBCCE1449A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAD742D-8069-49F2-B265-5D6EBE47F3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="95">
   <si>
     <t>Epoch</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>Reduced layers slightly and added batchnorm. The vanishing gradients problem is resolved, and the model architecuture is as asked for.</t>
+  </si>
+  <si>
+    <t>Conv 6 (d)</t>
   </si>
 </sst>
 </file>
@@ -5196,11 +5199,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5155A9C0-960B-43B5-AA06-FF471900653F}">
-  <dimension ref="C4:S63"/>
+  <dimension ref="C4:S76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S67" sqref="S67"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7868,15 +7871,15 @@
         <v>32</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" ref="I52:I61" si="50">P51</f>
+        <f t="shared" ref="I52" si="50">P51</f>
         <v>32</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" ref="J52:J61" si="51">Q51</f>
+        <f t="shared" ref="J52" si="51">Q51</f>
         <v>3</v>
       </c>
       <c r="K52" s="3">
-        <f t="shared" ref="K52:K61" si="52">R51</f>
+        <f t="shared" ref="K52" si="52">R51</f>
         <v>1</v>
       </c>
       <c r="L52" s="3">
@@ -7897,7 +7900,7 @@
         <v>64</v>
       </c>
       <c r="Q52" s="10">
-        <f t="shared" ref="Q52:Q61" si="53">J52+(F52-1)*K52*N52</f>
+        <f t="shared" ref="Q52" si="53">J52+(F52-1)*K52*N52</f>
         <v>5</v>
       </c>
       <c r="R52" s="5">
@@ -8453,11 +8456,11 @@
         <v>1</v>
       </c>
       <c r="O62" s="13">
-        <f t="shared" ref="O53:O62" si="62">FLOOR(((H62+(2*M62)-F62)/L62)+1,1)</f>
+        <f t="shared" ref="O62" si="62">FLOOR(((H62+(2*M62)-F62)/L62)+1,1)</f>
         <v>1</v>
       </c>
       <c r="P62" s="13">
-        <f t="shared" ref="P53:P62" si="63">G62</f>
+        <f t="shared" ref="P62" si="63">G62</f>
         <v>64</v>
       </c>
       <c r="Q62" s="51">
@@ -8495,11 +8498,748 @@
         <v>91</v>
       </c>
     </row>
+    <row r="64" spans="3:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="C64" s="34">
+        <v>6</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="4">
+        <v>3</v>
+      </c>
+      <c r="G64" s="4">
+        <v>32</v>
+      </c>
+      <c r="H64" s="11">
+        <v>32</v>
+      </c>
+      <c r="I64" s="4">
+        <v>3</v>
+      </c>
+      <c r="J64" s="4">
+        <v>1</v>
+      </c>
+      <c r="K64" s="4">
+        <v>1</v>
+      </c>
+      <c r="L64" s="4">
+        <v>1</v>
+      </c>
+      <c r="M64" s="4">
+        <v>1</v>
+      </c>
+      <c r="N64" s="4">
+        <v>1</v>
+      </c>
+      <c r="O64" s="4">
+        <f t="shared" ref="O64:O76" si="64">FLOOR(((H64+(2*M64)-F64)/L64)+1,1)</f>
+        <v>32</v>
+      </c>
+      <c r="P64" s="4">
+        <f t="shared" ref="P64:P76" si="65">G64</f>
+        <v>32</v>
+      </c>
+      <c r="Q64" s="4">
+        <f>J64+(F64-1)*K64*N64</f>
+        <v>3</v>
+      </c>
+      <c r="R64" s="19">
+        <f t="shared" ref="R64:R75" si="66">K64*L64</f>
+        <v>1</v>
+      </c>
+      <c r="S64" s="46"/>
+    </row>
+    <row r="65" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C65" s="35"/>
+      <c r="D65" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="3">
+        <v>3</v>
+      </c>
+      <c r="G65" s="3">
+        <v>64</v>
+      </c>
+      <c r="H65" s="3">
+        <f t="shared" ref="H65:H76" si="67">O64</f>
+        <v>32</v>
+      </c>
+      <c r="I65" s="3">
+        <f t="shared" ref="I65:I76" si="68">P64</f>
+        <v>32</v>
+      </c>
+      <c r="J65" s="3">
+        <f t="shared" ref="J65:J76" si="69">Q64</f>
+        <v>3</v>
+      </c>
+      <c r="K65" s="3">
+        <f t="shared" ref="K65:K76" si="70">R64</f>
+        <v>1</v>
+      </c>
+      <c r="L65" s="3">
+        <v>1</v>
+      </c>
+      <c r="M65" s="3">
+        <v>1</v>
+      </c>
+      <c r="N65" s="3">
+        <v>1</v>
+      </c>
+      <c r="O65" s="3">
+        <f t="shared" si="64"/>
+        <v>32</v>
+      </c>
+      <c r="P65" s="3">
+        <f t="shared" si="65"/>
+        <v>64</v>
+      </c>
+      <c r="Q65" s="10">
+        <f t="shared" ref="Q65:Q75" si="71">J65+(F65-1)*K65*N65</f>
+        <v>5</v>
+      </c>
+      <c r="R65" s="5">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="S65" s="47"/>
+    </row>
+    <row r="66" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C66" s="35"/>
+      <c r="D66" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2</v>
+      </c>
+      <c r="G66" s="3">
+        <v>64</v>
+      </c>
+      <c r="H66" s="3">
+        <f t="shared" ref="H66:H76" si="72">O65</f>
+        <v>32</v>
+      </c>
+      <c r="I66" s="3">
+        <f t="shared" ref="I66:I76" si="73">P65</f>
+        <v>64</v>
+      </c>
+      <c r="J66" s="3">
+        <f t="shared" ref="J66:J76" si="74">Q65</f>
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
+        <f t="shared" ref="K66:K76" si="75">R65</f>
+        <v>1</v>
+      </c>
+      <c r="L66" s="3">
+        <v>2</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1</v>
+      </c>
+      <c r="O66" s="3">
+        <f t="shared" ref="O66:O76" si="76">FLOOR(((H66+(2*M66)-F66)/L66)+1,1)</f>
+        <v>16</v>
+      </c>
+      <c r="P66" s="3">
+        <f t="shared" ref="P66:P76" si="77">G66</f>
+        <v>64</v>
+      </c>
+      <c r="Q66" s="10">
+        <f t="shared" ref="Q66:Q76" si="78">J66+(F66-1)*K66*N66</f>
+        <v>6</v>
+      </c>
+      <c r="R66" s="5">
+        <f t="shared" ref="R66:R76" si="79">K66*L66</f>
+        <v>2</v>
+      </c>
+      <c r="S66" s="47"/>
+    </row>
+    <row r="67" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C67" s="35"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F67" s="3">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3">
+        <v>32</v>
+      </c>
+      <c r="H67" s="3">
+        <f t="shared" si="72"/>
+        <v>16</v>
+      </c>
+      <c r="I67" s="3">
+        <f t="shared" si="73"/>
+        <v>64</v>
+      </c>
+      <c r="J67" s="3">
+        <f t="shared" si="74"/>
+        <v>6</v>
+      </c>
+      <c r="K67" s="3">
+        <f t="shared" si="75"/>
+        <v>2</v>
+      </c>
+      <c r="L67" s="3">
+        <v>1</v>
+      </c>
+      <c r="M67" s="3">
+        <v>0</v>
+      </c>
+      <c r="N67" s="3">
+        <v>1</v>
+      </c>
+      <c r="O67" s="3">
+        <f t="shared" si="76"/>
+        <v>16</v>
+      </c>
+      <c r="P67" s="3">
+        <f t="shared" si="77"/>
+        <v>32</v>
+      </c>
+      <c r="Q67" s="10">
+        <f t="shared" si="78"/>
+        <v>6</v>
+      </c>
+      <c r="R67" s="5">
+        <f t="shared" si="79"/>
+        <v>2</v>
+      </c>
+      <c r="S67" s="47"/>
+    </row>
+    <row r="68" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C68" s="35"/>
+      <c r="D68" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="3">
+        <v>3</v>
+      </c>
+      <c r="G68" s="3">
+        <v>64</v>
+      </c>
+      <c r="H68" s="3">
+        <f t="shared" si="72"/>
+        <v>16</v>
+      </c>
+      <c r="I68" s="3">
+        <f t="shared" si="73"/>
+        <v>32</v>
+      </c>
+      <c r="J68" s="3">
+        <f t="shared" si="74"/>
+        <v>6</v>
+      </c>
+      <c r="K68" s="3">
+        <f t="shared" si="75"/>
+        <v>2</v>
+      </c>
+      <c r="L68" s="3">
+        <v>1</v>
+      </c>
+      <c r="M68" s="3">
+        <v>1</v>
+      </c>
+      <c r="N68" s="3">
+        <v>1</v>
+      </c>
+      <c r="O68" s="3">
+        <f t="shared" si="76"/>
+        <v>16</v>
+      </c>
+      <c r="P68" s="3">
+        <f t="shared" si="77"/>
+        <v>64</v>
+      </c>
+      <c r="Q68" s="10">
+        <f t="shared" si="78"/>
+        <v>10</v>
+      </c>
+      <c r="R68" s="5">
+        <f t="shared" si="79"/>
+        <v>2</v>
+      </c>
+      <c r="S68" s="47"/>
+    </row>
+    <row r="69" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C69" s="35"/>
+      <c r="D69" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3">
+        <v>64</v>
+      </c>
+      <c r="H69" s="3">
+        <f t="shared" si="72"/>
+        <v>16</v>
+      </c>
+      <c r="I69" s="3">
+        <f t="shared" si="73"/>
+        <v>64</v>
+      </c>
+      <c r="J69" s="3">
+        <f t="shared" si="74"/>
+        <v>10</v>
+      </c>
+      <c r="K69" s="3">
+        <f t="shared" si="75"/>
+        <v>2</v>
+      </c>
+      <c r="L69" s="3">
+        <v>2</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>1</v>
+      </c>
+      <c r="O69" s="3">
+        <f t="shared" si="76"/>
+        <v>8</v>
+      </c>
+      <c r="P69" s="3">
+        <f t="shared" si="77"/>
+        <v>64</v>
+      </c>
+      <c r="Q69" s="10">
+        <f t="shared" si="78"/>
+        <v>12</v>
+      </c>
+      <c r="R69" s="5">
+        <f t="shared" si="79"/>
+        <v>4</v>
+      </c>
+      <c r="S69" s="47"/>
+    </row>
+    <row r="70" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C70" s="35"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3">
+        <v>32</v>
+      </c>
+      <c r="H70" s="3">
+        <f t="shared" si="72"/>
+        <v>8</v>
+      </c>
+      <c r="I70" s="3">
+        <f t="shared" si="73"/>
+        <v>64</v>
+      </c>
+      <c r="J70" s="3">
+        <f t="shared" si="74"/>
+        <v>12</v>
+      </c>
+      <c r="K70" s="3">
+        <f t="shared" si="75"/>
+        <v>4</v>
+      </c>
+      <c r="L70" s="3">
+        <v>1</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>1</v>
+      </c>
+      <c r="O70" s="3">
+        <f t="shared" si="76"/>
+        <v>8</v>
+      </c>
+      <c r="P70" s="3">
+        <f t="shared" si="77"/>
+        <v>32</v>
+      </c>
+      <c r="Q70" s="10">
+        <f t="shared" si="78"/>
+        <v>12</v>
+      </c>
+      <c r="R70" s="5">
+        <f t="shared" si="79"/>
+        <v>4</v>
+      </c>
+      <c r="S70" s="47"/>
+    </row>
+    <row r="71" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C71" s="35"/>
+      <c r="D71" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F71" s="3">
+        <v>3</v>
+      </c>
+      <c r="G71" s="3">
+        <v>64</v>
+      </c>
+      <c r="H71" s="3">
+        <f t="shared" si="72"/>
+        <v>8</v>
+      </c>
+      <c r="I71" s="3">
+        <f t="shared" si="73"/>
+        <v>32</v>
+      </c>
+      <c r="J71" s="3">
+        <f t="shared" si="74"/>
+        <v>12</v>
+      </c>
+      <c r="K71" s="3">
+        <f t="shared" si="75"/>
+        <v>4</v>
+      </c>
+      <c r="L71" s="3">
+        <v>1</v>
+      </c>
+      <c r="M71" s="3">
+        <v>1</v>
+      </c>
+      <c r="N71" s="3">
+        <v>2</v>
+      </c>
+      <c r="O71" s="3">
+        <f t="shared" si="76"/>
+        <v>8</v>
+      </c>
+      <c r="P71" s="3">
+        <f t="shared" si="77"/>
+        <v>64</v>
+      </c>
+      <c r="Q71" s="10">
+        <f t="shared" si="78"/>
+        <v>28</v>
+      </c>
+      <c r="R71" s="5">
+        <f t="shared" si="79"/>
+        <v>4</v>
+      </c>
+      <c r="S71" s="47"/>
+    </row>
+    <row r="72" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C72" s="35"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72" s="3">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3">
+        <v>64</v>
+      </c>
+      <c r="H72" s="3">
+        <f t="shared" si="72"/>
+        <v>8</v>
+      </c>
+      <c r="I72" s="3">
+        <f t="shared" si="73"/>
+        <v>64</v>
+      </c>
+      <c r="J72" s="3">
+        <f t="shared" si="74"/>
+        <v>28</v>
+      </c>
+      <c r="K72" s="3">
+        <f t="shared" si="75"/>
+        <v>4</v>
+      </c>
+      <c r="L72" s="13">
+        <v>1</v>
+      </c>
+      <c r="M72" s="13">
+        <v>1</v>
+      </c>
+      <c r="N72" s="13">
+        <v>1</v>
+      </c>
+      <c r="O72" s="3">
+        <f t="shared" si="76"/>
+        <v>8</v>
+      </c>
+      <c r="P72" s="3">
+        <f t="shared" si="77"/>
+        <v>64</v>
+      </c>
+      <c r="Q72" s="10">
+        <f t="shared" si="78"/>
+        <v>36</v>
+      </c>
+      <c r="R72" s="5">
+        <f t="shared" si="79"/>
+        <v>4</v>
+      </c>
+      <c r="S72" s="47"/>
+    </row>
+    <row r="73" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C73" s="35"/>
+      <c r="D73" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F73" s="3">
+        <v>2</v>
+      </c>
+      <c r="G73" s="3">
+        <v>64</v>
+      </c>
+      <c r="H73" s="3">
+        <f t="shared" si="72"/>
+        <v>8</v>
+      </c>
+      <c r="I73" s="3">
+        <f t="shared" si="73"/>
+        <v>64</v>
+      </c>
+      <c r="J73" s="3">
+        <f t="shared" si="74"/>
+        <v>36</v>
+      </c>
+      <c r="K73" s="3">
+        <f t="shared" si="75"/>
+        <v>4</v>
+      </c>
+      <c r="L73" s="13">
+        <v>2</v>
+      </c>
+      <c r="M73" s="13">
+        <v>0</v>
+      </c>
+      <c r="N73" s="13">
+        <v>1</v>
+      </c>
+      <c r="O73" s="3">
+        <f t="shared" si="76"/>
+        <v>4</v>
+      </c>
+      <c r="P73" s="3">
+        <f t="shared" si="77"/>
+        <v>64</v>
+      </c>
+      <c r="Q73" s="10">
+        <f t="shared" si="78"/>
+        <v>40</v>
+      </c>
+      <c r="R73" s="5">
+        <f t="shared" si="79"/>
+        <v>8</v>
+      </c>
+      <c r="S73" s="47"/>
+    </row>
+    <row r="74" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C74" s="35"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F74" s="3">
+        <v>1</v>
+      </c>
+      <c r="G74" s="3">
+        <v>32</v>
+      </c>
+      <c r="H74" s="3">
+        <f t="shared" si="72"/>
+        <v>4</v>
+      </c>
+      <c r="I74" s="3">
+        <f t="shared" si="73"/>
+        <v>64</v>
+      </c>
+      <c r="J74" s="3">
+        <f t="shared" si="74"/>
+        <v>40</v>
+      </c>
+      <c r="K74" s="3">
+        <f t="shared" si="75"/>
+        <v>8</v>
+      </c>
+      <c r="L74" s="13">
+        <v>1</v>
+      </c>
+      <c r="M74" s="13">
+        <v>0</v>
+      </c>
+      <c r="N74" s="13">
+        <v>1</v>
+      </c>
+      <c r="O74" s="3">
+        <f t="shared" si="76"/>
+        <v>4</v>
+      </c>
+      <c r="P74" s="3">
+        <f t="shared" si="77"/>
+        <v>32</v>
+      </c>
+      <c r="Q74" s="10">
+        <f t="shared" si="78"/>
+        <v>40</v>
+      </c>
+      <c r="R74" s="5">
+        <f t="shared" si="79"/>
+        <v>8</v>
+      </c>
+      <c r="S74" s="47"/>
+    </row>
+    <row r="75" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C75" s="35"/>
+      <c r="D75" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F75" s="13">
+        <v>3</v>
+      </c>
+      <c r="G75" s="13">
+        <v>64</v>
+      </c>
+      <c r="H75" s="3">
+        <f t="shared" si="72"/>
+        <v>4</v>
+      </c>
+      <c r="I75" s="3">
+        <f t="shared" si="73"/>
+        <v>32</v>
+      </c>
+      <c r="J75" s="3">
+        <f t="shared" si="74"/>
+        <v>40</v>
+      </c>
+      <c r="K75" s="3">
+        <f t="shared" si="75"/>
+        <v>8</v>
+      </c>
+      <c r="L75" s="13">
+        <v>1</v>
+      </c>
+      <c r="M75" s="13">
+        <v>1</v>
+      </c>
+      <c r="N75" s="13">
+        <v>1</v>
+      </c>
+      <c r="O75" s="3">
+        <f t="shared" si="76"/>
+        <v>4</v>
+      </c>
+      <c r="P75" s="3">
+        <f t="shared" si="77"/>
+        <v>64</v>
+      </c>
+      <c r="Q75" s="10">
+        <f t="shared" si="78"/>
+        <v>56</v>
+      </c>
+      <c r="R75" s="5">
+        <f t="shared" si="79"/>
+        <v>8</v>
+      </c>
+      <c r="S75" s="47"/>
+    </row>
+    <row r="76" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="36"/>
+      <c r="D76" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" s="6">
+        <v>4</v>
+      </c>
+      <c r="G76" s="6">
+        <v>64</v>
+      </c>
+      <c r="H76" s="3">
+        <f t="shared" si="72"/>
+        <v>4</v>
+      </c>
+      <c r="I76" s="3">
+        <f t="shared" si="73"/>
+        <v>64</v>
+      </c>
+      <c r="J76" s="3">
+        <f t="shared" si="74"/>
+        <v>56</v>
+      </c>
+      <c r="K76" s="3">
+        <f t="shared" si="75"/>
+        <v>8</v>
+      </c>
+      <c r="L76" s="6">
+        <v>1</v>
+      </c>
+      <c r="M76" s="6">
+        <v>0</v>
+      </c>
+      <c r="N76" s="6">
+        <v>1</v>
+      </c>
+      <c r="O76" s="3">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="P76" s="3">
+        <f t="shared" si="77"/>
+        <v>64</v>
+      </c>
+      <c r="Q76" s="10">
+        <f>Q75</f>
+        <v>56</v>
+      </c>
+      <c r="R76" s="5">
+        <f t="shared" si="79"/>
+        <v>8</v>
+      </c>
+      <c r="S76" s="48"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="34">
     <mergeCell ref="D63:R63"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C64:C76"/>
+    <mergeCell ref="S64:S76"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D71:D72"/>
     <mergeCell ref="S6:S25"/>
     <mergeCell ref="S26:S34"/>
     <mergeCell ref="S35:S50"/>
@@ -8536,7 +9276,7 @@
   <dimension ref="D1:Q402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
@@ -14642,7 +15382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7711C3A-5153-46B1-ADD9-E0A1899966C0}">
   <dimension ref="G2:AA22"/>
   <sheetViews>
-    <sheetView topLeftCell="F24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>

--- a/Model.xlsx
+++ b/Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aditya.Tiwari\Documents\Product Management\Begin AI\TSAI\Repositories\Session 8 assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAD742D-8069-49F2-B265-5D6EBE47F3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93D10D2-FC2E-4DE0-934D-FA541D3E90D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="96">
   <si>
     <t>Epoch</t>
   </si>
@@ -317,16 +317,56 @@
     <t>Same as Model 4</t>
   </si>
   <si>
-    <t>Reduced training batch size from 1024 to 128</t>
-  </si>
-  <si>
     <t>Works, but not enough convolution blocks. But this proves that the issue was the large number of layers.</t>
   </si>
   <si>
     <t>Reduced layers slightly and added batchnorm. The vanishing gradients problem is resolved, and the model architecuture is as asked for.</t>
   </si>
   <si>
-    <t>Conv 6 (d)</t>
+    <t>Conv 4 (d)</t>
+  </si>
+  <si>
+    <t>Reduced training batch size from 1024 to 128. Good boost in test accuracy seen. Reducing further to 64 seemed to have no benefit in accuracy while also running slower.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Added dilated layer in block 3, hoping to "map out" parts of objects in the images. Next convolution layer could then work better. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Analysis - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Practically no improvement in training and test accuracy. Delta for model 5 was a bit tighter, but models are similar overall in this context.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1252,165 +1292,6 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Model Comparisons'!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Model 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Model Comparisons'!$G$7:$G$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Model Comparisons'!$H$7:$H$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>4.1700000000000017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.6000000000000085</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.460000000000008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.4500000000000028</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.699999999999989</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.829999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.13000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.53</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.86</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.239999999999995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17.650000000000006</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18.89</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.180000000000007</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22.090000000000003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25.549999999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22.739999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5168-4045-BDD9-686458049E54}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -1512,52 +1393,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2.3700000000000045</c:v>
+                  <c:v>4.9000000000000057</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9000000000000057</c:v>
+                  <c:v>5.5999999999999943</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5999999999999943</c:v>
+                  <c:v>8.0700000000000074</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0700000000000074</c:v>
+                  <c:v>11.219999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.219999999999999</c:v>
+                  <c:v>8.8100000000000023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8100000000000023</c:v>
+                  <c:v>9.0799999999999983</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.0799999999999983</c:v>
+                  <c:v>12.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.290000000000006</c:v>
+                  <c:v>10.769999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.769999999999996</c:v>
+                  <c:v>12.519999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.519999999999996</c:v>
+                  <c:v>15.77000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.77000000000001</c:v>
+                  <c:v>17.47999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.47999999999999</c:v>
+                  <c:v>15.490000000000009</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.490000000000009</c:v>
+                  <c:v>14.97999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.97999999999999</c:v>
+                  <c:v>15.63000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.63000000000001</c:v>
+                  <c:v>16.47</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.47</c:v>
+                  <c:v>15.840000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1670,6 +1551,54 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5.2600000000000051</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0899999999999892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1500000000000057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.210000000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.550000000000011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.13000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.689999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.629999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.149999999999991</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.490000000000009</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1805,12 +1734,191 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$H$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Model 4</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$G$7:$G$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$H$7:$H$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>4.1700000000000017</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>9.6000000000000085</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>11.460000000000008</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.4500000000000028</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10.699999999999989</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>14.829999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>15.13000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>16.53</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>16.86</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>17.239999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>17.650000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>18.89</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>20.180000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>22.090000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>25.549999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>22.739999999999995</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-5168-4045-BDD9-686458049E54}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
                 <c:idx val="4"/>
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Model Comparisons'!$L$2</c15:sqref>
                         </c15:formulaRef>
@@ -1851,7 +1959,7 @@
                 <c:xVal>
                   <c:numRef>
                     <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Model Comparisons'!$G$7:$G$22</c15:sqref>
                         </c15:formulaRef>
@@ -1914,7 +2022,7 @@
                 <c:yVal>
                   <c:numRef>
                     <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Model Comparisons'!$L$7:$L$22</c15:sqref>
                         </c15:formulaRef>
@@ -1927,7 +2035,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-5168-4045-BDD9-686458049E54}"/>
                   </c:ext>
@@ -5201,9 +5309,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5155A9C0-960B-43B5-AA06-FF471900653F}">
   <dimension ref="C4:S76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S77" sqref="S77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6442,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.2">
@@ -7849,7 +7957,7 @@
         <v>1</v>
       </c>
       <c r="S51" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="3:19" x14ac:dyDescent="0.2">
@@ -8027,7 +8135,7 @@
         <v>79</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F55" s="3">
         <v>3</v>
@@ -8196,7 +8304,7 @@
         <v>81</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F58" s="3">
         <v>3</v>
@@ -8365,7 +8473,7 @@
         <v>83</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F61" s="13">
         <v>3</v>
@@ -8473,7 +8581,7 @@
       </c>
       <c r="S62" s="48"/>
     </row>
-    <row r="63" spans="3:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:19" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C63" s="60">
         <v>5</v>
       </c>
@@ -8495,7 +8603,7 @@
       <c r="Q63" s="61"/>
       <c r="R63" s="62"/>
       <c r="S63" s="63" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="3:19" ht="15" x14ac:dyDescent="0.2">
@@ -8551,7 +8659,9 @@
         <f t="shared" ref="R64:R75" si="66">K64*L64</f>
         <v>1</v>
       </c>
-      <c r="S64" s="46"/>
+      <c r="S64" s="46" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="65" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C65" s="35"/>
@@ -8728,7 +8838,7 @@
         <v>79</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F68" s="3">
         <v>3</v>
@@ -8897,7 +9007,7 @@
         <v>81</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F71" s="3">
         <v>3</v>
@@ -8952,7 +9062,7 @@
       <c r="C72" s="35"/>
       <c r="D72" s="27"/>
       <c r="E72" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F72" s="3">
         <v>3</v>
@@ -9121,7 +9231,7 @@
         <v>83</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F75" s="13">
         <v>3</v>
@@ -9276,8 +9386,8 @@
   <dimension ref="D1:Q402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L43" sqref="L43:O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10133,19 +10243,23 @@
       <c r="E43" s="4">
         <v>1</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="F43" s="4">
+        <v>49.62</v>
+      </c>
+      <c r="G43" s="4">
+        <v>57.86</v>
+      </c>
       <c r="H43" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-8.240000000000002</v>
       </c>
       <c r="I43" s="52">
         <f t="shared" ref="I43:J43" si="2">MAX(F43:F62)</f>
-        <v>0</v>
+        <v>95.84</v>
       </c>
       <c r="J43" s="55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>79.89</v>
       </c>
     </row>
     <row r="44" spans="4:15" x14ac:dyDescent="0.2">
@@ -10153,11 +10267,15 @@
       <c r="E44" s="3">
         <v>2</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="F44" s="3">
+        <v>67.39</v>
+      </c>
+      <c r="G44" s="3">
+        <v>69.180000000000007</v>
+      </c>
       <c r="H44" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1.7900000000000063</v>
       </c>
       <c r="I44" s="53"/>
       <c r="J44" s="56"/>
@@ -10167,11 +10285,15 @@
       <c r="E45" s="3">
         <v>3</v>
       </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+      <c r="F45" s="3">
+        <v>74.48</v>
+      </c>
+      <c r="G45" s="3">
+        <v>74.319999999999993</v>
+      </c>
       <c r="H45" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1600000000000108</v>
       </c>
       <c r="I45" s="53"/>
       <c r="J45" s="56"/>
@@ -10181,11 +10303,15 @@
       <c r="E46" s="3">
         <v>4</v>
       </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="F46" s="3">
+        <v>78.349999999999994</v>
+      </c>
+      <c r="G46" s="3">
+        <v>74.650000000000006</v>
+      </c>
       <c r="H46" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.6999999999999886</v>
       </c>
       <c r="I46" s="53"/>
       <c r="J46" s="56"/>
@@ -10195,11 +10321,15 @@
       <c r="E47" s="3">
         <v>5</v>
       </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
+      <c r="F47" s="3">
+        <v>81.36</v>
+      </c>
+      <c r="G47" s="3">
+        <v>76.099999999999994</v>
+      </c>
       <c r="H47" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.2600000000000051</v>
       </c>
       <c r="I47" s="53"/>
       <c r="J47" s="56"/>
@@ -10209,11 +10339,15 @@
       <c r="E48" s="3">
         <v>6</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="F48" s="3">
+        <v>83.74</v>
+      </c>
+      <c r="G48" s="3">
+        <v>77.650000000000006</v>
+      </c>
       <c r="H48" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.0899999999999892</v>
       </c>
       <c r="I48" s="53"/>
       <c r="J48" s="56"/>
@@ -10223,11 +10357,15 @@
       <c r="E49" s="3">
         <v>7</v>
       </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
+      <c r="F49" s="3">
+        <v>85.37</v>
+      </c>
+      <c r="G49" s="3">
+        <v>77.22</v>
+      </c>
       <c r="H49" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.1500000000000057</v>
       </c>
       <c r="I49" s="53"/>
       <c r="J49" s="56"/>
@@ -10237,11 +10375,15 @@
       <c r="E50" s="3">
         <v>8</v>
       </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="F50" s="3">
+        <v>87.05</v>
+      </c>
+      <c r="G50" s="3">
+        <v>74.08</v>
+      </c>
       <c r="H50" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12.969999999999999</v>
       </c>
       <c r="I50" s="53"/>
       <c r="J50" s="56"/>
@@ -10251,11 +10393,15 @@
       <c r="E51" s="3">
         <v>9</v>
       </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="F51" s="3">
+        <v>88.53</v>
+      </c>
+      <c r="G51" s="3">
+        <v>78.319999999999993</v>
+      </c>
       <c r="H51" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10.210000000000008</v>
       </c>
       <c r="I51" s="53"/>
       <c r="J51" s="56"/>
@@ -10265,11 +10411,15 @@
       <c r="E52" s="3">
         <v>10</v>
       </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="F52" s="3">
+        <v>89.37</v>
+      </c>
+      <c r="G52" s="3">
+        <v>77.819999999999993</v>
+      </c>
       <c r="H52" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11.550000000000011</v>
       </c>
       <c r="I52" s="53"/>
       <c r="J52" s="56"/>
@@ -10279,11 +10429,15 @@
       <c r="E53" s="3">
         <v>11</v>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="F53" s="3">
+        <v>90.79</v>
+      </c>
+      <c r="G53" s="3">
+        <v>79.89</v>
+      </c>
       <c r="H53" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10.900000000000006</v>
       </c>
       <c r="I53" s="53"/>
       <c r="J53" s="56"/>
@@ -10293,11 +10447,15 @@
       <c r="E54" s="3">
         <v>12</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="F54" s="3">
+        <v>91.59</v>
+      </c>
+      <c r="G54" s="3">
+        <v>78.5</v>
+      </c>
       <c r="H54" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.090000000000003</v>
       </c>
       <c r="I54" s="53"/>
       <c r="J54" s="56"/>
@@ -10307,11 +10465,15 @@
       <c r="E55" s="3">
         <v>13</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
+      <c r="F55" s="3">
+        <v>92.31</v>
+      </c>
+      <c r="G55" s="3">
+        <v>78.900000000000006</v>
+      </c>
       <c r="H55" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.409999999999997</v>
       </c>
       <c r="I55" s="53"/>
       <c r="J55" s="56"/>
@@ -10321,11 +10483,15 @@
       <c r="E56" s="3">
         <v>14</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="F56" s="3">
+        <v>93.27</v>
+      </c>
+      <c r="G56" s="3">
+        <v>78.67</v>
+      </c>
       <c r="H56" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.599999999999994</v>
       </c>
       <c r="I56" s="53"/>
       <c r="J56" s="56"/>
@@ -10335,11 +10501,15 @@
       <c r="E57" s="3">
         <v>15</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+      <c r="F57" s="3">
+        <v>93.65</v>
+      </c>
+      <c r="G57" s="3">
+        <v>77.400000000000006</v>
+      </c>
       <c r="H57" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="I57" s="53"/>
       <c r="J57" s="56"/>
@@ -10349,11 +10519,15 @@
       <c r="E58" s="3">
         <v>16</v>
       </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="F58" s="3">
+        <v>94.4</v>
+      </c>
+      <c r="G58" s="3">
+        <v>77.27</v>
+      </c>
       <c r="H58" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.13000000000001</v>
       </c>
       <c r="I58" s="53"/>
       <c r="J58" s="56"/>
@@ -10363,11 +10537,15 @@
       <c r="E59" s="3">
         <v>17</v>
       </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+      <c r="F59" s="3">
+        <v>94.82</v>
+      </c>
+      <c r="G59" s="3">
+        <v>77.13</v>
+      </c>
       <c r="H59" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.689999999999998</v>
       </c>
       <c r="I59" s="53"/>
       <c r="J59" s="56"/>
@@ -10377,11 +10555,15 @@
       <c r="E60" s="3">
         <v>18</v>
       </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+      <c r="F60" s="3">
+        <v>95.22</v>
+      </c>
+      <c r="G60" s="3">
+        <v>78.59</v>
+      </c>
       <c r="H60" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.629999999999995</v>
       </c>
       <c r="I60" s="53"/>
       <c r="J60" s="56"/>
@@ -10391,11 +10573,15 @@
       <c r="E61" s="3">
         <v>19</v>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
+      <c r="F61" s="3">
+        <v>95.57</v>
+      </c>
+      <c r="G61" s="3">
+        <v>77.42</v>
+      </c>
       <c r="H61" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.149999999999991</v>
       </c>
       <c r="I61" s="53"/>
       <c r="J61" s="56"/>
@@ -10405,11 +10591,15 @@
       <c r="E62" s="6">
         <v>20</v>
       </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
+      <c r="F62" s="6">
+        <v>95.84</v>
+      </c>
+      <c r="G62" s="6">
+        <v>78.349999999999994</v>
+      </c>
       <c r="H62" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.490000000000009</v>
       </c>
       <c r="I62" s="54"/>
       <c r="J62" s="57"/>
@@ -15382,8 +15572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7711C3A-5153-46B1-ADD9-E0A1899966C0}">
   <dimension ref="G2:AA22"/>
   <sheetViews>
-    <sheetView topLeftCell="F6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z33"/>
+    <sheetView topLeftCell="F30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15462,10 +15652,13 @@
         <v>-9.3500000000000014</v>
       </c>
       <c r="I3" s="9">
-        <f>'Model logs'!H22</f>
-        <v>22.739999999999995</v>
-      </c>
-      <c r="J3" s="9"/>
+        <f>'Model logs'!H23</f>
+        <v>-3.1199999999999974</v>
+      </c>
+      <c r="J3" s="9">
+        <f>'Model logs'!H43</f>
+        <v>-8.240000000000002</v>
+      </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
@@ -15493,10 +15686,13 @@
         <v>0.31000000000000227</v>
       </c>
       <c r="I4" s="9">
-        <f>'Model logs'!H23</f>
-        <v>-3.1199999999999974</v>
-      </c>
-      <c r="J4" s="9"/>
+        <f>'Model logs'!H24</f>
+        <v>-0.37999999999999545</v>
+      </c>
+      <c r="J4" s="9">
+        <f>'Model logs'!H44</f>
+        <v>-1.7900000000000063</v>
+      </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -15524,10 +15720,13 @@
         <v>0.75</v>
       </c>
       <c r="I5" s="9">
-        <f>'Model logs'!H24</f>
-        <v>-0.37999999999999545</v>
-      </c>
-      <c r="J5" s="9"/>
+        <f>'Model logs'!H25</f>
+        <v>4.3599999999999994</v>
+      </c>
+      <c r="J5" s="9">
+        <f>'Model logs'!H45</f>
+        <v>0.1600000000000108</v>
+      </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -15555,10 +15754,13 @@
         <v>5.8499999999999943</v>
       </c>
       <c r="I6" s="9">
-        <f>'Model logs'!H25</f>
-        <v>4.3599999999999994</v>
-      </c>
-      <c r="J6" s="9"/>
+        <f>'Model logs'!H26</f>
+        <v>2.3700000000000045</v>
+      </c>
+      <c r="J6" s="9">
+        <f>'Model logs'!H46</f>
+        <v>3.6999999999999886</v>
+      </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -15586,10 +15788,13 @@
         <v>4.1700000000000017</v>
       </c>
       <c r="I7" s="9">
-        <f>'Model logs'!H26</f>
-        <v>2.3700000000000045</v>
-      </c>
-      <c r="J7" s="9"/>
+        <f>'Model logs'!H27</f>
+        <v>4.9000000000000057</v>
+      </c>
+      <c r="J7" s="9">
+        <f>'Model logs'!H47</f>
+        <v>5.2600000000000051</v>
+      </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -15617,10 +15822,13 @@
         <v>9.6000000000000085</v>
       </c>
       <c r="I8" s="9">
-        <f>'Model logs'!H27</f>
-        <v>4.9000000000000057</v>
-      </c>
-      <c r="J8" s="9"/>
+        <f>'Model logs'!H28</f>
+        <v>5.5999999999999943</v>
+      </c>
+      <c r="J8" s="9">
+        <f>'Model logs'!H48</f>
+        <v>6.0899999999999892</v>
+      </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
@@ -15648,10 +15856,13 @@
         <v>11.460000000000008</v>
       </c>
       <c r="I9" s="9">
-        <f>'Model logs'!H28</f>
-        <v>5.5999999999999943</v>
-      </c>
-      <c r="J9" s="9"/>
+        <f>'Model logs'!H29</f>
+        <v>8.0700000000000074</v>
+      </c>
+      <c r="J9" s="9">
+        <f>'Model logs'!H49</f>
+        <v>8.1500000000000057</v>
+      </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -15679,10 +15890,13 @@
         <v>8.4500000000000028</v>
       </c>
       <c r="I10" s="9">
-        <f>'Model logs'!H29</f>
-        <v>8.0700000000000074</v>
-      </c>
-      <c r="J10" s="9"/>
+        <f>'Model logs'!H30</f>
+        <v>11.219999999999999</v>
+      </c>
+      <c r="J10" s="9">
+        <f>'Model logs'!H50</f>
+        <v>12.969999999999999</v>
+      </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
@@ -15710,10 +15924,13 @@
         <v>10.699999999999989</v>
       </c>
       <c r="I11" s="9">
-        <f>'Model logs'!H30</f>
-        <v>11.219999999999999</v>
-      </c>
-      <c r="J11" s="9"/>
+        <f>'Model logs'!H31</f>
+        <v>8.8100000000000023</v>
+      </c>
+      <c r="J11" s="9">
+        <f>'Model logs'!H51</f>
+        <v>10.210000000000008</v>
+      </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -15741,10 +15958,13 @@
         <v>14.829999999999998</v>
       </c>
       <c r="I12" s="9">
-        <f>'Model logs'!H31</f>
-        <v>8.8100000000000023</v>
-      </c>
-      <c r="J12" s="9"/>
+        <f>'Model logs'!H32</f>
+        <v>9.0799999999999983</v>
+      </c>
+      <c r="J12" s="9">
+        <f>'Model logs'!H52</f>
+        <v>11.550000000000011</v>
+      </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
@@ -15772,10 +15992,13 @@
         <v>15.13000000000001</v>
       </c>
       <c r="I13" s="9">
-        <f>'Model logs'!H32</f>
-        <v>9.0799999999999983</v>
-      </c>
-      <c r="J13" s="9"/>
+        <f>'Model logs'!H33</f>
+        <v>12.290000000000006</v>
+      </c>
+      <c r="J13" s="9">
+        <f>'Model logs'!H53</f>
+        <v>10.900000000000006</v>
+      </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
@@ -15803,10 +16026,13 @@
         <v>16.53</v>
       </c>
       <c r="I14" s="9">
-        <f>'Model logs'!H33</f>
-        <v>12.290000000000006</v>
-      </c>
-      <c r="J14" s="9"/>
+        <f>'Model logs'!H34</f>
+        <v>10.769999999999996</v>
+      </c>
+      <c r="J14" s="9">
+        <f>'Model logs'!H54</f>
+        <v>13.090000000000003</v>
+      </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
@@ -15834,10 +16060,13 @@
         <v>16.86</v>
       </c>
       <c r="I15" s="9">
-        <f>'Model logs'!H34</f>
-        <v>10.769999999999996</v>
-      </c>
-      <c r="J15" s="9"/>
+        <f>'Model logs'!H35</f>
+        <v>12.519999999999996</v>
+      </c>
+      <c r="J15" s="9">
+        <f>'Model logs'!H55</f>
+        <v>13.409999999999997</v>
+      </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
@@ -15865,10 +16094,13 @@
         <v>17.239999999999995</v>
       </c>
       <c r="I16" s="9">
-        <f>'Model logs'!H35</f>
-        <v>12.519999999999996</v>
-      </c>
-      <c r="J16" s="9"/>
+        <f>'Model logs'!H36</f>
+        <v>15.77000000000001</v>
+      </c>
+      <c r="J16" s="9">
+        <f>'Model logs'!H56</f>
+        <v>14.599999999999994</v>
+      </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -15896,10 +16128,13 @@
         <v>17.650000000000006</v>
       </c>
       <c r="I17" s="9">
-        <f>'Model logs'!H36</f>
-        <v>15.77000000000001</v>
-      </c>
-      <c r="J17" s="9"/>
+        <f>'Model logs'!H37</f>
+        <v>17.47999999999999</v>
+      </c>
+      <c r="J17" s="9">
+        <f>'Model logs'!H57</f>
+        <v>16.25</v>
+      </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
@@ -15927,10 +16162,13 @@
         <v>18.89</v>
       </c>
       <c r="I18" s="9">
-        <f>'Model logs'!H37</f>
-        <v>17.47999999999999</v>
-      </c>
-      <c r="J18" s="9"/>
+        <f>'Model logs'!H38</f>
+        <v>15.490000000000009</v>
+      </c>
+      <c r="J18" s="9">
+        <f>'Model logs'!H58</f>
+        <v>17.13000000000001</v>
+      </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
@@ -15958,10 +16196,13 @@
         <v>20.180000000000007</v>
       </c>
       <c r="I19" s="9">
-        <f>'Model logs'!H38</f>
-        <v>15.490000000000009</v>
-      </c>
-      <c r="J19" s="9"/>
+        <f>'Model logs'!H39</f>
+        <v>14.97999999999999</v>
+      </c>
+      <c r="J19" s="9">
+        <f>'Model logs'!H59</f>
+        <v>17.689999999999998</v>
+      </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -15989,10 +16230,13 @@
         <v>22.090000000000003</v>
       </c>
       <c r="I20" s="9">
-        <f>'Model logs'!H39</f>
-        <v>14.97999999999999</v>
-      </c>
-      <c r="J20" s="9"/>
+        <f>'Model logs'!H40</f>
+        <v>15.63000000000001</v>
+      </c>
+      <c r="J20" s="9">
+        <f>'Model logs'!H60</f>
+        <v>16.629999999999995</v>
+      </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
@@ -16020,10 +16264,13 @@
         <v>25.549999999999997</v>
       </c>
       <c r="I21" s="9">
-        <f>'Model logs'!H40</f>
-        <v>15.63000000000001</v>
-      </c>
-      <c r="J21" s="9"/>
+        <f>'Model logs'!H41</f>
+        <v>16.47</v>
+      </c>
+      <c r="J21" s="9">
+        <f>'Model logs'!H61</f>
+        <v>18.149999999999991</v>
+      </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
@@ -16051,10 +16298,13 @@
         <v>22.739999999999995</v>
       </c>
       <c r="I22" s="9">
-        <f>'Model logs'!H41</f>
-        <v>16.47</v>
-      </c>
-      <c r="J22" s="9"/>
+        <f>'Model logs'!H42</f>
+        <v>15.840000000000003</v>
+      </c>
+      <c r="J22" s="9">
+        <f>'Model logs'!H62</f>
+        <v>17.490000000000009</v>
+      </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>

--- a/Model.xlsx
+++ b/Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aditya.Tiwari\Documents\Product Management\Begin AI\TSAI\Repositories\Session 8 assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93D10D2-FC2E-4DE0-934D-FA541D3E90D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191EB590-18CA-4C0A-AD43-D067B7CD5AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Model architecture" sheetId="6" r:id="rId1"/>
     <sheet name="Model logs" sheetId="4" r:id="rId2"/>
     <sheet name="Model Comparisons" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Date" comment="{&quot;SkabelonDesign&quot;:{&quot;type&quot;:&quot;Text&quot;,&quot;binding&quot;:&quot;Doc.Prop.Date&quot;}}">#REF!</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="194">
   <si>
     <t>Epoch</t>
   </si>
@@ -329,6 +330,415 @@
     <t>Reduced training batch size from 1024 to 128. Good boost in test accuracy seen. Reducing further to 64 seemed to have no benefit in accuracy while also running slower.</t>
   </si>
   <si>
+    <t>Conv 3 (depth)</t>
+  </si>
+  <si>
+    <t>Conv 3 (1x1)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Changed block 2 to be depthwise separable, hoping that the "dense" outputs deal better with textures and patterns. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Analysis - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Drop in test accuracy, likely coming from reduced no. of params. Delta behaviour is practically the same, although slightly worse when exactly compared. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>----------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Layer (type)               Output Shape         Param #</t>
+  </si>
+  <si>
+    <t>================================================================</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Conv2d-1           [-1, 32, 32, 32]             864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       BatchNorm2d-2           [-1, 32, 32, 32]              64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              ReLU-3           [-1, 32, 32, 32]               0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Conv2d-4           [-1, 64, 32, 32]          18,432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       BatchNorm2d-5           [-1, 64, 32, 32]             128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              ReLU-6           [-1, 64, 32, 32]               0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Conv2d-7           [-1, 64, 16, 16]          16,384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       BatchNorm2d-8           [-1, 64, 16, 16]             128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              ReLU-9           [-1, 64, 16, 16]               0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Conv2d-10           [-1, 32, 16, 16]           2,048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      BatchNorm2d-11           [-1, 32, 16, 16]              64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReLU-12           [-1, 32, 16, 16]               0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Conv2d-13           [-1, 32, 16, 16]             288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      BatchNorm2d-14           [-1, 32, 16, 16]              64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReLU-15           [-1, 32, 16, 16]               0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Conv2d-16           [-1, 64, 16, 16]           2,048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      BatchNorm2d-17           [-1, 64, 16, 16]             128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReLU-18           [-1, 64, 16, 16]               0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Conv2d-19             [-1, 64, 8, 8]          16,384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      BatchNorm2d-20             [-1, 64, 8, 8]             128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReLU-21             [-1, 64, 8, 8]               0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Conv2d-22             [-1, 32, 8, 8]           2,048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      BatchNorm2d-23             [-1, 32, 8, 8]              64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReLU-24             [-1, 32, 8, 8]               0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Conv2d-25             [-1, 64, 6, 6]          18,432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      BatchNorm2d-26             [-1, 64, 6, 6]             128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReLU-27             [-1, 64, 6, 6]               0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Conv2d-28             [-1, 64, 6, 6]          36,864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      BatchNorm2d-29             [-1, 64, 6, 6]             128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReLU-30             [-1, 64, 6, 6]               0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Conv2d-31             [-1, 64, 3, 3]          16,384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      BatchNorm2d-32             [-1, 64, 3, 3]             128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReLU-33             [-1, 64, 3, 3]               0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Conv2d-34             [-1, 32, 3, 3]           2,048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      BatchNorm2d-35             [-1, 32, 3, 3]              64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReLU-36             [-1, 32, 3, 3]               0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Conv2d-37             [-1, 64, 3, 3]          18,432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      BatchNorm2d-38             [-1, 64, 3, 3]             128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReLU-39             [-1, 64, 3, 3]               0</t>
+  </si>
+  <si>
+    <t>AdaptiveAvgPool2d-40             [-1, 64, 1, 1]               0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Conv2d-41             [-1, 10, 1, 1]             640</t>
+  </si>
+  <si>
+    <t>Total params: 152,640</t>
+  </si>
+  <si>
+    <t>Trainable params: 152,640</t>
+  </si>
+  <si>
+    <t>Non-trainable params: 0</t>
+  </si>
+  <si>
+    <t>Input size (MB): 0.01</t>
+  </si>
+  <si>
+    <t>Forward/backward pass size (MB): 3.65</t>
+  </si>
+  <si>
+    <t>Params size (MB): 0.58</t>
+  </si>
+  <si>
+    <t>Estimated Total Size (MB): 4.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Conv2d-7          [-1, 128, 32, 32]          73,728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       BatchNorm2d-8          [-1, 128, 32, 32]             256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              ReLU-9          [-1, 128, 32, 32]               0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Conv2d-10           [-1, 64, 16, 16]          32,768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      BatchNorm2d-11           [-1, 64, 16, 16]             128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReLU-12           [-1, 64, 16, 16]               0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Conv2d-13           [-1, 32, 16, 16]           2,048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Conv2d-16           [-1, 64, 16, 16]          18,432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Conv2d-19           [-1, 64, 16, 16]             576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      BatchNorm2d-20           [-1, 64, 16, 16]             128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReLU-21           [-1, 64, 16, 16]               0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Conv2d-22          [-1, 128, 16, 16]           8,192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      BatchNorm2d-23          [-1, 128, 16, 16]             256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReLU-24          [-1, 128, 16, 16]               0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Conv2d-25             [-1, 64, 8, 8]          32,768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      BatchNorm2d-26             [-1, 64, 8, 8]             128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReLU-27             [-1, 64, 8, 8]               0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Conv2d-28             [-1, 32, 8, 8]           2,048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      BatchNorm2d-29             [-1, 32, 8, 8]              64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReLU-30             [-1, 32, 8, 8]               0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Conv2d-31             [-1, 64, 6, 6]          18,432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      BatchNorm2d-32             [-1, 64, 6, 6]             128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReLU-33             [-1, 64, 6, 6]               0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Conv2d-34             [-1, 64, 6, 6]          36,864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      BatchNorm2d-35             [-1, 64, 6, 6]             128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReLU-36             [-1, 64, 6, 6]               0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Conv2d-37             [-1, 64, 3, 3]          16,384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Conv2d-40             [-1, 32, 3, 3]           2,048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      BatchNorm2d-41             [-1, 32, 3, 3]              64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReLU-42             [-1, 32, 3, 3]               0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Conv2d-43             [-1, 64, 3, 3]          18,432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      BatchNorm2d-44             [-1, 64, 3, 3]             128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReLU-45             [-1, 64, 3, 3]               0</t>
+  </si>
+  <si>
+    <t>AdaptiveAvgPool2d-46             [-1, 64, 1, 1]               0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Conv2d-47             [-1, 10, 1, 1]             640</t>
+  </si>
+  <si>
+    <t>Total params: 284,576</t>
+  </si>
+  <si>
+    <t>Trainable params: 284,576</t>
+  </si>
+  <si>
+    <t>Forward/backward pass size (MB): 7.59</t>
+  </si>
+  <si>
+    <t>Params size (MB): 1.09</t>
+  </si>
+  <si>
+    <t>Estimated Total Size (MB): 8.69</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Added just some more depth to the depthwise block, increasing number of output channels of the block to 128. Maybe helps in segregating textures and patterns better? After all, we removed some params from the second block when we added depthwise, maybe targetting to boost params there would help the test accuracy? No. of params within limit. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Analysis - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exactly the same results as model 7 - both accuracy wise and delta wise. So no point adding these extra params, better save space for later. Model 7 is better.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Added more depth to first two blocks with more channels. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Analysis - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Not a meaningful gain in accuracy for adding 130k more params. Total now at 280k params, exceeding the limit. Model 7 was better.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -365,7 +775,43 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Practically no improvement in training and test accuracy. Delta for model 5 was a bit tighter, but models are similar overall in this context.</t>
+      <t>Slight improvement in both training and test accuracy, seems the dilation layer helped a bit. Delta for model 5 was a bit tighter, but models are similar overall in this context.</t>
+    </r>
+  </si>
+  <si>
+    <t>Same as Model 7</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Back to Model 7, apply augmentations. Start with Horizontal flip. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Analysis - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Significant improvements in test accuracy. Training accuracy dropped, probably because data is harder to learn from. Overall delta is much tighter. Best model so far. </t>
     </r>
   </si>
 </sst>
@@ -373,7 +819,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +876,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -439,7 +898,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -657,6 +1116,19 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -989,6 +1461,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1001,7 +1497,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1026,17 +1522,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1045,40 +1538,43 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1087,37 +1583,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1126,14 +1622,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1141,31 +1634,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1183,7 +1679,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1292,324 +1806,6 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Model Comparisons'!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Model 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Model Comparisons'!$G$7:$G$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Model Comparisons'!$I$7:$I$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>4.9000000000000057</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.5999999999999943</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0700000000000074</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.219999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.8100000000000023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.0799999999999983</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.290000000000006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.769999999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.519999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15.77000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17.47999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.490000000000009</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14.97999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15.63000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16.47</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.840000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5168-4045-BDD9-686458049E54}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Model Comparisons'!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Model 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Model Comparisons'!$G$7:$G$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Model Comparisons'!$J$7:$J$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>5.2600000000000051</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0899999999999892</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.1500000000000057</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.969999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.210000000000008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.550000000000011</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13.090000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16.25</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17.13000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17.689999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.629999999999995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18.149999999999991</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17.490000000000009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5168-4045-BDD9-686458049E54}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
@@ -1710,6 +1906,54 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4.9899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5699999999999932</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4099999999999966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9099999999999966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.679999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.38000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.759999999999991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1717,6 +1961,171 @@
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5168-4045-BDD9-686458049E54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model Comparisons'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model Comparisons'!$G$7:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model Comparisons'!$N$7:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.7399999999999949</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8999999999999915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2900000000000063</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.539999999999992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8299999999999983</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4200000000000017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1899999999999977</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.4399999999999977</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.3799999999999955</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.6299999999999955</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.1499999999999915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5168-4045-BDD9-686458049E54}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1913,6 +2322,364 @@
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$I$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Model 5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$G$7:$G$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$I$7:$I$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>4.9000000000000057</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.5999999999999943</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.0700000000000074</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>11.219999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.8100000000000023</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>9.0799999999999983</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12.290000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10.769999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>12.519999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>15.77000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>17.47999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>15.490000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>14.97999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>15.63000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>16.47</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15.840000000000003</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-5168-4045-BDD9-686458049E54}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$J$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Model 6</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$G$7:$G$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$J$7:$J$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>5.2600000000000051</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.0899999999999892</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.1500000000000057</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>12.969999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10.210000000000008</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>11.550000000000011</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10.900000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>13.090000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>13.409999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>14.599999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>16.25</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>17.13000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>17.689999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>16.629999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>18.149999999999991</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>17.490000000000009</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-5168-4045-BDD9-686458049E54}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
                 <c:idx val="4"/>
                 <c:order val="4"/>
                 <c:tx>
@@ -2031,6 +2798,54 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>4.019999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.8500000000000085</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.7400000000000091</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.4499999999999886</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9.9000000000000057</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10.840000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12.099999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>13.039999999999992</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>15.010000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>14.299999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>16.239999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16.02000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>17.11999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>16.829999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>17.03</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>17.739999999999995</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2162,6 +2977,54 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>6.3900000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.6899999999999977</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.7600000000000051</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.289999999999992</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10.240000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>12.489999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>13.11</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>13.699999999999989</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>15.61</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>15.629999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>16.420000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>17.090000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>17.519999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>17.990000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>18.88000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>20.050000000000011</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2169,143 +3032,6 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-5168-4045-BDD9-686458049E54}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$N$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Model 10</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$G$7:$G$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                      <c:pt idx="0">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>20</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$N$7:$N$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="1"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-5168-4045-BDD9-686458049E54}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2436,6 +3162,54 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -5307,11 +6081,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5155A9C0-960B-43B5-AA06-FF471900653F}">
-  <dimension ref="C4:S76"/>
+  <dimension ref="C4:S121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S77" sqref="S77"/>
+      <pane ySplit="5" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8644,11 +9418,11 @@
         <v>1</v>
       </c>
       <c r="O64" s="4">
-        <f t="shared" ref="O64:O76" si="64">FLOOR(((H64+(2*M64)-F64)/L64)+1,1)</f>
+        <f t="shared" ref="O64:O65" si="64">FLOOR(((H64+(2*M64)-F64)/L64)+1,1)</f>
         <v>32</v>
       </c>
       <c r="P64" s="4">
-        <f t="shared" ref="P64:P76" si="65">G64</f>
+        <f t="shared" ref="P64:P65" si="65">G64</f>
         <v>32</v>
       </c>
       <c r="Q64" s="4">
@@ -8656,11 +9430,11 @@
         <v>3</v>
       </c>
       <c r="R64" s="19">
-        <f t="shared" ref="R64:R75" si="66">K64*L64</f>
+        <f t="shared" ref="R64:R65" si="66">K64*L64</f>
         <v>1</v>
       </c>
       <c r="S64" s="46" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="3:19" x14ac:dyDescent="0.2">
@@ -8678,19 +9452,19 @@
         <v>64</v>
       </c>
       <c r="H65" s="3">
-        <f t="shared" ref="H65:H76" si="67">O64</f>
+        <f t="shared" ref="H65" si="67">O64</f>
         <v>32</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" ref="I65:I76" si="68">P64</f>
+        <f t="shared" ref="I65" si="68">P64</f>
         <v>32</v>
       </c>
       <c r="J65" s="3">
-        <f t="shared" ref="J65:J76" si="69">Q64</f>
+        <f t="shared" ref="J65" si="69">Q64</f>
         <v>3</v>
       </c>
       <c r="K65" s="3">
-        <f t="shared" ref="K65:K76" si="70">R64</f>
+        <f t="shared" ref="K65" si="70">R64</f>
         <v>1</v>
       </c>
       <c r="L65" s="3">
@@ -8711,7 +9485,7 @@
         <v>64</v>
       </c>
       <c r="Q65" s="10">
-        <f t="shared" ref="Q65:Q75" si="71">J65+(F65-1)*K65*N65</f>
+        <f t="shared" ref="Q65" si="71">J65+(F65-1)*K65*N65</f>
         <v>5</v>
       </c>
       <c r="R65" s="5">
@@ -8760,19 +9534,19 @@
         <v>1</v>
       </c>
       <c r="O66" s="3">
-        <f t="shared" ref="O66:O76" si="76">FLOOR(((H66+(2*M66)-F66)/L66)+1,1)</f>
+        <f t="shared" ref="O66:O78" si="76">FLOOR(((H66+(2*M66)-F66)/L66)+1,1)</f>
         <v>16</v>
       </c>
       <c r="P66" s="3">
-        <f t="shared" ref="P66:P76" si="77">G66</f>
+        <f t="shared" ref="P66:P78" si="77">G66</f>
         <v>64</v>
       </c>
       <c r="Q66" s="10">
-        <f t="shared" ref="Q66:Q76" si="78">J66+(F66-1)*K66*N66</f>
+        <f t="shared" ref="Q66:Q75" si="78">J66+(F66-1)*K66*N66</f>
         <v>6</v>
       </c>
       <c r="R66" s="5">
-        <f t="shared" ref="R66:R76" si="79">K66*L66</f>
+        <f t="shared" ref="R66:R78" si="79">K66*L66</f>
         <v>2</v>
       </c>
       <c r="S66" s="47"/>
@@ -9339,8 +10113,2530 @@
       </c>
       <c r="S76" s="48"/>
     </row>
+    <row r="77" spans="3:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="C77" s="34">
+        <v>7</v>
+      </c>
+      <c r="D77" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="4">
+        <v>3</v>
+      </c>
+      <c r="G77" s="4">
+        <v>32</v>
+      </c>
+      <c r="H77" s="11">
+        <v>32</v>
+      </c>
+      <c r="I77" s="4">
+        <v>3</v>
+      </c>
+      <c r="J77" s="4">
+        <v>1</v>
+      </c>
+      <c r="K77" s="4">
+        <v>1</v>
+      </c>
+      <c r="L77" s="4">
+        <v>1</v>
+      </c>
+      <c r="M77" s="4">
+        <v>1</v>
+      </c>
+      <c r="N77" s="4">
+        <v>1</v>
+      </c>
+      <c r="O77" s="4">
+        <f t="shared" si="76"/>
+        <v>32</v>
+      </c>
+      <c r="P77" s="4">
+        <f t="shared" si="77"/>
+        <v>32</v>
+      </c>
+      <c r="Q77" s="4">
+        <f>J77+(F77-1)*K77*N77</f>
+        <v>3</v>
+      </c>
+      <c r="R77" s="19">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="S77" s="46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C78" s="35"/>
+      <c r="D78" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" s="3">
+        <v>3</v>
+      </c>
+      <c r="G78" s="3">
+        <v>64</v>
+      </c>
+      <c r="H78" s="3">
+        <f t="shared" ref="H78" si="80">O77</f>
+        <v>32</v>
+      </c>
+      <c r="I78" s="3">
+        <f t="shared" ref="I78" si="81">P77</f>
+        <v>32</v>
+      </c>
+      <c r="J78" s="3">
+        <f t="shared" ref="J78" si="82">Q77</f>
+        <v>3</v>
+      </c>
+      <c r="K78" s="3">
+        <f t="shared" ref="K78" si="83">R77</f>
+        <v>1</v>
+      </c>
+      <c r="L78" s="3">
+        <v>1</v>
+      </c>
+      <c r="M78" s="3">
+        <v>1</v>
+      </c>
+      <c r="N78" s="3">
+        <v>1</v>
+      </c>
+      <c r="O78" s="3">
+        <f t="shared" si="76"/>
+        <v>32</v>
+      </c>
+      <c r="P78" s="3">
+        <f t="shared" si="77"/>
+        <v>64</v>
+      </c>
+      <c r="Q78" s="10">
+        <f t="shared" ref="Q78" si="84">J78+(F78-1)*K78*N78</f>
+        <v>5</v>
+      </c>
+      <c r="R78" s="5">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="S78" s="47"/>
+    </row>
+    <row r="79" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C79" s="35"/>
+      <c r="D79" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F79" s="3">
+        <v>2</v>
+      </c>
+      <c r="G79" s="3">
+        <v>64</v>
+      </c>
+      <c r="H79" s="3">
+        <f t="shared" ref="H79:H90" si="85">O78</f>
+        <v>32</v>
+      </c>
+      <c r="I79" s="3">
+        <f t="shared" ref="I79:I90" si="86">P78</f>
+        <v>64</v>
+      </c>
+      <c r="J79" s="3">
+        <f t="shared" ref="J79:J90" si="87">Q78</f>
+        <v>5</v>
+      </c>
+      <c r="K79" s="3">
+        <f t="shared" ref="K79:K90" si="88">R78</f>
+        <v>1</v>
+      </c>
+      <c r="L79" s="3">
+        <v>2</v>
+      </c>
+      <c r="M79" s="3">
+        <v>0</v>
+      </c>
+      <c r="N79" s="3">
+        <v>1</v>
+      </c>
+      <c r="O79" s="3">
+        <f t="shared" ref="O79:O92" si="89">FLOOR(((H79+(2*M79)-F79)/L79)+1,1)</f>
+        <v>16</v>
+      </c>
+      <c r="P79" s="3">
+        <f t="shared" ref="P79:P92" si="90">G79</f>
+        <v>64</v>
+      </c>
+      <c r="Q79" s="10">
+        <f t="shared" ref="Q79:Q89" si="91">J79+(F79-1)*K79*N79</f>
+        <v>6</v>
+      </c>
+      <c r="R79" s="5">
+        <f t="shared" ref="R79:R92" si="92">K79*L79</f>
+        <v>2</v>
+      </c>
+      <c r="S79" s="47"/>
+    </row>
+    <row r="80" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C80" s="35"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1</v>
+      </c>
+      <c r="G80" s="3">
+        <v>32</v>
+      </c>
+      <c r="H80" s="3">
+        <f t="shared" si="85"/>
+        <v>16</v>
+      </c>
+      <c r="I80" s="3">
+        <f t="shared" si="86"/>
+        <v>64</v>
+      </c>
+      <c r="J80" s="3">
+        <f t="shared" si="87"/>
+        <v>6</v>
+      </c>
+      <c r="K80" s="3">
+        <f t="shared" si="88"/>
+        <v>2</v>
+      </c>
+      <c r="L80" s="3">
+        <v>1</v>
+      </c>
+      <c r="M80" s="3">
+        <v>0</v>
+      </c>
+      <c r="N80" s="3">
+        <v>1</v>
+      </c>
+      <c r="O80" s="3">
+        <f t="shared" si="89"/>
+        <v>16</v>
+      </c>
+      <c r="P80" s="3">
+        <f t="shared" si="90"/>
+        <v>32</v>
+      </c>
+      <c r="Q80" s="10">
+        <f t="shared" si="91"/>
+        <v>6</v>
+      </c>
+      <c r="R80" s="5">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="S80" s="47"/>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C81" s="35"/>
+      <c r="D81" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F81" s="3">
+        <v>3</v>
+      </c>
+      <c r="G81" s="3">
+        <v>32</v>
+      </c>
+      <c r="H81" s="3">
+        <f t="shared" si="85"/>
+        <v>16</v>
+      </c>
+      <c r="I81" s="3">
+        <f t="shared" si="86"/>
+        <v>32</v>
+      </c>
+      <c r="J81" s="3">
+        <f t="shared" si="87"/>
+        <v>6</v>
+      </c>
+      <c r="K81" s="3">
+        <f t="shared" si="88"/>
+        <v>2</v>
+      </c>
+      <c r="L81" s="3">
+        <v>1</v>
+      </c>
+      <c r="M81" s="3">
+        <v>1</v>
+      </c>
+      <c r="N81" s="3">
+        <v>1</v>
+      </c>
+      <c r="O81" s="3">
+        <f t="shared" si="89"/>
+        <v>16</v>
+      </c>
+      <c r="P81" s="3">
+        <f t="shared" si="90"/>
+        <v>32</v>
+      </c>
+      <c r="Q81" s="10">
+        <f t="shared" si="91"/>
+        <v>10</v>
+      </c>
+      <c r="R81" s="5">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="S81" s="47"/>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C82" s="35"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F82" s="3">
+        <v>1</v>
+      </c>
+      <c r="G82" s="3">
+        <v>64</v>
+      </c>
+      <c r="H82" s="3">
+        <f t="shared" si="85"/>
+        <v>16</v>
+      </c>
+      <c r="I82" s="3">
+        <f t="shared" si="86"/>
+        <v>32</v>
+      </c>
+      <c r="J82" s="3">
+        <f t="shared" si="87"/>
+        <v>10</v>
+      </c>
+      <c r="K82" s="3">
+        <f t="shared" si="88"/>
+        <v>2</v>
+      </c>
+      <c r="L82" s="3">
+        <v>1</v>
+      </c>
+      <c r="M82" s="3">
+        <v>1</v>
+      </c>
+      <c r="N82" s="3">
+        <v>1</v>
+      </c>
+      <c r="O82" s="3">
+        <f t="shared" si="89"/>
+        <v>18</v>
+      </c>
+      <c r="P82" s="3">
+        <f t="shared" si="90"/>
+        <v>64</v>
+      </c>
+      <c r="Q82" s="10">
+        <f t="shared" si="91"/>
+        <v>10</v>
+      </c>
+      <c r="R82" s="5">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="S82" s="47"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C83" s="35"/>
+      <c r="D83" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F83" s="3">
+        <v>2</v>
+      </c>
+      <c r="G83" s="3">
+        <v>64</v>
+      </c>
+      <c r="H83" s="3">
+        <f t="shared" si="85"/>
+        <v>18</v>
+      </c>
+      <c r="I83" s="3">
+        <f t="shared" si="86"/>
+        <v>64</v>
+      </c>
+      <c r="J83" s="3">
+        <f t="shared" si="87"/>
+        <v>10</v>
+      </c>
+      <c r="K83" s="3">
+        <f t="shared" si="88"/>
+        <v>2</v>
+      </c>
+      <c r="L83" s="3">
+        <v>2</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>1</v>
+      </c>
+      <c r="O83" s="3">
+        <f t="shared" si="89"/>
+        <v>9</v>
+      </c>
+      <c r="P83" s="3">
+        <f t="shared" si="90"/>
+        <v>64</v>
+      </c>
+      <c r="Q83" s="10">
+        <f t="shared" si="91"/>
+        <v>12</v>
+      </c>
+      <c r="R83" s="5">
+        <f t="shared" si="92"/>
+        <v>4</v>
+      </c>
+      <c r="S83" s="47"/>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C84" s="35"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F84" s="3">
+        <v>1</v>
+      </c>
+      <c r="G84" s="3">
+        <v>32</v>
+      </c>
+      <c r="H84" s="3">
+        <f t="shared" si="85"/>
+        <v>9</v>
+      </c>
+      <c r="I84" s="3">
+        <f t="shared" si="86"/>
+        <v>64</v>
+      </c>
+      <c r="J84" s="3">
+        <f t="shared" si="87"/>
+        <v>12</v>
+      </c>
+      <c r="K84" s="3">
+        <f t="shared" si="88"/>
+        <v>4</v>
+      </c>
+      <c r="L84" s="3">
+        <v>1</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>1</v>
+      </c>
+      <c r="O84" s="3">
+        <f t="shared" si="89"/>
+        <v>9</v>
+      </c>
+      <c r="P84" s="3">
+        <f t="shared" si="90"/>
+        <v>32</v>
+      </c>
+      <c r="Q84" s="10">
+        <f t="shared" si="91"/>
+        <v>12</v>
+      </c>
+      <c r="R84" s="5">
+        <f t="shared" si="92"/>
+        <v>4</v>
+      </c>
+      <c r="S84" s="47"/>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C85" s="35"/>
+      <c r="D85" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F85" s="3">
+        <v>3</v>
+      </c>
+      <c r="G85" s="3">
+        <v>64</v>
+      </c>
+      <c r="H85" s="3">
+        <f t="shared" si="85"/>
+        <v>9</v>
+      </c>
+      <c r="I85" s="3">
+        <f t="shared" si="86"/>
+        <v>32</v>
+      </c>
+      <c r="J85" s="3">
+        <f t="shared" si="87"/>
+        <v>12</v>
+      </c>
+      <c r="K85" s="3">
+        <f t="shared" si="88"/>
+        <v>4</v>
+      </c>
+      <c r="L85" s="3">
+        <v>1</v>
+      </c>
+      <c r="M85" s="3">
+        <v>1</v>
+      </c>
+      <c r="N85" s="3">
+        <v>2</v>
+      </c>
+      <c r="O85" s="3">
+        <f t="shared" si="89"/>
+        <v>9</v>
+      </c>
+      <c r="P85" s="3">
+        <f t="shared" si="90"/>
+        <v>64</v>
+      </c>
+      <c r="Q85" s="10">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="R85" s="5">
+        <f t="shared" si="92"/>
+        <v>4</v>
+      </c>
+      <c r="S85" s="47"/>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C86" s="35"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86" s="3">
+        <v>3</v>
+      </c>
+      <c r="G86" s="3">
+        <v>64</v>
+      </c>
+      <c r="H86" s="3">
+        <f t="shared" si="85"/>
+        <v>9</v>
+      </c>
+      <c r="I86" s="3">
+        <f t="shared" si="86"/>
+        <v>64</v>
+      </c>
+      <c r="J86" s="3">
+        <f t="shared" si="87"/>
+        <v>28</v>
+      </c>
+      <c r="K86" s="3">
+        <f t="shared" si="88"/>
+        <v>4</v>
+      </c>
+      <c r="L86" s="13">
+        <v>1</v>
+      </c>
+      <c r="M86" s="13">
+        <v>1</v>
+      </c>
+      <c r="N86" s="13">
+        <v>1</v>
+      </c>
+      <c r="O86" s="3">
+        <f t="shared" si="89"/>
+        <v>9</v>
+      </c>
+      <c r="P86" s="3">
+        <f t="shared" si="90"/>
+        <v>64</v>
+      </c>
+      <c r="Q86" s="10">
+        <f t="shared" si="91"/>
+        <v>36</v>
+      </c>
+      <c r="R86" s="5">
+        <f t="shared" si="92"/>
+        <v>4</v>
+      </c>
+      <c r="S86" s="47"/>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C87" s="35"/>
+      <c r="D87" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F87" s="3">
+        <v>2</v>
+      </c>
+      <c r="G87" s="3">
+        <v>64</v>
+      </c>
+      <c r="H87" s="3">
+        <f t="shared" si="85"/>
+        <v>9</v>
+      </c>
+      <c r="I87" s="3">
+        <f t="shared" si="86"/>
+        <v>64</v>
+      </c>
+      <c r="J87" s="3">
+        <f t="shared" si="87"/>
+        <v>36</v>
+      </c>
+      <c r="K87" s="3">
+        <f t="shared" si="88"/>
+        <v>4</v>
+      </c>
+      <c r="L87" s="13">
+        <v>2</v>
+      </c>
+      <c r="M87" s="13">
+        <v>0</v>
+      </c>
+      <c r="N87" s="13">
+        <v>1</v>
+      </c>
+      <c r="O87" s="3">
+        <f t="shared" si="89"/>
+        <v>4</v>
+      </c>
+      <c r="P87" s="3">
+        <f t="shared" si="90"/>
+        <v>64</v>
+      </c>
+      <c r="Q87" s="10">
+        <f t="shared" si="91"/>
+        <v>40</v>
+      </c>
+      <c r="R87" s="5">
+        <f t="shared" si="92"/>
+        <v>8</v>
+      </c>
+      <c r="S87" s="47"/>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C88" s="35"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3">
+        <v>32</v>
+      </c>
+      <c r="H88" s="3">
+        <f t="shared" si="85"/>
+        <v>4</v>
+      </c>
+      <c r="I88" s="3">
+        <f t="shared" si="86"/>
+        <v>64</v>
+      </c>
+      <c r="J88" s="3">
+        <f t="shared" si="87"/>
+        <v>40</v>
+      </c>
+      <c r="K88" s="3">
+        <f t="shared" si="88"/>
+        <v>8</v>
+      </c>
+      <c r="L88" s="13">
+        <v>1</v>
+      </c>
+      <c r="M88" s="13">
+        <v>0</v>
+      </c>
+      <c r="N88" s="13">
+        <v>1</v>
+      </c>
+      <c r="O88" s="3">
+        <f t="shared" si="89"/>
+        <v>4</v>
+      </c>
+      <c r="P88" s="3">
+        <f t="shared" si="90"/>
+        <v>32</v>
+      </c>
+      <c r="Q88" s="10">
+        <f t="shared" si="91"/>
+        <v>40</v>
+      </c>
+      <c r="R88" s="5">
+        <f t="shared" si="92"/>
+        <v>8</v>
+      </c>
+      <c r="S88" s="47"/>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C89" s="35"/>
+      <c r="D89" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" s="13">
+        <v>3</v>
+      </c>
+      <c r="G89" s="13">
+        <v>64</v>
+      </c>
+      <c r="H89" s="3">
+        <f t="shared" si="85"/>
+        <v>4</v>
+      </c>
+      <c r="I89" s="3">
+        <f t="shared" si="86"/>
+        <v>32</v>
+      </c>
+      <c r="J89" s="3">
+        <f t="shared" si="87"/>
+        <v>40</v>
+      </c>
+      <c r="K89" s="3">
+        <f t="shared" si="88"/>
+        <v>8</v>
+      </c>
+      <c r="L89" s="13">
+        <v>1</v>
+      </c>
+      <c r="M89" s="13">
+        <v>1</v>
+      </c>
+      <c r="N89" s="13">
+        <v>1</v>
+      </c>
+      <c r="O89" s="3">
+        <f t="shared" si="89"/>
+        <v>4</v>
+      </c>
+      <c r="P89" s="3">
+        <f t="shared" si="90"/>
+        <v>64</v>
+      </c>
+      <c r="Q89" s="10">
+        <f t="shared" si="91"/>
+        <v>56</v>
+      </c>
+      <c r="R89" s="5">
+        <f t="shared" si="92"/>
+        <v>8</v>
+      </c>
+      <c r="S89" s="47"/>
+    </row>
+    <row r="90" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C90" s="36"/>
+      <c r="D90" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F90" s="6">
+        <v>4</v>
+      </c>
+      <c r="G90" s="6">
+        <v>64</v>
+      </c>
+      <c r="H90" s="3">
+        <f t="shared" si="85"/>
+        <v>4</v>
+      </c>
+      <c r="I90" s="3">
+        <f t="shared" si="86"/>
+        <v>64</v>
+      </c>
+      <c r="J90" s="3">
+        <f t="shared" si="87"/>
+        <v>56</v>
+      </c>
+      <c r="K90" s="3">
+        <f t="shared" si="88"/>
+        <v>8</v>
+      </c>
+      <c r="L90" s="6">
+        <v>1</v>
+      </c>
+      <c r="M90" s="6">
+        <v>0</v>
+      </c>
+      <c r="N90" s="6">
+        <v>1</v>
+      </c>
+      <c r="O90" s="3">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="P90" s="3">
+        <f t="shared" si="90"/>
+        <v>64</v>
+      </c>
+      <c r="Q90" s="10">
+        <f>Q89</f>
+        <v>56</v>
+      </c>
+      <c r="R90" s="5">
+        <f t="shared" si="92"/>
+        <v>8</v>
+      </c>
+      <c r="S90" s="48"/>
+    </row>
+    <row r="91" spans="3:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="C91" s="34">
+        <v>8</v>
+      </c>
+      <c r="D91" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F91" s="4">
+        <v>3</v>
+      </c>
+      <c r="G91" s="4">
+        <v>32</v>
+      </c>
+      <c r="H91" s="11">
+        <v>32</v>
+      </c>
+      <c r="I91" s="4">
+        <v>3</v>
+      </c>
+      <c r="J91" s="4">
+        <v>1</v>
+      </c>
+      <c r="K91" s="4">
+        <v>1</v>
+      </c>
+      <c r="L91" s="4">
+        <v>1</v>
+      </c>
+      <c r="M91" s="4">
+        <v>1</v>
+      </c>
+      <c r="N91" s="4">
+        <v>1</v>
+      </c>
+      <c r="O91" s="4">
+        <f t="shared" si="89"/>
+        <v>32</v>
+      </c>
+      <c r="P91" s="4">
+        <f t="shared" si="90"/>
+        <v>32</v>
+      </c>
+      <c r="Q91" s="4">
+        <f>J91+(F91-1)*K91*N91</f>
+        <v>3</v>
+      </c>
+      <c r="R91" s="19">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="S91" s="46" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C92" s="35"/>
+      <c r="D92" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" s="3">
+        <v>3</v>
+      </c>
+      <c r="G92" s="3">
+        <v>64</v>
+      </c>
+      <c r="H92" s="3">
+        <f t="shared" ref="H92" si="93">O91</f>
+        <v>32</v>
+      </c>
+      <c r="I92" s="3">
+        <f t="shared" ref="I92" si="94">P91</f>
+        <v>32</v>
+      </c>
+      <c r="J92" s="3">
+        <f t="shared" ref="J92" si="95">Q91</f>
+        <v>3</v>
+      </c>
+      <c r="K92" s="3">
+        <f t="shared" ref="K92" si="96">R91</f>
+        <v>1</v>
+      </c>
+      <c r="L92" s="3">
+        <v>1</v>
+      </c>
+      <c r="M92" s="3">
+        <v>1</v>
+      </c>
+      <c r="N92" s="3">
+        <v>1</v>
+      </c>
+      <c r="O92" s="3">
+        <f t="shared" si="89"/>
+        <v>32</v>
+      </c>
+      <c r="P92" s="3">
+        <f t="shared" si="90"/>
+        <v>64</v>
+      </c>
+      <c r="Q92" s="10">
+        <f t="shared" ref="Q92" si="97">J92+(F92-1)*K92*N92</f>
+        <v>5</v>
+      </c>
+      <c r="R92" s="5">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="S92" s="47"/>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C93" s="35"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" s="3">
+        <v>3</v>
+      </c>
+      <c r="G93" s="3">
+        <v>128</v>
+      </c>
+      <c r="H93" s="3">
+        <f t="shared" ref="H93:H106" si="98">O92</f>
+        <v>32</v>
+      </c>
+      <c r="I93" s="3">
+        <f t="shared" ref="I93:I106" si="99">P92</f>
+        <v>64</v>
+      </c>
+      <c r="J93" s="3">
+        <f t="shared" ref="J93:J106" si="100">Q92</f>
+        <v>5</v>
+      </c>
+      <c r="K93" s="3">
+        <f t="shared" ref="K93:K106" si="101">R92</f>
+        <v>1</v>
+      </c>
+      <c r="L93" s="3">
+        <v>1</v>
+      </c>
+      <c r="M93" s="3">
+        <v>1</v>
+      </c>
+      <c r="N93" s="3">
+        <v>1</v>
+      </c>
+      <c r="O93" s="3">
+        <f t="shared" ref="O93:O108" si="102">FLOOR(((H93+(2*M93)-F93)/L93)+1,1)</f>
+        <v>32</v>
+      </c>
+      <c r="P93" s="3">
+        <f t="shared" ref="P93:P108" si="103">G93</f>
+        <v>128</v>
+      </c>
+      <c r="Q93" s="10">
+        <f t="shared" ref="Q93:Q105" si="104">J93+(F93-1)*K93*N93</f>
+        <v>7</v>
+      </c>
+      <c r="R93" s="5">
+        <f t="shared" ref="R93:R108" si="105">K93*L93</f>
+        <v>1</v>
+      </c>
+      <c r="S93" s="47"/>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C94" s="35"/>
+      <c r="D94" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F94" s="3">
+        <v>2</v>
+      </c>
+      <c r="G94" s="3">
+        <v>128</v>
+      </c>
+      <c r="H94" s="3">
+        <f t="shared" si="98"/>
+        <v>32</v>
+      </c>
+      <c r="I94" s="3">
+        <f t="shared" si="99"/>
+        <v>128</v>
+      </c>
+      <c r="J94" s="3">
+        <f t="shared" si="100"/>
+        <v>7</v>
+      </c>
+      <c r="K94" s="3">
+        <f t="shared" si="101"/>
+        <v>1</v>
+      </c>
+      <c r="L94" s="3">
+        <v>2</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>1</v>
+      </c>
+      <c r="O94" s="3">
+        <f t="shared" si="102"/>
+        <v>16</v>
+      </c>
+      <c r="P94" s="3">
+        <f t="shared" si="103"/>
+        <v>128</v>
+      </c>
+      <c r="Q94" s="10">
+        <f t="shared" si="104"/>
+        <v>8</v>
+      </c>
+      <c r="R94" s="5">
+        <f t="shared" si="105"/>
+        <v>2</v>
+      </c>
+      <c r="S94" s="47"/>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C95" s="35"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F95" s="3">
+        <v>1</v>
+      </c>
+      <c r="G95" s="3">
+        <v>64</v>
+      </c>
+      <c r="H95" s="3">
+        <f t="shared" si="98"/>
+        <v>16</v>
+      </c>
+      <c r="I95" s="3">
+        <f t="shared" si="99"/>
+        <v>128</v>
+      </c>
+      <c r="J95" s="3">
+        <f t="shared" si="100"/>
+        <v>8</v>
+      </c>
+      <c r="K95" s="3">
+        <f t="shared" si="101"/>
+        <v>2</v>
+      </c>
+      <c r="L95" s="3">
+        <v>1</v>
+      </c>
+      <c r="M95" s="3">
+        <v>0</v>
+      </c>
+      <c r="N95" s="3">
+        <v>1</v>
+      </c>
+      <c r="O95" s="3">
+        <f t="shared" si="102"/>
+        <v>16</v>
+      </c>
+      <c r="P95" s="3">
+        <f t="shared" si="103"/>
+        <v>64</v>
+      </c>
+      <c r="Q95" s="10">
+        <f t="shared" si="104"/>
+        <v>8</v>
+      </c>
+      <c r="R95" s="5">
+        <f t="shared" si="105"/>
+        <v>2</v>
+      </c>
+      <c r="S95" s="47"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C96" s="35"/>
+      <c r="D96" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" s="3">
+        <v>3</v>
+      </c>
+      <c r="G96" s="3">
+        <v>64</v>
+      </c>
+      <c r="H96" s="3">
+        <f t="shared" si="98"/>
+        <v>16</v>
+      </c>
+      <c r="I96" s="3">
+        <f t="shared" si="99"/>
+        <v>64</v>
+      </c>
+      <c r="J96" s="3">
+        <f t="shared" si="100"/>
+        <v>8</v>
+      </c>
+      <c r="K96" s="3">
+        <f t="shared" si="101"/>
+        <v>2</v>
+      </c>
+      <c r="L96" s="3">
+        <v>1</v>
+      </c>
+      <c r="M96" s="3">
+        <v>1</v>
+      </c>
+      <c r="N96" s="3">
+        <v>1</v>
+      </c>
+      <c r="O96" s="3">
+        <f t="shared" si="102"/>
+        <v>16</v>
+      </c>
+      <c r="P96" s="3">
+        <f t="shared" si="103"/>
+        <v>64</v>
+      </c>
+      <c r="Q96" s="10">
+        <f t="shared" si="104"/>
+        <v>12</v>
+      </c>
+      <c r="R96" s="5">
+        <f t="shared" si="105"/>
+        <v>2</v>
+      </c>
+      <c r="S96" s="47"/>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C97" s="35"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F97" s="3">
+        <v>3</v>
+      </c>
+      <c r="G97" s="3">
+        <v>64</v>
+      </c>
+      <c r="H97" s="3">
+        <f t="shared" si="98"/>
+        <v>16</v>
+      </c>
+      <c r="I97" s="3">
+        <f t="shared" si="99"/>
+        <v>64</v>
+      </c>
+      <c r="J97" s="3">
+        <f t="shared" si="100"/>
+        <v>12</v>
+      </c>
+      <c r="K97" s="3">
+        <f t="shared" si="101"/>
+        <v>2</v>
+      </c>
+      <c r="L97" s="3">
+        <v>1</v>
+      </c>
+      <c r="M97" s="3">
+        <v>1</v>
+      </c>
+      <c r="N97" s="3">
+        <v>1</v>
+      </c>
+      <c r="O97" s="3">
+        <f t="shared" si="102"/>
+        <v>16</v>
+      </c>
+      <c r="P97" s="3">
+        <f t="shared" si="103"/>
+        <v>64</v>
+      </c>
+      <c r="Q97" s="10">
+        <f t="shared" si="104"/>
+        <v>16</v>
+      </c>
+      <c r="R97" s="5">
+        <f t="shared" si="105"/>
+        <v>2</v>
+      </c>
+      <c r="S97" s="47"/>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C98" s="35"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F98" s="3">
+        <v>1</v>
+      </c>
+      <c r="G98" s="3">
+        <v>128</v>
+      </c>
+      <c r="H98" s="3">
+        <f t="shared" si="98"/>
+        <v>16</v>
+      </c>
+      <c r="I98" s="3">
+        <f t="shared" si="99"/>
+        <v>64</v>
+      </c>
+      <c r="J98" s="3">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="K98" s="3">
+        <f t="shared" si="101"/>
+        <v>2</v>
+      </c>
+      <c r="L98" s="3">
+        <v>1</v>
+      </c>
+      <c r="M98" s="3">
+        <v>1</v>
+      </c>
+      <c r="N98" s="3">
+        <v>1</v>
+      </c>
+      <c r="O98" s="3">
+        <f t="shared" si="102"/>
+        <v>18</v>
+      </c>
+      <c r="P98" s="3">
+        <f t="shared" si="103"/>
+        <v>128</v>
+      </c>
+      <c r="Q98" s="10">
+        <f t="shared" si="104"/>
+        <v>16</v>
+      </c>
+      <c r="R98" s="5">
+        <f t="shared" si="105"/>
+        <v>2</v>
+      </c>
+      <c r="S98" s="47"/>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C99" s="35"/>
+      <c r="D99" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F99" s="3">
+        <v>2</v>
+      </c>
+      <c r="G99" s="3">
+        <v>64</v>
+      </c>
+      <c r="H99" s="3">
+        <f t="shared" si="98"/>
+        <v>18</v>
+      </c>
+      <c r="I99" s="3">
+        <f t="shared" si="99"/>
+        <v>128</v>
+      </c>
+      <c r="J99" s="3">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="K99" s="3">
+        <f t="shared" si="101"/>
+        <v>2</v>
+      </c>
+      <c r="L99" s="3">
+        <v>2</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>1</v>
+      </c>
+      <c r="O99" s="3">
+        <f t="shared" si="102"/>
+        <v>9</v>
+      </c>
+      <c r="P99" s="3">
+        <f t="shared" si="103"/>
+        <v>64</v>
+      </c>
+      <c r="Q99" s="10">
+        <f t="shared" si="104"/>
+        <v>18</v>
+      </c>
+      <c r="R99" s="5">
+        <f t="shared" si="105"/>
+        <v>4</v>
+      </c>
+      <c r="S99" s="47"/>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C100" s="35"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1</v>
+      </c>
+      <c r="G100" s="3">
+        <v>32</v>
+      </c>
+      <c r="H100" s="3">
+        <f t="shared" si="98"/>
+        <v>9</v>
+      </c>
+      <c r="I100" s="3">
+        <f t="shared" si="99"/>
+        <v>64</v>
+      </c>
+      <c r="J100" s="3">
+        <f t="shared" si="100"/>
+        <v>18</v>
+      </c>
+      <c r="K100" s="3">
+        <f t="shared" si="101"/>
+        <v>4</v>
+      </c>
+      <c r="L100" s="3">
+        <v>1</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>1</v>
+      </c>
+      <c r="O100" s="3">
+        <f t="shared" si="102"/>
+        <v>9</v>
+      </c>
+      <c r="P100" s="3">
+        <f t="shared" si="103"/>
+        <v>32</v>
+      </c>
+      <c r="Q100" s="10">
+        <f t="shared" si="104"/>
+        <v>18</v>
+      </c>
+      <c r="R100" s="5">
+        <f t="shared" si="105"/>
+        <v>4</v>
+      </c>
+      <c r="S100" s="47"/>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C101" s="35"/>
+      <c r="D101" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F101" s="3">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3">
+        <v>64</v>
+      </c>
+      <c r="H101" s="3">
+        <f t="shared" si="98"/>
+        <v>9</v>
+      </c>
+      <c r="I101" s="3">
+        <f t="shared" si="99"/>
+        <v>32</v>
+      </c>
+      <c r="J101" s="3">
+        <f t="shared" si="100"/>
+        <v>18</v>
+      </c>
+      <c r="K101" s="3">
+        <f t="shared" si="101"/>
+        <v>4</v>
+      </c>
+      <c r="L101" s="3">
+        <v>1</v>
+      </c>
+      <c r="M101" s="3">
+        <v>1</v>
+      </c>
+      <c r="N101" s="3">
+        <v>2</v>
+      </c>
+      <c r="O101" s="3">
+        <f t="shared" si="102"/>
+        <v>9</v>
+      </c>
+      <c r="P101" s="3">
+        <f t="shared" si="103"/>
+        <v>64</v>
+      </c>
+      <c r="Q101" s="10">
+        <f t="shared" si="104"/>
+        <v>34</v>
+      </c>
+      <c r="R101" s="5">
+        <f t="shared" si="105"/>
+        <v>4</v>
+      </c>
+      <c r="S101" s="47"/>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C102" s="35"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F102" s="3">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3">
+        <v>64</v>
+      </c>
+      <c r="H102" s="3">
+        <f t="shared" si="98"/>
+        <v>9</v>
+      </c>
+      <c r="I102" s="3">
+        <f t="shared" si="99"/>
+        <v>64</v>
+      </c>
+      <c r="J102" s="3">
+        <f t="shared" si="100"/>
+        <v>34</v>
+      </c>
+      <c r="K102" s="3">
+        <f t="shared" si="101"/>
+        <v>4</v>
+      </c>
+      <c r="L102" s="13">
+        <v>1</v>
+      </c>
+      <c r="M102" s="13">
+        <v>1</v>
+      </c>
+      <c r="N102" s="13">
+        <v>1</v>
+      </c>
+      <c r="O102" s="3">
+        <f t="shared" si="102"/>
+        <v>9</v>
+      </c>
+      <c r="P102" s="3">
+        <f t="shared" si="103"/>
+        <v>64</v>
+      </c>
+      <c r="Q102" s="10">
+        <f t="shared" si="104"/>
+        <v>42</v>
+      </c>
+      <c r="R102" s="5">
+        <f t="shared" si="105"/>
+        <v>4</v>
+      </c>
+      <c r="S102" s="47"/>
+    </row>
+    <row r="103" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C103" s="35"/>
+      <c r="D103" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F103" s="3">
+        <v>2</v>
+      </c>
+      <c r="G103" s="3">
+        <v>64</v>
+      </c>
+      <c r="H103" s="3">
+        <f t="shared" si="98"/>
+        <v>9</v>
+      </c>
+      <c r="I103" s="3">
+        <f t="shared" si="99"/>
+        <v>64</v>
+      </c>
+      <c r="J103" s="3">
+        <f t="shared" si="100"/>
+        <v>42</v>
+      </c>
+      <c r="K103" s="3">
+        <f t="shared" si="101"/>
+        <v>4</v>
+      </c>
+      <c r="L103" s="13">
+        <v>2</v>
+      </c>
+      <c r="M103" s="13">
+        <v>0</v>
+      </c>
+      <c r="N103" s="13">
+        <v>1</v>
+      </c>
+      <c r="O103" s="3">
+        <f t="shared" si="102"/>
+        <v>4</v>
+      </c>
+      <c r="P103" s="3">
+        <f t="shared" si="103"/>
+        <v>64</v>
+      </c>
+      <c r="Q103" s="10">
+        <f t="shared" si="104"/>
+        <v>46</v>
+      </c>
+      <c r="R103" s="5">
+        <f t="shared" si="105"/>
+        <v>8</v>
+      </c>
+      <c r="S103" s="47"/>
+    </row>
+    <row r="104" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C104" s="35"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F104" s="3">
+        <v>1</v>
+      </c>
+      <c r="G104" s="3">
+        <v>32</v>
+      </c>
+      <c r="H104" s="3">
+        <f t="shared" si="98"/>
+        <v>4</v>
+      </c>
+      <c r="I104" s="3">
+        <f t="shared" si="99"/>
+        <v>64</v>
+      </c>
+      <c r="J104" s="3">
+        <f t="shared" si="100"/>
+        <v>46</v>
+      </c>
+      <c r="K104" s="3">
+        <f t="shared" si="101"/>
+        <v>8</v>
+      </c>
+      <c r="L104" s="13">
+        <v>1</v>
+      </c>
+      <c r="M104" s="13">
+        <v>0</v>
+      </c>
+      <c r="N104" s="13">
+        <v>1</v>
+      </c>
+      <c r="O104" s="3">
+        <f t="shared" si="102"/>
+        <v>4</v>
+      </c>
+      <c r="P104" s="3">
+        <f t="shared" si="103"/>
+        <v>32</v>
+      </c>
+      <c r="Q104" s="10">
+        <f t="shared" si="104"/>
+        <v>46</v>
+      </c>
+      <c r="R104" s="5">
+        <f t="shared" si="105"/>
+        <v>8</v>
+      </c>
+      <c r="S104" s="47"/>
+    </row>
+    <row r="105" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C105" s="35"/>
+      <c r="D105" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105" s="13">
+        <v>3</v>
+      </c>
+      <c r="G105" s="13">
+        <v>64</v>
+      </c>
+      <c r="H105" s="3">
+        <f t="shared" si="98"/>
+        <v>4</v>
+      </c>
+      <c r="I105" s="3">
+        <f t="shared" si="99"/>
+        <v>32</v>
+      </c>
+      <c r="J105" s="3">
+        <f t="shared" si="100"/>
+        <v>46</v>
+      </c>
+      <c r="K105" s="3">
+        <f t="shared" si="101"/>
+        <v>8</v>
+      </c>
+      <c r="L105" s="13">
+        <v>1</v>
+      </c>
+      <c r="M105" s="13">
+        <v>1</v>
+      </c>
+      <c r="N105" s="13">
+        <v>1</v>
+      </c>
+      <c r="O105" s="3">
+        <f t="shared" si="102"/>
+        <v>4</v>
+      </c>
+      <c r="P105" s="3">
+        <f t="shared" si="103"/>
+        <v>64</v>
+      </c>
+      <c r="Q105" s="10">
+        <f t="shared" si="104"/>
+        <v>62</v>
+      </c>
+      <c r="R105" s="5">
+        <f t="shared" si="105"/>
+        <v>8</v>
+      </c>
+      <c r="S105" s="47"/>
+    </row>
+    <row r="106" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C106" s="36"/>
+      <c r="D106" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" s="6">
+        <v>4</v>
+      </c>
+      <c r="G106" s="6">
+        <v>64</v>
+      </c>
+      <c r="H106" s="6">
+        <f t="shared" si="98"/>
+        <v>4</v>
+      </c>
+      <c r="I106" s="6">
+        <f t="shared" si="99"/>
+        <v>64</v>
+      </c>
+      <c r="J106" s="6">
+        <f t="shared" si="100"/>
+        <v>62</v>
+      </c>
+      <c r="K106" s="6">
+        <f t="shared" si="101"/>
+        <v>8</v>
+      </c>
+      <c r="L106" s="6">
+        <v>1</v>
+      </c>
+      <c r="M106" s="6">
+        <v>0</v>
+      </c>
+      <c r="N106" s="6">
+        <v>1</v>
+      </c>
+      <c r="O106" s="6">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+      <c r="P106" s="6">
+        <f t="shared" si="103"/>
+        <v>64</v>
+      </c>
+      <c r="Q106" s="41">
+        <f>Q105</f>
+        <v>62</v>
+      </c>
+      <c r="R106" s="7">
+        <f t="shared" si="105"/>
+        <v>8</v>
+      </c>
+      <c r="S106" s="48"/>
+    </row>
+    <row r="107" spans="3:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="C107" s="34">
+        <v>9</v>
+      </c>
+      <c r="D107" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F107" s="4">
+        <v>3</v>
+      </c>
+      <c r="G107" s="4">
+        <v>32</v>
+      </c>
+      <c r="H107" s="11">
+        <v>32</v>
+      </c>
+      <c r="I107" s="4">
+        <v>3</v>
+      </c>
+      <c r="J107" s="4">
+        <v>1</v>
+      </c>
+      <c r="K107" s="4">
+        <v>1</v>
+      </c>
+      <c r="L107" s="4">
+        <v>1</v>
+      </c>
+      <c r="M107" s="4">
+        <v>1</v>
+      </c>
+      <c r="N107" s="4">
+        <v>1</v>
+      </c>
+      <c r="O107" s="4">
+        <f t="shared" si="102"/>
+        <v>32</v>
+      </c>
+      <c r="P107" s="4">
+        <f t="shared" si="103"/>
+        <v>32</v>
+      </c>
+      <c r="Q107" s="4">
+        <f>J107+(F107-1)*K107*N107</f>
+        <v>3</v>
+      </c>
+      <c r="R107" s="19">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="S107" s="64" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="108" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C108" s="35"/>
+      <c r="D108" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" s="3">
+        <v>3</v>
+      </c>
+      <c r="G108" s="3">
+        <v>64</v>
+      </c>
+      <c r="H108" s="3">
+        <f t="shared" ref="H108:H120" si="106">O107</f>
+        <v>32</v>
+      </c>
+      <c r="I108" s="3">
+        <f t="shared" ref="I108:I120" si="107">P107</f>
+        <v>32</v>
+      </c>
+      <c r="J108" s="3">
+        <f t="shared" ref="J108:J120" si="108">Q107</f>
+        <v>3</v>
+      </c>
+      <c r="K108" s="3">
+        <f t="shared" ref="K108:K120" si="109">R107</f>
+        <v>1</v>
+      </c>
+      <c r="L108" s="3">
+        <v>1</v>
+      </c>
+      <c r="M108" s="3">
+        <v>1</v>
+      </c>
+      <c r="N108" s="3">
+        <v>1</v>
+      </c>
+      <c r="O108" s="3">
+        <f t="shared" si="102"/>
+        <v>32</v>
+      </c>
+      <c r="P108" s="3">
+        <f t="shared" si="103"/>
+        <v>64</v>
+      </c>
+      <c r="Q108" s="10">
+        <f t="shared" ref="Q108:Q119" si="110">J108+(F108-1)*K108*N108</f>
+        <v>5</v>
+      </c>
+      <c r="R108" s="5">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="S108" s="65"/>
+    </row>
+    <row r="109" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C109" s="35"/>
+      <c r="D109" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F109" s="3">
+        <v>2</v>
+      </c>
+      <c r="G109" s="3">
+        <v>64</v>
+      </c>
+      <c r="H109" s="3">
+        <f t="shared" ref="H109:H120" si="111">O108</f>
+        <v>32</v>
+      </c>
+      <c r="I109" s="3">
+        <f t="shared" ref="I109:I120" si="112">P108</f>
+        <v>64</v>
+      </c>
+      <c r="J109" s="3">
+        <f t="shared" ref="J109:J120" si="113">Q108</f>
+        <v>5</v>
+      </c>
+      <c r="K109" s="3">
+        <f t="shared" ref="K109:K120" si="114">R108</f>
+        <v>1</v>
+      </c>
+      <c r="L109" s="3">
+        <v>2</v>
+      </c>
+      <c r="M109" s="3">
+        <v>0</v>
+      </c>
+      <c r="N109" s="3">
+        <v>1</v>
+      </c>
+      <c r="O109" s="3">
+        <f t="shared" ref="O109:O134" si="115">FLOOR(((H109+(2*M109)-F109)/L109)+1,1)</f>
+        <v>16</v>
+      </c>
+      <c r="P109" s="3">
+        <f t="shared" ref="P109:P134" si="116">G109</f>
+        <v>64</v>
+      </c>
+      <c r="Q109" s="10">
+        <f t="shared" ref="Q109:Q120" si="117">J109+(F109-1)*K109*N109</f>
+        <v>6</v>
+      </c>
+      <c r="R109" s="5">
+        <f t="shared" ref="R109:R134" si="118">K109*L109</f>
+        <v>2</v>
+      </c>
+      <c r="S109" s="65"/>
+    </row>
+    <row r="110" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C110" s="35"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F110" s="3">
+        <v>1</v>
+      </c>
+      <c r="G110" s="3">
+        <v>32</v>
+      </c>
+      <c r="H110" s="3">
+        <f t="shared" si="111"/>
+        <v>16</v>
+      </c>
+      <c r="I110" s="3">
+        <f t="shared" si="112"/>
+        <v>64</v>
+      </c>
+      <c r="J110" s="3">
+        <f t="shared" si="113"/>
+        <v>6</v>
+      </c>
+      <c r="K110" s="3">
+        <f t="shared" si="114"/>
+        <v>2</v>
+      </c>
+      <c r="L110" s="3">
+        <v>1</v>
+      </c>
+      <c r="M110" s="3">
+        <v>0</v>
+      </c>
+      <c r="N110" s="3">
+        <v>1</v>
+      </c>
+      <c r="O110" s="3">
+        <f t="shared" si="115"/>
+        <v>16</v>
+      </c>
+      <c r="P110" s="3">
+        <f t="shared" si="116"/>
+        <v>32</v>
+      </c>
+      <c r="Q110" s="10">
+        <f t="shared" si="117"/>
+        <v>6</v>
+      </c>
+      <c r="R110" s="5">
+        <f t="shared" si="118"/>
+        <v>2</v>
+      </c>
+      <c r="S110" s="65"/>
+    </row>
+    <row r="111" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C111" s="35"/>
+      <c r="D111" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F111" s="3">
+        <v>3</v>
+      </c>
+      <c r="G111" s="3">
+        <v>64</v>
+      </c>
+      <c r="H111" s="3">
+        <f t="shared" si="111"/>
+        <v>16</v>
+      </c>
+      <c r="I111" s="3">
+        <f t="shared" si="112"/>
+        <v>32</v>
+      </c>
+      <c r="J111" s="3">
+        <f t="shared" si="113"/>
+        <v>6</v>
+      </c>
+      <c r="K111" s="3">
+        <f t="shared" si="114"/>
+        <v>2</v>
+      </c>
+      <c r="L111" s="3">
+        <v>1</v>
+      </c>
+      <c r="M111" s="3">
+        <v>1</v>
+      </c>
+      <c r="N111" s="3">
+        <v>1</v>
+      </c>
+      <c r="O111" s="3">
+        <f t="shared" si="115"/>
+        <v>16</v>
+      </c>
+      <c r="P111" s="3">
+        <f t="shared" si="116"/>
+        <v>64</v>
+      </c>
+      <c r="Q111" s="10">
+        <f t="shared" si="117"/>
+        <v>10</v>
+      </c>
+      <c r="R111" s="5">
+        <f t="shared" si="118"/>
+        <v>2</v>
+      </c>
+      <c r="S111" s="65"/>
+    </row>
+    <row r="112" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C112" s="35"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F112" s="3">
+        <v>1</v>
+      </c>
+      <c r="G112" s="3">
+        <v>128</v>
+      </c>
+      <c r="H112" s="3">
+        <f t="shared" si="111"/>
+        <v>16</v>
+      </c>
+      <c r="I112" s="3">
+        <f t="shared" si="112"/>
+        <v>64</v>
+      </c>
+      <c r="J112" s="3">
+        <f t="shared" si="113"/>
+        <v>10</v>
+      </c>
+      <c r="K112" s="3">
+        <f t="shared" si="114"/>
+        <v>2</v>
+      </c>
+      <c r="L112" s="3">
+        <v>1</v>
+      </c>
+      <c r="M112" s="3">
+        <v>1</v>
+      </c>
+      <c r="N112" s="3">
+        <v>1</v>
+      </c>
+      <c r="O112" s="3">
+        <f t="shared" si="115"/>
+        <v>18</v>
+      </c>
+      <c r="P112" s="3">
+        <f t="shared" si="116"/>
+        <v>128</v>
+      </c>
+      <c r="Q112" s="10">
+        <f t="shared" si="117"/>
+        <v>10</v>
+      </c>
+      <c r="R112" s="5">
+        <f t="shared" si="118"/>
+        <v>2</v>
+      </c>
+      <c r="S112" s="65"/>
+    </row>
+    <row r="113" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C113" s="35"/>
+      <c r="D113" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F113" s="3">
+        <v>2</v>
+      </c>
+      <c r="G113" s="3">
+        <v>64</v>
+      </c>
+      <c r="H113" s="3">
+        <f t="shared" si="111"/>
+        <v>18</v>
+      </c>
+      <c r="I113" s="3">
+        <f t="shared" si="112"/>
+        <v>128</v>
+      </c>
+      <c r="J113" s="3">
+        <f t="shared" si="113"/>
+        <v>10</v>
+      </c>
+      <c r="K113" s="3">
+        <f t="shared" si="114"/>
+        <v>2</v>
+      </c>
+      <c r="L113" s="3">
+        <v>2</v>
+      </c>
+      <c r="M113" s="3">
+        <v>0</v>
+      </c>
+      <c r="N113" s="3">
+        <v>1</v>
+      </c>
+      <c r="O113" s="3">
+        <f t="shared" si="115"/>
+        <v>9</v>
+      </c>
+      <c r="P113" s="3">
+        <f t="shared" si="116"/>
+        <v>64</v>
+      </c>
+      <c r="Q113" s="10">
+        <f t="shared" si="117"/>
+        <v>12</v>
+      </c>
+      <c r="R113" s="5">
+        <f t="shared" si="118"/>
+        <v>4</v>
+      </c>
+      <c r="S113" s="65"/>
+    </row>
+    <row r="114" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C114" s="35"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F114" s="3">
+        <v>1</v>
+      </c>
+      <c r="G114" s="3">
+        <v>32</v>
+      </c>
+      <c r="H114" s="3">
+        <f t="shared" si="111"/>
+        <v>9</v>
+      </c>
+      <c r="I114" s="3">
+        <f t="shared" si="112"/>
+        <v>64</v>
+      </c>
+      <c r="J114" s="3">
+        <f t="shared" si="113"/>
+        <v>12</v>
+      </c>
+      <c r="K114" s="3">
+        <f t="shared" si="114"/>
+        <v>4</v>
+      </c>
+      <c r="L114" s="3">
+        <v>1</v>
+      </c>
+      <c r="M114" s="3">
+        <v>0</v>
+      </c>
+      <c r="N114" s="3">
+        <v>1</v>
+      </c>
+      <c r="O114" s="3">
+        <f t="shared" si="115"/>
+        <v>9</v>
+      </c>
+      <c r="P114" s="3">
+        <f t="shared" si="116"/>
+        <v>32</v>
+      </c>
+      <c r="Q114" s="10">
+        <f t="shared" si="117"/>
+        <v>12</v>
+      </c>
+      <c r="R114" s="5">
+        <f t="shared" si="118"/>
+        <v>4</v>
+      </c>
+      <c r="S114" s="65"/>
+    </row>
+    <row r="115" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C115" s="35"/>
+      <c r="D115" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F115" s="3">
+        <v>3</v>
+      </c>
+      <c r="G115" s="3">
+        <v>64</v>
+      </c>
+      <c r="H115" s="3">
+        <f t="shared" si="111"/>
+        <v>9</v>
+      </c>
+      <c r="I115" s="3">
+        <f t="shared" si="112"/>
+        <v>32</v>
+      </c>
+      <c r="J115" s="3">
+        <f t="shared" si="113"/>
+        <v>12</v>
+      </c>
+      <c r="K115" s="3">
+        <f t="shared" si="114"/>
+        <v>4</v>
+      </c>
+      <c r="L115" s="3">
+        <v>1</v>
+      </c>
+      <c r="M115" s="3">
+        <v>1</v>
+      </c>
+      <c r="N115" s="3">
+        <v>2</v>
+      </c>
+      <c r="O115" s="3">
+        <f t="shared" si="115"/>
+        <v>9</v>
+      </c>
+      <c r="P115" s="3">
+        <f t="shared" si="116"/>
+        <v>64</v>
+      </c>
+      <c r="Q115" s="10">
+        <f t="shared" si="117"/>
+        <v>28</v>
+      </c>
+      <c r="R115" s="5">
+        <f t="shared" si="118"/>
+        <v>4</v>
+      </c>
+      <c r="S115" s="65"/>
+    </row>
+    <row r="116" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C116" s="35"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F116" s="3">
+        <v>3</v>
+      </c>
+      <c r="G116" s="3">
+        <v>64</v>
+      </c>
+      <c r="H116" s="3">
+        <f t="shared" si="111"/>
+        <v>9</v>
+      </c>
+      <c r="I116" s="3">
+        <f t="shared" si="112"/>
+        <v>64</v>
+      </c>
+      <c r="J116" s="3">
+        <f t="shared" si="113"/>
+        <v>28</v>
+      </c>
+      <c r="K116" s="3">
+        <f t="shared" si="114"/>
+        <v>4</v>
+      </c>
+      <c r="L116" s="13">
+        <v>1</v>
+      </c>
+      <c r="M116" s="13">
+        <v>1</v>
+      </c>
+      <c r="N116" s="13">
+        <v>1</v>
+      </c>
+      <c r="O116" s="3">
+        <f t="shared" si="115"/>
+        <v>9</v>
+      </c>
+      <c r="P116" s="3">
+        <f t="shared" si="116"/>
+        <v>64</v>
+      </c>
+      <c r="Q116" s="10">
+        <f t="shared" si="117"/>
+        <v>36</v>
+      </c>
+      <c r="R116" s="5">
+        <f t="shared" si="118"/>
+        <v>4</v>
+      </c>
+      <c r="S116" s="65"/>
+    </row>
+    <row r="117" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C117" s="35"/>
+      <c r="D117" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F117" s="3">
+        <v>2</v>
+      </c>
+      <c r="G117" s="3">
+        <v>64</v>
+      </c>
+      <c r="H117" s="3">
+        <f t="shared" si="111"/>
+        <v>9</v>
+      </c>
+      <c r="I117" s="3">
+        <f t="shared" si="112"/>
+        <v>64</v>
+      </c>
+      <c r="J117" s="3">
+        <f t="shared" si="113"/>
+        <v>36</v>
+      </c>
+      <c r="K117" s="3">
+        <f t="shared" si="114"/>
+        <v>4</v>
+      </c>
+      <c r="L117" s="13">
+        <v>2</v>
+      </c>
+      <c r="M117" s="13">
+        <v>0</v>
+      </c>
+      <c r="N117" s="13">
+        <v>1</v>
+      </c>
+      <c r="O117" s="3">
+        <f t="shared" si="115"/>
+        <v>4</v>
+      </c>
+      <c r="P117" s="3">
+        <f t="shared" si="116"/>
+        <v>64</v>
+      </c>
+      <c r="Q117" s="10">
+        <f t="shared" si="117"/>
+        <v>40</v>
+      </c>
+      <c r="R117" s="5">
+        <f t="shared" si="118"/>
+        <v>8</v>
+      </c>
+      <c r="S117" s="65"/>
+    </row>
+    <row r="118" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C118" s="35"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F118" s="3">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3">
+        <v>32</v>
+      </c>
+      <c r="H118" s="3">
+        <f t="shared" si="111"/>
+        <v>4</v>
+      </c>
+      <c r="I118" s="3">
+        <f t="shared" si="112"/>
+        <v>64</v>
+      </c>
+      <c r="J118" s="3">
+        <f t="shared" si="113"/>
+        <v>40</v>
+      </c>
+      <c r="K118" s="3">
+        <f t="shared" si="114"/>
+        <v>8</v>
+      </c>
+      <c r="L118" s="13">
+        <v>1</v>
+      </c>
+      <c r="M118" s="13">
+        <v>0</v>
+      </c>
+      <c r="N118" s="13">
+        <v>1</v>
+      </c>
+      <c r="O118" s="3">
+        <f t="shared" si="115"/>
+        <v>4</v>
+      </c>
+      <c r="P118" s="3">
+        <f t="shared" si="116"/>
+        <v>32</v>
+      </c>
+      <c r="Q118" s="10">
+        <f t="shared" si="117"/>
+        <v>40</v>
+      </c>
+      <c r="R118" s="5">
+        <f t="shared" si="118"/>
+        <v>8</v>
+      </c>
+      <c r="S118" s="65"/>
+    </row>
+    <row r="119" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C119" s="35"/>
+      <c r="D119" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F119" s="13">
+        <v>3</v>
+      </c>
+      <c r="G119" s="13">
+        <v>64</v>
+      </c>
+      <c r="H119" s="3">
+        <f t="shared" si="111"/>
+        <v>4</v>
+      </c>
+      <c r="I119" s="3">
+        <f t="shared" si="112"/>
+        <v>32</v>
+      </c>
+      <c r="J119" s="3">
+        <f t="shared" si="113"/>
+        <v>40</v>
+      </c>
+      <c r="K119" s="3">
+        <f t="shared" si="114"/>
+        <v>8</v>
+      </c>
+      <c r="L119" s="13">
+        <v>1</v>
+      </c>
+      <c r="M119" s="13">
+        <v>1</v>
+      </c>
+      <c r="N119" s="13">
+        <v>1</v>
+      </c>
+      <c r="O119" s="3">
+        <f t="shared" si="115"/>
+        <v>4</v>
+      </c>
+      <c r="P119" s="3">
+        <f t="shared" si="116"/>
+        <v>64</v>
+      </c>
+      <c r="Q119" s="10">
+        <f t="shared" si="117"/>
+        <v>56</v>
+      </c>
+      <c r="R119" s="5">
+        <f t="shared" si="118"/>
+        <v>8</v>
+      </c>
+      <c r="S119" s="65"/>
+    </row>
+    <row r="120" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C120" s="35"/>
+      <c r="D120" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F120" s="13">
+        <v>4</v>
+      </c>
+      <c r="G120" s="13">
+        <v>64</v>
+      </c>
+      <c r="H120" s="13">
+        <f t="shared" si="111"/>
+        <v>4</v>
+      </c>
+      <c r="I120" s="13">
+        <f t="shared" si="112"/>
+        <v>64</v>
+      </c>
+      <c r="J120" s="13">
+        <f t="shared" si="113"/>
+        <v>56</v>
+      </c>
+      <c r="K120" s="13">
+        <f t="shared" si="114"/>
+        <v>8</v>
+      </c>
+      <c r="L120" s="13">
+        <v>1</v>
+      </c>
+      <c r="M120" s="13">
+        <v>0</v>
+      </c>
+      <c r="N120" s="13">
+        <v>1</v>
+      </c>
+      <c r="O120" s="13">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="P120" s="13">
+        <f t="shared" si="116"/>
+        <v>64</v>
+      </c>
+      <c r="Q120" s="51">
+        <f t="shared" si="117"/>
+        <v>80</v>
+      </c>
+      <c r="R120" s="40">
+        <f t="shared" si="118"/>
+        <v>8</v>
+      </c>
+      <c r="S120" s="65"/>
+    </row>
+    <row r="121" spans="3:19" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C121" s="60">
+        <v>10</v>
+      </c>
+      <c r="D121" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="E121" s="67"/>
+      <c r="F121" s="67"/>
+      <c r="G121" s="67"/>
+      <c r="H121" s="67"/>
+      <c r="I121" s="67"/>
+      <c r="J121" s="67"/>
+      <c r="K121" s="67"/>
+      <c r="L121" s="67"/>
+      <c r="M121" s="67"/>
+      <c r="N121" s="67"/>
+      <c r="O121" s="67"/>
+      <c r="P121" s="67"/>
+      <c r="Q121" s="67"/>
+      <c r="R121" s="68"/>
+      <c r="S121" s="69" t="s">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="57">
+    <mergeCell ref="D121:R121"/>
+    <mergeCell ref="C107:C120"/>
+    <mergeCell ref="S107:S120"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="C91:C106"/>
+    <mergeCell ref="S91:S106"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="C77:C90"/>
+    <mergeCell ref="S77:S90"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="D81:D82"/>
     <mergeCell ref="D63:R63"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="D31:D32"/>
@@ -9386,8 +12682,8 @@
   <dimension ref="D1:Q402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L43" sqref="L43:O63"/>
+      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R131" sqref="R131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9426,7 +12722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D3" s="29">
         <v>4</v>
       </c>
@@ -9452,7 +12748,7 @@
         <v>72.59</v>
       </c>
     </row>
-    <row r="4" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D4" s="30"/>
       <c r="E4" s="3">
         <v>2</v>
@@ -9472,7 +12768,7 @@
       <c r="N4" s="58"/>
       <c r="Q4" s="58"/>
     </row>
-    <row r="5" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D5" s="30"/>
       <c r="E5" s="3">
         <v>3</v>
@@ -9492,7 +12788,7 @@
       <c r="N5" s="58"/>
       <c r="Q5" s="58"/>
     </row>
-    <row r="6" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D6" s="30"/>
       <c r="E6" s="3">
         <v>4</v>
@@ -9512,7 +12808,7 @@
       <c r="N6" s="58"/>
       <c r="Q6" s="58"/>
     </row>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D7" s="30"/>
       <c r="E7" s="3">
         <v>5</v>
@@ -9532,7 +12828,7 @@
       <c r="N7" s="58"/>
       <c r="Q7" s="58"/>
     </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D8" s="30"/>
       <c r="E8" s="3">
         <v>6</v>
@@ -9552,7 +12848,7 @@
       <c r="N8" s="58"/>
       <c r="Q8" s="58"/>
     </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D9" s="30"/>
       <c r="E9" s="3">
         <v>7</v>
@@ -9572,7 +12868,7 @@
       <c r="N9" s="58"/>
       <c r="Q9" s="58"/>
     </row>
-    <row r="10" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D10" s="30"/>
       <c r="E10" s="3">
         <v>8</v>
@@ -9592,7 +12888,7 @@
       <c r="N10" s="58"/>
       <c r="Q10" s="58"/>
     </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D11" s="30"/>
       <c r="E11" s="3">
         <v>9</v>
@@ -9612,7 +12908,7 @@
       <c r="N11" s="58"/>
       <c r="Q11" s="58"/>
     </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D12" s="30"/>
       <c r="E12" s="3">
         <v>10</v>
@@ -9632,7 +12928,7 @@
       <c r="N12" s="58"/>
       <c r="Q12" s="58"/>
     </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D13" s="30"/>
       <c r="E13" s="3">
         <v>11</v>
@@ -9652,7 +12948,7 @@
       <c r="N13" s="58"/>
       <c r="Q13" s="58"/>
     </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D14" s="30"/>
       <c r="E14" s="3">
         <v>12</v>
@@ -9672,7 +12968,7 @@
       <c r="N14" s="58"/>
       <c r="Q14" s="58"/>
     </row>
-    <row r="15" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D15" s="30"/>
       <c r="E15" s="3">
         <v>13</v>
@@ -9692,7 +12988,7 @@
       <c r="N15" s="58"/>
       <c r="Q15" s="58"/>
     </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D16" s="30"/>
       <c r="E16" s="3">
         <v>14</v>
@@ -9712,7 +13008,7 @@
       <c r="N16" s="58"/>
       <c r="Q16" s="58"/>
     </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D17" s="30"/>
       <c r="E17" s="3">
         <v>15</v>
@@ -9732,7 +13028,7 @@
       <c r="N17" s="58"/>
       <c r="Q17" s="58"/>
     </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D18" s="30"/>
       <c r="E18" s="3">
         <v>16</v>
@@ -9752,7 +13048,7 @@
       <c r="N18" s="58"/>
       <c r="Q18" s="58"/>
     </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D19" s="30"/>
       <c r="E19" s="3">
         <v>17</v>
@@ -9772,7 +13068,7 @@
       <c r="N19" s="58"/>
       <c r="Q19" s="58"/>
     </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D20" s="30"/>
       <c r="E20" s="3">
         <v>18</v>
@@ -9792,7 +13088,7 @@
       <c r="N20" s="58"/>
       <c r="Q20" s="58"/>
     </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D21" s="30"/>
       <c r="E21" s="3">
         <v>19</v>
@@ -9812,7 +13108,7 @@
       <c r="N21" s="58"/>
       <c r="Q21" s="58"/>
     </row>
-    <row r="22" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D22" s="32"/>
       <c r="E22" s="6">
         <v>20</v>
@@ -9832,7 +13128,7 @@
       <c r="N22" s="59"/>
       <c r="Q22" s="58"/>
     </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D23" s="29">
         <v>5</v>
       </c>
@@ -9860,7 +13156,7 @@
       <c r="N23" s="59"/>
       <c r="Q23" s="58"/>
     </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D24" s="30"/>
       <c r="E24" s="3">
         <v>2</v>
@@ -9880,7 +13176,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D25" s="30"/>
       <c r="E25" s="3">
         <v>3</v>
@@ -9900,7 +13196,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D26" s="30"/>
       <c r="E26" s="3">
         <v>4</v>
@@ -9920,7 +13216,7 @@
       <c r="N26"/>
       <c r="O26"/>
     </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D27" s="30"/>
       <c r="E27" s="3">
         <v>5</v>
@@ -9940,7 +13236,7 @@
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D28" s="30"/>
       <c r="E28" s="3">
         <v>6</v>
@@ -9960,7 +13256,7 @@
       <c r="N28"/>
       <c r="O28"/>
     </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D29" s="30"/>
       <c r="E29" s="3">
         <v>7</v>
@@ -9980,7 +13276,7 @@
       <c r="N29"/>
       <c r="O29"/>
     </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D30" s="30"/>
       <c r="E30" s="3">
         <v>8</v>
@@ -10000,7 +13296,7 @@
       <c r="N30"/>
       <c r="O30"/>
     </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D31" s="30"/>
       <c r="E31" s="3">
         <v>9</v>
@@ -10020,7 +13316,7 @@
       <c r="N31"/>
       <c r="O31"/>
     </row>
-    <row r="32" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D32" s="30"/>
       <c r="E32" s="3">
         <v>10</v>
@@ -10040,7 +13336,7 @@
       <c r="N32"/>
       <c r="O32"/>
     </row>
-    <row r="33" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="D33" s="30"/>
       <c r="E33" s="3">
         <v>11</v>
@@ -10060,7 +13356,7 @@
       <c r="N33"/>
       <c r="O33"/>
     </row>
-    <row r="34" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="D34" s="30"/>
       <c r="E34" s="3">
         <v>12</v>
@@ -10080,7 +13376,7 @@
       <c r="N34"/>
       <c r="O34"/>
     </row>
-    <row r="35" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="D35" s="30"/>
       <c r="E35" s="3">
         <v>13</v>
@@ -10100,7 +13396,7 @@
       <c r="N35"/>
       <c r="O35"/>
     </row>
-    <row r="36" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="D36" s="30"/>
       <c r="E36" s="3">
         <v>14</v>
@@ -10120,7 +13416,7 @@
       <c r="N36"/>
       <c r="O36"/>
     </row>
-    <row r="37" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="D37" s="30"/>
       <c r="E37" s="3">
         <v>15</v>
@@ -10140,7 +13436,7 @@
       <c r="N37"/>
       <c r="O37"/>
     </row>
-    <row r="38" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="D38" s="30"/>
       <c r="E38" s="3">
         <v>16</v>
@@ -10160,7 +13456,7 @@
       <c r="N38"/>
       <c r="O38"/>
     </row>
-    <row r="39" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="D39" s="30"/>
       <c r="E39" s="3">
         <v>17</v>
@@ -10180,7 +13476,7 @@
       <c r="N39"/>
       <c r="O39"/>
     </row>
-    <row r="40" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="D40" s="30"/>
       <c r="E40" s="3">
         <v>18</v>
@@ -10200,7 +13496,7 @@
       <c r="N40"/>
       <c r="O40"/>
     </row>
-    <row r="41" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="D41" s="30"/>
       <c r="E41" s="3">
         <v>19</v>
@@ -10218,7 +13514,7 @@
       <c r="I41" s="53"/>
       <c r="J41" s="56"/>
     </row>
-    <row r="42" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:15" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D42" s="32"/>
       <c r="E42" s="6">
         <v>20</v>
@@ -10236,7 +13532,7 @@
       <c r="I42" s="54"/>
       <c r="J42" s="57"/>
     </row>
-    <row r="43" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="D43" s="29">
         <v>6</v>
       </c>
@@ -10262,7 +13558,7 @@
         <v>79.89</v>
       </c>
     </row>
-    <row r="44" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="D44" s="30"/>
       <c r="E44" s="3">
         <v>2</v>
@@ -10280,7 +13576,7 @@
       <c r="I44" s="53"/>
       <c r="J44" s="56"/>
     </row>
-    <row r="45" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="D45" s="30"/>
       <c r="E45" s="3">
         <v>3</v>
@@ -10298,7 +13594,7 @@
       <c r="I45" s="53"/>
       <c r="J45" s="56"/>
     </row>
-    <row r="46" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="D46" s="30"/>
       <c r="E46" s="3">
         <v>4</v>
@@ -10316,7 +13612,7 @@
       <c r="I46" s="53"/>
       <c r="J46" s="56"/>
     </row>
-    <row r="47" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="D47" s="30"/>
       <c r="E47" s="3">
         <v>5</v>
@@ -10334,7 +13630,7 @@
       <c r="I47" s="53"/>
       <c r="J47" s="56"/>
     </row>
-    <row r="48" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="D48" s="30"/>
       <c r="E48" s="3">
         <v>6</v>
@@ -10352,7 +13648,7 @@
       <c r="I48" s="53"/>
       <c r="J48" s="56"/>
     </row>
-    <row r="49" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D49" s="30"/>
       <c r="E49" s="3">
         <v>7</v>
@@ -10370,7 +13666,7 @@
       <c r="I49" s="53"/>
       <c r="J49" s="56"/>
     </row>
-    <row r="50" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D50" s="30"/>
       <c r="E50" s="3">
         <v>8</v>
@@ -10388,7 +13684,7 @@
       <c r="I50" s="53"/>
       <c r="J50" s="56"/>
     </row>
-    <row r="51" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D51" s="30"/>
       <c r="E51" s="3">
         <v>9</v>
@@ -10406,7 +13702,7 @@
       <c r="I51" s="53"/>
       <c r="J51" s="56"/>
     </row>
-    <row r="52" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D52" s="30"/>
       <c r="E52" s="3">
         <v>10</v>
@@ -10424,7 +13720,7 @@
       <c r="I52" s="53"/>
       <c r="J52" s="56"/>
     </row>
-    <row r="53" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D53" s="30"/>
       <c r="E53" s="3">
         <v>11</v>
@@ -10442,7 +13738,7 @@
       <c r="I53" s="53"/>
       <c r="J53" s="56"/>
     </row>
-    <row r="54" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D54" s="30"/>
       <c r="E54" s="3">
         <v>12</v>
@@ -10460,7 +13756,7 @@
       <c r="I54" s="53"/>
       <c r="J54" s="56"/>
     </row>
-    <row r="55" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D55" s="30"/>
       <c r="E55" s="3">
         <v>13</v>
@@ -10478,7 +13774,7 @@
       <c r="I55" s="53"/>
       <c r="J55" s="56"/>
     </row>
-    <row r="56" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D56" s="30"/>
       <c r="E56" s="3">
         <v>14</v>
@@ -10496,7 +13792,7 @@
       <c r="I56" s="53"/>
       <c r="J56" s="56"/>
     </row>
-    <row r="57" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D57" s="30"/>
       <c r="E57" s="3">
         <v>15</v>
@@ -10514,7 +13810,7 @@
       <c r="I57" s="53"/>
       <c r="J57" s="56"/>
     </row>
-    <row r="58" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D58" s="30"/>
       <c r="E58" s="3">
         <v>16</v>
@@ -10532,7 +13828,7 @@
       <c r="I58" s="53"/>
       <c r="J58" s="56"/>
     </row>
-    <row r="59" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D59" s="30"/>
       <c r="E59" s="3">
         <v>17</v>
@@ -10550,7 +13846,7 @@
       <c r="I59" s="53"/>
       <c r="J59" s="56"/>
     </row>
-    <row r="60" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D60" s="30"/>
       <c r="E60" s="3">
         <v>18</v>
@@ -10568,7 +13864,7 @@
       <c r="I60" s="53"/>
       <c r="J60" s="56"/>
     </row>
-    <row r="61" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D61" s="30"/>
       <c r="E61" s="3">
         <v>19</v>
@@ -10586,7 +13882,7 @@
       <c r="I61" s="53"/>
       <c r="J61" s="56"/>
     </row>
-    <row r="62" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D62" s="32"/>
       <c r="E62" s="6">
         <v>20</v>
@@ -10611,19 +13907,23 @@
       <c r="E63" s="4">
         <v>1</v>
       </c>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
+      <c r="F63" s="4">
+        <v>49.26</v>
+      </c>
+      <c r="G63" s="4">
+        <v>59.3</v>
+      </c>
       <c r="H63" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-10.039999999999999</v>
       </c>
       <c r="I63" s="52">
         <f t="shared" ref="I63:J63" si="3">MAX(F63:F82)</f>
-        <v>0</v>
+        <v>95.06</v>
       </c>
       <c r="J63" s="55">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>76.67</v>
       </c>
     </row>
     <row r="64" spans="4:10" x14ac:dyDescent="0.2">
@@ -10631,11 +13931,15 @@
       <c r="E64" s="3">
         <v>2</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
+      <c r="F64" s="3">
+        <v>65.77</v>
+      </c>
+      <c r="G64" s="3">
+        <v>68.540000000000006</v>
+      </c>
       <c r="H64" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.7700000000000102</v>
       </c>
       <c r="I64" s="53"/>
       <c r="J64" s="56"/>
@@ -10645,11 +13949,15 @@
       <c r="E65" s="3">
         <v>3</v>
       </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
+      <c r="F65" s="3">
+        <v>72.709999999999994</v>
+      </c>
+      <c r="G65" s="3">
+        <v>71.86</v>
+      </c>
       <c r="H65" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.84999999999999432</v>
       </c>
       <c r="I65" s="53"/>
       <c r="J65" s="56"/>
@@ -10659,11 +13967,15 @@
       <c r="E66" s="3">
         <v>4</v>
       </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+      <c r="F66" s="3">
+        <v>76.150000000000006</v>
+      </c>
+      <c r="G66" s="3">
+        <v>72.959999999999994</v>
+      </c>
       <c r="H66" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.1900000000000119</v>
       </c>
       <c r="I66" s="53"/>
       <c r="J66" s="56"/>
@@ -10673,11 +13985,15 @@
       <c r="E67" s="3">
         <v>5</v>
       </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
+      <c r="F67" s="3">
+        <v>78.959999999999994</v>
+      </c>
+      <c r="G67" s="3">
+        <v>73.97</v>
+      </c>
       <c r="H67" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.9899999999999949</v>
       </c>
       <c r="I67" s="53"/>
       <c r="J67" s="56"/>
@@ -10687,11 +14003,15 @@
       <c r="E68" s="3">
         <v>6</v>
       </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
+      <c r="F68" s="3">
+        <v>81.42</v>
+      </c>
+      <c r="G68" s="3">
+        <v>74.94</v>
+      </c>
       <c r="H68" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.480000000000004</v>
       </c>
       <c r="I68" s="53"/>
       <c r="J68" s="56"/>
@@ -10701,11 +14021,15 @@
       <c r="E69" s="3">
         <v>7</v>
       </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
+      <c r="F69" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="G69" s="3">
+        <v>75.73</v>
+      </c>
       <c r="H69" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.5699999999999932</v>
       </c>
       <c r="I69" s="53"/>
       <c r="J69" s="56"/>
@@ -10715,11 +14039,15 @@
       <c r="E70" s="3">
         <v>8</v>
       </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
+      <c r="F70" s="3">
+        <v>85.08</v>
+      </c>
+      <c r="G70" s="3">
+        <v>76.67</v>
+      </c>
       <c r="H70" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.4099999999999966</v>
       </c>
       <c r="I70" s="53"/>
       <c r="J70" s="56"/>
@@ -10729,11 +14057,15 @@
       <c r="E71" s="3">
         <v>9</v>
       </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
+      <c r="F71" s="3">
+        <v>86.47</v>
+      </c>
+      <c r="G71" s="3">
+        <v>76.56</v>
+      </c>
       <c r="H71" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.9099999999999966</v>
       </c>
       <c r="I71" s="53"/>
       <c r="J71" s="56"/>
@@ -10743,11 +14075,15 @@
       <c r="E72" s="3">
         <v>10</v>
       </c>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
+      <c r="F72" s="3">
+        <v>87.85</v>
+      </c>
+      <c r="G72" s="3">
+        <v>76.5</v>
+      </c>
       <c r="H72" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11.349999999999994</v>
       </c>
       <c r="I72" s="53"/>
       <c r="J72" s="56"/>
@@ -10757,11 +14093,15 @@
       <c r="E73" s="3">
         <v>11</v>
       </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
+      <c r="F73" s="3">
+        <v>88.87</v>
+      </c>
+      <c r="G73" s="3">
+        <v>75.98</v>
+      </c>
       <c r="H73" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12.89</v>
       </c>
       <c r="I73" s="53"/>
       <c r="J73" s="56"/>
@@ -10771,11 +14111,15 @@
       <c r="E74" s="3">
         <v>12</v>
       </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
+      <c r="F74" s="3">
+        <v>90.25</v>
+      </c>
+      <c r="G74" s="3">
+        <v>76.11</v>
+      </c>
       <c r="H74" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.14</v>
       </c>
       <c r="I74" s="53"/>
       <c r="J74" s="56"/>
@@ -10785,11 +14129,15 @@
       <c r="E75" s="3">
         <v>13</v>
       </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
+      <c r="F75" s="3">
+        <v>91.16</v>
+      </c>
+      <c r="G75" s="3">
+        <v>75.739999999999995</v>
+      </c>
       <c r="H75" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.420000000000002</v>
       </c>
       <c r="I75" s="53"/>
       <c r="J75" s="56"/>
@@ -10799,11 +14147,15 @@
       <c r="E76" s="3">
         <v>14</v>
       </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+      <c r="F76" s="3">
+        <v>91.86</v>
+      </c>
+      <c r="G76" s="3">
+        <v>76.180000000000007</v>
+      </c>
       <c r="H76" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.679999999999993</v>
       </c>
       <c r="I76" s="53"/>
       <c r="J76" s="56"/>
@@ -10813,11 +14165,15 @@
       <c r="E77" s="3">
         <v>15</v>
       </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
+      <c r="F77" s="3">
+        <v>92.51</v>
+      </c>
+      <c r="G77" s="3">
+        <v>76.13</v>
+      </c>
       <c r="H77" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.38000000000001</v>
       </c>
       <c r="I77" s="53"/>
       <c r="J77" s="56"/>
@@ -10827,11 +14183,15 @@
       <c r="E78" s="3">
         <v>16</v>
       </c>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
+      <c r="F78" s="3">
+        <v>93.13</v>
+      </c>
+      <c r="G78" s="3">
+        <v>74.650000000000006</v>
+      </c>
       <c r="H78" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.47999999999999</v>
       </c>
       <c r="I78" s="53"/>
       <c r="J78" s="56"/>
@@ -10841,11 +14201,15 @@
       <c r="E79" s="3">
         <v>17</v>
       </c>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
+      <c r="F79" s="3">
+        <v>93.91</v>
+      </c>
+      <c r="G79" s="3">
+        <v>75.150000000000006</v>
+      </c>
       <c r="H79" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.759999999999991</v>
       </c>
       <c r="I79" s="53"/>
       <c r="J79" s="56"/>
@@ -10855,11 +14219,15 @@
       <c r="E80" s="3">
         <v>18</v>
       </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
+      <c r="F80" s="3">
+        <v>94.12</v>
+      </c>
+      <c r="G80" s="3">
+        <v>75.64</v>
+      </c>
       <c r="H80" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.480000000000004</v>
       </c>
       <c r="I80" s="53"/>
       <c r="J80" s="56"/>
@@ -10869,11 +14237,15 @@
       <c r="E81" s="3">
         <v>19</v>
       </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
+      <c r="F81" s="3">
+        <v>94.55</v>
+      </c>
+      <c r="G81" s="3">
+        <v>74.25</v>
+      </c>
       <c r="H81" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20.299999999999997</v>
       </c>
       <c r="I81" s="53"/>
       <c r="J81" s="56"/>
@@ -10883,587 +14255,751 @@
       <c r="E82" s="6">
         <v>20</v>
       </c>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
+      <c r="F82" s="6">
+        <v>95.06</v>
+      </c>
+      <c r="G82" s="6">
+        <v>75.81</v>
+      </c>
       <c r="H82" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.25</v>
       </c>
       <c r="I82" s="54"/>
       <c r="J82" s="57"/>
     </row>
-    <row r="83" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D83" s="29">
         <v>8</v>
       </c>
       <c r="E83" s="4">
         <v>1</v>
       </c>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
+      <c r="F83" s="4">
+        <v>50.17</v>
+      </c>
+      <c r="G83" s="4">
+        <v>57.55</v>
+      </c>
       <c r="H83" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-7.3799999999999955</v>
       </c>
       <c r="I83" s="52">
         <f t="shared" ref="I83" si="4">MAX(F83:F102)</f>
-        <v>0</v>
+        <v>95.72</v>
       </c>
       <c r="J83" s="55">
         <f t="shared" ref="J83" si="5">MAX(G83:G102)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="4:10" x14ac:dyDescent="0.2">
+        <v>78.89</v>
+      </c>
+    </row>
+    <row r="84" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D84" s="30"/>
       <c r="E84" s="3">
         <v>2</v>
       </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
+      <c r="F84" s="3">
+        <v>67.069999999999993</v>
+      </c>
+      <c r="G84" s="3">
+        <v>68.13</v>
+      </c>
       <c r="H84" s="3">
         <f t="shared" ref="H84:H147" si="6">F84-G84</f>
-        <v>0</v>
+        <v>-1.0600000000000023</v>
       </c>
       <c r="I84" s="53"/>
       <c r="J84" s="56"/>
     </row>
-    <row r="85" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D85" s="30"/>
       <c r="E85" s="3">
         <v>3</v>
       </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
+      <c r="F85" s="3">
+        <v>74.209999999999994</v>
+      </c>
+      <c r="G85" s="3">
+        <v>71.510000000000005</v>
+      </c>
       <c r="H85" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.6999999999999886</v>
       </c>
       <c r="I85" s="53"/>
       <c r="J85" s="56"/>
     </row>
-    <row r="86" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D86" s="30"/>
       <c r="E86" s="3">
         <v>4</v>
       </c>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
+      <c r="F86" s="3">
+        <v>78.09</v>
+      </c>
+      <c r="G86" s="3">
+        <v>74.150000000000006</v>
+      </c>
       <c r="H86" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.9399999999999977</v>
       </c>
       <c r="I86" s="53"/>
       <c r="J86" s="56"/>
     </row>
-    <row r="87" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D87" s="30"/>
       <c r="E87" s="3">
         <v>5</v>
       </c>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
+      <c r="F87" s="3">
+        <v>81.19</v>
+      </c>
+      <c r="G87" s="3">
+        <v>77.17</v>
+      </c>
       <c r="H87" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.019999999999996</v>
       </c>
       <c r="I87" s="53"/>
       <c r="J87" s="56"/>
     </row>
-    <row r="88" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D88" s="30"/>
       <c r="E88" s="3">
         <v>6</v>
       </c>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
+      <c r="F88" s="3">
+        <v>83.34</v>
+      </c>
+      <c r="G88" s="3">
+        <v>77.489999999999995</v>
+      </c>
       <c r="H88" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.8500000000000085</v>
       </c>
       <c r="I88" s="53"/>
       <c r="J88" s="56"/>
     </row>
-    <row r="89" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D89" s="30"/>
       <c r="E89" s="3">
         <v>7</v>
       </c>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
+      <c r="F89" s="3">
+        <v>85.37</v>
+      </c>
+      <c r="G89" s="3">
+        <v>77.63</v>
+      </c>
       <c r="H89" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7.7400000000000091</v>
       </c>
       <c r="I89" s="53"/>
       <c r="J89" s="56"/>
     </row>
-    <row r="90" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D90" s="30"/>
       <c r="E90" s="3">
         <v>8</v>
       </c>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
+      <c r="F90" s="3">
+        <v>86.88</v>
+      </c>
+      <c r="G90" s="3">
+        <v>78.430000000000007</v>
+      </c>
       <c r="H90" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.4499999999999886</v>
       </c>
       <c r="I90" s="53"/>
       <c r="J90" s="56"/>
     </row>
-    <row r="91" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D91" s="30"/>
       <c r="E91" s="3">
         <v>9</v>
       </c>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
+      <c r="F91" s="3">
+        <v>88.45</v>
+      </c>
+      <c r="G91" s="3">
+        <v>78.55</v>
+      </c>
       <c r="H91" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9.9000000000000057</v>
       </c>
       <c r="I91" s="53"/>
       <c r="J91" s="56"/>
     </row>
-    <row r="92" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D92" s="30"/>
       <c r="E92" s="3">
         <v>10</v>
       </c>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
+      <c r="F92" s="3">
+        <v>89.42</v>
+      </c>
+      <c r="G92" s="3">
+        <v>78.58</v>
+      </c>
       <c r="H92" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10.840000000000003</v>
       </c>
       <c r="I92" s="53"/>
       <c r="J92" s="56"/>
     </row>
-    <row r="93" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D93" s="30"/>
       <c r="E93" s="3">
         <v>11</v>
       </c>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
+      <c r="F93" s="3">
+        <v>90.46</v>
+      </c>
+      <c r="G93" s="3">
+        <v>78.36</v>
+      </c>
       <c r="H93" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>12.099999999999994</v>
       </c>
       <c r="I93" s="53"/>
       <c r="J93" s="56"/>
     </row>
-    <row r="94" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D94" s="30"/>
       <c r="E94" s="3">
         <v>12</v>
       </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
+      <c r="F94" s="3">
+        <v>91.69</v>
+      </c>
+      <c r="G94" s="3">
+        <v>78.650000000000006</v>
+      </c>
       <c r="H94" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>13.039999999999992</v>
       </c>
       <c r="I94" s="53"/>
       <c r="J94" s="56"/>
     </row>
-    <row r="95" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D95" s="30"/>
       <c r="E95" s="3">
         <v>13</v>
       </c>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
+      <c r="F95" s="3">
+        <v>92.4</v>
+      </c>
+      <c r="G95" s="3">
+        <v>77.39</v>
+      </c>
       <c r="H95" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>15.010000000000005</v>
       </c>
       <c r="I95" s="53"/>
       <c r="J95" s="56"/>
     </row>
-    <row r="96" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D96" s="30"/>
       <c r="E96" s="3">
         <v>14</v>
       </c>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
+      <c r="F96" s="3">
+        <v>93.19</v>
+      </c>
+      <c r="G96" s="3">
+        <v>78.89</v>
+      </c>
       <c r="H96" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>14.299999999999997</v>
       </c>
       <c r="I96" s="53"/>
       <c r="J96" s="56"/>
     </row>
-    <row r="97" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D97" s="30"/>
       <c r="E97" s="3">
         <v>15</v>
       </c>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
+      <c r="F97" s="3">
+        <v>93.94</v>
+      </c>
+      <c r="G97" s="3">
+        <v>77.7</v>
+      </c>
       <c r="H97" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>16.239999999999995</v>
       </c>
       <c r="I97" s="53"/>
       <c r="J97" s="56"/>
     </row>
-    <row r="98" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D98" s="30"/>
       <c r="E98" s="3">
         <v>16</v>
       </c>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
+      <c r="F98" s="3">
+        <v>94.12</v>
+      </c>
+      <c r="G98" s="3">
+        <v>78.099999999999994</v>
+      </c>
       <c r="H98" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>16.02000000000001</v>
       </c>
       <c r="I98" s="53"/>
       <c r="J98" s="56"/>
     </row>
-    <row r="99" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D99" s="30"/>
       <c r="E99" s="3">
         <v>17</v>
       </c>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
+      <c r="F99" s="3">
+        <v>94.96</v>
+      </c>
+      <c r="G99" s="3">
+        <v>77.84</v>
+      </c>
       <c r="H99" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>17.11999999999999</v>
       </c>
       <c r="I99" s="53"/>
       <c r="J99" s="56"/>
     </row>
-    <row r="100" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D100" s="30"/>
       <c r="E100" s="3">
         <v>18</v>
       </c>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
+      <c r="F100" s="3">
+        <v>94.76</v>
+      </c>
+      <c r="G100" s="3">
+        <v>77.930000000000007</v>
+      </c>
       <c r="H100" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>16.829999999999998</v>
       </c>
       <c r="I100" s="53"/>
       <c r="J100" s="56"/>
     </row>
-    <row r="101" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D101" s="30"/>
       <c r="E101" s="3">
         <v>19</v>
       </c>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
+      <c r="F101" s="3">
+        <v>95.37</v>
+      </c>
+      <c r="G101" s="3">
+        <v>78.34</v>
+      </c>
       <c r="H101" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>17.03</v>
       </c>
       <c r="I101" s="53"/>
       <c r="J101" s="56"/>
     </row>
-    <row r="102" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:10" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D102" s="32"/>
       <c r="E102" s="6">
         <v>20</v>
       </c>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
+      <c r="F102" s="6">
+        <v>95.72</v>
+      </c>
+      <c r="G102" s="6">
+        <v>77.98</v>
+      </c>
       <c r="H102" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>17.739999999999995</v>
       </c>
       <c r="I102" s="54"/>
       <c r="J102" s="57"/>
     </row>
-    <row r="103" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D103" s="29">
         <v>9</v>
       </c>
       <c r="E103" s="4">
         <v>1</v>
       </c>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
+      <c r="F103" s="4">
+        <v>49.37</v>
+      </c>
+      <c r="G103" s="4">
+        <v>59.41</v>
+      </c>
       <c r="H103" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-10.039999999999999</v>
       </c>
       <c r="I103" s="52">
         <f t="shared" ref="I103" si="7">MAX(F103:F122)</f>
-        <v>0</v>
+        <v>95.04</v>
       </c>
       <c r="J103" s="55">
         <f t="shared" ref="J103" si="8">MAX(G103:G122)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="4:10" x14ac:dyDescent="0.2">
+        <v>76.67</v>
+      </c>
+    </row>
+    <row r="104" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D104" s="30"/>
       <c r="E104" s="3">
         <v>2</v>
       </c>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
+      <c r="F104" s="3">
+        <v>65.73</v>
+      </c>
+      <c r="G104" s="3">
+        <v>68.23</v>
+      </c>
       <c r="H104" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="I104" s="53"/>
       <c r="J104" s="56"/>
     </row>
-    <row r="105" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D105" s="30"/>
       <c r="E105" s="3">
         <v>3</v>
       </c>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
+      <c r="F105" s="3">
+        <v>71.95</v>
+      </c>
+      <c r="G105" s="3">
+        <v>71.81</v>
+      </c>
       <c r="H105" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.14000000000000057</v>
       </c>
       <c r="I105" s="53"/>
       <c r="J105" s="56"/>
     </row>
-    <row r="106" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D106" s="30"/>
       <c r="E106" s="3">
         <v>4</v>
       </c>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
+      <c r="F106" s="3">
+        <v>76</v>
+      </c>
+      <c r="G106" s="3">
+        <v>73.569999999999993</v>
+      </c>
       <c r="H106" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.4300000000000068</v>
       </c>
       <c r="I106" s="53"/>
       <c r="J106" s="56"/>
     </row>
-    <row r="107" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D107" s="30"/>
       <c r="E107" s="3">
         <v>5</v>
       </c>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
+      <c r="F107" s="3">
+        <v>79.180000000000007</v>
+      </c>
+      <c r="G107" s="3">
+        <v>72.790000000000006</v>
+      </c>
       <c r="H107" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.3900000000000006</v>
       </c>
       <c r="I107" s="53"/>
       <c r="J107" s="56"/>
     </row>
-    <row r="108" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D108" s="30"/>
       <c r="E108" s="3">
         <v>6</v>
       </c>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
+      <c r="F108" s="3">
+        <v>81.13</v>
+      </c>
+      <c r="G108" s="3">
+        <v>76.44</v>
+      </c>
       <c r="H108" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.6899999999999977</v>
       </c>
       <c r="I108" s="53"/>
       <c r="J108" s="56"/>
     </row>
-    <row r="109" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D109" s="30"/>
       <c r="E109" s="3">
         <v>7</v>
       </c>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
+      <c r="F109" s="3">
+        <v>83.28</v>
+      </c>
+      <c r="G109" s="3">
+        <v>75.52</v>
+      </c>
       <c r="H109" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7.7600000000000051</v>
       </c>
       <c r="I109" s="53"/>
       <c r="J109" s="56"/>
     </row>
-    <row r="110" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D110" s="30"/>
       <c r="E110" s="3">
         <v>8</v>
       </c>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
+      <c r="F110" s="3">
+        <v>84.96</v>
+      </c>
+      <c r="G110" s="3">
+        <v>76.67</v>
+      </c>
       <c r="H110" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.289999999999992</v>
       </c>
       <c r="I110" s="53"/>
       <c r="J110" s="56"/>
     </row>
-    <row r="111" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D111" s="30"/>
       <c r="E111" s="3">
         <v>9</v>
       </c>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
+      <c r="F111" s="3">
+        <v>86.45</v>
+      </c>
+      <c r="G111" s="3">
+        <v>76.209999999999994</v>
+      </c>
       <c r="H111" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10.240000000000009</v>
       </c>
       <c r="I111" s="53"/>
       <c r="J111" s="56"/>
     </row>
-    <row r="112" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D112" s="30"/>
       <c r="E112" s="3">
         <v>10</v>
       </c>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
+      <c r="F112" s="3">
+        <v>87.82</v>
+      </c>
+      <c r="G112" s="3">
+        <v>75.33</v>
+      </c>
       <c r="H112" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>12.489999999999995</v>
       </c>
       <c r="I112" s="53"/>
       <c r="J112" s="56"/>
     </row>
-    <row r="113" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D113" s="30"/>
       <c r="E113" s="3">
         <v>11</v>
       </c>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
+      <c r="F113" s="3">
+        <v>89.19</v>
+      </c>
+      <c r="G113" s="3">
+        <v>76.08</v>
+      </c>
       <c r="H113" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>13.11</v>
       </c>
       <c r="I113" s="53"/>
       <c r="J113" s="56"/>
     </row>
-    <row r="114" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D114" s="30"/>
       <c r="E114" s="3">
         <v>12</v>
       </c>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
+      <c r="F114" s="3">
+        <v>90.35</v>
+      </c>
+      <c r="G114" s="3">
+        <v>76.650000000000006</v>
+      </c>
       <c r="H114" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>13.699999999999989</v>
       </c>
       <c r="I114" s="53"/>
       <c r="J114" s="56"/>
     </row>
-    <row r="115" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D115" s="30"/>
       <c r="E115" s="3">
         <v>13</v>
       </c>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
+      <c r="F115" s="3">
+        <v>90.92</v>
+      </c>
+      <c r="G115" s="3">
+        <v>75.31</v>
+      </c>
       <c r="H115" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>15.61</v>
       </c>
       <c r="I115" s="53"/>
       <c r="J115" s="56"/>
     </row>
-    <row r="116" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D116" s="30"/>
       <c r="E116" s="3">
         <v>14</v>
       </c>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
+      <c r="F116" s="3">
+        <v>91.71</v>
+      </c>
+      <c r="G116" s="3">
+        <v>76.08</v>
+      </c>
       <c r="H116" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>15.629999999999995</v>
       </c>
       <c r="I116" s="53"/>
       <c r="J116" s="56"/>
     </row>
-    <row r="117" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D117" s="30"/>
       <c r="E117" s="3">
         <v>15</v>
       </c>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
+      <c r="F117" s="3">
+        <v>92.66</v>
+      </c>
+      <c r="G117" s="3">
+        <v>76.239999999999995</v>
+      </c>
       <c r="H117" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="I117" s="53"/>
       <c r="J117" s="56"/>
     </row>
-    <row r="118" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D118" s="30"/>
       <c r="E118" s="3">
         <v>16</v>
       </c>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
+      <c r="F118" s="3">
+        <v>93.37</v>
+      </c>
+      <c r="G118" s="3">
+        <v>76.28</v>
+      </c>
       <c r="H118" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>17.090000000000003</v>
       </c>
       <c r="I118" s="53"/>
       <c r="J118" s="56"/>
     </row>
-    <row r="119" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D119" s="30"/>
       <c r="E119" s="3">
         <v>17</v>
       </c>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
+      <c r="F119" s="3">
+        <v>93.72</v>
+      </c>
+      <c r="G119" s="3">
+        <v>76.2</v>
+      </c>
       <c r="H119" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>17.519999999999996</v>
       </c>
       <c r="I119" s="53"/>
       <c r="J119" s="56"/>
     </row>
-    <row r="120" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D120" s="30"/>
       <c r="E120" s="3">
         <v>18</v>
       </c>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
+      <c r="F120" s="3">
+        <v>94.26</v>
+      </c>
+      <c r="G120" s="3">
+        <v>76.27</v>
+      </c>
       <c r="H120" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>17.990000000000009</v>
       </c>
       <c r="I120" s="53"/>
       <c r="J120" s="56"/>
     </row>
-    <row r="121" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D121" s="30"/>
       <c r="E121" s="3">
         <v>19</v>
       </c>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
+      <c r="F121" s="3">
+        <v>94.7</v>
+      </c>
+      <c r="G121" s="3">
+        <v>75.819999999999993</v>
+      </c>
       <c r="H121" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>18.88000000000001</v>
       </c>
       <c r="I121" s="53"/>
       <c r="J121" s="56"/>
     </row>
-    <row r="122" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D122" s="32"/>
       <c r="E122" s="6">
         <v>20</v>
       </c>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
+      <c r="F122" s="6">
+        <v>95.04</v>
+      </c>
+      <c r="G122" s="6">
+        <v>74.989999999999995</v>
+      </c>
       <c r="H122" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20.050000000000011</v>
       </c>
       <c r="I122" s="54"/>
       <c r="J122" s="57"/>
@@ -11475,19 +15011,23 @@
       <c r="E123" s="4">
         <v>1</v>
       </c>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
+      <c r="F123" s="4">
+        <v>48.97</v>
+      </c>
+      <c r="G123" s="4">
+        <v>57.85</v>
+      </c>
       <c r="H123" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-8.8800000000000026</v>
       </c>
       <c r="I123" s="52">
         <f t="shared" ref="I123:J123" si="9">MAX(F123:F142)</f>
-        <v>0</v>
+        <v>89.24</v>
       </c>
       <c r="J123" s="55">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>80.23</v>
       </c>
     </row>
     <row r="124" spans="4:10" x14ac:dyDescent="0.2">
@@ -11495,11 +15035,15 @@
       <c r="E124" s="3">
         <v>2</v>
       </c>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
+      <c r="F124" s="3">
+        <v>65.680000000000007</v>
+      </c>
+      <c r="G124" s="3">
+        <v>69.12</v>
+      </c>
       <c r="H124" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-3.4399999999999977</v>
       </c>
       <c r="I124" s="53"/>
       <c r="J124" s="56"/>
@@ -11509,11 +15053,15 @@
       <c r="E125" s="3">
         <v>3</v>
       </c>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
+      <c r="F125" s="3">
+        <v>71.95</v>
+      </c>
+      <c r="G125" s="3">
+        <v>72.040000000000006</v>
+      </c>
       <c r="H125" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-9.0000000000003411E-2</v>
       </c>
       <c r="I125" s="53"/>
       <c r="J125" s="56"/>
@@ -11523,11 +15071,15 @@
       <c r="E126" s="3">
         <v>4</v>
       </c>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
+      <c r="F126" s="3">
+        <v>75.55</v>
+      </c>
+      <c r="G126" s="3">
+        <v>74.52</v>
+      </c>
       <c r="H126" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.0300000000000011</v>
       </c>
       <c r="I126" s="53"/>
       <c r="J126" s="56"/>
@@ -11537,11 +15089,15 @@
       <c r="E127" s="3">
         <v>5</v>
       </c>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
+      <c r="F127" s="3">
+        <v>77.959999999999994</v>
+      </c>
+      <c r="G127" s="3">
+        <v>75.22</v>
+      </c>
       <c r="H127" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.7399999999999949</v>
       </c>
       <c r="I127" s="53"/>
       <c r="J127" s="56"/>
@@ -11551,11 +15107,15 @@
       <c r="E128" s="3">
         <v>6</v>
       </c>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
+      <c r="F128" s="3">
+        <v>79.41</v>
+      </c>
+      <c r="G128" s="3">
+        <v>76.510000000000005</v>
+      </c>
       <c r="H128" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.8999999999999915</v>
       </c>
       <c r="I128" s="53"/>
       <c r="J128" s="56"/>
@@ -11565,11 +15125,15 @@
       <c r="E129" s="3">
         <v>7</v>
       </c>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
+      <c r="F129" s="3">
+        <v>80.739999999999995</v>
+      </c>
+      <c r="G129" s="3">
+        <v>77.489999999999995</v>
+      </c>
       <c r="H129" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="I129" s="53"/>
       <c r="J129" s="56"/>
@@ -11579,11 +15143,15 @@
       <c r="E130" s="3">
         <v>8</v>
       </c>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
+      <c r="F130" s="3">
+        <v>81.95</v>
+      </c>
+      <c r="G130" s="3">
+        <v>76.66</v>
+      </c>
       <c r="H130" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.2900000000000063</v>
       </c>
       <c r="I130" s="53"/>
       <c r="J130" s="56"/>
@@ -11593,11 +15161,15 @@
       <c r="E131" s="3">
         <v>9</v>
       </c>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
+      <c r="F131" s="3">
+        <v>82.72</v>
+      </c>
+      <c r="G131" s="3">
+        <v>78.180000000000007</v>
+      </c>
       <c r="H131" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.539999999999992</v>
       </c>
       <c r="I131" s="53"/>
       <c r="J131" s="56"/>
@@ -11607,11 +15179,15 @@
       <c r="E132" s="3">
         <v>10</v>
       </c>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
+      <c r="F132" s="3">
+        <v>83.86</v>
+      </c>
+      <c r="G132" s="3">
+        <v>79.03</v>
+      </c>
       <c r="H132" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.8299999999999983</v>
       </c>
       <c r="I132" s="53"/>
       <c r="J132" s="56"/>
@@ -11621,11 +15197,15 @@
       <c r="E133" s="3">
         <v>11</v>
       </c>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
+      <c r="F133" s="3">
+        <v>84.35</v>
+      </c>
+      <c r="G133" s="3">
+        <v>77.849999999999994</v>
+      </c>
       <c r="H133" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I133" s="53"/>
       <c r="J133" s="56"/>
@@ -11635,11 +15215,15 @@
       <c r="E134" s="3">
         <v>12</v>
       </c>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
+      <c r="F134" s="3">
+        <v>85.31</v>
+      </c>
+      <c r="G134" s="3">
+        <v>79.28</v>
+      </c>
       <c r="H134" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.0300000000000011</v>
       </c>
       <c r="I134" s="53"/>
       <c r="J134" s="56"/>
@@ -11649,11 +15233,15 @@
       <c r="E135" s="3">
         <v>13</v>
       </c>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
+      <c r="F135" s="3">
+        <v>85.95</v>
+      </c>
+      <c r="G135" s="3">
+        <v>79.53</v>
+      </c>
       <c r="H135" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.4200000000000017</v>
       </c>
       <c r="I135" s="53"/>
       <c r="J135" s="56"/>
@@ -11663,11 +15251,15 @@
       <c r="E136" s="3">
         <v>14</v>
       </c>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
+      <c r="F136" s="3">
+        <v>86.35</v>
+      </c>
+      <c r="G136" s="3">
+        <v>79.739999999999995</v>
+      </c>
       <c r="H136" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.6099999999999994</v>
       </c>
       <c r="I136" s="53"/>
       <c r="J136" s="56"/>
@@ -11677,11 +15269,15 @@
       <c r="E137" s="3">
         <v>15</v>
       </c>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
+      <c r="F137" s="3">
+        <v>86.8</v>
+      </c>
+      <c r="G137" s="3">
+        <v>79.55</v>
+      </c>
       <c r="H137" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="I137" s="53"/>
       <c r="J137" s="56"/>
@@ -11691,11 +15287,15 @@
       <c r="E138" s="3">
         <v>16</v>
       </c>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
+      <c r="F138" s="3">
+        <v>87.62</v>
+      </c>
+      <c r="G138" s="3">
+        <v>79.430000000000007</v>
+      </c>
       <c r="H138" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.1899999999999977</v>
       </c>
       <c r="I138" s="53"/>
       <c r="J138" s="56"/>
@@ -11705,11 +15305,15 @@
       <c r="E139" s="3">
         <v>17</v>
       </c>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
+      <c r="F139" s="3">
+        <v>87.64</v>
+      </c>
+      <c r="G139" s="3">
+        <v>80.2</v>
+      </c>
       <c r="H139" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7.4399999999999977</v>
       </c>
       <c r="I139" s="53"/>
       <c r="J139" s="56"/>
@@ -11719,11 +15323,15 @@
       <c r="E140" s="3">
         <v>18</v>
       </c>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
+      <c r="F140" s="3">
+        <v>88.42</v>
+      </c>
+      <c r="G140" s="3">
+        <v>80.040000000000006</v>
+      </c>
       <c r="H140" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.3799999999999955</v>
       </c>
       <c r="I140" s="53"/>
       <c r="J140" s="56"/>
@@ -11733,11 +15341,15 @@
       <c r="E141" s="3">
         <v>19</v>
       </c>
-      <c r="F141" s="3"/>
-      <c r="G141" s="3"/>
+      <c r="F141" s="3">
+        <v>88.86</v>
+      </c>
+      <c r="G141" s="3">
+        <v>80.23</v>
+      </c>
       <c r="H141" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.6299999999999955</v>
       </c>
       <c r="I141" s="53"/>
       <c r="J141" s="56"/>
@@ -11747,11 +15359,15 @@
       <c r="E142" s="6">
         <v>20</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
+      <c r="F142" s="6">
+        <v>89.24</v>
+      </c>
+      <c r="G142" s="6">
+        <v>80.09</v>
+      </c>
       <c r="H142" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9.1499999999999915</v>
       </c>
       <c r="I142" s="54"/>
       <c r="J142" s="57"/>
@@ -15572,8 +19188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7711C3A-5153-46B1-ADD9-E0A1899966C0}">
   <dimension ref="G2:AA22"/>
   <sheetViews>
-    <sheetView topLeftCell="F30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z29" sqref="Z29"/>
+    <sheetView topLeftCell="C27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15659,11 +19275,26 @@
         <f>'Model logs'!H43</f>
         <v>-8.240000000000002</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="K3" s="9">
+        <f>'Model logs'!H63</f>
+        <v>-10.039999999999999</v>
+      </c>
+      <c r="L3" s="9">
+        <f>'Model logs'!H83</f>
+        <v>-7.3799999999999955</v>
+      </c>
+      <c r="M3" s="9">
+        <f>'Model logs'!H103</f>
+        <v>-10.039999999999999</v>
+      </c>
+      <c r="N3" s="9">
+        <f>'Model logs'!H123</f>
+        <v>-8.8800000000000026</v>
+      </c>
+      <c r="O3" s="9">
+        <f>'Model logs'!H143</f>
+        <v>0</v>
+      </c>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -15693,11 +19324,26 @@
         <f>'Model logs'!H44</f>
         <v>-1.7900000000000063</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="K4" s="9">
+        <f>'Model logs'!H64</f>
+        <v>-2.7700000000000102</v>
+      </c>
+      <c r="L4" s="9">
+        <f>'Model logs'!H84</f>
+        <v>-1.0600000000000023</v>
+      </c>
+      <c r="M4" s="9">
+        <f>'Model logs'!H104</f>
+        <v>-2.5</v>
+      </c>
+      <c r="N4" s="9">
+        <f>'Model logs'!H124</f>
+        <v>-3.4399999999999977</v>
+      </c>
+      <c r="O4" s="9">
+        <f>'Model logs'!H144</f>
+        <v>0</v>
+      </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
@@ -15727,11 +19373,26 @@
         <f>'Model logs'!H45</f>
         <v>0.1600000000000108</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="K5" s="9">
+        <f>'Model logs'!H65</f>
+        <v>0.84999999999999432</v>
+      </c>
+      <c r="L5" s="9">
+        <f>'Model logs'!H85</f>
+        <v>2.6999999999999886</v>
+      </c>
+      <c r="M5" s="9">
+        <f>'Model logs'!H105</f>
+        <v>0.14000000000000057</v>
+      </c>
+      <c r="N5" s="9">
+        <f>'Model logs'!H125</f>
+        <v>-9.0000000000003411E-2</v>
+      </c>
+      <c r="O5" s="9">
+        <f>'Model logs'!H145</f>
+        <v>0</v>
+      </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -15761,11 +19422,26 @@
         <f>'Model logs'!H46</f>
         <v>3.6999999999999886</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="K6" s="9">
+        <f>'Model logs'!H66</f>
+        <v>3.1900000000000119</v>
+      </c>
+      <c r="L6" s="9">
+        <f>'Model logs'!H86</f>
+        <v>3.9399999999999977</v>
+      </c>
+      <c r="M6" s="9">
+        <f>'Model logs'!H106</f>
+        <v>2.4300000000000068</v>
+      </c>
+      <c r="N6" s="9">
+        <f>'Model logs'!H126</f>
+        <v>1.0300000000000011</v>
+      </c>
+      <c r="O6" s="9">
+        <f>'Model logs'!H146</f>
+        <v>0</v>
+      </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
@@ -15795,11 +19471,26 @@
         <f>'Model logs'!H47</f>
         <v>5.2600000000000051</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="K7" s="9">
+        <f>'Model logs'!H67</f>
+        <v>4.9899999999999949</v>
+      </c>
+      <c r="L7" s="9">
+        <f>'Model logs'!H87</f>
+        <v>4.019999999999996</v>
+      </c>
+      <c r="M7" s="9">
+        <f>'Model logs'!H107</f>
+        <v>6.3900000000000006</v>
+      </c>
+      <c r="N7" s="9">
+        <f>'Model logs'!H127</f>
+        <v>2.7399999999999949</v>
+      </c>
+      <c r="O7" s="9">
+        <f>'Model logs'!H147</f>
+        <v>0</v>
+      </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
@@ -15829,11 +19520,26 @@
         <f>'Model logs'!H48</f>
         <v>6.0899999999999892</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="K8" s="9">
+        <f>'Model logs'!H68</f>
+        <v>6.480000000000004</v>
+      </c>
+      <c r="L8" s="9">
+        <f>'Model logs'!H88</f>
+        <v>5.8500000000000085</v>
+      </c>
+      <c r="M8" s="9">
+        <f>'Model logs'!H108</f>
+        <v>4.6899999999999977</v>
+      </c>
+      <c r="N8" s="9">
+        <f>'Model logs'!H128</f>
+        <v>2.8999999999999915</v>
+      </c>
+      <c r="O8" s="9">
+        <f>'Model logs'!H148</f>
+        <v>0</v>
+      </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
@@ -15863,11 +19569,26 @@
         <f>'Model logs'!H49</f>
         <v>8.1500000000000057</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+      <c r="K9" s="9">
+        <f>'Model logs'!H69</f>
+        <v>7.5699999999999932</v>
+      </c>
+      <c r="L9" s="9">
+        <f>'Model logs'!H89</f>
+        <v>7.7400000000000091</v>
+      </c>
+      <c r="M9" s="9">
+        <f>'Model logs'!H109</f>
+        <v>7.7600000000000051</v>
+      </c>
+      <c r="N9" s="9">
+        <f>'Model logs'!H129</f>
+        <v>3.25</v>
+      </c>
+      <c r="O9" s="9">
+        <f>'Model logs'!H149</f>
+        <v>0</v>
+      </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
@@ -15897,11 +19618,26 @@
         <f>'Model logs'!H50</f>
         <v>12.969999999999999</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+      <c r="K10" s="9">
+        <f>'Model logs'!H70</f>
+        <v>8.4099999999999966</v>
+      </c>
+      <c r="L10" s="9">
+        <f>'Model logs'!H90</f>
+        <v>8.4499999999999886</v>
+      </c>
+      <c r="M10" s="9">
+        <f>'Model logs'!H110</f>
+        <v>8.289999999999992</v>
+      </c>
+      <c r="N10" s="9">
+        <f>'Model logs'!H130</f>
+        <v>5.2900000000000063</v>
+      </c>
+      <c r="O10" s="9">
+        <f>'Model logs'!H150</f>
+        <v>0</v>
+      </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
@@ -15931,11 +19667,26 @@
         <f>'Model logs'!H51</f>
         <v>10.210000000000008</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
+      <c r="K11" s="9">
+        <f>'Model logs'!H71</f>
+        <v>9.9099999999999966</v>
+      </c>
+      <c r="L11" s="9">
+        <f>'Model logs'!H91</f>
+        <v>9.9000000000000057</v>
+      </c>
+      <c r="M11" s="9">
+        <f>'Model logs'!H111</f>
+        <v>10.240000000000009</v>
+      </c>
+      <c r="N11" s="9">
+        <f>'Model logs'!H131</f>
+        <v>4.539999999999992</v>
+      </c>
+      <c r="O11" s="9">
+        <f>'Model logs'!H151</f>
+        <v>0</v>
+      </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
@@ -15965,11 +19716,26 @@
         <f>'Model logs'!H52</f>
         <v>11.550000000000011</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="K12" s="9">
+        <f>'Model logs'!H72</f>
+        <v>11.349999999999994</v>
+      </c>
+      <c r="L12" s="9">
+        <f>'Model logs'!H92</f>
+        <v>10.840000000000003</v>
+      </c>
+      <c r="M12" s="9">
+        <f>'Model logs'!H112</f>
+        <v>12.489999999999995</v>
+      </c>
+      <c r="N12" s="9">
+        <f>'Model logs'!H132</f>
+        <v>4.8299999999999983</v>
+      </c>
+      <c r="O12" s="9">
+        <f>'Model logs'!H152</f>
+        <v>0</v>
+      </c>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
@@ -15999,11 +19765,26 @@
         <f>'Model logs'!H53</f>
         <v>10.900000000000006</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
+      <c r="K13" s="9">
+        <f>'Model logs'!H73</f>
+        <v>12.89</v>
+      </c>
+      <c r="L13" s="9">
+        <f>'Model logs'!H93</f>
+        <v>12.099999999999994</v>
+      </c>
+      <c r="M13" s="9">
+        <f>'Model logs'!H113</f>
+        <v>13.11</v>
+      </c>
+      <c r="N13" s="9">
+        <f>'Model logs'!H133</f>
+        <v>6.5</v>
+      </c>
+      <c r="O13" s="9">
+        <f>'Model logs'!H153</f>
+        <v>0</v>
+      </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
@@ -16033,11 +19814,26 @@
         <f>'Model logs'!H54</f>
         <v>13.090000000000003</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+      <c r="K14" s="9">
+        <f>'Model logs'!H74</f>
+        <v>14.14</v>
+      </c>
+      <c r="L14" s="9">
+        <f>'Model logs'!H94</f>
+        <v>13.039999999999992</v>
+      </c>
+      <c r="M14" s="9">
+        <f>'Model logs'!H114</f>
+        <v>13.699999999999989</v>
+      </c>
+      <c r="N14" s="9">
+        <f>'Model logs'!H134</f>
+        <v>6.0300000000000011</v>
+      </c>
+      <c r="O14" s="9">
+        <f>'Model logs'!H154</f>
+        <v>0</v>
+      </c>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
@@ -16067,11 +19863,26 @@
         <f>'Model logs'!H55</f>
         <v>13.409999999999997</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
+      <c r="K15" s="9">
+        <f>'Model logs'!H75</f>
+        <v>15.420000000000002</v>
+      </c>
+      <c r="L15" s="9">
+        <f>'Model logs'!H95</f>
+        <v>15.010000000000005</v>
+      </c>
+      <c r="M15" s="9">
+        <f>'Model logs'!H115</f>
+        <v>15.61</v>
+      </c>
+      <c r="N15" s="9">
+        <f>'Model logs'!H135</f>
+        <v>6.4200000000000017</v>
+      </c>
+      <c r="O15" s="9">
+        <f>'Model logs'!H155</f>
+        <v>0</v>
+      </c>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
@@ -16101,11 +19912,26 @@
         <f>'Model logs'!H56</f>
         <v>14.599999999999994</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
+      <c r="K16" s="9">
+        <f>'Model logs'!H76</f>
+        <v>15.679999999999993</v>
+      </c>
+      <c r="L16" s="9">
+        <f>'Model logs'!H96</f>
+        <v>14.299999999999997</v>
+      </c>
+      <c r="M16" s="9">
+        <f>'Model logs'!H116</f>
+        <v>15.629999999999995</v>
+      </c>
+      <c r="N16" s="9">
+        <f>'Model logs'!H136</f>
+        <v>6.6099999999999994</v>
+      </c>
+      <c r="O16" s="9">
+        <f>'Model logs'!H156</f>
+        <v>0</v>
+      </c>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
@@ -16135,11 +19961,26 @@
         <f>'Model logs'!H57</f>
         <v>16.25</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
+      <c r="K17" s="9">
+        <f>'Model logs'!H77</f>
+        <v>16.38000000000001</v>
+      </c>
+      <c r="L17" s="9">
+        <f>'Model logs'!H97</f>
+        <v>16.239999999999995</v>
+      </c>
+      <c r="M17" s="9">
+        <f>'Model logs'!H117</f>
+        <v>16.420000000000002</v>
+      </c>
+      <c r="N17" s="9">
+        <f>'Model logs'!H137</f>
+        <v>7.25</v>
+      </c>
+      <c r="O17" s="9">
+        <f>'Model logs'!H157</f>
+        <v>0</v>
+      </c>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
@@ -16169,11 +20010,26 @@
         <f>'Model logs'!H58</f>
         <v>17.13000000000001</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
+      <c r="K18" s="9">
+        <f>'Model logs'!H78</f>
+        <v>18.47999999999999</v>
+      </c>
+      <c r="L18" s="9">
+        <f>'Model logs'!H98</f>
+        <v>16.02000000000001</v>
+      </c>
+      <c r="M18" s="9">
+        <f>'Model logs'!H118</f>
+        <v>17.090000000000003</v>
+      </c>
+      <c r="N18" s="9">
+        <f>'Model logs'!H138</f>
+        <v>8.1899999999999977</v>
+      </c>
+      <c r="O18" s="9">
+        <f>'Model logs'!H158</f>
+        <v>0</v>
+      </c>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
@@ -16203,11 +20059,26 @@
         <f>'Model logs'!H59</f>
         <v>17.689999999999998</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
+      <c r="K19" s="9">
+        <f>'Model logs'!H79</f>
+        <v>18.759999999999991</v>
+      </c>
+      <c r="L19" s="9">
+        <f>'Model logs'!H99</f>
+        <v>17.11999999999999</v>
+      </c>
+      <c r="M19" s="9">
+        <f>'Model logs'!H119</f>
+        <v>17.519999999999996</v>
+      </c>
+      <c r="N19" s="9">
+        <f>'Model logs'!H139</f>
+        <v>7.4399999999999977</v>
+      </c>
+      <c r="O19" s="9">
+        <f>'Model logs'!H159</f>
+        <v>0</v>
+      </c>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
@@ -16237,11 +20108,26 @@
         <f>'Model logs'!H60</f>
         <v>16.629999999999995</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
+      <c r="K20" s="9">
+        <f>'Model logs'!H80</f>
+        <v>18.480000000000004</v>
+      </c>
+      <c r="L20" s="9">
+        <f>'Model logs'!H100</f>
+        <v>16.829999999999998</v>
+      </c>
+      <c r="M20" s="9">
+        <f>'Model logs'!H120</f>
+        <v>17.990000000000009</v>
+      </c>
+      <c r="N20" s="9">
+        <f>'Model logs'!H140</f>
+        <v>8.3799999999999955</v>
+      </c>
+      <c r="O20" s="9">
+        <f>'Model logs'!H160</f>
+        <v>0</v>
+      </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
@@ -16271,11 +20157,26 @@
         <f>'Model logs'!H61</f>
         <v>18.149999999999991</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
+      <c r="K21" s="9">
+        <f>'Model logs'!H81</f>
+        <v>20.299999999999997</v>
+      </c>
+      <c r="L21" s="9">
+        <f>'Model logs'!H101</f>
+        <v>17.03</v>
+      </c>
+      <c r="M21" s="9">
+        <f>'Model logs'!H121</f>
+        <v>18.88000000000001</v>
+      </c>
+      <c r="N21" s="9">
+        <f>'Model logs'!H141</f>
+        <v>8.6299999999999955</v>
+      </c>
+      <c r="O21" s="9">
+        <f>'Model logs'!H161</f>
+        <v>0</v>
+      </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
@@ -16305,11 +20206,26 @@
         <f>'Model logs'!H62</f>
         <v>17.490000000000009</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
+      <c r="K22" s="9">
+        <f>'Model logs'!H82</f>
+        <v>19.25</v>
+      </c>
+      <c r="L22" s="9">
+        <f>'Model logs'!H102</f>
+        <v>17.739999999999995</v>
+      </c>
+      <c r="M22" s="9">
+        <f>'Model logs'!H122</f>
+        <v>20.050000000000011</v>
+      </c>
+      <c r="N22" s="9">
+        <f>'Model logs'!H142</f>
+        <v>9.1499999999999915</v>
+      </c>
+      <c r="O22" s="9">
+        <f>'Model logs'!H162</f>
+        <v>0</v>
+      </c>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
@@ -16327,6 +20243,483 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB3808C-9710-4289-AA5B-9168F07876A6}">
+  <dimension ref="D5:M64"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
+      <c r="M16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+      <c r="M18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>112</v>
+      </c>
+      <c r="M19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
+      <c r="M20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
+      <c r="M21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+      <c r="M22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+      <c r="M23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>118</v>
+      </c>
+      <c r="M25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>119</v>
+      </c>
+      <c r="M26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>120</v>
+      </c>
+      <c r="M27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>121</v>
+      </c>
+      <c r="M28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>122</v>
+      </c>
+      <c r="M29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>123</v>
+      </c>
+      <c r="M30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>124</v>
+      </c>
+      <c r="M31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>125</v>
+      </c>
+      <c r="M32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>126</v>
+      </c>
+      <c r="M33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>127</v>
+      </c>
+      <c r="M34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>128</v>
+      </c>
+      <c r="M35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>129</v>
+      </c>
+      <c r="M36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>130</v>
+      </c>
+      <c r="M37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>131</v>
+      </c>
+      <c r="M38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>132</v>
+      </c>
+      <c r="M39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>133</v>
+      </c>
+      <c r="M40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>134</v>
+      </c>
+      <c r="M41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>135</v>
+      </c>
+      <c r="M42" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>136</v>
+      </c>
+      <c r="M43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>137</v>
+      </c>
+      <c r="M44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>138</v>
+      </c>
+      <c r="M45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>139</v>
+      </c>
+      <c r="M46" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>140</v>
+      </c>
+      <c r="M47" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>141</v>
+      </c>
+      <c r="M48" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>100</v>
+      </c>
+      <c r="M49" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>142</v>
+      </c>
+      <c r="M50" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>143</v>
+      </c>
+      <c r="M51" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>144</v>
+      </c>
+      <c r="M52" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>98</v>
+      </c>
+      <c r="M53" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>145</v>
+      </c>
+      <c r="M54" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>146</v>
+      </c>
+      <c r="M55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>147</v>
+      </c>
+      <c r="M56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>148</v>
+      </c>
+      <c r="M57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>98</v>
+      </c>
+      <c r="M58" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="M59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="M60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="M61" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="M62" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="M63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="M64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Model.xlsx
+++ b/Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aditya.Tiwari\Documents\Product Management\Begin AI\TSAI\Repositories\Session 8 assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191EB590-18CA-4C0A-AD43-D067B7CD5AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0C8A84-4AC6-4DF7-AC91-DF834B42676F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Model architecture" sheetId="6" r:id="rId1"/>
     <sheet name="Model logs" sheetId="4" r:id="rId2"/>
     <sheet name="Model Comparisons" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Date" comment="{&quot;SkabelonDesign&quot;:{&quot;type&quot;:&quot;Text&quot;,&quot;binding&quot;:&quot;Doc.Prop.Date&quot;}}">#REF!</definedName>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="106">
   <si>
     <t>Epoch</t>
   </si>
@@ -300,9 +299,6 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t xml:space="preserve">Didn't work, model was too heavy without batch norm. Gets stuck in 10% training and test accuracy; stops learning all together. This is basically when the back prop stops working, because the gradients are too small or "vanishing". </t>
-  </si>
-  <si>
     <t xml:space="preserve">The vanishing gradients issue again. </t>
   </si>
   <si>
@@ -384,279 +380,6 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t>----------------------------------------------------------------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Layer (type)               Output Shape         Param #</t>
-  </si>
-  <si>
-    <t>================================================================</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Conv2d-1           [-1, 32, 32, 32]             864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       BatchNorm2d-2           [-1, 32, 32, 32]              64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              ReLU-3           [-1, 32, 32, 32]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Conv2d-4           [-1, 64, 32, 32]          18,432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       BatchNorm2d-5           [-1, 64, 32, 32]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              ReLU-6           [-1, 64, 32, 32]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Conv2d-7           [-1, 64, 16, 16]          16,384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       BatchNorm2d-8           [-1, 64, 16, 16]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              ReLU-9           [-1, 64, 16, 16]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-10           [-1, 32, 16, 16]           2,048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-11           [-1, 32, 16, 16]              64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-12           [-1, 32, 16, 16]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-13           [-1, 32, 16, 16]             288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-14           [-1, 32, 16, 16]              64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-15           [-1, 32, 16, 16]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-16           [-1, 64, 16, 16]           2,048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-17           [-1, 64, 16, 16]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-18           [-1, 64, 16, 16]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-19             [-1, 64, 8, 8]          16,384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-20             [-1, 64, 8, 8]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-21             [-1, 64, 8, 8]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-22             [-1, 32, 8, 8]           2,048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-23             [-1, 32, 8, 8]              64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-24             [-1, 32, 8, 8]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-25             [-1, 64, 6, 6]          18,432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-26             [-1, 64, 6, 6]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-27             [-1, 64, 6, 6]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-28             [-1, 64, 6, 6]          36,864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-29             [-1, 64, 6, 6]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-30             [-1, 64, 6, 6]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-31             [-1, 64, 3, 3]          16,384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-32             [-1, 64, 3, 3]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-33             [-1, 64, 3, 3]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-34             [-1, 32, 3, 3]           2,048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-35             [-1, 32, 3, 3]              64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-36             [-1, 32, 3, 3]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-37             [-1, 64, 3, 3]          18,432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-38             [-1, 64, 3, 3]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-39             [-1, 64, 3, 3]               0</t>
-  </si>
-  <si>
-    <t>AdaptiveAvgPool2d-40             [-1, 64, 1, 1]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-41             [-1, 10, 1, 1]             640</t>
-  </si>
-  <si>
-    <t>Total params: 152,640</t>
-  </si>
-  <si>
-    <t>Trainable params: 152,640</t>
-  </si>
-  <si>
-    <t>Non-trainable params: 0</t>
-  </si>
-  <si>
-    <t>Input size (MB): 0.01</t>
-  </si>
-  <si>
-    <t>Forward/backward pass size (MB): 3.65</t>
-  </si>
-  <si>
-    <t>Params size (MB): 0.58</t>
-  </si>
-  <si>
-    <t>Estimated Total Size (MB): 4.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Conv2d-7          [-1, 128, 32, 32]          73,728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       BatchNorm2d-8          [-1, 128, 32, 32]             256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              ReLU-9          [-1, 128, 32, 32]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-10           [-1, 64, 16, 16]          32,768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-11           [-1, 64, 16, 16]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-12           [-1, 64, 16, 16]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-13           [-1, 32, 16, 16]           2,048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-16           [-1, 64, 16, 16]          18,432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-19           [-1, 64, 16, 16]             576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-20           [-1, 64, 16, 16]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-21           [-1, 64, 16, 16]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-22          [-1, 128, 16, 16]           8,192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-23          [-1, 128, 16, 16]             256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-24          [-1, 128, 16, 16]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-25             [-1, 64, 8, 8]          32,768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-26             [-1, 64, 8, 8]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-27             [-1, 64, 8, 8]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-28             [-1, 32, 8, 8]           2,048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-29             [-1, 32, 8, 8]              64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-30             [-1, 32, 8, 8]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-31             [-1, 64, 6, 6]          18,432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-32             [-1, 64, 6, 6]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-33             [-1, 64, 6, 6]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-34             [-1, 64, 6, 6]          36,864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-35             [-1, 64, 6, 6]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-36             [-1, 64, 6, 6]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-37             [-1, 64, 3, 3]          16,384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-40             [-1, 32, 3, 3]           2,048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-41             [-1, 32, 3, 3]              64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-42             [-1, 32, 3, 3]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-43             [-1, 64, 3, 3]          18,432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-44             [-1, 64, 3, 3]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-45             [-1, 64, 3, 3]               0</t>
-  </si>
-  <si>
-    <t>AdaptiveAvgPool2d-46             [-1, 64, 1, 1]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-47             [-1, 10, 1, 1]             640</t>
-  </si>
-  <si>
-    <t>Total params: 284,576</t>
-  </si>
-  <si>
-    <t>Trainable params: 284,576</t>
-  </si>
-  <si>
-    <t>Forward/backward pass size (MB): 7.59</t>
-  </si>
-  <si>
-    <t>Params size (MB): 1.09</t>
-  </si>
-  <si>
-    <t>Estimated Total Size (MB): 8.69</t>
   </si>
   <si>
     <r>
@@ -782,6 +505,9 @@
     <t>Same as Model 7</t>
   </si>
   <si>
+    <t>Didn't work, model had too many layers. Gets stuck in 10% training and test accuracy; stops learning all together. This is basically when the back prop stops working, because the gradients are too small or "vanishing".</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Target - </t>
     </r>
@@ -811,7 +537,97 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Significant improvements in test accuracy. Training accuracy dropped, probably because data is harder to learn from. Overall delta is much tighter. Best model so far. </t>
+      <t xml:space="preserve">Significant improvements in test accuracy. Training accuracy dropped, probably because data is harder to learn from. Or is it better seen as that we've addressed overfitting? Overall delta is much tighter. Best model so far. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Build up on model 10, apply more augmentation. This time ShiftScaleRotate. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Analysis - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Further improvement in test accuracy, not reached target yet. Further drop in training accuracy, and hence overall lower delta is even tighter. Best model so far.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Build up on model 11, tune the ShiftScaleRotate hyperparameters. Earlier they dialed in low on the conservative side, this time trying out moderate values, in line with most research papers. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Analysis - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Was worth it!! Slight boost in test accuracy, further drop in training accuracy. The model is no longer over-fitting, it is "just right". Best model so far, with model 11 being a very close second. Can pivot to either in next rounds.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Build up on model 12, add more augmentation. CoarseDropout or cutouts this time. Hopefully, this will boost the model training accuracy, which should boost test accuracy, while keeping the delta as before. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Analysis - </t>
     </r>
   </si>
 </sst>
@@ -1806,15 +1622,15 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="8"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model Comparisons'!$K$2</c:f>
+              <c:f>'Model Comparisons'!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Model 7</c:v>
+                  <c:v>Model 12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1822,166 +1638,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Model Comparisons'!$G$7:$G$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Model Comparisons'!$K$7:$K$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>4.9899999999999949</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.480000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5699999999999932</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.4099999999999966</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.9099999999999966</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.349999999999994</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.89</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.420000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15.679999999999993</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16.38000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18.47999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18.759999999999991</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18.480000000000004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5168-4045-BDD9-686458049E54}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Model Comparisons'!$N$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Model 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -1994,13 +1651,13 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent3">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -2067,57 +1724,57 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model Comparisons'!$N$7:$N$22</c:f>
+              <c:f>'Model Comparisons'!$P$7:$P$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2.7399999999999949</c:v>
+                  <c:v>-3.0799999999999983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8999999999999915</c:v>
+                  <c:v>-1.019999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.25</c:v>
+                  <c:v>-1.9200000000000017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2900000000000063</c:v>
+                  <c:v>-0.68999999999999773</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.539999999999992</c:v>
+                  <c:v>-1.5799999999999983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8299999999999983</c:v>
+                  <c:v>-0.76000000000000512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5</c:v>
+                  <c:v>-0.10999999999999943</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0300000000000011</c:v>
+                  <c:v>0.51000000000000512</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.4200000000000017</c:v>
+                  <c:v>0.31999999999999318</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.6099999999999994</c:v>
+                  <c:v>-0.17000000000000171</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.25</c:v>
+                  <c:v>1.2299999999999898</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.1899999999999977</c:v>
+                  <c:v>1.480000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.4399999999999977</c:v>
+                  <c:v>0.46999999999999886</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.3799999999999955</c:v>
+                  <c:v>0.56000000000000227</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.6299999999999955</c:v>
+                  <c:v>1.269999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.1499999999999915</c:v>
+                  <c:v>0.56000000000000227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2125,7 +1782,172 @@
           <c:smooth val="1"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5168-4045-BDD9-686458049E54}"/>
+              <c16:uniqueId val="{00000008-5168-4045-BDD9-686458049E54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model Comparisons'!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model Comparisons'!$G$7:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model Comparisons'!$Q$7:$Q$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-5168-4045-BDD9-686458049E54}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2680,6 +2502,185 @@
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$K$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Model 7</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$G$7:$G$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$K$7:$K$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>4.9899999999999949</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.480000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.5699999999999932</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.4099999999999966</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9.9099999999999966</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>11.349999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12.89</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>14.14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>15.420000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>15.679999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>16.38000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>18.47999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>18.759999999999991</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>18.480000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>20.299999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>19.25</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-5168-4045-BDD9-686458049E54}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
                 <c:idx val="4"/>
                 <c:order val="4"/>
                 <c:tx>
@@ -3032,6 +3033,191 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-5168-4045-BDD9-686458049E54}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$N$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Model 10</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$G$7:$G$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$N$7:$N$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>2.7399999999999949</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.8999999999999915</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.25</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.2900000000000063</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.539999999999992</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.8299999999999983</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6.0300000000000011</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>6.4200000000000017</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>6.6099999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>7.25</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>8.1899999999999977</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>7.4399999999999977</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>8.3799999999999955</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>8.6299999999999955</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>9.1499999999999915</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-5168-4045-BDD9-686458049E54}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -3163,52 +3349,52 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="16"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>-0.45000000000000284</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0</c:v>
+                        <c:v>1.9200000000000017</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0</c:v>
+                        <c:v>1.5200000000000102</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
+                        <c:v>1.2199999999999989</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0</c:v>
+                        <c:v>1.9399999999999977</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0</c:v>
+                        <c:v>3.4699999999999989</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0</c:v>
+                        <c:v>2.4400000000000119</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0</c:v>
+                        <c:v>3.2199999999999989</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0</c:v>
+                        <c:v>3.4200000000000017</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0</c:v>
+                        <c:v>2.9599999999999937</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0</c:v>
+                        <c:v>3.5099999999999909</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0</c:v>
+                        <c:v>3.4699999999999989</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0</c:v>
+                        <c:v>3.1899999999999977</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0</c:v>
+                        <c:v>3.8999999999999915</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0</c:v>
+                        <c:v>4.25</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>0</c:v>
+                        <c:v>5.0699999999999932</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3217,280 +3403,6 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-5168-4045-BDD9-686458049E54}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="8"/>
-                <c:order val="8"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$P$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Model 12</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent3">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$G$7:$G$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                      <c:pt idx="0">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>20</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$P$7:$P$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="1"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000008-5168-4045-BDD9-686458049E54}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="9"/>
-                <c:order val="9"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$Q$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Model 13</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent4">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent4">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$G$7:$G$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                      <c:pt idx="0">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>20</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$Q$7:$Q$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="1"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000009-5168-4045-BDD9-686458049E54}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -6081,11 +5993,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5155A9C0-960B-43B5-AA06-FF471900653F}">
-  <dimension ref="C4:S121"/>
+  <dimension ref="C4:S124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
+      <pane ySplit="5" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S126" sqref="S126:S131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6206,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="46" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.2">
@@ -7324,7 +7236,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.2">
@@ -7833,7 +7745,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.2">
@@ -8731,7 +8643,7 @@
         <v>1</v>
       </c>
       <c r="S51" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="3:19" x14ac:dyDescent="0.2">
@@ -9360,7 +9272,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E63" s="61"/>
       <c r="F63" s="61"/>
@@ -9377,7 +9289,7 @@
       <c r="Q63" s="61"/>
       <c r="R63" s="62"/>
       <c r="S63" s="63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="3:19" ht="15" x14ac:dyDescent="0.2">
@@ -9434,7 +9346,7 @@
         <v>1</v>
       </c>
       <c r="S64" s="46" t="s">
-        <v>191</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="3:19" x14ac:dyDescent="0.2">
@@ -9781,7 +9693,7 @@
         <v>81</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F71" s="3">
         <v>3</v>
@@ -10167,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="S77" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="3:19" x14ac:dyDescent="0.2">
@@ -10345,7 +10257,7 @@
         <v>79</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F81" s="3">
         <v>3</v>
@@ -10400,7 +10312,7 @@
       <c r="C82" s="35"/>
       <c r="D82" s="27"/>
       <c r="E82" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
@@ -10569,7 +10481,7 @@
         <v>81</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F85" s="3">
         <v>3</v>
@@ -10955,7 +10867,7 @@
         <v>1</v>
       </c>
       <c r="S91" s="46" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="3:19" x14ac:dyDescent="0.2">
@@ -11243,7 +11155,7 @@
       <c r="C97" s="35"/>
       <c r="D97" s="28"/>
       <c r="E97" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F97" s="3">
         <v>3</v>
@@ -11298,7 +11210,7 @@
       <c r="C98" s="35"/>
       <c r="D98" s="27"/>
       <c r="E98" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
@@ -11467,7 +11379,7 @@
         <v>81</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F101" s="3">
         <v>3</v>
@@ -11853,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="S107" s="64" t="s">
-        <v>189</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="3:19" x14ac:dyDescent="0.2">
@@ -12031,7 +11943,7 @@
         <v>79</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F111" s="3">
         <v>3</v>
@@ -12086,7 +11998,7 @@
       <c r="C112" s="35"/>
       <c r="D112" s="27"/>
       <c r="E112" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
@@ -12255,7 +12167,7 @@
         <v>81</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F115" s="3">
         <v>3</v>
@@ -12587,12 +12499,12 @@
       </c>
       <c r="S120" s="65"/>
     </row>
-    <row r="121" spans="3:19" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:19" ht="167.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C121" s="60">
         <v>10</v>
       </c>
       <c r="D121" s="66" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="E121" s="67"/>
       <c r="F121" s="67"/>
@@ -12609,12 +12521,90 @@
       <c r="Q121" s="67"/>
       <c r="R121" s="68"/>
       <c r="S121" s="69" t="s">
-        <v>193</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="122" spans="3:19" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C122" s="60">
+        <v>11</v>
+      </c>
+      <c r="D122" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="E122" s="67"/>
+      <c r="F122" s="67"/>
+      <c r="G122" s="67"/>
+      <c r="H122" s="67"/>
+      <c r="I122" s="67"/>
+      <c r="J122" s="67"/>
+      <c r="K122" s="67"/>
+      <c r="L122" s="67"/>
+      <c r="M122" s="67"/>
+      <c r="N122" s="67"/>
+      <c r="O122" s="67"/>
+      <c r="P122" s="67"/>
+      <c r="Q122" s="67"/>
+      <c r="R122" s="68"/>
+      <c r="S122" s="69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="123" spans="3:19" ht="204" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C123" s="60">
+        <v>12</v>
+      </c>
+      <c r="D123" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="E123" s="67"/>
+      <c r="F123" s="67"/>
+      <c r="G123" s="67"/>
+      <c r="H123" s="67"/>
+      <c r="I123" s="67"/>
+      <c r="J123" s="67"/>
+      <c r="K123" s="67"/>
+      <c r="L123" s="67"/>
+      <c r="M123" s="67"/>
+      <c r="N123" s="67"/>
+      <c r="O123" s="67"/>
+      <c r="P123" s="67"/>
+      <c r="Q123" s="67"/>
+      <c r="R123" s="68"/>
+      <c r="S123" s="69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="124" spans="3:19" ht="200.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C124" s="60">
+        <v>13</v>
+      </c>
+      <c r="D124" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="E124" s="67"/>
+      <c r="F124" s="67"/>
+      <c r="G124" s="67"/>
+      <c r="H124" s="67"/>
+      <c r="I124" s="67"/>
+      <c r="J124" s="67"/>
+      <c r="K124" s="67"/>
+      <c r="L124" s="67"/>
+      <c r="M124" s="67"/>
+      <c r="N124" s="67"/>
+      <c r="O124" s="67"/>
+      <c r="P124" s="67"/>
+      <c r="Q124" s="67"/>
+      <c r="R124" s="68"/>
+      <c r="S124" s="69" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="60">
     <mergeCell ref="D121:R121"/>
+    <mergeCell ref="D122:R122"/>
+    <mergeCell ref="D123:R123"/>
+    <mergeCell ref="D124:R124"/>
     <mergeCell ref="C107:C120"/>
     <mergeCell ref="S107:S120"/>
     <mergeCell ref="D109:D110"/>
@@ -12682,8 +12672,8 @@
   <dimension ref="D1:Q402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R131" sqref="R131"/>
+      <pane ySplit="2" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A123" sqref="A123:XFD142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13900,7 +13890,7 @@
       <c r="I62" s="54"/>
       <c r="J62" s="57"/>
     </row>
-    <row r="63" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D63" s="29">
         <v>7</v>
       </c>
@@ -13926,7 +13916,7 @@
         <v>76.67</v>
       </c>
     </row>
-    <row r="64" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D64" s="30"/>
       <c r="E64" s="3">
         <v>2</v>
@@ -13944,7 +13934,7 @@
       <c r="I64" s="53"/>
       <c r="J64" s="56"/>
     </row>
-    <row r="65" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D65" s="30"/>
       <c r="E65" s="3">
         <v>3</v>
@@ -13962,7 +13952,7 @@
       <c r="I65" s="53"/>
       <c r="J65" s="56"/>
     </row>
-    <row r="66" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D66" s="30"/>
       <c r="E66" s="3">
         <v>4</v>
@@ -13980,7 +13970,7 @@
       <c r="I66" s="53"/>
       <c r="J66" s="56"/>
     </row>
-    <row r="67" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D67" s="30"/>
       <c r="E67" s="3">
         <v>5</v>
@@ -13998,7 +13988,7 @@
       <c r="I67" s="53"/>
       <c r="J67" s="56"/>
     </row>
-    <row r="68" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D68" s="30"/>
       <c r="E68" s="3">
         <v>6</v>
@@ -14016,7 +14006,7 @@
       <c r="I68" s="53"/>
       <c r="J68" s="56"/>
     </row>
-    <row r="69" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D69" s="30"/>
       <c r="E69" s="3">
         <v>7</v>
@@ -14034,7 +14024,7 @@
       <c r="I69" s="53"/>
       <c r="J69" s="56"/>
     </row>
-    <row r="70" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D70" s="30"/>
       <c r="E70" s="3">
         <v>8</v>
@@ -14052,7 +14042,7 @@
       <c r="I70" s="53"/>
       <c r="J70" s="56"/>
     </row>
-    <row r="71" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D71" s="30"/>
       <c r="E71" s="3">
         <v>9</v>
@@ -14070,7 +14060,7 @@
       <c r="I71" s="53"/>
       <c r="J71" s="56"/>
     </row>
-    <row r="72" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D72" s="30"/>
       <c r="E72" s="3">
         <v>10</v>
@@ -14088,7 +14078,7 @@
       <c r="I72" s="53"/>
       <c r="J72" s="56"/>
     </row>
-    <row r="73" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D73" s="30"/>
       <c r="E73" s="3">
         <v>11</v>
@@ -14106,7 +14096,7 @@
       <c r="I73" s="53"/>
       <c r="J73" s="56"/>
     </row>
-    <row r="74" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D74" s="30"/>
       <c r="E74" s="3">
         <v>12</v>
@@ -14124,7 +14114,7 @@
       <c r="I74" s="53"/>
       <c r="J74" s="56"/>
     </row>
-    <row r="75" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D75" s="30"/>
       <c r="E75" s="3">
         <v>13</v>
@@ -14142,7 +14132,7 @@
       <c r="I75" s="53"/>
       <c r="J75" s="56"/>
     </row>
-    <row r="76" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D76" s="30"/>
       <c r="E76" s="3">
         <v>14</v>
@@ -14160,7 +14150,7 @@
       <c r="I76" s="53"/>
       <c r="J76" s="56"/>
     </row>
-    <row r="77" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D77" s="30"/>
       <c r="E77" s="3">
         <v>15</v>
@@ -14178,7 +14168,7 @@
       <c r="I77" s="53"/>
       <c r="J77" s="56"/>
     </row>
-    <row r="78" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D78" s="30"/>
       <c r="E78" s="3">
         <v>16</v>
@@ -14196,7 +14186,7 @@
       <c r="I78" s="53"/>
       <c r="J78" s="56"/>
     </row>
-    <row r="79" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D79" s="30"/>
       <c r="E79" s="3">
         <v>17</v>
@@ -14214,7 +14204,7 @@
       <c r="I79" s="53"/>
       <c r="J79" s="56"/>
     </row>
-    <row r="80" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D80" s="30"/>
       <c r="E80" s="3">
         <v>18</v>
@@ -14232,7 +14222,7 @@
       <c r="I80" s="53"/>
       <c r="J80" s="56"/>
     </row>
-    <row r="81" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D81" s="30"/>
       <c r="E81" s="3">
         <v>19</v>
@@ -14250,7 +14240,7 @@
       <c r="I81" s="53"/>
       <c r="J81" s="56"/>
     </row>
-    <row r="82" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D82" s="32"/>
       <c r="E82" s="6">
         <v>20</v>
@@ -15004,7 +14994,7 @@
       <c r="I122" s="54"/>
       <c r="J122" s="57"/>
     </row>
-    <row r="123" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D123" s="29">
         <v>10</v>
       </c>
@@ -15030,7 +15020,7 @@
         <v>80.23</v>
       </c>
     </row>
-    <row r="124" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D124" s="30"/>
       <c r="E124" s="3">
         <v>2</v>
@@ -15048,7 +15038,7 @@
       <c r="I124" s="53"/>
       <c r="J124" s="56"/>
     </row>
-    <row r="125" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D125" s="30"/>
       <c r="E125" s="3">
         <v>3</v>
@@ -15066,7 +15056,7 @@
       <c r="I125" s="53"/>
       <c r="J125" s="56"/>
     </row>
-    <row r="126" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D126" s="30"/>
       <c r="E126" s="3">
         <v>4</v>
@@ -15084,7 +15074,7 @@
       <c r="I126" s="53"/>
       <c r="J126" s="56"/>
     </row>
-    <row r="127" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D127" s="30"/>
       <c r="E127" s="3">
         <v>5</v>
@@ -15102,7 +15092,7 @@
       <c r="I127" s="53"/>
       <c r="J127" s="56"/>
     </row>
-    <row r="128" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D128" s="30"/>
       <c r="E128" s="3">
         <v>6</v>
@@ -15120,7 +15110,7 @@
       <c r="I128" s="53"/>
       <c r="J128" s="56"/>
     </row>
-    <row r="129" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D129" s="30"/>
       <c r="E129" s="3">
         <v>7</v>
@@ -15138,7 +15128,7 @@
       <c r="I129" s="53"/>
       <c r="J129" s="56"/>
     </row>
-    <row r="130" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D130" s="30"/>
       <c r="E130" s="3">
         <v>8</v>
@@ -15156,7 +15146,7 @@
       <c r="I130" s="53"/>
       <c r="J130" s="56"/>
     </row>
-    <row r="131" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D131" s="30"/>
       <c r="E131" s="3">
         <v>9</v>
@@ -15174,7 +15164,7 @@
       <c r="I131" s="53"/>
       <c r="J131" s="56"/>
     </row>
-    <row r="132" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D132" s="30"/>
       <c r="E132" s="3">
         <v>10</v>
@@ -15192,7 +15182,7 @@
       <c r="I132" s="53"/>
       <c r="J132" s="56"/>
     </row>
-    <row r="133" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D133" s="30"/>
       <c r="E133" s="3">
         <v>11</v>
@@ -15210,7 +15200,7 @@
       <c r="I133" s="53"/>
       <c r="J133" s="56"/>
     </row>
-    <row r="134" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D134" s="30"/>
       <c r="E134" s="3">
         <v>12</v>
@@ -15228,7 +15218,7 @@
       <c r="I134" s="53"/>
       <c r="J134" s="56"/>
     </row>
-    <row r="135" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D135" s="30"/>
       <c r="E135" s="3">
         <v>13</v>
@@ -15246,7 +15236,7 @@
       <c r="I135" s="53"/>
       <c r="J135" s="56"/>
     </row>
-    <row r="136" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D136" s="30"/>
       <c r="E136" s="3">
         <v>14</v>
@@ -15264,7 +15254,7 @@
       <c r="I136" s="53"/>
       <c r="J136" s="56"/>
     </row>
-    <row r="137" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D137" s="30"/>
       <c r="E137" s="3">
         <v>15</v>
@@ -15282,7 +15272,7 @@
       <c r="I137" s="53"/>
       <c r="J137" s="56"/>
     </row>
-    <row r="138" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D138" s="30"/>
       <c r="E138" s="3">
         <v>16</v>
@@ -15300,7 +15290,7 @@
       <c r="I138" s="53"/>
       <c r="J138" s="56"/>
     </row>
-    <row r="139" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D139" s="30"/>
       <c r="E139" s="3">
         <v>17</v>
@@ -15318,7 +15308,7 @@
       <c r="I139" s="53"/>
       <c r="J139" s="56"/>
     </row>
-    <row r="140" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D140" s="30"/>
       <c r="E140" s="3">
         <v>18</v>
@@ -15336,7 +15326,7 @@
       <c r="I140" s="53"/>
       <c r="J140" s="56"/>
     </row>
-    <row r="141" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D141" s="30"/>
       <c r="E141" s="3">
         <v>19</v>
@@ -15354,7 +15344,7 @@
       <c r="I141" s="53"/>
       <c r="J141" s="56"/>
     </row>
-    <row r="142" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D142" s="32"/>
       <c r="E142" s="6">
         <v>20</v>
@@ -15379,19 +15369,23 @@
       <c r="E143" s="4">
         <v>1</v>
       </c>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
+      <c r="F143" s="4">
+        <v>47.6</v>
+      </c>
+      <c r="G143" s="4">
+        <v>59.24</v>
+      </c>
       <c r="H143" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-11.64</v>
       </c>
       <c r="I143" s="52">
         <f t="shared" ref="I143" si="10">MAX(F143:F162)</f>
-        <v>0</v>
+        <v>86.1</v>
       </c>
       <c r="J143" s="55">
         <f t="shared" ref="J143" si="11">MAX(G143:G162)</f>
-        <v>0</v>
+        <v>82.05</v>
       </c>
     </row>
     <row r="144" spans="4:10" x14ac:dyDescent="0.2">
@@ -15399,11 +15393,15 @@
       <c r="E144" s="3">
         <v>2</v>
       </c>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
+      <c r="F144" s="3">
+        <v>64.17</v>
+      </c>
+      <c r="G144" s="3">
+        <v>67.27</v>
+      </c>
       <c r="H144" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-3.0999999999999943</v>
       </c>
       <c r="I144" s="53"/>
       <c r="J144" s="56"/>
@@ -15413,11 +15411,15 @@
       <c r="E145" s="3">
         <v>3</v>
       </c>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
+      <c r="F145" s="3">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="G145" s="3">
+        <v>68.819999999999993</v>
+      </c>
       <c r="H145" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.1700000000000017</v>
       </c>
       <c r="I145" s="53"/>
       <c r="J145" s="56"/>
@@ -15427,11 +15429,15 @@
       <c r="E146" s="3">
         <v>4</v>
       </c>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
+      <c r="F146" s="3">
+        <v>73.180000000000007</v>
+      </c>
+      <c r="G146" s="3">
+        <v>72.91</v>
+      </c>
       <c r="H146" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.27000000000001023</v>
       </c>
       <c r="I146" s="53"/>
       <c r="J146" s="56"/>
@@ -15441,11 +15447,15 @@
       <c r="E147" s="3">
         <v>5</v>
       </c>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
+      <c r="F147" s="3">
+        <v>75.53</v>
+      </c>
+      <c r="G147" s="3">
+        <v>75.98</v>
+      </c>
       <c r="H147" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-0.45000000000000284</v>
       </c>
       <c r="I147" s="53"/>
       <c r="J147" s="56"/>
@@ -15455,11 +15465,15 @@
       <c r="E148" s="3">
         <v>6</v>
       </c>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
+      <c r="F148" s="3">
+        <v>77.28</v>
+      </c>
+      <c r="G148" s="3">
+        <v>75.36</v>
+      </c>
       <c r="H148" s="3">
         <f t="shared" ref="H148:H211" si="12">F148-G148</f>
-        <v>0</v>
+        <v>1.9200000000000017</v>
       </c>
       <c r="I148" s="53"/>
       <c r="J148" s="56"/>
@@ -15469,11 +15483,15 @@
       <c r="E149" s="3">
         <v>7</v>
       </c>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
+      <c r="F149" s="3">
+        <v>78.510000000000005</v>
+      </c>
+      <c r="G149" s="3">
+        <v>76.989999999999995</v>
+      </c>
       <c r="H149" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.5200000000000102</v>
       </c>
       <c r="I149" s="53"/>
       <c r="J149" s="56"/>
@@ -15483,11 +15501,15 @@
       <c r="E150" s="3">
         <v>8</v>
       </c>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
+      <c r="F150" s="3">
+        <v>79.709999999999994</v>
+      </c>
+      <c r="G150" s="3">
+        <v>78.489999999999995</v>
+      </c>
       <c r="H150" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.2199999999999989</v>
       </c>
       <c r="I150" s="53"/>
       <c r="J150" s="56"/>
@@ -15497,11 +15519,15 @@
       <c r="E151" s="3">
         <v>9</v>
       </c>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
+      <c r="F151" s="3">
+        <v>80.69</v>
+      </c>
+      <c r="G151" s="3">
+        <v>78.75</v>
+      </c>
       <c r="H151" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.9399999999999977</v>
       </c>
       <c r="I151" s="53"/>
       <c r="J151" s="56"/>
@@ -15511,11 +15537,15 @@
       <c r="E152" s="3">
         <v>10</v>
       </c>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
+      <c r="F152" s="3">
+        <v>81.56</v>
+      </c>
+      <c r="G152" s="3">
+        <v>78.09</v>
+      </c>
       <c r="H152" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3.4699999999999989</v>
       </c>
       <c r="I152" s="53"/>
       <c r="J152" s="56"/>
@@ -15525,11 +15555,15 @@
       <c r="E153" s="3">
         <v>11</v>
       </c>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
+      <c r="F153" s="3">
+        <v>82.01</v>
+      </c>
+      <c r="G153" s="3">
+        <v>79.569999999999993</v>
+      </c>
       <c r="H153" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.4400000000000119</v>
       </c>
       <c r="I153" s="53"/>
       <c r="J153" s="56"/>
@@ -15539,11 +15573,15 @@
       <c r="E154" s="3">
         <v>12</v>
       </c>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
+      <c r="F154" s="3">
+        <v>82.84</v>
+      </c>
+      <c r="G154" s="3">
+        <v>79.62</v>
+      </c>
       <c r="H154" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3.2199999999999989</v>
       </c>
       <c r="I154" s="53"/>
       <c r="J154" s="56"/>
@@ -15553,11 +15591,15 @@
       <c r="E155" s="3">
         <v>13</v>
       </c>
-      <c r="F155" s="3"/>
-      <c r="G155" s="3"/>
+      <c r="F155" s="3">
+        <v>83.58</v>
+      </c>
+      <c r="G155" s="3">
+        <v>80.16</v>
+      </c>
       <c r="H155" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3.4200000000000017</v>
       </c>
       <c r="I155" s="53"/>
       <c r="J155" s="56"/>
@@ -15567,11 +15609,15 @@
       <c r="E156" s="3">
         <v>14</v>
       </c>
-      <c r="F156" s="3"/>
-      <c r="G156" s="3"/>
+      <c r="F156" s="3">
+        <v>83.72</v>
+      </c>
+      <c r="G156" s="3">
+        <v>80.760000000000005</v>
+      </c>
       <c r="H156" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.9599999999999937</v>
       </c>
       <c r="I156" s="53"/>
       <c r="J156" s="56"/>
@@ -15581,11 +15627,15 @@
       <c r="E157" s="3">
         <v>15</v>
       </c>
-      <c r="F157" s="3"/>
-      <c r="G157" s="3"/>
+      <c r="F157" s="3">
+        <v>84.41</v>
+      </c>
+      <c r="G157" s="3">
+        <v>80.900000000000006</v>
+      </c>
       <c r="H157" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3.5099999999999909</v>
       </c>
       <c r="I157" s="53"/>
       <c r="J157" s="56"/>
@@ -15595,11 +15645,15 @@
       <c r="E158" s="3">
         <v>16</v>
       </c>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3"/>
+      <c r="F158" s="3">
+        <v>85.06</v>
+      </c>
+      <c r="G158" s="3">
+        <v>81.59</v>
+      </c>
       <c r="H158" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3.4699999999999989</v>
       </c>
       <c r="I158" s="53"/>
       <c r="J158" s="56"/>
@@ -15609,11 +15663,15 @@
       <c r="E159" s="3">
         <v>17</v>
       </c>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3"/>
+      <c r="F159" s="3">
+        <v>85.24</v>
+      </c>
+      <c r="G159" s="3">
+        <v>82.05</v>
+      </c>
       <c r="H159" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3.1899999999999977</v>
       </c>
       <c r="I159" s="53"/>
       <c r="J159" s="56"/>
@@ -15623,11 +15681,15 @@
       <c r="E160" s="3">
         <v>18</v>
       </c>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
+      <c r="F160" s="3">
+        <v>85.55</v>
+      </c>
+      <c r="G160" s="3">
+        <v>81.650000000000006</v>
+      </c>
       <c r="H160" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3.8999999999999915</v>
       </c>
       <c r="I160" s="53"/>
       <c r="J160" s="56"/>
@@ -15637,11 +15699,15 @@
       <c r="E161" s="3">
         <v>19</v>
       </c>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
+      <c r="F161" s="3">
+        <v>85.82</v>
+      </c>
+      <c r="G161" s="3">
+        <v>81.569999999999993</v>
+      </c>
       <c r="H161" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="I161" s="53"/>
       <c r="J161" s="56"/>
@@ -15651,11 +15717,15 @@
       <c r="E162" s="6">
         <v>20</v>
       </c>
-      <c r="F162" s="6"/>
-      <c r="G162" s="6"/>
+      <c r="F162" s="6">
+        <v>86.1</v>
+      </c>
+      <c r="G162" s="6">
+        <v>81.03</v>
+      </c>
       <c r="H162" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5.0699999999999932</v>
       </c>
       <c r="I162" s="54"/>
       <c r="J162" s="57"/>
@@ -15667,19 +15737,23 @@
       <c r="E163" s="4">
         <v>1</v>
       </c>
-      <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
+      <c r="F163" s="4">
+        <v>46.33</v>
+      </c>
+      <c r="G163" s="4">
+        <v>53.09</v>
+      </c>
       <c r="H163" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-6.7600000000000051</v>
       </c>
       <c r="I163" s="52">
         <f t="shared" ref="I163" si="13">MAX(F163:F182)</f>
-        <v>0</v>
+        <v>83.45</v>
       </c>
       <c r="J163" s="55">
         <f t="shared" ref="J163" si="14">MAX(G163:G182)</f>
-        <v>0</v>
+        <v>82.89</v>
       </c>
     </row>
     <row r="164" spans="4:10" x14ac:dyDescent="0.2">
@@ -15687,11 +15761,15 @@
       <c r="E164" s="3">
         <v>2</v>
       </c>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
+      <c r="F164" s="3">
+        <v>60.94</v>
+      </c>
+      <c r="G164" s="3">
+        <v>66.790000000000006</v>
+      </c>
       <c r="H164" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-5.8500000000000085</v>
       </c>
       <c r="I164" s="53"/>
       <c r="J164" s="56"/>
@@ -15701,11 +15779,15 @@
       <c r="E165" s="3">
         <v>3</v>
       </c>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
+      <c r="F165" s="3">
+        <v>66.83</v>
+      </c>
+      <c r="G165" s="3">
+        <v>68.790000000000006</v>
+      </c>
       <c r="H165" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1.960000000000008</v>
       </c>
       <c r="I165" s="53"/>
       <c r="J165" s="56"/>
@@ -15715,11 +15797,15 @@
       <c r="E166" s="3">
         <v>4</v>
       </c>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
+      <c r="F166" s="3">
+        <v>70.27</v>
+      </c>
+      <c r="G166" s="3">
+        <v>72.08</v>
+      </c>
       <c r="H166" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1.8100000000000023</v>
       </c>
       <c r="I166" s="53"/>
       <c r="J166" s="56"/>
@@ -15729,11 +15815,15 @@
       <c r="E167" s="3">
         <v>5</v>
       </c>
-      <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
+      <c r="F167" s="3">
+        <v>72.91</v>
+      </c>
+      <c r="G167" s="3">
+        <v>75.989999999999995</v>
+      </c>
       <c r="H167" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-3.0799999999999983</v>
       </c>
       <c r="I167" s="53"/>
       <c r="J167" s="56"/>
@@ -15743,11 +15833,15 @@
       <c r="E168" s="3">
         <v>6</v>
       </c>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
+      <c r="F168" s="3">
+        <v>74.73</v>
+      </c>
+      <c r="G168" s="3">
+        <v>75.75</v>
+      </c>
       <c r="H168" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1.019999999999996</v>
       </c>
       <c r="I168" s="53"/>
       <c r="J168" s="56"/>
@@ -15757,11 +15851,15 @@
       <c r="E169" s="3">
         <v>7</v>
       </c>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
+      <c r="F169" s="3">
+        <v>75.83</v>
+      </c>
+      <c r="G169" s="3">
+        <v>77.75</v>
+      </c>
       <c r="H169" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1.9200000000000017</v>
       </c>
       <c r="I169" s="53"/>
       <c r="J169" s="56"/>
@@ -15771,11 +15869,15 @@
       <c r="E170" s="3">
         <v>8</v>
       </c>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
+      <c r="F170" s="3">
+        <v>76.94</v>
+      </c>
+      <c r="G170" s="3">
+        <v>77.63</v>
+      </c>
       <c r="H170" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-0.68999999999999773</v>
       </c>
       <c r="I170" s="53"/>
       <c r="J170" s="56"/>
@@ -15785,11 +15887,15 @@
       <c r="E171" s="3">
         <v>9</v>
       </c>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
+      <c r="F171" s="3">
+        <v>77.95</v>
+      </c>
+      <c r="G171" s="3">
+        <v>79.53</v>
+      </c>
       <c r="H171" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1.5799999999999983</v>
       </c>
       <c r="I171" s="53"/>
       <c r="J171" s="56"/>
@@ -15799,11 +15905,15 @@
       <c r="E172" s="3">
         <v>10</v>
       </c>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
+      <c r="F172" s="3">
+        <v>78.44</v>
+      </c>
+      <c r="G172" s="3">
+        <v>79.2</v>
+      </c>
       <c r="H172" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-0.76000000000000512</v>
       </c>
       <c r="I172" s="53"/>
       <c r="J172" s="56"/>
@@ -15813,11 +15923,15 @@
       <c r="E173" s="3">
         <v>11</v>
       </c>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
+      <c r="F173" s="3">
+        <v>79.459999999999994</v>
+      </c>
+      <c r="G173" s="3">
+        <v>79.569999999999993</v>
+      </c>
       <c r="H173" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-0.10999999999999943</v>
       </c>
       <c r="I173" s="53"/>
       <c r="J173" s="56"/>
@@ -15827,11 +15941,15 @@
       <c r="E174" s="3">
         <v>12</v>
       </c>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
+      <c r="F174" s="3">
+        <v>80.17</v>
+      </c>
+      <c r="G174" s="3">
+        <v>79.66</v>
+      </c>
       <c r="H174" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.51000000000000512</v>
       </c>
       <c r="I174" s="53"/>
       <c r="J174" s="56"/>
@@ -15841,11 +15959,15 @@
       <c r="E175" s="3">
         <v>13</v>
       </c>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
+      <c r="F175" s="3">
+        <v>80.47</v>
+      </c>
+      <c r="G175" s="3">
+        <v>80.150000000000006</v>
+      </c>
       <c r="H175" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.31999999999999318</v>
       </c>
       <c r="I175" s="53"/>
       <c r="J175" s="56"/>
@@ -15855,11 +15977,15 @@
       <c r="E176" s="3">
         <v>14</v>
       </c>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
+      <c r="F176" s="3">
+        <v>80.78</v>
+      </c>
+      <c r="G176" s="3">
+        <v>80.95</v>
+      </c>
       <c r="H176" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-0.17000000000000171</v>
       </c>
       <c r="I176" s="53"/>
       <c r="J176" s="56"/>
@@ -15869,11 +15995,15 @@
       <c r="E177" s="3">
         <v>15</v>
       </c>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
+      <c r="F177" s="3">
+        <v>81.739999999999995</v>
+      </c>
+      <c r="G177" s="3">
+        <v>80.510000000000005</v>
+      </c>
       <c r="H177" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.2299999999999898</v>
       </c>
       <c r="I177" s="53"/>
       <c r="J177" s="56"/>
@@ -15883,11 +16013,15 @@
       <c r="E178" s="3">
         <v>16</v>
       </c>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
+      <c r="F178" s="3">
+        <v>82</v>
+      </c>
+      <c r="G178" s="3">
+        <v>80.52</v>
+      </c>
       <c r="H178" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.480000000000004</v>
       </c>
       <c r="I178" s="53"/>
       <c r="J178" s="56"/>
@@ -15897,11 +16031,15 @@
       <c r="E179" s="3">
         <v>17</v>
       </c>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
+      <c r="F179" s="3">
+        <v>82.22</v>
+      </c>
+      <c r="G179" s="3">
+        <v>81.75</v>
+      </c>
       <c r="H179" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.46999999999999886</v>
       </c>
       <c r="I179" s="53"/>
       <c r="J179" s="56"/>
@@ -15911,11 +16049,15 @@
       <c r="E180" s="3">
         <v>18</v>
       </c>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
+      <c r="F180" s="3">
+        <v>82.62</v>
+      </c>
+      <c r="G180" s="3">
+        <v>82.06</v>
+      </c>
       <c r="H180" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.56000000000000227</v>
       </c>
       <c r="I180" s="53"/>
       <c r="J180" s="56"/>
@@ -15925,11 +16067,15 @@
       <c r="E181" s="3">
         <v>19</v>
       </c>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
+      <c r="F181" s="3">
+        <v>82.97</v>
+      </c>
+      <c r="G181" s="3">
+        <v>81.7</v>
+      </c>
       <c r="H181" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.269999999999996</v>
       </c>
       <c r="I181" s="53"/>
       <c r="J181" s="56"/>
@@ -15939,11 +16085,15 @@
       <c r="E182" s="6">
         <v>20</v>
       </c>
-      <c r="F182" s="6"/>
-      <c r="G182" s="6"/>
+      <c r="F182" s="6">
+        <v>83.45</v>
+      </c>
+      <c r="G182" s="6">
+        <v>82.89</v>
+      </c>
       <c r="H182" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.56000000000000227</v>
       </c>
       <c r="I182" s="54"/>
       <c r="J182" s="57"/>
@@ -19188,8 +19338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7711C3A-5153-46B1-ADD9-E0A1899966C0}">
   <dimension ref="G2:AA22"/>
   <sheetViews>
-    <sheetView topLeftCell="C27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y40" sqref="Y40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19250,13 +19400,13 @@
         <v>41</v>
       </c>
       <c r="Y2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="7:27" x14ac:dyDescent="0.2">
@@ -19293,10 +19443,16 @@
       </c>
       <c r="O3" s="9">
         <f>'Model logs'!H143</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
+        <v>-11.64</v>
+      </c>
+      <c r="P3" s="9">
+        <f>'Model logs'!H163</f>
+        <v>-6.7600000000000051</v>
+      </c>
+      <c r="Q3" s="9">
+        <f>'Model logs'!H183</f>
+        <v>0</v>
+      </c>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
@@ -19342,10 +19498,16 @@
       </c>
       <c r="O4" s="9">
         <f>'Model logs'!H144</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
+        <v>-3.0999999999999943</v>
+      </c>
+      <c r="P4" s="9">
+        <f>'Model logs'!H164</f>
+        <v>-5.8500000000000085</v>
+      </c>
+      <c r="Q4" s="9">
+        <f>'Model logs'!H184</f>
+        <v>0</v>
+      </c>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
@@ -19391,10 +19553,16 @@
       </c>
       <c r="O5" s="9">
         <f>'Model logs'!H145</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
+        <v>1.1700000000000017</v>
+      </c>
+      <c r="P5" s="9">
+        <f>'Model logs'!H165</f>
+        <v>-1.960000000000008</v>
+      </c>
+      <c r="Q5" s="9">
+        <f>'Model logs'!H185</f>
+        <v>0</v>
+      </c>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
@@ -19440,10 +19608,16 @@
       </c>
       <c r="O6" s="9">
         <f>'Model logs'!H146</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
+        <v>0.27000000000001023</v>
+      </c>
+      <c r="P6" s="9">
+        <f>'Model logs'!H166</f>
+        <v>-1.8100000000000023</v>
+      </c>
+      <c r="Q6" s="9">
+        <f>'Model logs'!H186</f>
+        <v>0</v>
+      </c>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
@@ -19489,10 +19663,16 @@
       </c>
       <c r="O7" s="9">
         <f>'Model logs'!H147</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
+        <v>-0.45000000000000284</v>
+      </c>
+      <c r="P7" s="9">
+        <f>'Model logs'!H167</f>
+        <v>-3.0799999999999983</v>
+      </c>
+      <c r="Q7" s="9">
+        <f>'Model logs'!H187</f>
+        <v>0</v>
+      </c>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
@@ -19538,10 +19718,16 @@
       </c>
       <c r="O8" s="9">
         <f>'Model logs'!H148</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
+        <v>1.9200000000000017</v>
+      </c>
+      <c r="P8" s="9">
+        <f>'Model logs'!H168</f>
+        <v>-1.019999999999996</v>
+      </c>
+      <c r="Q8" s="9">
+        <f>'Model logs'!H188</f>
+        <v>0</v>
+      </c>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
@@ -19587,10 +19773,16 @@
       </c>
       <c r="O9" s="9">
         <f>'Model logs'!H149</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
+        <v>1.5200000000000102</v>
+      </c>
+      <c r="P9" s="9">
+        <f>'Model logs'!H169</f>
+        <v>-1.9200000000000017</v>
+      </c>
+      <c r="Q9" s="9">
+        <f>'Model logs'!H189</f>
+        <v>0</v>
+      </c>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
@@ -19636,10 +19828,16 @@
       </c>
       <c r="O10" s="9">
         <f>'Model logs'!H150</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
+        <v>1.2199999999999989</v>
+      </c>
+      <c r="P10" s="9">
+        <f>'Model logs'!H170</f>
+        <v>-0.68999999999999773</v>
+      </c>
+      <c r="Q10" s="9">
+        <f>'Model logs'!H190</f>
+        <v>0</v>
+      </c>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
@@ -19685,10 +19883,16 @@
       </c>
       <c r="O11" s="9">
         <f>'Model logs'!H151</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
+        <v>1.9399999999999977</v>
+      </c>
+      <c r="P11" s="9">
+        <f>'Model logs'!H171</f>
+        <v>-1.5799999999999983</v>
+      </c>
+      <c r="Q11" s="9">
+        <f>'Model logs'!H191</f>
+        <v>0</v>
+      </c>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -19734,10 +19938,16 @@
       </c>
       <c r="O12" s="9">
         <f>'Model logs'!H152</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
+        <v>3.4699999999999989</v>
+      </c>
+      <c r="P12" s="9">
+        <f>'Model logs'!H172</f>
+        <v>-0.76000000000000512</v>
+      </c>
+      <c r="Q12" s="9">
+        <f>'Model logs'!H192</f>
+        <v>0</v>
+      </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
@@ -19783,10 +19993,16 @@
       </c>
       <c r="O13" s="9">
         <f>'Model logs'!H153</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
+        <v>2.4400000000000119</v>
+      </c>
+      <c r="P13" s="9">
+        <f>'Model logs'!H173</f>
+        <v>-0.10999999999999943</v>
+      </c>
+      <c r="Q13" s="9">
+        <f>'Model logs'!H193</f>
+        <v>0</v>
+      </c>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
@@ -19832,10 +20048,16 @@
       </c>
       <c r="O14" s="9">
         <f>'Model logs'!H154</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
+        <v>3.2199999999999989</v>
+      </c>
+      <c r="P14" s="9">
+        <f>'Model logs'!H174</f>
+        <v>0.51000000000000512</v>
+      </c>
+      <c r="Q14" s="9">
+        <f>'Model logs'!H194</f>
+        <v>0</v>
+      </c>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -19881,10 +20103,16 @@
       </c>
       <c r="O15" s="9">
         <f>'Model logs'!H155</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
+        <v>3.4200000000000017</v>
+      </c>
+      <c r="P15" s="9">
+        <f>'Model logs'!H175</f>
+        <v>0.31999999999999318</v>
+      </c>
+      <c r="Q15" s="9">
+        <f>'Model logs'!H195</f>
+        <v>0</v>
+      </c>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
@@ -19930,10 +20158,16 @@
       </c>
       <c r="O16" s="9">
         <f>'Model logs'!H156</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+        <v>2.9599999999999937</v>
+      </c>
+      <c r="P16" s="9">
+        <f>'Model logs'!H176</f>
+        <v>-0.17000000000000171</v>
+      </c>
+      <c r="Q16" s="9">
+        <f>'Model logs'!H196</f>
+        <v>0</v>
+      </c>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
@@ -19979,10 +20213,16 @@
       </c>
       <c r="O17" s="9">
         <f>'Model logs'!H157</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
+        <v>3.5099999999999909</v>
+      </c>
+      <c r="P17" s="9">
+        <f>'Model logs'!H177</f>
+        <v>1.2299999999999898</v>
+      </c>
+      <c r="Q17" s="9">
+        <f>'Model logs'!H197</f>
+        <v>0</v>
+      </c>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -20028,10 +20268,16 @@
       </c>
       <c r="O18" s="9">
         <f>'Model logs'!H158</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
+        <v>3.4699999999999989</v>
+      </c>
+      <c r="P18" s="9">
+        <f>'Model logs'!H178</f>
+        <v>1.480000000000004</v>
+      </c>
+      <c r="Q18" s="9">
+        <f>'Model logs'!H198</f>
+        <v>0</v>
+      </c>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
@@ -20077,10 +20323,16 @@
       </c>
       <c r="O19" s="9">
         <f>'Model logs'!H159</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
+        <v>3.1899999999999977</v>
+      </c>
+      <c r="P19" s="9">
+        <f>'Model logs'!H179</f>
+        <v>0.46999999999999886</v>
+      </c>
+      <c r="Q19" s="9">
+        <f>'Model logs'!H199</f>
+        <v>0</v>
+      </c>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -20126,10 +20378,16 @@
       </c>
       <c r="O20" s="9">
         <f>'Model logs'!H160</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
+        <v>3.8999999999999915</v>
+      </c>
+      <c r="P20" s="9">
+        <f>'Model logs'!H180</f>
+        <v>0.56000000000000227</v>
+      </c>
+      <c r="Q20" s="9">
+        <f>'Model logs'!H200</f>
+        <v>0</v>
+      </c>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
@@ -20175,10 +20433,16 @@
       </c>
       <c r="O21" s="9">
         <f>'Model logs'!H161</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
+        <v>4.25</v>
+      </c>
+      <c r="P21" s="9">
+        <f>'Model logs'!H181</f>
+        <v>1.269999999999996</v>
+      </c>
+      <c r="Q21" s="9">
+        <f>'Model logs'!H201</f>
+        <v>0</v>
+      </c>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
@@ -20224,10 +20488,16 @@
       </c>
       <c r="O22" s="9">
         <f>'Model logs'!H162</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
+        <v>5.0699999999999932</v>
+      </c>
+      <c r="P22" s="9">
+        <f>'Model logs'!H182</f>
+        <v>0.56000000000000227</v>
+      </c>
+      <c r="Q22" s="9">
+        <f>'Model logs'!H202</f>
+        <v>0</v>
+      </c>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
@@ -20243,483 +20513,6 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB3808C-9710-4289-AA5B-9168F07876A6}">
-  <dimension ref="D5:M64"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
-        <v>98</v>
-      </c>
-      <c r="M5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>99</v>
-      </c>
-      <c r="M6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>101</v>
-      </c>
-      <c r="M8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>102</v>
-      </c>
-      <c r="M9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>103</v>
-      </c>
-      <c r="M10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>104</v>
-      </c>
-      <c r="M11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>105</v>
-      </c>
-      <c r="M12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>106</v>
-      </c>
-      <c r="M13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>107</v>
-      </c>
-      <c r="M14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
-        <v>108</v>
-      </c>
-      <c r="M15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>109</v>
-      </c>
-      <c r="M16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>110</v>
-      </c>
-      <c r="M17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>111</v>
-      </c>
-      <c r="M18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>113</v>
-      </c>
-      <c r="M20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
-        <v>114</v>
-      </c>
-      <c r="M21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>115</v>
-      </c>
-      <c r="M22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>116</v>
-      </c>
-      <c r="M23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>117</v>
-      </c>
-      <c r="M24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
-        <v>118</v>
-      </c>
-      <c r="M25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D26" t="s">
-        <v>119</v>
-      </c>
-      <c r="M26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
-        <v>120</v>
-      </c>
-      <c r="M27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D28" t="s">
-        <v>121</v>
-      </c>
-      <c r="M28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
-        <v>122</v>
-      </c>
-      <c r="M29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D30" t="s">
-        <v>123</v>
-      </c>
-      <c r="M30" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
-        <v>124</v>
-      </c>
-      <c r="M31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
-        <v>125</v>
-      </c>
-      <c r="M32" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
-        <v>126</v>
-      </c>
-      <c r="M33" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
-        <v>127</v>
-      </c>
-      <c r="M34" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
-        <v>128</v>
-      </c>
-      <c r="M35" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D36" t="s">
-        <v>129</v>
-      </c>
-      <c r="M36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
-        <v>130</v>
-      </c>
-      <c r="M37" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
-        <v>131</v>
-      </c>
-      <c r="M38" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
-        <v>132</v>
-      </c>
-      <c r="M39" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
-        <v>133</v>
-      </c>
-      <c r="M40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D41" t="s">
-        <v>134</v>
-      </c>
-      <c r="M41" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D42" t="s">
-        <v>135</v>
-      </c>
-      <c r="M42" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D43" t="s">
-        <v>136</v>
-      </c>
-      <c r="M43" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D44" t="s">
-        <v>137</v>
-      </c>
-      <c r="M44" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D45" t="s">
-        <v>138</v>
-      </c>
-      <c r="M45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D46" t="s">
-        <v>139</v>
-      </c>
-      <c r="M46" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D47" t="s">
-        <v>140</v>
-      </c>
-      <c r="M47" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D48" t="s">
-        <v>141</v>
-      </c>
-      <c r="M48" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D49" t="s">
-        <v>100</v>
-      </c>
-      <c r="M49" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D50" t="s">
-        <v>142</v>
-      </c>
-      <c r="M50" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D51" t="s">
-        <v>143</v>
-      </c>
-      <c r="M51" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D52" t="s">
-        <v>144</v>
-      </c>
-      <c r="M52" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D53" t="s">
-        <v>98</v>
-      </c>
-      <c r="M53" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D54" t="s">
-        <v>145</v>
-      </c>
-      <c r="M54" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D55" t="s">
-        <v>146</v>
-      </c>
-      <c r="M55" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D56" t="s">
-        <v>147</v>
-      </c>
-      <c r="M56" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D57" t="s">
-        <v>148</v>
-      </c>
-      <c r="M57" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D58" t="s">
-        <v>98</v>
-      </c>
-      <c r="M58" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="M59" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="M60" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="M61" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="M62" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="M63" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="M64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Model.xlsx
+++ b/Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aditya.Tiwari\Documents\Product Management\Begin AI\TSAI\Repositories\Session 8 assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191EB590-18CA-4C0A-AD43-D067B7CD5AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79524350-C2A6-4893-B978-B9D54786E3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Model architecture" sheetId="6" r:id="rId1"/>
     <sheet name="Model logs" sheetId="4" r:id="rId2"/>
     <sheet name="Model Comparisons" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Date" comment="{&quot;SkabelonDesign&quot;:{&quot;type&quot;:&quot;Text&quot;,&quot;binding&quot;:&quot;Doc.Prop.Date&quot;}}">#REF!</definedName>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="106">
   <si>
     <t>Epoch</t>
   </si>
@@ -300,9 +299,6 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t xml:space="preserve">Didn't work, model was too heavy without batch norm. Gets stuck in 10% training and test accuracy; stops learning all together. This is basically when the back prop stops working, because the gradients are too small or "vanishing". </t>
-  </si>
-  <si>
     <t xml:space="preserve">The vanishing gradients issue again. </t>
   </si>
   <si>
@@ -384,279 +380,6 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t>----------------------------------------------------------------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Layer (type)               Output Shape         Param #</t>
-  </si>
-  <si>
-    <t>================================================================</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Conv2d-1           [-1, 32, 32, 32]             864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       BatchNorm2d-2           [-1, 32, 32, 32]              64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              ReLU-3           [-1, 32, 32, 32]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Conv2d-4           [-1, 64, 32, 32]          18,432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       BatchNorm2d-5           [-1, 64, 32, 32]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              ReLU-6           [-1, 64, 32, 32]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Conv2d-7           [-1, 64, 16, 16]          16,384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       BatchNorm2d-8           [-1, 64, 16, 16]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              ReLU-9           [-1, 64, 16, 16]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-10           [-1, 32, 16, 16]           2,048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-11           [-1, 32, 16, 16]              64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-12           [-1, 32, 16, 16]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-13           [-1, 32, 16, 16]             288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-14           [-1, 32, 16, 16]              64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-15           [-1, 32, 16, 16]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-16           [-1, 64, 16, 16]           2,048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-17           [-1, 64, 16, 16]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-18           [-1, 64, 16, 16]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-19             [-1, 64, 8, 8]          16,384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-20             [-1, 64, 8, 8]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-21             [-1, 64, 8, 8]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-22             [-1, 32, 8, 8]           2,048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-23             [-1, 32, 8, 8]              64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-24             [-1, 32, 8, 8]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-25             [-1, 64, 6, 6]          18,432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-26             [-1, 64, 6, 6]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-27             [-1, 64, 6, 6]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-28             [-1, 64, 6, 6]          36,864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-29             [-1, 64, 6, 6]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-30             [-1, 64, 6, 6]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-31             [-1, 64, 3, 3]          16,384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-32             [-1, 64, 3, 3]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-33             [-1, 64, 3, 3]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-34             [-1, 32, 3, 3]           2,048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-35             [-1, 32, 3, 3]              64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-36             [-1, 32, 3, 3]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-37             [-1, 64, 3, 3]          18,432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-38             [-1, 64, 3, 3]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-39             [-1, 64, 3, 3]               0</t>
-  </si>
-  <si>
-    <t>AdaptiveAvgPool2d-40             [-1, 64, 1, 1]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-41             [-1, 10, 1, 1]             640</t>
-  </si>
-  <si>
-    <t>Total params: 152,640</t>
-  </si>
-  <si>
-    <t>Trainable params: 152,640</t>
-  </si>
-  <si>
-    <t>Non-trainable params: 0</t>
-  </si>
-  <si>
-    <t>Input size (MB): 0.01</t>
-  </si>
-  <si>
-    <t>Forward/backward pass size (MB): 3.65</t>
-  </si>
-  <si>
-    <t>Params size (MB): 0.58</t>
-  </si>
-  <si>
-    <t>Estimated Total Size (MB): 4.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Conv2d-7          [-1, 128, 32, 32]          73,728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       BatchNorm2d-8          [-1, 128, 32, 32]             256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              ReLU-9          [-1, 128, 32, 32]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-10           [-1, 64, 16, 16]          32,768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-11           [-1, 64, 16, 16]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-12           [-1, 64, 16, 16]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-13           [-1, 32, 16, 16]           2,048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-16           [-1, 64, 16, 16]          18,432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-19           [-1, 64, 16, 16]             576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-20           [-1, 64, 16, 16]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-21           [-1, 64, 16, 16]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-22          [-1, 128, 16, 16]           8,192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-23          [-1, 128, 16, 16]             256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-24          [-1, 128, 16, 16]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-25             [-1, 64, 8, 8]          32,768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-26             [-1, 64, 8, 8]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-27             [-1, 64, 8, 8]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-28             [-1, 32, 8, 8]           2,048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-29             [-1, 32, 8, 8]              64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-30             [-1, 32, 8, 8]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-31             [-1, 64, 6, 6]          18,432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-32             [-1, 64, 6, 6]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-33             [-1, 64, 6, 6]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-34             [-1, 64, 6, 6]          36,864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-35             [-1, 64, 6, 6]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-36             [-1, 64, 6, 6]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-37             [-1, 64, 3, 3]          16,384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-40             [-1, 32, 3, 3]           2,048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-41             [-1, 32, 3, 3]              64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-42             [-1, 32, 3, 3]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-43             [-1, 64, 3, 3]          18,432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      BatchNorm2d-44             [-1, 64, 3, 3]             128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ReLU-45             [-1, 64, 3, 3]               0</t>
-  </si>
-  <si>
-    <t>AdaptiveAvgPool2d-46             [-1, 64, 1, 1]               0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Conv2d-47             [-1, 10, 1, 1]             640</t>
-  </si>
-  <si>
-    <t>Total params: 284,576</t>
-  </si>
-  <si>
-    <t>Trainable params: 284,576</t>
-  </si>
-  <si>
-    <t>Forward/backward pass size (MB): 7.59</t>
-  </si>
-  <si>
-    <t>Params size (MB): 1.09</t>
-  </si>
-  <si>
-    <t>Estimated Total Size (MB): 8.69</t>
   </si>
   <si>
     <r>
@@ -782,6 +505,9 @@
     <t>Same as Model 7</t>
   </si>
   <si>
+    <t>Didn't work, model had too many layers. Gets stuck in 10% training and test accuracy; stops learning all together. This is basically when the back prop stops working, because the gradients are too small or "vanishing".</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Target - </t>
     </r>
@@ -811,7 +537,97 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Significant improvements in test accuracy. Training accuracy dropped, probably because data is harder to learn from. Overall delta is much tighter. Best model so far. </t>
+      <t xml:space="preserve">Significant improvements in test accuracy. Training accuracy dropped, probably because data is harder to learn from. Or is it better seen as that we've addressed overfitting? Overall delta is much tighter. Best model so far. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Build up on model 10, apply more augmentation. This time ShiftScaleRotate. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Analysis - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Further improvement in test accuracy, not reached target yet. Further drop in training accuracy, and hence overall lower delta is even tighter. Best model so far.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Build up on model 11, tune the ShiftScaleRotate hyperparameters. Earlier they dialed in low on the conservative side, this time trying out moderate values, in line with most research papers. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Analysis - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Was worth it!! Slight boost in test accuracy, further drop in training accuracy. The model is no longer over-fitting, it is "just right". Best model so far, with model 11 being a very close second. Can pivot to either in next rounds.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Build up on model 12, add more augmentation. CoarseDropout or cutouts this time. Hopefully, this will boost the model training accuracy, which should boost test accuracy, while keeping the delta as before. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Analysis - </t>
     </r>
   </si>
 </sst>
@@ -1806,15 +1622,15 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="8"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model Comparisons'!$K$2</c:f>
+              <c:f>'Model Comparisons'!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Model 7</c:v>
+                  <c:v>Model 12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1822,166 +1638,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Model Comparisons'!$G$7:$G$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Model Comparisons'!$K$7:$K$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>4.9899999999999949</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.480000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5699999999999932</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.4099999999999966</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.9099999999999966</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.349999999999994</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.89</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.420000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15.679999999999993</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16.38000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18.47999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18.759999999999991</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18.480000000000004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5168-4045-BDD9-686458049E54}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Model Comparisons'!$N$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Model 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -1994,13 +1651,13 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent3">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -2067,57 +1724,57 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model Comparisons'!$N$7:$N$22</c:f>
+              <c:f>'Model Comparisons'!$P$7:$P$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2.7399999999999949</c:v>
+                  <c:v>-3.0799999999999983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8999999999999915</c:v>
+                  <c:v>-1.019999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.25</c:v>
+                  <c:v>-1.9200000000000017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2900000000000063</c:v>
+                  <c:v>-0.68999999999999773</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.539999999999992</c:v>
+                  <c:v>-1.5799999999999983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8299999999999983</c:v>
+                  <c:v>-0.76000000000000512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5</c:v>
+                  <c:v>-0.10999999999999943</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0300000000000011</c:v>
+                  <c:v>0.51000000000000512</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.4200000000000017</c:v>
+                  <c:v>0.31999999999999318</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.6099999999999994</c:v>
+                  <c:v>-0.17000000000000171</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.25</c:v>
+                  <c:v>1.2299999999999898</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.1899999999999977</c:v>
+                  <c:v>1.480000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.4399999999999977</c:v>
+                  <c:v>0.46999999999999886</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.3799999999999955</c:v>
+                  <c:v>0.56000000000000227</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.6299999999999955</c:v>
+                  <c:v>1.269999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.1499999999999915</c:v>
+                  <c:v>0.56000000000000227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2125,7 +1782,172 @@
           <c:smooth val="1"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5168-4045-BDD9-686458049E54}"/>
+              <c16:uniqueId val="{00000008-5168-4045-BDD9-686458049E54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model Comparisons'!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model Comparisons'!$G$7:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model Comparisons'!$Q$7:$Q$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-5168-4045-BDD9-686458049E54}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2680,6 +2502,185 @@
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$K$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Model 7</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$G$7:$G$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$K$7:$K$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>4.9899999999999949</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.480000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.5699999999999932</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.4099999999999966</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9.9099999999999966</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>11.349999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12.89</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>14.14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>15.420000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>15.679999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>16.38000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>18.47999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>18.759999999999991</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>18.480000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>20.299999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>19.25</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-5168-4045-BDD9-686458049E54}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
                 <c:idx val="4"/>
                 <c:order val="4"/>
                 <c:tx>
@@ -3032,6 +3033,191 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-5168-4045-BDD9-686458049E54}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$N$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Model 10</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$G$7:$G$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$N$7:$N$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>2.7399999999999949</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.8999999999999915</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.25</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.2900000000000063</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.539999999999992</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.8299999999999983</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6.0300000000000011</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>6.4200000000000017</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>6.6099999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>7.25</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>8.1899999999999977</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>7.4399999999999977</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>8.3799999999999955</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>8.6299999999999955</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>9.1499999999999915</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-5168-4045-BDD9-686458049E54}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -3163,52 +3349,52 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="16"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>-0.45000000000000284</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0</c:v>
+                        <c:v>1.9200000000000017</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0</c:v>
+                        <c:v>1.5200000000000102</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
+                        <c:v>1.2199999999999989</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0</c:v>
+                        <c:v>1.9399999999999977</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0</c:v>
+                        <c:v>3.4699999999999989</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0</c:v>
+                        <c:v>2.4400000000000119</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0</c:v>
+                        <c:v>3.2199999999999989</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0</c:v>
+                        <c:v>3.4200000000000017</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0</c:v>
+                        <c:v>2.9599999999999937</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0</c:v>
+                        <c:v>3.5099999999999909</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0</c:v>
+                        <c:v>3.4699999999999989</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0</c:v>
+                        <c:v>3.1899999999999977</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0</c:v>
+                        <c:v>3.8999999999999915</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0</c:v>
+                        <c:v>4.25</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>0</c:v>
+                        <c:v>5.0699999999999932</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3217,280 +3403,6 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-5168-4045-BDD9-686458049E54}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="8"/>
-                <c:order val="8"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$P$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Model 12</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent3">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$G$7:$G$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                      <c:pt idx="0">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>20</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$P$7:$P$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="1"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000008-5168-4045-BDD9-686458049E54}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="9"/>
-                <c:order val="9"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$Q$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Model 13</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent4">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent4">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$G$7:$G$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                      <c:pt idx="0">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>20</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$Q$7:$Q$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="1"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000009-5168-4045-BDD9-686458049E54}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -6081,11 +5993,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5155A9C0-960B-43B5-AA06-FF471900653F}">
-  <dimension ref="C4:S121"/>
+  <dimension ref="C4:S124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
+      <pane ySplit="5" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S126" sqref="S126:S131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6206,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="46" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.2">
@@ -7324,7 +7236,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.2">
@@ -7833,7 +7745,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.2">
@@ -8731,7 +8643,7 @@
         <v>1</v>
       </c>
       <c r="S51" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="3:19" x14ac:dyDescent="0.2">
@@ -9360,7 +9272,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E63" s="61"/>
       <c r="F63" s="61"/>
@@ -9377,7 +9289,7 @@
       <c r="Q63" s="61"/>
       <c r="R63" s="62"/>
       <c r="S63" s="63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="3:19" ht="15" x14ac:dyDescent="0.2">
@@ -9434,7 +9346,7 @@
         <v>1</v>
       </c>
       <c r="S64" s="46" t="s">
-        <v>191</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="3:19" x14ac:dyDescent="0.2">
@@ -9781,7 +9693,7 @@
         <v>81</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F71" s="3">
         <v>3</v>
@@ -10167,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="S77" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="3:19" x14ac:dyDescent="0.2">
@@ -10345,7 +10257,7 @@
         <v>79</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F81" s="3">
         <v>3</v>
@@ -10400,7 +10312,7 @@
       <c r="C82" s="35"/>
       <c r="D82" s="27"/>
       <c r="E82" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
@@ -10569,7 +10481,7 @@
         <v>81</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F85" s="3">
         <v>3</v>
@@ -10955,7 +10867,7 @@
         <v>1</v>
       </c>
       <c r="S91" s="46" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="3:19" x14ac:dyDescent="0.2">
@@ -11243,7 +11155,7 @@
       <c r="C97" s="35"/>
       <c r="D97" s="28"/>
       <c r="E97" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F97" s="3">
         <v>3</v>
@@ -11298,7 +11210,7 @@
       <c r="C98" s="35"/>
       <c r="D98" s="27"/>
       <c r="E98" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
@@ -11467,7 +11379,7 @@
         <v>81</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F101" s="3">
         <v>3</v>
@@ -11853,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="S107" s="64" t="s">
-        <v>189</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="3:19" x14ac:dyDescent="0.2">
@@ -12031,7 +11943,7 @@
         <v>79</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F111" s="3">
         <v>3</v>
@@ -12086,7 +11998,7 @@
       <c r="C112" s="35"/>
       <c r="D112" s="27"/>
       <c r="E112" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
@@ -12255,7 +12167,7 @@
         <v>81</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F115" s="3">
         <v>3</v>
@@ -12587,12 +12499,12 @@
       </c>
       <c r="S120" s="65"/>
     </row>
-    <row r="121" spans="3:19" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:19" ht="167.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C121" s="60">
         <v>10</v>
       </c>
       <c r="D121" s="66" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="E121" s="67"/>
       <c r="F121" s="67"/>
@@ -12609,12 +12521,90 @@
       <c r="Q121" s="67"/>
       <c r="R121" s="68"/>
       <c r="S121" s="69" t="s">
-        <v>193</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="122" spans="3:19" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C122" s="60">
+        <v>11</v>
+      </c>
+      <c r="D122" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="E122" s="67"/>
+      <c r="F122" s="67"/>
+      <c r="G122" s="67"/>
+      <c r="H122" s="67"/>
+      <c r="I122" s="67"/>
+      <c r="J122" s="67"/>
+      <c r="K122" s="67"/>
+      <c r="L122" s="67"/>
+      <c r="M122" s="67"/>
+      <c r="N122" s="67"/>
+      <c r="O122" s="67"/>
+      <c r="P122" s="67"/>
+      <c r="Q122" s="67"/>
+      <c r="R122" s="68"/>
+      <c r="S122" s="69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="123" spans="3:19" ht="204" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C123" s="60">
+        <v>12</v>
+      </c>
+      <c r="D123" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="E123" s="67"/>
+      <c r="F123" s="67"/>
+      <c r="G123" s="67"/>
+      <c r="H123" s="67"/>
+      <c r="I123" s="67"/>
+      <c r="J123" s="67"/>
+      <c r="K123" s="67"/>
+      <c r="L123" s="67"/>
+      <c r="M123" s="67"/>
+      <c r="N123" s="67"/>
+      <c r="O123" s="67"/>
+      <c r="P123" s="67"/>
+      <c r="Q123" s="67"/>
+      <c r="R123" s="68"/>
+      <c r="S123" s="69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="124" spans="3:19" ht="200.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C124" s="60">
+        <v>13</v>
+      </c>
+      <c r="D124" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="E124" s="67"/>
+      <c r="F124" s="67"/>
+      <c r="G124" s="67"/>
+      <c r="H124" s="67"/>
+      <c r="I124" s="67"/>
+      <c r="J124" s="67"/>
+      <c r="K124" s="67"/>
+      <c r="L124" s="67"/>
+      <c r="M124" s="67"/>
+      <c r="N124" s="67"/>
+      <c r="O124" s="67"/>
+      <c r="P124" s="67"/>
+      <c r="Q124" s="67"/>
+      <c r="R124" s="68"/>
+      <c r="S124" s="69" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="60">
     <mergeCell ref="D121:R121"/>
+    <mergeCell ref="D122:R122"/>
+    <mergeCell ref="D123:R123"/>
+    <mergeCell ref="D124:R124"/>
     <mergeCell ref="C107:C120"/>
     <mergeCell ref="S107:S120"/>
     <mergeCell ref="D109:D110"/>
@@ -12682,8 +12672,8 @@
   <dimension ref="D1:Q402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R131" sqref="R131"/>
+      <pane ySplit="2" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A123" sqref="A123:XFD142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13900,7 +13890,7 @@
       <c r="I62" s="54"/>
       <c r="J62" s="57"/>
     </row>
-    <row r="63" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D63" s="29">
         <v>7</v>
       </c>
@@ -13926,7 +13916,7 @@
         <v>76.67</v>
       </c>
     </row>
-    <row r="64" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D64" s="30"/>
       <c r="E64" s="3">
         <v>2</v>
@@ -13944,7 +13934,7 @@
       <c r="I64" s="53"/>
       <c r="J64" s="56"/>
     </row>
-    <row r="65" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D65" s="30"/>
       <c r="E65" s="3">
         <v>3</v>
@@ -13962,7 +13952,7 @@
       <c r="I65" s="53"/>
       <c r="J65" s="56"/>
     </row>
-    <row r="66" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D66" s="30"/>
       <c r="E66" s="3">
         <v>4</v>
@@ -13980,7 +13970,7 @@
       <c r="I66" s="53"/>
       <c r="J66" s="56"/>
     </row>
-    <row r="67" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D67" s="30"/>
       <c r="E67" s="3">
         <v>5</v>
@@ -13998,7 +13988,7 @@
       <c r="I67" s="53"/>
       <c r="J67" s="56"/>
     </row>
-    <row r="68" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D68" s="30"/>
       <c r="E68" s="3">
         <v>6</v>
@@ -14016,7 +14006,7 @@
       <c r="I68" s="53"/>
       <c r="J68" s="56"/>
     </row>
-    <row r="69" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D69" s="30"/>
       <c r="E69" s="3">
         <v>7</v>
@@ -14034,7 +14024,7 @@
       <c r="I69" s="53"/>
       <c r="J69" s="56"/>
     </row>
-    <row r="70" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D70" s="30"/>
       <c r="E70" s="3">
         <v>8</v>
@@ -14052,7 +14042,7 @@
       <c r="I70" s="53"/>
       <c r="J70" s="56"/>
     </row>
-    <row r="71" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D71" s="30"/>
       <c r="E71" s="3">
         <v>9</v>
@@ -14070,7 +14060,7 @@
       <c r="I71" s="53"/>
       <c r="J71" s="56"/>
     </row>
-    <row r="72" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D72" s="30"/>
       <c r="E72" s="3">
         <v>10</v>
@@ -14088,7 +14078,7 @@
       <c r="I72" s="53"/>
       <c r="J72" s="56"/>
     </row>
-    <row r="73" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D73" s="30"/>
       <c r="E73" s="3">
         <v>11</v>
@@ -14106,7 +14096,7 @@
       <c r="I73" s="53"/>
       <c r="J73" s="56"/>
     </row>
-    <row r="74" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D74" s="30"/>
       <c r="E74" s="3">
         <v>12</v>
@@ -14124,7 +14114,7 @@
       <c r="I74" s="53"/>
       <c r="J74" s="56"/>
     </row>
-    <row r="75" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D75" s="30"/>
       <c r="E75" s="3">
         <v>13</v>
@@ -14142,7 +14132,7 @@
       <c r="I75" s="53"/>
       <c r="J75" s="56"/>
     </row>
-    <row r="76" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D76" s="30"/>
       <c r="E76" s="3">
         <v>14</v>
@@ -14160,7 +14150,7 @@
       <c r="I76" s="53"/>
       <c r="J76" s="56"/>
     </row>
-    <row r="77" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D77" s="30"/>
       <c r="E77" s="3">
         <v>15</v>
@@ -14178,7 +14168,7 @@
       <c r="I77" s="53"/>
       <c r="J77" s="56"/>
     </row>
-    <row r="78" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D78" s="30"/>
       <c r="E78" s="3">
         <v>16</v>
@@ -14196,7 +14186,7 @@
       <c r="I78" s="53"/>
       <c r="J78" s="56"/>
     </row>
-    <row r="79" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D79" s="30"/>
       <c r="E79" s="3">
         <v>17</v>
@@ -14214,7 +14204,7 @@
       <c r="I79" s="53"/>
       <c r="J79" s="56"/>
     </row>
-    <row r="80" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D80" s="30"/>
       <c r="E80" s="3">
         <v>18</v>
@@ -14232,7 +14222,7 @@
       <c r="I80" s="53"/>
       <c r="J80" s="56"/>
     </row>
-    <row r="81" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D81" s="30"/>
       <c r="E81" s="3">
         <v>19</v>
@@ -14250,7 +14240,7 @@
       <c r="I81" s="53"/>
       <c r="J81" s="56"/>
     </row>
-    <row r="82" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D82" s="32"/>
       <c r="E82" s="6">
         <v>20</v>
@@ -15004,7 +14994,7 @@
       <c r="I122" s="54"/>
       <c r="J122" s="57"/>
     </row>
-    <row r="123" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D123" s="29">
         <v>10</v>
       </c>
@@ -15030,7 +15020,7 @@
         <v>80.23</v>
       </c>
     </row>
-    <row r="124" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D124" s="30"/>
       <c r="E124" s="3">
         <v>2</v>
@@ -15048,7 +15038,7 @@
       <c r="I124" s="53"/>
       <c r="J124" s="56"/>
     </row>
-    <row r="125" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D125" s="30"/>
       <c r="E125" s="3">
         <v>3</v>
@@ -15066,7 +15056,7 @@
       <c r="I125" s="53"/>
       <c r="J125" s="56"/>
     </row>
-    <row r="126" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D126" s="30"/>
       <c r="E126" s="3">
         <v>4</v>
@@ -15084,7 +15074,7 @@
       <c r="I126" s="53"/>
       <c r="J126" s="56"/>
     </row>
-    <row r="127" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D127" s="30"/>
       <c r="E127" s="3">
         <v>5</v>
@@ -15102,7 +15092,7 @@
       <c r="I127" s="53"/>
       <c r="J127" s="56"/>
     </row>
-    <row r="128" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D128" s="30"/>
       <c r="E128" s="3">
         <v>6</v>
@@ -15120,7 +15110,7 @@
       <c r="I128" s="53"/>
       <c r="J128" s="56"/>
     </row>
-    <row r="129" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D129" s="30"/>
       <c r="E129" s="3">
         <v>7</v>
@@ -15138,7 +15128,7 @@
       <c r="I129" s="53"/>
       <c r="J129" s="56"/>
     </row>
-    <row r="130" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D130" s="30"/>
       <c r="E130" s="3">
         <v>8</v>
@@ -15156,7 +15146,7 @@
       <c r="I130" s="53"/>
       <c r="J130" s="56"/>
     </row>
-    <row r="131" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D131" s="30"/>
       <c r="E131" s="3">
         <v>9</v>
@@ -15174,7 +15164,7 @@
       <c r="I131" s="53"/>
       <c r="J131" s="56"/>
     </row>
-    <row r="132" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D132" s="30"/>
       <c r="E132" s="3">
         <v>10</v>
@@ -15192,7 +15182,7 @@
       <c r="I132" s="53"/>
       <c r="J132" s="56"/>
     </row>
-    <row r="133" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D133" s="30"/>
       <c r="E133" s="3">
         <v>11</v>
@@ -15210,7 +15200,7 @@
       <c r="I133" s="53"/>
       <c r="J133" s="56"/>
     </row>
-    <row r="134" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D134" s="30"/>
       <c r="E134" s="3">
         <v>12</v>
@@ -15228,7 +15218,7 @@
       <c r="I134" s="53"/>
       <c r="J134" s="56"/>
     </row>
-    <row r="135" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D135" s="30"/>
       <c r="E135" s="3">
         <v>13</v>
@@ -15246,7 +15236,7 @@
       <c r="I135" s="53"/>
       <c r="J135" s="56"/>
     </row>
-    <row r="136" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D136" s="30"/>
       <c r="E136" s="3">
         <v>14</v>
@@ -15264,7 +15254,7 @@
       <c r="I136" s="53"/>
       <c r="J136" s="56"/>
     </row>
-    <row r="137" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D137" s="30"/>
       <c r="E137" s="3">
         <v>15</v>
@@ -15282,7 +15272,7 @@
       <c r="I137" s="53"/>
       <c r="J137" s="56"/>
     </row>
-    <row r="138" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D138" s="30"/>
       <c r="E138" s="3">
         <v>16</v>
@@ -15300,7 +15290,7 @@
       <c r="I138" s="53"/>
       <c r="J138" s="56"/>
     </row>
-    <row r="139" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D139" s="30"/>
       <c r="E139" s="3">
         <v>17</v>
@@ -15318,7 +15308,7 @@
       <c r="I139" s="53"/>
       <c r="J139" s="56"/>
     </row>
-    <row r="140" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D140" s="30"/>
       <c r="E140" s="3">
         <v>18</v>
@@ -15336,7 +15326,7 @@
       <c r="I140" s="53"/>
       <c r="J140" s="56"/>
     </row>
-    <row r="141" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D141" s="30"/>
       <c r="E141" s="3">
         <v>19</v>
@@ -15354,7 +15344,7 @@
       <c r="I141" s="53"/>
       <c r="J141" s="56"/>
     </row>
-    <row r="142" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D142" s="32"/>
       <c r="E142" s="6">
         <v>20</v>
@@ -15379,19 +15369,23 @@
       <c r="E143" s="4">
         <v>1</v>
       </c>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
+      <c r="F143" s="4">
+        <v>47.6</v>
+      </c>
+      <c r="G143" s="4">
+        <v>59.24</v>
+      </c>
       <c r="H143" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-11.64</v>
       </c>
       <c r="I143" s="52">
         <f t="shared" ref="I143" si="10">MAX(F143:F162)</f>
-        <v>0</v>
+        <v>86.1</v>
       </c>
       <c r="J143" s="55">
         <f t="shared" ref="J143" si="11">MAX(G143:G162)</f>
-        <v>0</v>
+        <v>82.05</v>
       </c>
     </row>
     <row r="144" spans="4:10" x14ac:dyDescent="0.2">
@@ -15399,11 +15393,15 @@
       <c r="E144" s="3">
         <v>2</v>
       </c>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
+      <c r="F144" s="3">
+        <v>64.17</v>
+      </c>
+      <c r="G144" s="3">
+        <v>67.27</v>
+      </c>
       <c r="H144" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-3.0999999999999943</v>
       </c>
       <c r="I144" s="53"/>
       <c r="J144" s="56"/>
@@ -15413,11 +15411,15 @@
       <c r="E145" s="3">
         <v>3</v>
       </c>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
+      <c r="F145" s="3">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="G145" s="3">
+        <v>68.819999999999993</v>
+      </c>
       <c r="H145" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.1700000000000017</v>
       </c>
       <c r="I145" s="53"/>
       <c r="J145" s="56"/>
@@ -15427,11 +15429,15 @@
       <c r="E146" s="3">
         <v>4</v>
       </c>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
+      <c r="F146" s="3">
+        <v>73.180000000000007</v>
+      </c>
+      <c r="G146" s="3">
+        <v>72.91</v>
+      </c>
       <c r="H146" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.27000000000001023</v>
       </c>
       <c r="I146" s="53"/>
       <c r="J146" s="56"/>
@@ -15441,11 +15447,15 @@
       <c r="E147" s="3">
         <v>5</v>
       </c>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
+      <c r="F147" s="3">
+        <v>75.53</v>
+      </c>
+      <c r="G147" s="3">
+        <v>75.98</v>
+      </c>
       <c r="H147" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-0.45000000000000284</v>
       </c>
       <c r="I147" s="53"/>
       <c r="J147" s="56"/>
@@ -15455,11 +15465,15 @@
       <c r="E148" s="3">
         <v>6</v>
       </c>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
+      <c r="F148" s="3">
+        <v>77.28</v>
+      </c>
+      <c r="G148" s="3">
+        <v>75.36</v>
+      </c>
       <c r="H148" s="3">
         <f t="shared" ref="H148:H211" si="12">F148-G148</f>
-        <v>0</v>
+        <v>1.9200000000000017</v>
       </c>
       <c r="I148" s="53"/>
       <c r="J148" s="56"/>
@@ -15469,11 +15483,15 @@
       <c r="E149" s="3">
         <v>7</v>
       </c>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
+      <c r="F149" s="3">
+        <v>78.510000000000005</v>
+      </c>
+      <c r="G149" s="3">
+        <v>76.989999999999995</v>
+      </c>
       <c r="H149" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.5200000000000102</v>
       </c>
       <c r="I149" s="53"/>
       <c r="J149" s="56"/>
@@ -15483,11 +15501,15 @@
       <c r="E150" s="3">
         <v>8</v>
       </c>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
+      <c r="F150" s="3">
+        <v>79.709999999999994</v>
+      </c>
+      <c r="G150" s="3">
+        <v>78.489999999999995</v>
+      </c>
       <c r="H150" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.2199999999999989</v>
       </c>
       <c r="I150" s="53"/>
       <c r="J150" s="56"/>
@@ -15497,11 +15519,15 @@
       <c r="E151" s="3">
         <v>9</v>
       </c>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
+      <c r="F151" s="3">
+        <v>80.69</v>
+      </c>
+      <c r="G151" s="3">
+        <v>78.75</v>
+      </c>
       <c r="H151" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.9399999999999977</v>
       </c>
       <c r="I151" s="53"/>
       <c r="J151" s="56"/>
@@ -15511,11 +15537,15 @@
       <c r="E152" s="3">
         <v>10</v>
       </c>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
+      <c r="F152" s="3">
+        <v>81.56</v>
+      </c>
+      <c r="G152" s="3">
+        <v>78.09</v>
+      </c>
       <c r="H152" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3.4699999999999989</v>
       </c>
       <c r="I152" s="53"/>
       <c r="J152" s="56"/>
@@ -15525,11 +15555,15 @@
       <c r="E153" s="3">
         <v>11</v>
       </c>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
+      <c r="F153" s="3">
+        <v>82.01</v>
+      </c>
+      <c r="G153" s="3">
+        <v>79.569999999999993</v>
+      </c>
       <c r="H153" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.4400000000000119</v>
       </c>
       <c r="I153" s="53"/>
       <c r="J153" s="56"/>
@@ -15539,11 +15573,15 @@
       <c r="E154" s="3">
         <v>12</v>
       </c>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
+      <c r="F154" s="3">
+        <v>82.84</v>
+      </c>
+      <c r="G154" s="3">
+        <v>79.62</v>
+      </c>
       <c r="H154" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3.2199999999999989</v>
       </c>
       <c r="I154" s="53"/>
       <c r="J154" s="56"/>
@@ -15553,11 +15591,15 @@
       <c r="E155" s="3">
         <v>13</v>
       </c>
-      <c r="F155" s="3"/>
-      <c r="G155" s="3"/>
+      <c r="F155" s="3">
+        <v>83.58</v>
+      </c>
+      <c r="G155" s="3">
+        <v>80.16</v>
+      </c>
       <c r="H155" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3.4200000000000017</v>
       </c>
       <c r="I155" s="53"/>
       <c r="J155" s="56"/>
@@ -15567,11 +15609,15 @@
       <c r="E156" s="3">
         <v>14</v>
       </c>
-      <c r="F156" s="3"/>
-      <c r="G156" s="3"/>
+      <c r="F156" s="3">
+        <v>83.72</v>
+      </c>
+      <c r="G156" s="3">
+        <v>80.760000000000005</v>
+      </c>
       <c r="H156" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.9599999999999937</v>
       </c>
       <c r="I156" s="53"/>
       <c r="J156" s="56"/>
@@ -15581,11 +15627,15 @@
       <c r="E157" s="3">
         <v>15</v>
       </c>
-      <c r="F157" s="3"/>
-      <c r="G157" s="3"/>
+      <c r="F157" s="3">
+        <v>84.41</v>
+      </c>
+      <c r="G157" s="3">
+        <v>80.900000000000006</v>
+      </c>
       <c r="H157" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3.5099999999999909</v>
       </c>
       <c r="I157" s="53"/>
       <c r="J157" s="56"/>
@@ -15595,11 +15645,15 @@
       <c r="E158" s="3">
         <v>16</v>
       </c>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3"/>
+      <c r="F158" s="3">
+        <v>85.06</v>
+      </c>
+      <c r="G158" s="3">
+        <v>81.59</v>
+      </c>
       <c r="H158" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3.4699999999999989</v>
       </c>
       <c r="I158" s="53"/>
       <c r="J158" s="56"/>
@@ -15609,11 +15663,15 @@
       <c r="E159" s="3">
         <v>17</v>
       </c>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3"/>
+      <c r="F159" s="3">
+        <v>85.24</v>
+      </c>
+      <c r="G159" s="3">
+        <v>82.05</v>
+      </c>
       <c r="H159" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3.1899999999999977</v>
       </c>
       <c r="I159" s="53"/>
       <c r="J159" s="56"/>
@@ -15623,11 +15681,15 @@
       <c r="E160" s="3">
         <v>18</v>
       </c>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
+      <c r="F160" s="3">
+        <v>85.55</v>
+      </c>
+      <c r="G160" s="3">
+        <v>81.650000000000006</v>
+      </c>
       <c r="H160" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3.8999999999999915</v>
       </c>
       <c r="I160" s="53"/>
       <c r="J160" s="56"/>
@@ -15637,11 +15699,15 @@
       <c r="E161" s="3">
         <v>19</v>
       </c>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
+      <c r="F161" s="3">
+        <v>85.82</v>
+      </c>
+      <c r="G161" s="3">
+        <v>81.569999999999993</v>
+      </c>
       <c r="H161" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="I161" s="53"/>
       <c r="J161" s="56"/>
@@ -15651,11 +15717,15 @@
       <c r="E162" s="6">
         <v>20</v>
       </c>
-      <c r="F162" s="6"/>
-      <c r="G162" s="6"/>
+      <c r="F162" s="6">
+        <v>86.1</v>
+      </c>
+      <c r="G162" s="6">
+        <v>81.03</v>
+      </c>
       <c r="H162" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5.0699999999999932</v>
       </c>
       <c r="I162" s="54"/>
       <c r="J162" s="57"/>
@@ -15667,19 +15737,23 @@
       <c r="E163" s="4">
         <v>1</v>
       </c>
-      <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
+      <c r="F163" s="4">
+        <v>46.33</v>
+      </c>
+      <c r="G163" s="4">
+        <v>53.09</v>
+      </c>
       <c r="H163" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-6.7600000000000051</v>
       </c>
       <c r="I163" s="52">
         <f t="shared" ref="I163" si="13">MAX(F163:F182)</f>
-        <v>0</v>
+        <v>83.45</v>
       </c>
       <c r="J163" s="55">
         <f t="shared" ref="J163" si="14">MAX(G163:G182)</f>
-        <v>0</v>
+        <v>82.89</v>
       </c>
     </row>
     <row r="164" spans="4:10" x14ac:dyDescent="0.2">
@@ -15687,11 +15761,15 @@
       <c r="E164" s="3">
         <v>2</v>
       </c>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
+      <c r="F164" s="3">
+        <v>60.94</v>
+      </c>
+      <c r="G164" s="3">
+        <v>66.790000000000006</v>
+      </c>
       <c r="H164" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-5.8500000000000085</v>
       </c>
       <c r="I164" s="53"/>
       <c r="J164" s="56"/>
@@ -15701,11 +15779,15 @@
       <c r="E165" s="3">
         <v>3</v>
       </c>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
+      <c r="F165" s="3">
+        <v>66.83</v>
+      </c>
+      <c r="G165" s="3">
+        <v>68.790000000000006</v>
+      </c>
       <c r="H165" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1.960000000000008</v>
       </c>
       <c r="I165" s="53"/>
       <c r="J165" s="56"/>
@@ -15715,11 +15797,15 @@
       <c r="E166" s="3">
         <v>4</v>
       </c>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
+      <c r="F166" s="3">
+        <v>70.27</v>
+      </c>
+      <c r="G166" s="3">
+        <v>72.08</v>
+      </c>
       <c r="H166" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1.8100000000000023</v>
       </c>
       <c r="I166" s="53"/>
       <c r="J166" s="56"/>
@@ -15729,11 +15815,15 @@
       <c r="E167" s="3">
         <v>5</v>
       </c>
-      <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
+      <c r="F167" s="3">
+        <v>72.91</v>
+      </c>
+      <c r="G167" s="3">
+        <v>75.989999999999995</v>
+      </c>
       <c r="H167" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-3.0799999999999983</v>
       </c>
       <c r="I167" s="53"/>
       <c r="J167" s="56"/>
@@ -15743,11 +15833,15 @@
       <c r="E168" s="3">
         <v>6</v>
       </c>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
+      <c r="F168" s="3">
+        <v>74.73</v>
+      </c>
+      <c r="G168" s="3">
+        <v>75.75</v>
+      </c>
       <c r="H168" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1.019999999999996</v>
       </c>
       <c r="I168" s="53"/>
       <c r="J168" s="56"/>
@@ -15757,11 +15851,15 @@
       <c r="E169" s="3">
         <v>7</v>
       </c>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
+      <c r="F169" s="3">
+        <v>75.83</v>
+      </c>
+      <c r="G169" s="3">
+        <v>77.75</v>
+      </c>
       <c r="H169" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1.9200000000000017</v>
       </c>
       <c r="I169" s="53"/>
       <c r="J169" s="56"/>
@@ -15771,11 +15869,15 @@
       <c r="E170" s="3">
         <v>8</v>
       </c>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
+      <c r="F170" s="3">
+        <v>76.94</v>
+      </c>
+      <c r="G170" s="3">
+        <v>77.63</v>
+      </c>
       <c r="H170" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-0.68999999999999773</v>
       </c>
       <c r="I170" s="53"/>
       <c r="J170" s="56"/>
@@ -15785,11 +15887,15 @@
       <c r="E171" s="3">
         <v>9</v>
       </c>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
+      <c r="F171" s="3">
+        <v>77.95</v>
+      </c>
+      <c r="G171" s="3">
+        <v>79.53</v>
+      </c>
       <c r="H171" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1.5799999999999983</v>
       </c>
       <c r="I171" s="53"/>
       <c r="J171" s="56"/>
@@ -15799,11 +15905,15 @@
       <c r="E172" s="3">
         <v>10</v>
       </c>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
+      <c r="F172" s="3">
+        <v>78.44</v>
+      </c>
+      <c r="G172" s="3">
+        <v>79.2</v>
+      </c>
       <c r="H172" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-0.76000000000000512</v>
       </c>
       <c r="I172" s="53"/>
       <c r="J172" s="56"/>
@@ -15813,11 +15923,15 @@
       <c r="E173" s="3">
         <v>11</v>
       </c>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
+      <c r="F173" s="3">
+        <v>79.459999999999994</v>
+      </c>
+      <c r="G173" s="3">
+        <v>79.569999999999993</v>
+      </c>
       <c r="H173" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-0.10999999999999943</v>
       </c>
       <c r="I173" s="53"/>
       <c r="J173" s="56"/>
@@ -15827,11 +15941,15 @@
       <c r="E174" s="3">
         <v>12</v>
       </c>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
+      <c r="F174" s="3">
+        <v>80.17</v>
+      </c>
+      <c r="G174" s="3">
+        <v>79.66</v>
+      </c>
       <c r="H174" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.51000000000000512</v>
       </c>
       <c r="I174" s="53"/>
       <c r="J174" s="56"/>
@@ -15841,11 +15959,15 @@
       <c r="E175" s="3">
         <v>13</v>
       </c>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
+      <c r="F175" s="3">
+        <v>80.47</v>
+      </c>
+      <c r="G175" s="3">
+        <v>80.150000000000006</v>
+      </c>
       <c r="H175" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.31999999999999318</v>
       </c>
       <c r="I175" s="53"/>
       <c r="J175" s="56"/>
@@ -15855,11 +15977,15 @@
       <c r="E176" s="3">
         <v>14</v>
       </c>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
+      <c r="F176" s="3">
+        <v>80.78</v>
+      </c>
+      <c r="G176" s="3">
+        <v>80.95</v>
+      </c>
       <c r="H176" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-0.17000000000000171</v>
       </c>
       <c r="I176" s="53"/>
       <c r="J176" s="56"/>
@@ -15869,11 +15995,15 @@
       <c r="E177" s="3">
         <v>15</v>
       </c>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
+      <c r="F177" s="3">
+        <v>81.739999999999995</v>
+      </c>
+      <c r="G177" s="3">
+        <v>80.510000000000005</v>
+      </c>
       <c r="H177" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.2299999999999898</v>
       </c>
       <c r="I177" s="53"/>
       <c r="J177" s="56"/>
@@ -15883,11 +16013,15 @@
       <c r="E178" s="3">
         <v>16</v>
       </c>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
+      <c r="F178" s="3">
+        <v>82</v>
+      </c>
+      <c r="G178" s="3">
+        <v>80.52</v>
+      </c>
       <c r="H178" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.480000000000004</v>
       </c>
       <c r="I178" s="53"/>
       <c r="J178" s="56"/>
@@ -15897,11 +16031,15 @@
       <c r="E179" s="3">
         <v>17</v>
       </c>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
+      <c r="F179" s="3">
+        <v>82.22</v>
+      </c>
+      <c r="G179" s="3">
+        <v>81.75</v>
+      </c>
       <c r="H179" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.46999999999999886</v>
       </c>
       <c r="I179" s="53"/>
       <c r="J179" s="56"/>
@@ -15911,11 +16049,15 @@
       <c r="E180" s="3">
         <v>18</v>
       </c>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
+      <c r="F180" s="3">
+        <v>82.62</v>
+      </c>
+      <c r="G180" s="3">
+        <v>82.06</v>
+      </c>
       <c r="H180" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.56000000000000227</v>
       </c>
       <c r="I180" s="53"/>
       <c r="J180" s="56"/>
@@ -15925,11 +16067,15 @@
       <c r="E181" s="3">
         <v>19</v>
       </c>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
+      <c r="F181" s="3">
+        <v>82.97</v>
+      </c>
+      <c r="G181" s="3">
+        <v>81.7</v>
+      </c>
       <c r="H181" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.269999999999996</v>
       </c>
       <c r="I181" s="53"/>
       <c r="J181" s="56"/>
@@ -15939,11 +16085,15 @@
       <c r="E182" s="6">
         <v>20</v>
       </c>
-      <c r="F182" s="6"/>
-      <c r="G182" s="6"/>
+      <c r="F182" s="6">
+        <v>83.45</v>
+      </c>
+      <c r="G182" s="6">
+        <v>82.89</v>
+      </c>
       <c r="H182" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.56000000000000227</v>
       </c>
       <c r="I182" s="54"/>
       <c r="J182" s="57"/>
@@ -19188,8 +19338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7711C3A-5153-46B1-ADD9-E0A1899966C0}">
   <dimension ref="G2:AA22"/>
   <sheetViews>
-    <sheetView topLeftCell="C27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y40" sqref="Y40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19250,13 +19400,13 @@
         <v>41</v>
       </c>
       <c r="Y2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="7:27" x14ac:dyDescent="0.2">
@@ -19293,10 +19443,16 @@
       </c>
       <c r="O3" s="9">
         <f>'Model logs'!H143</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
+        <v>-11.64</v>
+      </c>
+      <c r="P3" s="9">
+        <f>'Model logs'!H163</f>
+        <v>-6.7600000000000051</v>
+      </c>
+      <c r="Q3" s="9">
+        <f>'Model logs'!H183</f>
+        <v>0</v>
+      </c>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
@@ -19342,10 +19498,16 @@
       </c>
       <c r="O4" s="9">
         <f>'Model logs'!H144</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
+        <v>-3.0999999999999943</v>
+      </c>
+      <c r="P4" s="9">
+        <f>'Model logs'!H164</f>
+        <v>-5.8500000000000085</v>
+      </c>
+      <c r="Q4" s="9">
+        <f>'Model logs'!H184</f>
+        <v>0</v>
+      </c>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
@@ -19391,10 +19553,16 @@
       </c>
       <c r="O5" s="9">
         <f>'Model logs'!H145</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
+        <v>1.1700000000000017</v>
+      </c>
+      <c r="P5" s="9">
+        <f>'Model logs'!H165</f>
+        <v>-1.960000000000008</v>
+      </c>
+      <c r="Q5" s="9">
+        <f>'Model logs'!H185</f>
+        <v>0</v>
+      </c>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
@@ -19440,10 +19608,16 @@
       </c>
       <c r="O6" s="9">
         <f>'Model logs'!H146</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
+        <v>0.27000000000001023</v>
+      </c>
+      <c r="P6" s="9">
+        <f>'Model logs'!H166</f>
+        <v>-1.8100000000000023</v>
+      </c>
+      <c r="Q6" s="9">
+        <f>'Model logs'!H186</f>
+        <v>0</v>
+      </c>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
@@ -19489,10 +19663,16 @@
       </c>
       <c r="O7" s="9">
         <f>'Model logs'!H147</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
+        <v>-0.45000000000000284</v>
+      </c>
+      <c r="P7" s="9">
+        <f>'Model logs'!H167</f>
+        <v>-3.0799999999999983</v>
+      </c>
+      <c r="Q7" s="9">
+        <f>'Model logs'!H187</f>
+        <v>0</v>
+      </c>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
@@ -19538,10 +19718,16 @@
       </c>
       <c r="O8" s="9">
         <f>'Model logs'!H148</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
+        <v>1.9200000000000017</v>
+      </c>
+      <c r="P8" s="9">
+        <f>'Model logs'!H168</f>
+        <v>-1.019999999999996</v>
+      </c>
+      <c r="Q8" s="9">
+        <f>'Model logs'!H188</f>
+        <v>0</v>
+      </c>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
@@ -19587,10 +19773,16 @@
       </c>
       <c r="O9" s="9">
         <f>'Model logs'!H149</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
+        <v>1.5200000000000102</v>
+      </c>
+      <c r="P9" s="9">
+        <f>'Model logs'!H169</f>
+        <v>-1.9200000000000017</v>
+      </c>
+      <c r="Q9" s="9">
+        <f>'Model logs'!H189</f>
+        <v>0</v>
+      </c>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
@@ -19636,10 +19828,16 @@
       </c>
       <c r="O10" s="9">
         <f>'Model logs'!H150</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
+        <v>1.2199999999999989</v>
+      </c>
+      <c r="P10" s="9">
+        <f>'Model logs'!H170</f>
+        <v>-0.68999999999999773</v>
+      </c>
+      <c r="Q10" s="9">
+        <f>'Model logs'!H190</f>
+        <v>0</v>
+      </c>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
@@ -19685,10 +19883,16 @@
       </c>
       <c r="O11" s="9">
         <f>'Model logs'!H151</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
+        <v>1.9399999999999977</v>
+      </c>
+      <c r="P11" s="9">
+        <f>'Model logs'!H171</f>
+        <v>-1.5799999999999983</v>
+      </c>
+      <c r="Q11" s="9">
+        <f>'Model logs'!H191</f>
+        <v>0</v>
+      </c>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -19734,10 +19938,16 @@
       </c>
       <c r="O12" s="9">
         <f>'Model logs'!H152</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
+        <v>3.4699999999999989</v>
+      </c>
+      <c r="P12" s="9">
+        <f>'Model logs'!H172</f>
+        <v>-0.76000000000000512</v>
+      </c>
+      <c r="Q12" s="9">
+        <f>'Model logs'!H192</f>
+        <v>0</v>
+      </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
@@ -19783,10 +19993,16 @@
       </c>
       <c r="O13" s="9">
         <f>'Model logs'!H153</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
+        <v>2.4400000000000119</v>
+      </c>
+      <c r="P13" s="9">
+        <f>'Model logs'!H173</f>
+        <v>-0.10999999999999943</v>
+      </c>
+      <c r="Q13" s="9">
+        <f>'Model logs'!H193</f>
+        <v>0</v>
+      </c>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
@@ -19832,10 +20048,16 @@
       </c>
       <c r="O14" s="9">
         <f>'Model logs'!H154</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
+        <v>3.2199999999999989</v>
+      </c>
+      <c r="P14" s="9">
+        <f>'Model logs'!H174</f>
+        <v>0.51000000000000512</v>
+      </c>
+      <c r="Q14" s="9">
+        <f>'Model logs'!H194</f>
+        <v>0</v>
+      </c>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -19881,10 +20103,16 @@
       </c>
       <c r="O15" s="9">
         <f>'Model logs'!H155</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
+        <v>3.4200000000000017</v>
+      </c>
+      <c r="P15" s="9">
+        <f>'Model logs'!H175</f>
+        <v>0.31999999999999318</v>
+      </c>
+      <c r="Q15" s="9">
+        <f>'Model logs'!H195</f>
+        <v>0</v>
+      </c>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
@@ -19930,10 +20158,16 @@
       </c>
       <c r="O16" s="9">
         <f>'Model logs'!H156</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+        <v>2.9599999999999937</v>
+      </c>
+      <c r="P16" s="9">
+        <f>'Model logs'!H176</f>
+        <v>-0.17000000000000171</v>
+      </c>
+      <c r="Q16" s="9">
+        <f>'Model logs'!H196</f>
+        <v>0</v>
+      </c>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
@@ -19979,10 +20213,16 @@
       </c>
       <c r="O17" s="9">
         <f>'Model logs'!H157</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
+        <v>3.5099999999999909</v>
+      </c>
+      <c r="P17" s="9">
+        <f>'Model logs'!H177</f>
+        <v>1.2299999999999898</v>
+      </c>
+      <c r="Q17" s="9">
+        <f>'Model logs'!H197</f>
+        <v>0</v>
+      </c>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -20028,10 +20268,16 @@
       </c>
       <c r="O18" s="9">
         <f>'Model logs'!H158</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
+        <v>3.4699999999999989</v>
+      </c>
+      <c r="P18" s="9">
+        <f>'Model logs'!H178</f>
+        <v>1.480000000000004</v>
+      </c>
+      <c r="Q18" s="9">
+        <f>'Model logs'!H198</f>
+        <v>0</v>
+      </c>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
@@ -20077,10 +20323,16 @@
       </c>
       <c r="O19" s="9">
         <f>'Model logs'!H159</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
+        <v>3.1899999999999977</v>
+      </c>
+      <c r="P19" s="9">
+        <f>'Model logs'!H179</f>
+        <v>0.46999999999999886</v>
+      </c>
+      <c r="Q19" s="9">
+        <f>'Model logs'!H199</f>
+        <v>0</v>
+      </c>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -20126,10 +20378,16 @@
       </c>
       <c r="O20" s="9">
         <f>'Model logs'!H160</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
+        <v>3.8999999999999915</v>
+      </c>
+      <c r="P20" s="9">
+        <f>'Model logs'!H180</f>
+        <v>0.56000000000000227</v>
+      </c>
+      <c r="Q20" s="9">
+        <f>'Model logs'!H200</f>
+        <v>0</v>
+      </c>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
@@ -20175,10 +20433,16 @@
       </c>
       <c r="O21" s="9">
         <f>'Model logs'!H161</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
+        <v>4.25</v>
+      </c>
+      <c r="P21" s="9">
+        <f>'Model logs'!H181</f>
+        <v>1.269999999999996</v>
+      </c>
+      <c r="Q21" s="9">
+        <f>'Model logs'!H201</f>
+        <v>0</v>
+      </c>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
@@ -20224,10 +20488,16 @@
       </c>
       <c r="O22" s="9">
         <f>'Model logs'!H162</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
+        <v>5.0699999999999932</v>
+      </c>
+      <c r="P22" s="9">
+        <f>'Model logs'!H182</f>
+        <v>0.56000000000000227</v>
+      </c>
+      <c r="Q22" s="9">
+        <f>'Model logs'!H202</f>
+        <v>0</v>
+      </c>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
@@ -20243,483 +20513,6 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB3808C-9710-4289-AA5B-9168F07876A6}">
-  <dimension ref="D5:M64"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
-        <v>98</v>
-      </c>
-      <c r="M5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>99</v>
-      </c>
-      <c r="M6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>101</v>
-      </c>
-      <c r="M8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>102</v>
-      </c>
-      <c r="M9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>103</v>
-      </c>
-      <c r="M10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>104</v>
-      </c>
-      <c r="M11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>105</v>
-      </c>
-      <c r="M12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>106</v>
-      </c>
-      <c r="M13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>107</v>
-      </c>
-      <c r="M14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
-        <v>108</v>
-      </c>
-      <c r="M15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>109</v>
-      </c>
-      <c r="M16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>110</v>
-      </c>
-      <c r="M17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>111</v>
-      </c>
-      <c r="M18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>113</v>
-      </c>
-      <c r="M20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
-        <v>114</v>
-      </c>
-      <c r="M21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>115</v>
-      </c>
-      <c r="M22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>116</v>
-      </c>
-      <c r="M23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>117</v>
-      </c>
-      <c r="M24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
-        <v>118</v>
-      </c>
-      <c r="M25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D26" t="s">
-        <v>119</v>
-      </c>
-      <c r="M26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
-        <v>120</v>
-      </c>
-      <c r="M27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D28" t="s">
-        <v>121</v>
-      </c>
-      <c r="M28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
-        <v>122</v>
-      </c>
-      <c r="M29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D30" t="s">
-        <v>123</v>
-      </c>
-      <c r="M30" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
-        <v>124</v>
-      </c>
-      <c r="M31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
-        <v>125</v>
-      </c>
-      <c r="M32" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
-        <v>126</v>
-      </c>
-      <c r="M33" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
-        <v>127</v>
-      </c>
-      <c r="M34" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
-        <v>128</v>
-      </c>
-      <c r="M35" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D36" t="s">
-        <v>129</v>
-      </c>
-      <c r="M36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
-        <v>130</v>
-      </c>
-      <c r="M37" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
-        <v>131</v>
-      </c>
-      <c r="M38" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
-        <v>132</v>
-      </c>
-      <c r="M39" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
-        <v>133</v>
-      </c>
-      <c r="M40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D41" t="s">
-        <v>134</v>
-      </c>
-      <c r="M41" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D42" t="s">
-        <v>135</v>
-      </c>
-      <c r="M42" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D43" t="s">
-        <v>136</v>
-      </c>
-      <c r="M43" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D44" t="s">
-        <v>137</v>
-      </c>
-      <c r="M44" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D45" t="s">
-        <v>138</v>
-      </c>
-      <c r="M45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D46" t="s">
-        <v>139</v>
-      </c>
-      <c r="M46" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D47" t="s">
-        <v>140</v>
-      </c>
-      <c r="M47" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D48" t="s">
-        <v>141</v>
-      </c>
-      <c r="M48" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D49" t="s">
-        <v>100</v>
-      </c>
-      <c r="M49" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D50" t="s">
-        <v>142</v>
-      </c>
-      <c r="M50" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D51" t="s">
-        <v>143</v>
-      </c>
-      <c r="M51" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D52" t="s">
-        <v>144</v>
-      </c>
-      <c r="M52" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D53" t="s">
-        <v>98</v>
-      </c>
-      <c r="M53" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D54" t="s">
-        <v>145</v>
-      </c>
-      <c r="M54" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D55" t="s">
-        <v>146</v>
-      </c>
-      <c r="M55" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D56" t="s">
-        <v>147</v>
-      </c>
-      <c r="M56" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D57" t="s">
-        <v>148</v>
-      </c>
-      <c r="M57" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D58" t="s">
-        <v>98</v>
-      </c>
-      <c r="M58" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="M59" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="M60" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="M61" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="M62" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="M63" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="M64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Model.xlsx
+++ b/Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aditya.Tiwari\Documents\Product Management\Begin AI\TSAI\Repositories\Session 8 assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79524350-C2A6-4893-B978-B9D54786E3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D43D88-AA97-476E-A90B-A4D8FC9ED0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="110">
   <si>
     <t>Epoch</t>
   </si>
@@ -518,39 +518,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Back to Model 7, apply augmentations. Start with Horizontal flip. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Analysis - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Significant improvements in test accuracy. Training accuracy dropped, probably because data is harder to learn from. Or is it better seen as that we've addressed overfitting? Overall delta is much tighter. Best model so far. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Target - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Build up on model 10, apply more augmentation. This time ShiftScaleRotate. </t>
     </r>
     <r>
@@ -584,7 +551,215 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Build up on model 11, tune the ShiftScaleRotate hyperparameters. Earlier they dialed in low on the conservative side, this time trying out moderate values, in line with most research papers. </t>
+      <t xml:space="preserve">Build up on model 12, add more augmentation. CoarseDropout or cutouts this time. Hopefully, this will boost the model training accuracy, which should boost test accuracy, while keeping the delta as before. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Analysis - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Went the other way, model is now underfitting, and the test accuracy has dropped to. The training data is "too hard" to learn from.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Back to Model 7, apply augmentations. Start with Horizontal flip. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Analysis - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Significant improvements in test accuracy. Training accuracy dropped, we have begun to address overfitting. Overall delta is much tighter. Best model so far. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Try reducing the hole size in coarse dropout from 16 px to 8 px to see if it performs better. Cursor had warned of the hole size being half the image size. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Analysis - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Gained back the lost test accuracy, model is very, very close to Model 12. The delta is very tight too, the model is "just right" again. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Try dialing back the ScaleShiftRotate hyperparams to conservative than moderate. Maybe that can finally push the train and test accuracy together, combined with the cutouts. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Analysis - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Model is slightly overfitting now; the gain in train accuracy wasn't reflected in the gain in test accuracy. So let's stick to Model 14.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Back to Model 14. Try adding Learning Rate scheduler (ReduceLROnPlateau) to get some boost in train and test accuracy. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Analysis - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Very close performance to Model 14, not sure if LR was ever stepped. The log never reported it.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Back to Model 14. Trying a different Learning Rate scheduler on Cursor's advice (OneCycleLR). Hopefully it helps. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Analysis - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Fucking did it! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OneCycleLR is proactive rather than reactive, i.e., the changes in learning rates are preplanned instead of reacting to changes in a metric (test loss in case of ReduceLROnPlateau). The model was already in a good place with steadily decreasing test loss, so the LR was never stepped in the previous model. OneCycleLR in this case solved the problem.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Build up on model 11, tune the ShiftScaleRotate hyperparameters. Earlier they dialed in low on the conservative side, this time trying out moderate values, in line with most research papers (as per Cursor). </t>
     </r>
     <r>
       <rPr>
@@ -606,36 +781,12 @@
       <t>Was worth it!! Slight boost in test accuracy, further drop in training accuracy. The model is no longer over-fitting, it is "just right". Best model so far, with model 11 being a very close second. Can pivot to either in next rounds.</t>
     </r>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Target - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Build up on model 12, add more augmentation. CoarseDropout or cutouts this time. Hopefully, this will boost the model training accuracy, which should boost test accuracy, while keeping the delta as before. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Analysis - </t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,6 +853,13 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1622,15 +1780,15 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:idx val="10"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model Comparisons'!$P$2</c:f>
+              <c:f>'Model Comparisons'!$R$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Model 12</c:v>
+                  <c:v>Model 14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1638,7 +1796,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -1651,13 +1809,13 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
+                  <a:schemeClr val="accent5">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -1724,57 +1882,57 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model Comparisons'!$P$7:$P$22</c:f>
+              <c:f>'Model Comparisons'!$R$7:$R$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>-3.0799999999999983</c:v>
+                  <c:v>-2.9699999999999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.019999999999996</c:v>
+                  <c:v>-1.7399999999999949</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.9200000000000017</c:v>
+                  <c:v>-1.6999999999999886</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>-2.1800000000000068</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.7000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.96000000000000796</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000001137E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.87000000000000455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.79000000000000625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.53000000000000114</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.52000000000001023</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>-0.68999999999999773</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.5799999999999983</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.76000000000000512</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.10999999999999943</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.51000000000000512</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.31999999999999318</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.17000000000000171</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2299999999999898</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.480000000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.46999999999999886</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.56000000000000227</c:v>
+                  <c:v>-0.82000000000000739</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.269999999999996</c:v>
+                  <c:v>-0.71999999999999886</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.56000000000000227</c:v>
+                  <c:v>-0.12999999999999545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1782,20 +1940,20 @@
           <c:smooth val="1"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-5168-4045-BDD9-686458049E54}"/>
+              <c16:uniqueId val="{0000000A-5168-4045-BDD9-686458049E54}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:idx val="12"/>
+          <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model Comparisons'!$Q$2</c:f>
+              <c:f>'Model Comparisons'!$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Model 13</c:v>
+                  <c:v>Model 16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1803,8 +1961,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1816,14 +1975,16 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -1889,57 +2050,57 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model Comparisons'!$Q$7:$Q$22</c:f>
+              <c:f>'Model Comparisons'!$T$7:$T$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-2.980000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-1.8099999999999881</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-2.7999999999999972</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-2.769999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-1.0700000000000074</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-1.1999999999999886</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-2.2000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-1.9499999999999886</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-1.1700000000000017</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-0.81000000000000227</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-1.1099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-1.5099999999999909</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-1.480000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.32999999999999829</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-1.5100000000000051</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-0.14999999999999147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1947,7 +2108,175 @@
           <c:smooth val="1"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-5168-4045-BDD9-686458049E54}"/>
+              <c16:uniqueId val="{0000000C-5168-4045-BDD9-686458049E54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model Comparisons'!$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model 17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model Comparisons'!$G$7:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model Comparisons'!$U$7:$U$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.14000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8499999999999943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8800000000000097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.5700000000000074</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.64000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.6099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.1800000000000068</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.4899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.7000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.3200000000000074</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.47999999999998977</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.34000000000000341</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-5168-4045-BDD9-686458049E54}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3409,21 +3738,21 @@
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="10"/>
-                <c:order val="10"/>
+                <c:idx val="8"/>
+                <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$R$2</c15:sqref>
+                          <c15:sqref>'Model Comparisons'!$P$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Model 14</c:v>
+                        <c:v>Model 12</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3431,7 +3760,7 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent5">
+                      <a:schemeClr val="accent3">
                         <a:lumMod val="60000"/>
                       </a:schemeClr>
                     </a:solidFill>
@@ -3444,13 +3773,13 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent5">
+                      <a:schemeClr val="accent3">
                         <a:lumMod val="60000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent5">
+                        <a:schemeClr val="accent3">
                           <a:lumMod val="60000"/>
                         </a:schemeClr>
                       </a:solidFill>
@@ -3526,20 +3855,253 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$R$7:$R$22</c15:sqref>
+                          <c15:sqref>'Model Comparisons'!$P$7:$P$22</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>-3.0799999999999983</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-1.019999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-1.9200000000000017</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-0.68999999999999773</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-1.5799999999999983</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-0.76000000000000512</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-0.10999999999999943</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.51000000000000512</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.31999999999999318</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-0.17000000000000171</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.2299999999999898</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.480000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.46999999999999886</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.56000000000000227</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.269999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.56000000000000227</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000A-5168-4045-BDD9-686458049E54}"/>
+                    <c16:uniqueId val="{00000008-5168-4045-BDD9-686458049E54}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$Q$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Model 13</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$G$7:$G$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$Q$7:$Q$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>-4.269999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-6.2700000000000102</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-4.5999999999999943</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-3.9399999999999977</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-5.1800000000000068</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-4.0400000000000063</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-4.3799999999999955</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-5.1700000000000017</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-4.6799999999999926</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-3.9099999999999966</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-5.0499999999999972</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-3.9200000000000017</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-4.019999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-4.5300000000000011</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-2.5999999999999943</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>-4.3199999999999932</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-5168-4045-BDD9-686458049E54}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -3670,6 +4232,54 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>-0.35999999999999943</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-0.95000000000000284</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.2800000000000011</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-1.0600000000000023</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.21999999999999886</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0000000000011369E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.5300000000000011</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.57999999999999829</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.2600000000000051</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.9000000000000057</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.6300000000000097</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.5600000000000023</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.6999999999999886</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.8799999999999955</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>3.730000000000004</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -3677,286 +4287,6 @@
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-5168-4045-BDD9-686458049E54}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="12"/>
-                <c:order val="12"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$T$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Model 16</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="80000"/>
-                          <a:lumOff val="20000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$G$7:$G$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                      <c:pt idx="0">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>20</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$T$7:$T$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="1"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000C-5168-4045-BDD9-686458049E54}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="13"/>
-                <c:order val="13"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$U$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Model 17</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2">
-                          <a:lumMod val="80000"/>
-                          <a:lumOff val="20000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$G$7:$G$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                      <c:pt idx="0">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>20</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$U$7:$U$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="1"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000D-5168-4045-BDD9-686458049E54}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -5993,11 +6323,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5155A9C0-960B-43B5-AA06-FF471900653F}">
-  <dimension ref="C4:S124"/>
+  <dimension ref="C4:S128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S126" sqref="S126:S131"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D123" sqref="D123:R123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12521,7 +12851,7 @@
       <c r="Q121" s="67"/>
       <c r="R121" s="68"/>
       <c r="S121" s="69" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="3:19" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12546,10 +12876,10 @@
       <c r="Q122" s="67"/>
       <c r="R122" s="68"/>
       <c r="S122" s="69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="123" spans="3:19" ht="204" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="3:19" ht="215.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C123" s="60">
         <v>12</v>
       </c>
@@ -12571,7 +12901,7 @@
       <c r="Q123" s="67"/>
       <c r="R123" s="68"/>
       <c r="S123" s="69" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="124" spans="3:19" ht="200.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12596,15 +12926,119 @@
       <c r="Q124" s="67"/>
       <c r="R124" s="68"/>
       <c r="S124" s="69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="125" spans="3:19" ht="149.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C125" s="60">
+        <v>14</v>
+      </c>
+      <c r="D125" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="E125" s="67"/>
+      <c r="F125" s="67"/>
+      <c r="G125" s="67"/>
+      <c r="H125" s="67"/>
+      <c r="I125" s="67"/>
+      <c r="J125" s="67"/>
+      <c r="K125" s="67"/>
+      <c r="L125" s="67"/>
+      <c r="M125" s="67"/>
+      <c r="N125" s="67"/>
+      <c r="O125" s="67"/>
+      <c r="P125" s="67"/>
+      <c r="Q125" s="67"/>
+      <c r="R125" s="68"/>
+      <c r="S125" s="69" t="s">
         <v>105</v>
       </c>
     </row>
+    <row r="126" spans="3:19" ht="154.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C126" s="60">
+        <v>15</v>
+      </c>
+      <c r="D126" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="E126" s="67"/>
+      <c r="F126" s="67"/>
+      <c r="G126" s="67"/>
+      <c r="H126" s="67"/>
+      <c r="I126" s="67"/>
+      <c r="J126" s="67"/>
+      <c r="K126" s="67"/>
+      <c r="L126" s="67"/>
+      <c r="M126" s="67"/>
+      <c r="N126" s="67"/>
+      <c r="O126" s="67"/>
+      <c r="P126" s="67"/>
+      <c r="Q126" s="67"/>
+      <c r="R126" s="68"/>
+      <c r="S126" s="69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="127" spans="3:19" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C127" s="60">
+        <v>16</v>
+      </c>
+      <c r="D127" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="E127" s="67"/>
+      <c r="F127" s="67"/>
+      <c r="G127" s="67"/>
+      <c r="H127" s="67"/>
+      <c r="I127" s="67"/>
+      <c r="J127" s="67"/>
+      <c r="K127" s="67"/>
+      <c r="L127" s="67"/>
+      <c r="M127" s="67"/>
+      <c r="N127" s="67"/>
+      <c r="O127" s="67"/>
+      <c r="P127" s="67"/>
+      <c r="Q127" s="67"/>
+      <c r="R127" s="68"/>
+      <c r="S127" s="69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="128" spans="3:19" ht="230.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C128" s="60">
+        <v>17</v>
+      </c>
+      <c r="D128" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="E128" s="67"/>
+      <c r="F128" s="67"/>
+      <c r="G128" s="67"/>
+      <c r="H128" s="67"/>
+      <c r="I128" s="67"/>
+      <c r="J128" s="67"/>
+      <c r="K128" s="67"/>
+      <c r="L128" s="67"/>
+      <c r="M128" s="67"/>
+      <c r="N128" s="67"/>
+      <c r="O128" s="67"/>
+      <c r="P128" s="67"/>
+      <c r="Q128" s="67"/>
+      <c r="R128" s="68"/>
+      <c r="S128" s="69" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="64">
     <mergeCell ref="D121:R121"/>
     <mergeCell ref="D122:R122"/>
     <mergeCell ref="D123:R123"/>
     <mergeCell ref="D124:R124"/>
+    <mergeCell ref="D125:R125"/>
+    <mergeCell ref="D126:R126"/>
+    <mergeCell ref="D127:R127"/>
+    <mergeCell ref="D128:R128"/>
     <mergeCell ref="C107:C120"/>
     <mergeCell ref="S107:S120"/>
     <mergeCell ref="D109:D110"/>
@@ -12672,8 +13106,8 @@
   <dimension ref="D1:Q402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A123" sqref="A123:XFD142"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12712,7 +13146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D3" s="29">
         <v>4</v>
       </c>
@@ -12738,7 +13172,7 @@
         <v>72.59</v>
       </c>
     </row>
-    <row r="4" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D4" s="30"/>
       <c r="E4" s="3">
         <v>2</v>
@@ -12758,7 +13192,7 @@
       <c r="N4" s="58"/>
       <c r="Q4" s="58"/>
     </row>
-    <row r="5" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D5" s="30"/>
       <c r="E5" s="3">
         <v>3</v>
@@ -12778,7 +13212,7 @@
       <c r="N5" s="58"/>
       <c r="Q5" s="58"/>
     </row>
-    <row r="6" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D6" s="30"/>
       <c r="E6" s="3">
         <v>4</v>
@@ -12798,7 +13232,7 @@
       <c r="N6" s="58"/>
       <c r="Q6" s="58"/>
     </row>
-    <row r="7" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D7" s="30"/>
       <c r="E7" s="3">
         <v>5</v>
@@ -12818,7 +13252,7 @@
       <c r="N7" s="58"/>
       <c r="Q7" s="58"/>
     </row>
-    <row r="8" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D8" s="30"/>
       <c r="E8" s="3">
         <v>6</v>
@@ -12838,7 +13272,7 @@
       <c r="N8" s="58"/>
       <c r="Q8" s="58"/>
     </row>
-    <row r="9" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D9" s="30"/>
       <c r="E9" s="3">
         <v>7</v>
@@ -12858,7 +13292,7 @@
       <c r="N9" s="58"/>
       <c r="Q9" s="58"/>
     </row>
-    <row r="10" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D10" s="30"/>
       <c r="E10" s="3">
         <v>8</v>
@@ -12878,7 +13312,7 @@
       <c r="N10" s="58"/>
       <c r="Q10" s="58"/>
     </row>
-    <row r="11" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D11" s="30"/>
       <c r="E11" s="3">
         <v>9</v>
@@ -12898,7 +13332,7 @@
       <c r="N11" s="58"/>
       <c r="Q11" s="58"/>
     </row>
-    <row r="12" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D12" s="30"/>
       <c r="E12" s="3">
         <v>10</v>
@@ -12918,7 +13352,7 @@
       <c r="N12" s="58"/>
       <c r="Q12" s="58"/>
     </row>
-    <row r="13" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D13" s="30"/>
       <c r="E13" s="3">
         <v>11</v>
@@ -12938,7 +13372,7 @@
       <c r="N13" s="58"/>
       <c r="Q13" s="58"/>
     </row>
-    <row r="14" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D14" s="30"/>
       <c r="E14" s="3">
         <v>12</v>
@@ -12958,7 +13392,7 @@
       <c r="N14" s="58"/>
       <c r="Q14" s="58"/>
     </row>
-    <row r="15" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D15" s="30"/>
       <c r="E15" s="3">
         <v>13</v>
@@ -12978,7 +13412,7 @@
       <c r="N15" s="58"/>
       <c r="Q15" s="58"/>
     </row>
-    <row r="16" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D16" s="30"/>
       <c r="E16" s="3">
         <v>14</v>
@@ -12998,7 +13432,7 @@
       <c r="N16" s="58"/>
       <c r="Q16" s="58"/>
     </row>
-    <row r="17" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D17" s="30"/>
       <c r="E17" s="3">
         <v>15</v>
@@ -13018,7 +13452,7 @@
       <c r="N17" s="58"/>
       <c r="Q17" s="58"/>
     </row>
-    <row r="18" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D18" s="30"/>
       <c r="E18" s="3">
         <v>16</v>
@@ -13038,7 +13472,7 @@
       <c r="N18" s="58"/>
       <c r="Q18" s="58"/>
     </row>
-    <row r="19" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D19" s="30"/>
       <c r="E19" s="3">
         <v>17</v>
@@ -13058,7 +13492,7 @@
       <c r="N19" s="58"/>
       <c r="Q19" s="58"/>
     </row>
-    <row r="20" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D20" s="30"/>
       <c r="E20" s="3">
         <v>18</v>
@@ -13078,7 +13512,7 @@
       <c r="N20" s="58"/>
       <c r="Q20" s="58"/>
     </row>
-    <row r="21" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D21" s="30"/>
       <c r="E21" s="3">
         <v>19</v>
@@ -13098,7 +13532,7 @@
       <c r="N21" s="58"/>
       <c r="Q21" s="58"/>
     </row>
-    <row r="22" spans="4:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D22" s="32"/>
       <c r="E22" s="6">
         <v>20</v>
@@ -13118,7 +13552,7 @@
       <c r="N22" s="59"/>
       <c r="Q22" s="58"/>
     </row>
-    <row r="23" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D23" s="29">
         <v>5</v>
       </c>
@@ -13146,7 +13580,7 @@
       <c r="N23" s="59"/>
       <c r="Q23" s="58"/>
     </row>
-    <row r="24" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D24" s="30"/>
       <c r="E24" s="3">
         <v>2</v>
@@ -13166,7 +13600,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D25" s="30"/>
       <c r="E25" s="3">
         <v>3</v>
@@ -13186,7 +13620,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D26" s="30"/>
       <c r="E26" s="3">
         <v>4</v>
@@ -13206,7 +13640,7 @@
       <c r="N26"/>
       <c r="O26"/>
     </row>
-    <row r="27" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D27" s="30"/>
       <c r="E27" s="3">
         <v>5</v>
@@ -13226,7 +13660,7 @@
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row r="28" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D28" s="30"/>
       <c r="E28" s="3">
         <v>6</v>
@@ -13246,7 +13680,7 @@
       <c r="N28"/>
       <c r="O28"/>
     </row>
-    <row r="29" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D29" s="30"/>
       <c r="E29" s="3">
         <v>7</v>
@@ -13266,7 +13700,7 @@
       <c r="N29"/>
       <c r="O29"/>
     </row>
-    <row r="30" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D30" s="30"/>
       <c r="E30" s="3">
         <v>8</v>
@@ -13286,7 +13720,7 @@
       <c r="N30"/>
       <c r="O30"/>
     </row>
-    <row r="31" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D31" s="30"/>
       <c r="E31" s="3">
         <v>9</v>
@@ -13306,7 +13740,7 @@
       <c r="N31"/>
       <c r="O31"/>
     </row>
-    <row r="32" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D32" s="30"/>
       <c r="E32" s="3">
         <v>10</v>
@@ -13326,7 +13760,7 @@
       <c r="N32"/>
       <c r="O32"/>
     </row>
-    <row r="33" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D33" s="30"/>
       <c r="E33" s="3">
         <v>11</v>
@@ -13346,7 +13780,7 @@
       <c r="N33"/>
       <c r="O33"/>
     </row>
-    <row r="34" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D34" s="30"/>
       <c r="E34" s="3">
         <v>12</v>
@@ -13366,7 +13800,7 @@
       <c r="N34"/>
       <c r="O34"/>
     </row>
-    <row r="35" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D35" s="30"/>
       <c r="E35" s="3">
         <v>13</v>
@@ -13386,7 +13820,7 @@
       <c r="N35"/>
       <c r="O35"/>
     </row>
-    <row r="36" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D36" s="30"/>
       <c r="E36" s="3">
         <v>14</v>
@@ -13406,7 +13840,7 @@
       <c r="N36"/>
       <c r="O36"/>
     </row>
-    <row r="37" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D37" s="30"/>
       <c r="E37" s="3">
         <v>15</v>
@@ -13426,7 +13860,7 @@
       <c r="N37"/>
       <c r="O37"/>
     </row>
-    <row r="38" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D38" s="30"/>
       <c r="E38" s="3">
         <v>16</v>
@@ -13446,7 +13880,7 @@
       <c r="N38"/>
       <c r="O38"/>
     </row>
-    <row r="39" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D39" s="30"/>
       <c r="E39" s="3">
         <v>17</v>
@@ -13466,7 +13900,7 @@
       <c r="N39"/>
       <c r="O39"/>
     </row>
-    <row r="40" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D40" s="30"/>
       <c r="E40" s="3">
         <v>18</v>
@@ -13486,7 +13920,7 @@
       <c r="N40"/>
       <c r="O40"/>
     </row>
-    <row r="41" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D41" s="30"/>
       <c r="E41" s="3">
         <v>19</v>
@@ -13504,7 +13938,7 @@
       <c r="I41" s="53"/>
       <c r="J41" s="56"/>
     </row>
-    <row r="42" spans="4:15" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D42" s="32"/>
       <c r="E42" s="6">
         <v>20</v>
@@ -13522,7 +13956,7 @@
       <c r="I42" s="54"/>
       <c r="J42" s="57"/>
     </row>
-    <row r="43" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D43" s="29">
         <v>6</v>
       </c>
@@ -13548,7 +13982,7 @@
         <v>79.89</v>
       </c>
     </row>
-    <row r="44" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D44" s="30"/>
       <c r="E44" s="3">
         <v>2</v>
@@ -13566,7 +14000,7 @@
       <c r="I44" s="53"/>
       <c r="J44" s="56"/>
     </row>
-    <row r="45" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D45" s="30"/>
       <c r="E45" s="3">
         <v>3</v>
@@ -13584,7 +14018,7 @@
       <c r="I45" s="53"/>
       <c r="J45" s="56"/>
     </row>
-    <row r="46" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D46" s="30"/>
       <c r="E46" s="3">
         <v>4</v>
@@ -13602,7 +14036,7 @@
       <c r="I46" s="53"/>
       <c r="J46" s="56"/>
     </row>
-    <row r="47" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D47" s="30"/>
       <c r="E47" s="3">
         <v>5</v>
@@ -13620,7 +14054,7 @@
       <c r="I47" s="53"/>
       <c r="J47" s="56"/>
     </row>
-    <row r="48" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D48" s="30"/>
       <c r="E48" s="3">
         <v>6</v>
@@ -13638,7 +14072,7 @@
       <c r="I48" s="53"/>
       <c r="J48" s="56"/>
     </row>
-    <row r="49" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D49" s="30"/>
       <c r="E49" s="3">
         <v>7</v>
@@ -13656,7 +14090,7 @@
       <c r="I49" s="53"/>
       <c r="J49" s="56"/>
     </row>
-    <row r="50" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D50" s="30"/>
       <c r="E50" s="3">
         <v>8</v>
@@ -13674,7 +14108,7 @@
       <c r="I50" s="53"/>
       <c r="J50" s="56"/>
     </row>
-    <row r="51" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D51" s="30"/>
       <c r="E51" s="3">
         <v>9</v>
@@ -13692,7 +14126,7 @@
       <c r="I51" s="53"/>
       <c r="J51" s="56"/>
     </row>
-    <row r="52" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D52" s="30"/>
       <c r="E52" s="3">
         <v>10</v>
@@ -13710,7 +14144,7 @@
       <c r="I52" s="53"/>
       <c r="J52" s="56"/>
     </row>
-    <row r="53" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D53" s="30"/>
       <c r="E53" s="3">
         <v>11</v>
@@ -13728,7 +14162,7 @@
       <c r="I53" s="53"/>
       <c r="J53" s="56"/>
     </row>
-    <row r="54" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D54" s="30"/>
       <c r="E54" s="3">
         <v>12</v>
@@ -13746,7 +14180,7 @@
       <c r="I54" s="53"/>
       <c r="J54" s="56"/>
     </row>
-    <row r="55" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D55" s="30"/>
       <c r="E55" s="3">
         <v>13</v>
@@ -13764,7 +14198,7 @@
       <c r="I55" s="53"/>
       <c r="J55" s="56"/>
     </row>
-    <row r="56" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D56" s="30"/>
       <c r="E56" s="3">
         <v>14</v>
@@ -13782,7 +14216,7 @@
       <c r="I56" s="53"/>
       <c r="J56" s="56"/>
     </row>
-    <row r="57" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D57" s="30"/>
       <c r="E57" s="3">
         <v>15</v>
@@ -13800,7 +14234,7 @@
       <c r="I57" s="53"/>
       <c r="J57" s="56"/>
     </row>
-    <row r="58" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D58" s="30"/>
       <c r="E58" s="3">
         <v>16</v>
@@ -13818,7 +14252,7 @@
       <c r="I58" s="53"/>
       <c r="J58" s="56"/>
     </row>
-    <row r="59" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D59" s="30"/>
       <c r="E59" s="3">
         <v>17</v>
@@ -13836,7 +14270,7 @@
       <c r="I59" s="53"/>
       <c r="J59" s="56"/>
     </row>
-    <row r="60" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D60" s="30"/>
       <c r="E60" s="3">
         <v>18</v>
@@ -13854,7 +14288,7 @@
       <c r="I60" s="53"/>
       <c r="J60" s="56"/>
     </row>
-    <row r="61" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D61" s="30"/>
       <c r="E61" s="3">
         <v>19</v>
@@ -13872,7 +14306,7 @@
       <c r="I61" s="53"/>
       <c r="J61" s="56"/>
     </row>
-    <row r="62" spans="4:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D62" s="32"/>
       <c r="E62" s="6">
         <v>20</v>
@@ -13890,7 +14324,7 @@
       <c r="I62" s="54"/>
       <c r="J62" s="57"/>
     </row>
-    <row r="63" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D63" s="29">
         <v>7</v>
       </c>
@@ -13916,7 +14350,7 @@
         <v>76.67</v>
       </c>
     </row>
-    <row r="64" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D64" s="30"/>
       <c r="E64" s="3">
         <v>2</v>
@@ -13934,7 +14368,7 @@
       <c r="I64" s="53"/>
       <c r="J64" s="56"/>
     </row>
-    <row r="65" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D65" s="30"/>
       <c r="E65" s="3">
         <v>3</v>
@@ -13952,7 +14386,7 @@
       <c r="I65" s="53"/>
       <c r="J65" s="56"/>
     </row>
-    <row r="66" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D66" s="30"/>
       <c r="E66" s="3">
         <v>4</v>
@@ -13970,7 +14404,7 @@
       <c r="I66" s="53"/>
       <c r="J66" s="56"/>
     </row>
-    <row r="67" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D67" s="30"/>
       <c r="E67" s="3">
         <v>5</v>
@@ -13988,7 +14422,7 @@
       <c r="I67" s="53"/>
       <c r="J67" s="56"/>
     </row>
-    <row r="68" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D68" s="30"/>
       <c r="E68" s="3">
         <v>6</v>
@@ -14006,7 +14440,7 @@
       <c r="I68" s="53"/>
       <c r="J68" s="56"/>
     </row>
-    <row r="69" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D69" s="30"/>
       <c r="E69" s="3">
         <v>7</v>
@@ -14024,7 +14458,7 @@
       <c r="I69" s="53"/>
       <c r="J69" s="56"/>
     </row>
-    <row r="70" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D70" s="30"/>
       <c r="E70" s="3">
         <v>8</v>
@@ -14042,7 +14476,7 @@
       <c r="I70" s="53"/>
       <c r="J70" s="56"/>
     </row>
-    <row r="71" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D71" s="30"/>
       <c r="E71" s="3">
         <v>9</v>
@@ -14060,7 +14494,7 @@
       <c r="I71" s="53"/>
       <c r="J71" s="56"/>
     </row>
-    <row r="72" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D72" s="30"/>
       <c r="E72" s="3">
         <v>10</v>
@@ -14078,7 +14512,7 @@
       <c r="I72" s="53"/>
       <c r="J72" s="56"/>
     </row>
-    <row r="73" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D73" s="30"/>
       <c r="E73" s="3">
         <v>11</v>
@@ -14096,7 +14530,7 @@
       <c r="I73" s="53"/>
       <c r="J73" s="56"/>
     </row>
-    <row r="74" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D74" s="30"/>
       <c r="E74" s="3">
         <v>12</v>
@@ -14114,7 +14548,7 @@
       <c r="I74" s="53"/>
       <c r="J74" s="56"/>
     </row>
-    <row r="75" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D75" s="30"/>
       <c r="E75" s="3">
         <v>13</v>
@@ -14132,7 +14566,7 @@
       <c r="I75" s="53"/>
       <c r="J75" s="56"/>
     </row>
-    <row r="76" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D76" s="30"/>
       <c r="E76" s="3">
         <v>14</v>
@@ -14150,7 +14584,7 @@
       <c r="I76" s="53"/>
       <c r="J76" s="56"/>
     </row>
-    <row r="77" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D77" s="30"/>
       <c r="E77" s="3">
         <v>15</v>
@@ -14168,7 +14602,7 @@
       <c r="I77" s="53"/>
       <c r="J77" s="56"/>
     </row>
-    <row r="78" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D78" s="30"/>
       <c r="E78" s="3">
         <v>16</v>
@@ -14186,7 +14620,7 @@
       <c r="I78" s="53"/>
       <c r="J78" s="56"/>
     </row>
-    <row r="79" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D79" s="30"/>
       <c r="E79" s="3">
         <v>17</v>
@@ -14204,7 +14638,7 @@
       <c r="I79" s="53"/>
       <c r="J79" s="56"/>
     </row>
-    <row r="80" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D80" s="30"/>
       <c r="E80" s="3">
         <v>18</v>
@@ -14222,7 +14656,7 @@
       <c r="I80" s="53"/>
       <c r="J80" s="56"/>
     </row>
-    <row r="81" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D81" s="30"/>
       <c r="E81" s="3">
         <v>19</v>
@@ -14240,7 +14674,7 @@
       <c r="I81" s="53"/>
       <c r="J81" s="56"/>
     </row>
-    <row r="82" spans="4:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D82" s="32"/>
       <c r="E82" s="6">
         <v>20</v>
@@ -14258,7 +14692,7 @@
       <c r="I82" s="54"/>
       <c r="J82" s="57"/>
     </row>
-    <row r="83" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D83" s="29">
         <v>8</v>
       </c>
@@ -14284,7 +14718,7 @@
         <v>78.89</v>
       </c>
     </row>
-    <row r="84" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D84" s="30"/>
       <c r="E84" s="3">
         <v>2</v>
@@ -14302,7 +14736,7 @@
       <c r="I84" s="53"/>
       <c r="J84" s="56"/>
     </row>
-    <row r="85" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D85" s="30"/>
       <c r="E85" s="3">
         <v>3</v>
@@ -14320,7 +14754,7 @@
       <c r="I85" s="53"/>
       <c r="J85" s="56"/>
     </row>
-    <row r="86" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D86" s="30"/>
       <c r="E86" s="3">
         <v>4</v>
@@ -14338,7 +14772,7 @@
       <c r="I86" s="53"/>
       <c r="J86" s="56"/>
     </row>
-    <row r="87" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D87" s="30"/>
       <c r="E87" s="3">
         <v>5</v>
@@ -14356,7 +14790,7 @@
       <c r="I87" s="53"/>
       <c r="J87" s="56"/>
     </row>
-    <row r="88" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D88" s="30"/>
       <c r="E88" s="3">
         <v>6</v>
@@ -14374,7 +14808,7 @@
       <c r="I88" s="53"/>
       <c r="J88" s="56"/>
     </row>
-    <row r="89" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D89" s="30"/>
       <c r="E89" s="3">
         <v>7</v>
@@ -14392,7 +14826,7 @@
       <c r="I89" s="53"/>
       <c r="J89" s="56"/>
     </row>
-    <row r="90" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D90" s="30"/>
       <c r="E90" s="3">
         <v>8</v>
@@ -14410,7 +14844,7 @@
       <c r="I90" s="53"/>
       <c r="J90" s="56"/>
     </row>
-    <row r="91" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D91" s="30"/>
       <c r="E91" s="3">
         <v>9</v>
@@ -14428,7 +14862,7 @@
       <c r="I91" s="53"/>
       <c r="J91" s="56"/>
     </row>
-    <row r="92" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D92" s="30"/>
       <c r="E92" s="3">
         <v>10</v>
@@ -14446,7 +14880,7 @@
       <c r="I92" s="53"/>
       <c r="J92" s="56"/>
     </row>
-    <row r="93" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D93" s="30"/>
       <c r="E93" s="3">
         <v>11</v>
@@ -14464,7 +14898,7 @@
       <c r="I93" s="53"/>
       <c r="J93" s="56"/>
     </row>
-    <row r="94" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D94" s="30"/>
       <c r="E94" s="3">
         <v>12</v>
@@ -14482,7 +14916,7 @@
       <c r="I94" s="53"/>
       <c r="J94" s="56"/>
     </row>
-    <row r="95" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D95" s="30"/>
       <c r="E95" s="3">
         <v>13</v>
@@ -14500,7 +14934,7 @@
       <c r="I95" s="53"/>
       <c r="J95" s="56"/>
     </row>
-    <row r="96" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D96" s="30"/>
       <c r="E96" s="3">
         <v>14</v>
@@ -14518,7 +14952,7 @@
       <c r="I96" s="53"/>
       <c r="J96" s="56"/>
     </row>
-    <row r="97" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D97" s="30"/>
       <c r="E97" s="3">
         <v>15</v>
@@ -14536,7 +14970,7 @@
       <c r="I97" s="53"/>
       <c r="J97" s="56"/>
     </row>
-    <row r="98" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D98" s="30"/>
       <c r="E98" s="3">
         <v>16</v>
@@ -14554,7 +14988,7 @@
       <c r="I98" s="53"/>
       <c r="J98" s="56"/>
     </row>
-    <row r="99" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D99" s="30"/>
       <c r="E99" s="3">
         <v>17</v>
@@ -14572,7 +15006,7 @@
       <c r="I99" s="53"/>
       <c r="J99" s="56"/>
     </row>
-    <row r="100" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D100" s="30"/>
       <c r="E100" s="3">
         <v>18</v>
@@ -14590,7 +15024,7 @@
       <c r="I100" s="53"/>
       <c r="J100" s="56"/>
     </row>
-    <row r="101" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D101" s="30"/>
       <c r="E101" s="3">
         <v>19</v>
@@ -14608,7 +15042,7 @@
       <c r="I101" s="53"/>
       <c r="J101" s="56"/>
     </row>
-    <row r="102" spans="4:10" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D102" s="32"/>
       <c r="E102" s="6">
         <v>20</v>
@@ -14626,7 +15060,7 @@
       <c r="I102" s="54"/>
       <c r="J102" s="57"/>
     </row>
-    <row r="103" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D103" s="29">
         <v>9</v>
       </c>
@@ -14652,7 +15086,7 @@
         <v>76.67</v>
       </c>
     </row>
-    <row r="104" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D104" s="30"/>
       <c r="E104" s="3">
         <v>2</v>
@@ -14670,7 +15104,7 @@
       <c r="I104" s="53"/>
       <c r="J104" s="56"/>
     </row>
-    <row r="105" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D105" s="30"/>
       <c r="E105" s="3">
         <v>3</v>
@@ -14688,7 +15122,7 @@
       <c r="I105" s="53"/>
       <c r="J105" s="56"/>
     </row>
-    <row r="106" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D106" s="30"/>
       <c r="E106" s="3">
         <v>4</v>
@@ -14706,7 +15140,7 @@
       <c r="I106" s="53"/>
       <c r="J106" s="56"/>
     </row>
-    <row r="107" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D107" s="30"/>
       <c r="E107" s="3">
         <v>5</v>
@@ -14724,7 +15158,7 @@
       <c r="I107" s="53"/>
       <c r="J107" s="56"/>
     </row>
-    <row r="108" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D108" s="30"/>
       <c r="E108" s="3">
         <v>6</v>
@@ -14742,7 +15176,7 @@
       <c r="I108" s="53"/>
       <c r="J108" s="56"/>
     </row>
-    <row r="109" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D109" s="30"/>
       <c r="E109" s="3">
         <v>7</v>
@@ -14760,7 +15194,7 @@
       <c r="I109" s="53"/>
       <c r="J109" s="56"/>
     </row>
-    <row r="110" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D110" s="30"/>
       <c r="E110" s="3">
         <v>8</v>
@@ -14778,7 +15212,7 @@
       <c r="I110" s="53"/>
       <c r="J110" s="56"/>
     </row>
-    <row r="111" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D111" s="30"/>
       <c r="E111" s="3">
         <v>9</v>
@@ -14796,7 +15230,7 @@
       <c r="I111" s="53"/>
       <c r="J111" s="56"/>
     </row>
-    <row r="112" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D112" s="30"/>
       <c r="E112" s="3">
         <v>10</v>
@@ -14814,7 +15248,7 @@
       <c r="I112" s="53"/>
       <c r="J112" s="56"/>
     </row>
-    <row r="113" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D113" s="30"/>
       <c r="E113" s="3">
         <v>11</v>
@@ -14832,7 +15266,7 @@
       <c r="I113" s="53"/>
       <c r="J113" s="56"/>
     </row>
-    <row r="114" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D114" s="30"/>
       <c r="E114" s="3">
         <v>12</v>
@@ -14850,7 +15284,7 @@
       <c r="I114" s="53"/>
       <c r="J114" s="56"/>
     </row>
-    <row r="115" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D115" s="30"/>
       <c r="E115" s="3">
         <v>13</v>
@@ -14868,7 +15302,7 @@
       <c r="I115" s="53"/>
       <c r="J115" s="56"/>
     </row>
-    <row r="116" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D116" s="30"/>
       <c r="E116" s="3">
         <v>14</v>
@@ -14886,7 +15320,7 @@
       <c r="I116" s="53"/>
       <c r="J116" s="56"/>
     </row>
-    <row r="117" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D117" s="30"/>
       <c r="E117" s="3">
         <v>15</v>
@@ -14904,7 +15338,7 @@
       <c r="I117" s="53"/>
       <c r="J117" s="56"/>
     </row>
-    <row r="118" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D118" s="30"/>
       <c r="E118" s="3">
         <v>16</v>
@@ -14922,7 +15356,7 @@
       <c r="I118" s="53"/>
       <c r="J118" s="56"/>
     </row>
-    <row r="119" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D119" s="30"/>
       <c r="E119" s="3">
         <v>17</v>
@@ -14940,7 +15374,7 @@
       <c r="I119" s="53"/>
       <c r="J119" s="56"/>
     </row>
-    <row r="120" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D120" s="30"/>
       <c r="E120" s="3">
         <v>18</v>
@@ -14958,7 +15392,7 @@
       <c r="I120" s="53"/>
       <c r="J120" s="56"/>
     </row>
-    <row r="121" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D121" s="30"/>
       <c r="E121" s="3">
         <v>19</v>
@@ -14976,7 +15410,7 @@
       <c r="I121" s="53"/>
       <c r="J121" s="56"/>
     </row>
-    <row r="122" spans="4:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D122" s="32"/>
       <c r="E122" s="6">
         <v>20</v>
@@ -14994,7 +15428,7 @@
       <c r="I122" s="54"/>
       <c r="J122" s="57"/>
     </row>
-    <row r="123" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D123" s="29">
         <v>10</v>
       </c>
@@ -15020,7 +15454,7 @@
         <v>80.23</v>
       </c>
     </row>
-    <row r="124" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D124" s="30"/>
       <c r="E124" s="3">
         <v>2</v>
@@ -15038,7 +15472,7 @@
       <c r="I124" s="53"/>
       <c r="J124" s="56"/>
     </row>
-    <row r="125" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D125" s="30"/>
       <c r="E125" s="3">
         <v>3</v>
@@ -15056,7 +15490,7 @@
       <c r="I125" s="53"/>
       <c r="J125" s="56"/>
     </row>
-    <row r="126" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D126" s="30"/>
       <c r="E126" s="3">
         <v>4</v>
@@ -15074,7 +15508,7 @@
       <c r="I126" s="53"/>
       <c r="J126" s="56"/>
     </row>
-    <row r="127" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D127" s="30"/>
       <c r="E127" s="3">
         <v>5</v>
@@ -15092,7 +15526,7 @@
       <c r="I127" s="53"/>
       <c r="J127" s="56"/>
     </row>
-    <row r="128" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D128" s="30"/>
       <c r="E128" s="3">
         <v>6</v>
@@ -15110,7 +15544,7 @@
       <c r="I128" s="53"/>
       <c r="J128" s="56"/>
     </row>
-    <row r="129" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D129" s="30"/>
       <c r="E129" s="3">
         <v>7</v>
@@ -15128,7 +15562,7 @@
       <c r="I129" s="53"/>
       <c r="J129" s="56"/>
     </row>
-    <row r="130" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D130" s="30"/>
       <c r="E130" s="3">
         <v>8</v>
@@ -15146,7 +15580,7 @@
       <c r="I130" s="53"/>
       <c r="J130" s="56"/>
     </row>
-    <row r="131" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D131" s="30"/>
       <c r="E131" s="3">
         <v>9</v>
@@ -15164,7 +15598,7 @@
       <c r="I131" s="53"/>
       <c r="J131" s="56"/>
     </row>
-    <row r="132" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D132" s="30"/>
       <c r="E132" s="3">
         <v>10</v>
@@ -15182,7 +15616,7 @@
       <c r="I132" s="53"/>
       <c r="J132" s="56"/>
     </row>
-    <row r="133" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D133" s="30"/>
       <c r="E133" s="3">
         <v>11</v>
@@ -15200,7 +15634,7 @@
       <c r="I133" s="53"/>
       <c r="J133" s="56"/>
     </row>
-    <row r="134" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D134" s="30"/>
       <c r="E134" s="3">
         <v>12</v>
@@ -15218,7 +15652,7 @@
       <c r="I134" s="53"/>
       <c r="J134" s="56"/>
     </row>
-    <row r="135" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D135" s="30"/>
       <c r="E135" s="3">
         <v>13</v>
@@ -15236,7 +15670,7 @@
       <c r="I135" s="53"/>
       <c r="J135" s="56"/>
     </row>
-    <row r="136" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D136" s="30"/>
       <c r="E136" s="3">
         <v>14</v>
@@ -15254,7 +15688,7 @@
       <c r="I136" s="53"/>
       <c r="J136" s="56"/>
     </row>
-    <row r="137" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D137" s="30"/>
       <c r="E137" s="3">
         <v>15</v>
@@ -15272,7 +15706,7 @@
       <c r="I137" s="53"/>
       <c r="J137" s="56"/>
     </row>
-    <row r="138" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D138" s="30"/>
       <c r="E138" s="3">
         <v>16</v>
@@ -15290,7 +15724,7 @@
       <c r="I138" s="53"/>
       <c r="J138" s="56"/>
     </row>
-    <row r="139" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D139" s="30"/>
       <c r="E139" s="3">
         <v>17</v>
@@ -15308,7 +15742,7 @@
       <c r="I139" s="53"/>
       <c r="J139" s="56"/>
     </row>
-    <row r="140" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D140" s="30"/>
       <c r="E140" s="3">
         <v>18</v>
@@ -15326,7 +15760,7 @@
       <c r="I140" s="53"/>
       <c r="J140" s="56"/>
     </row>
-    <row r="141" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D141" s="30"/>
       <c r="E141" s="3">
         <v>19</v>
@@ -15344,7 +15778,7 @@
       <c r="I141" s="53"/>
       <c r="J141" s="56"/>
     </row>
-    <row r="142" spans="4:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D142" s="32"/>
       <c r="E142" s="6">
         <v>20</v>
@@ -16098,290 +16532,370 @@
       <c r="I182" s="54"/>
       <c r="J182" s="57"/>
     </row>
-    <row r="183" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D183" s="29">
         <v>13</v>
       </c>
       <c r="E183" s="4">
         <v>1</v>
       </c>
-      <c r="F183" s="4"/>
-      <c r="G183" s="4"/>
+      <c r="F183" s="4">
+        <v>40.909999999999997</v>
+      </c>
+      <c r="G183" s="4">
+        <v>55.18</v>
+      </c>
       <c r="H183" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-14.270000000000003</v>
       </c>
       <c r="I183" s="52">
         <f t="shared" ref="I183:J183" si="15">MAX(F183:F202)</f>
-        <v>0</v>
+        <v>76.31</v>
       </c>
       <c r="J183" s="55">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="4:10" x14ac:dyDescent="0.2">
+        <v>80.63</v>
+      </c>
+    </row>
+    <row r="184" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D184" s="30"/>
       <c r="E184" s="3">
         <v>2</v>
       </c>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
+      <c r="F184" s="3">
+        <v>54.56</v>
+      </c>
+      <c r="G184" s="3">
+        <v>61.5</v>
+      </c>
       <c r="H184" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-6.9399999999999977</v>
       </c>
       <c r="I184" s="53"/>
       <c r="J184" s="56"/>
     </row>
-    <row r="185" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D185" s="30"/>
       <c r="E185" s="3">
         <v>3</v>
       </c>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
+      <c r="F185" s="3">
+        <v>59.68</v>
+      </c>
+      <c r="G185" s="3">
+        <v>62.22</v>
+      </c>
       <c r="H185" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-2.5399999999999991</v>
       </c>
       <c r="I185" s="53"/>
       <c r="J185" s="56"/>
     </row>
-    <row r="186" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D186" s="30"/>
       <c r="E186" s="3">
         <v>4</v>
       </c>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
+      <c r="F186" s="3">
+        <v>63.03</v>
+      </c>
+      <c r="G186" s="3">
+        <v>69.63</v>
+      </c>
       <c r="H186" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-6.5999999999999943</v>
       </c>
       <c r="I186" s="53"/>
       <c r="J186" s="56"/>
     </row>
-    <row r="187" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D187" s="30"/>
       <c r="E187" s="3">
         <v>5</v>
       </c>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
+      <c r="F187" s="3">
+        <v>65.36</v>
+      </c>
+      <c r="G187" s="3">
+        <v>69.63</v>
+      </c>
       <c r="H187" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-4.269999999999996</v>
       </c>
       <c r="I187" s="53"/>
       <c r="J187" s="56"/>
     </row>
-    <row r="188" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D188" s="30"/>
       <c r="E188" s="3">
         <v>6</v>
       </c>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
+      <c r="F188" s="3">
+        <v>66.88</v>
+      </c>
+      <c r="G188" s="3">
+        <v>73.150000000000006</v>
+      </c>
       <c r="H188" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-6.2700000000000102</v>
       </c>
       <c r="I188" s="53"/>
       <c r="J188" s="56"/>
     </row>
-    <row r="189" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D189" s="30"/>
       <c r="E189" s="3">
         <v>7</v>
       </c>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
+      <c r="F189" s="3">
+        <v>68.62</v>
+      </c>
+      <c r="G189" s="3">
+        <v>73.22</v>
+      </c>
       <c r="H189" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-4.5999999999999943</v>
       </c>
       <c r="I189" s="53"/>
       <c r="J189" s="56"/>
     </row>
-    <row r="190" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D190" s="30"/>
       <c r="E190" s="3">
         <v>8</v>
       </c>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
+      <c r="F190" s="3">
+        <v>69.790000000000006</v>
+      </c>
+      <c r="G190" s="3">
+        <v>73.73</v>
+      </c>
       <c r="H190" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-3.9399999999999977</v>
       </c>
       <c r="I190" s="53"/>
       <c r="J190" s="56"/>
     </row>
-    <row r="191" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D191" s="30"/>
       <c r="E191" s="3">
         <v>9</v>
       </c>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
+      <c r="F191" s="3">
+        <v>70.69</v>
+      </c>
+      <c r="G191" s="3">
+        <v>75.87</v>
+      </c>
       <c r="H191" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-5.1800000000000068</v>
       </c>
       <c r="I191" s="53"/>
       <c r="J191" s="56"/>
     </row>
-    <row r="192" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D192" s="30"/>
       <c r="E192" s="3">
         <v>10</v>
       </c>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
+      <c r="F192" s="3">
+        <v>71.38</v>
+      </c>
+      <c r="G192" s="3">
+        <v>75.42</v>
+      </c>
       <c r="H192" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-4.0400000000000063</v>
       </c>
       <c r="I192" s="53"/>
       <c r="J192" s="56"/>
     </row>
-    <row r="193" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D193" s="30"/>
       <c r="E193" s="3">
         <v>11</v>
       </c>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
+      <c r="F193" s="3">
+        <v>72.34</v>
+      </c>
+      <c r="G193" s="3">
+        <v>76.72</v>
+      </c>
       <c r="H193" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-4.3799999999999955</v>
       </c>
       <c r="I193" s="53"/>
       <c r="J193" s="56"/>
     </row>
-    <row r="194" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D194" s="30"/>
       <c r="E194" s="3">
         <v>12</v>
       </c>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
+      <c r="F194" s="3">
+        <v>72.91</v>
+      </c>
+      <c r="G194" s="3">
+        <v>78.08</v>
+      </c>
       <c r="H194" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-5.1700000000000017</v>
       </c>
       <c r="I194" s="53"/>
       <c r="J194" s="56"/>
     </row>
-    <row r="195" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D195" s="30"/>
       <c r="E195" s="3">
         <v>13</v>
       </c>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
+      <c r="F195" s="3">
+        <v>73.760000000000005</v>
+      </c>
+      <c r="G195" s="3">
+        <v>78.44</v>
+      </c>
       <c r="H195" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-4.6799999999999926</v>
       </c>
       <c r="I195" s="53"/>
       <c r="J195" s="56"/>
     </row>
-    <row r="196" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D196" s="30"/>
       <c r="E196" s="3">
         <v>14</v>
       </c>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
+      <c r="F196" s="3">
+        <v>73.930000000000007</v>
+      </c>
+      <c r="G196" s="3">
+        <v>77.84</v>
+      </c>
       <c r="H196" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-3.9099999999999966</v>
       </c>
       <c r="I196" s="53"/>
       <c r="J196" s="56"/>
     </row>
-    <row r="197" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D197" s="30"/>
       <c r="E197" s="3">
         <v>15</v>
       </c>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
+      <c r="F197" s="3">
+        <v>74.39</v>
+      </c>
+      <c r="G197" s="3">
+        <v>79.44</v>
+      </c>
       <c r="H197" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-5.0499999999999972</v>
       </c>
       <c r="I197" s="53"/>
       <c r="J197" s="56"/>
     </row>
-    <row r="198" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D198" s="30"/>
       <c r="E198" s="3">
         <v>16</v>
       </c>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
+      <c r="F198" s="3">
+        <v>75.09</v>
+      </c>
+      <c r="G198" s="3">
+        <v>79.010000000000005</v>
+      </c>
       <c r="H198" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-3.9200000000000017</v>
       </c>
       <c r="I198" s="53"/>
       <c r="J198" s="56"/>
     </row>
-    <row r="199" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D199" s="30"/>
       <c r="E199" s="3">
         <v>17</v>
       </c>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
+      <c r="F199" s="3">
+        <v>75.56</v>
+      </c>
+      <c r="G199" s="3">
+        <v>79.58</v>
+      </c>
       <c r="H199" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-4.019999999999996</v>
       </c>
       <c r="I199" s="53"/>
       <c r="J199" s="56"/>
     </row>
-    <row r="200" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D200" s="30"/>
       <c r="E200" s="3">
         <v>18</v>
       </c>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
+      <c r="F200" s="3">
+        <v>75.56</v>
+      </c>
+      <c r="G200" s="3">
+        <v>80.09</v>
+      </c>
       <c r="H200" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-4.5300000000000011</v>
       </c>
       <c r="I200" s="53"/>
       <c r="J200" s="56"/>
     </row>
-    <row r="201" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D201" s="30"/>
       <c r="E201" s="3">
         <v>19</v>
       </c>
-      <c r="F201" s="3"/>
-      <c r="G201" s="3"/>
+      <c r="F201" s="3">
+        <v>76.25</v>
+      </c>
+      <c r="G201" s="3">
+        <v>78.849999999999994</v>
+      </c>
       <c r="H201" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-2.5999999999999943</v>
       </c>
       <c r="I201" s="53"/>
       <c r="J201" s="56"/>
     </row>
-    <row r="202" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D202" s="32"/>
       <c r="E202" s="6">
         <v>20</v>
       </c>
-      <c r="F202" s="6"/>
-      <c r="G202" s="6"/>
+      <c r="F202" s="6">
+        <v>76.31</v>
+      </c>
+      <c r="G202" s="6">
+        <v>80.63</v>
+      </c>
       <c r="H202" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-4.3199999999999932</v>
       </c>
       <c r="I202" s="54"/>
       <c r="J202" s="57"/>
@@ -16393,19 +16907,23 @@
       <c r="E203" s="4">
         <v>1</v>
       </c>
-      <c r="F203" s="4"/>
-      <c r="G203" s="4"/>
+      <c r="F203" s="4">
+        <v>44.69</v>
+      </c>
+      <c r="G203" s="4">
+        <v>57.89</v>
+      </c>
       <c r="H203" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-13.200000000000003</v>
       </c>
       <c r="I203" s="52">
         <f t="shared" ref="I203" si="16">MAX(F203:F222)</f>
-        <v>0</v>
+        <v>81.47</v>
       </c>
       <c r="J203" s="55">
         <f t="shared" ref="J203" si="17">MAX(G203:G222)</f>
-        <v>0</v>
+        <v>81.83</v>
       </c>
     </row>
     <row r="204" spans="4:10" x14ac:dyDescent="0.2">
@@ -16413,11 +16931,15 @@
       <c r="E204" s="3">
         <v>2</v>
       </c>
-      <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
+      <c r="F204" s="3">
+        <v>59.5</v>
+      </c>
+      <c r="G204" s="3">
+        <v>64</v>
+      </c>
       <c r="H204" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-4.5</v>
       </c>
       <c r="I204" s="53"/>
       <c r="J204" s="56"/>
@@ -16427,11 +16949,15 @@
       <c r="E205" s="3">
         <v>3</v>
       </c>
-      <c r="F205" s="3"/>
-      <c r="G205" s="3"/>
+      <c r="F205" s="3">
+        <v>64.760000000000005</v>
+      </c>
+      <c r="G205" s="3">
+        <v>66.209999999999994</v>
+      </c>
       <c r="H205" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1.4499999999999886</v>
       </c>
       <c r="I205" s="53"/>
       <c r="J205" s="56"/>
@@ -16441,11 +16967,15 @@
       <c r="E206" s="3">
         <v>4</v>
       </c>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
+      <c r="F206" s="3">
+        <v>68.13</v>
+      </c>
+      <c r="G206" s="3">
+        <v>71.94</v>
+      </c>
       <c r="H206" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-3.8100000000000023</v>
       </c>
       <c r="I206" s="53"/>
       <c r="J206" s="56"/>
@@ -16455,11 +16985,15 @@
       <c r="E207" s="3">
         <v>5</v>
       </c>
-      <c r="F207" s="3"/>
-      <c r="G207" s="3"/>
+      <c r="F207" s="3">
+        <v>70.510000000000005</v>
+      </c>
+      <c r="G207" s="3">
+        <v>73.48</v>
+      </c>
       <c r="H207" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-2.9699999999999989</v>
       </c>
       <c r="I207" s="53"/>
       <c r="J207" s="56"/>
@@ -16469,11 +17003,15 @@
       <c r="E208" s="3">
         <v>6</v>
       </c>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
+      <c r="F208" s="3">
+        <v>72.72</v>
+      </c>
+      <c r="G208" s="3">
+        <v>74.459999999999994</v>
+      </c>
       <c r="H208" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1.7399999999999949</v>
       </c>
       <c r="I208" s="53"/>
       <c r="J208" s="56"/>
@@ -16483,11 +17021,15 @@
       <c r="E209" s="3">
         <v>7</v>
       </c>
-      <c r="F209" s="3"/>
-      <c r="G209" s="3"/>
+      <c r="F209" s="3">
+        <v>73.930000000000007</v>
+      </c>
+      <c r="G209" s="3">
+        <v>75.63</v>
+      </c>
       <c r="H209" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1.6999999999999886</v>
       </c>
       <c r="I209" s="53"/>
       <c r="J209" s="56"/>
@@ -16497,11 +17039,15 @@
       <c r="E210" s="3">
         <v>8</v>
       </c>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
+      <c r="F210" s="3">
+        <v>75.11</v>
+      </c>
+      <c r="G210" s="3">
+        <v>77.290000000000006</v>
+      </c>
       <c r="H210" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-2.1800000000000068</v>
       </c>
       <c r="I210" s="53"/>
       <c r="J210" s="56"/>
@@ -16511,11 +17057,15 @@
       <c r="E211" s="3">
         <v>9</v>
       </c>
-      <c r="F211" s="3"/>
-      <c r="G211" s="3"/>
+      <c r="F211" s="3">
+        <v>76.13</v>
+      </c>
+      <c r="G211" s="3">
+        <v>77.83</v>
+      </c>
       <c r="H211" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1.7000000000000028</v>
       </c>
       <c r="I211" s="53"/>
       <c r="J211" s="56"/>
@@ -16525,11 +17075,15 @@
       <c r="E212" s="3">
         <v>10</v>
       </c>
-      <c r="F212" s="3"/>
-      <c r="G212" s="3"/>
+      <c r="F212" s="3">
+        <v>76.94</v>
+      </c>
+      <c r="G212" s="3">
+        <v>77.900000000000006</v>
+      </c>
       <c r="H212" s="3">
         <f t="shared" ref="H212:H275" si="18">F212-G212</f>
-        <v>0</v>
+        <v>-0.96000000000000796</v>
       </c>
       <c r="I212" s="53"/>
       <c r="J212" s="56"/>
@@ -16539,11 +17093,15 @@
       <c r="E213" s="3">
         <v>11</v>
       </c>
-      <c r="F213" s="3"/>
-      <c r="G213" s="3"/>
+      <c r="F213" s="3">
+        <v>77.56</v>
+      </c>
+      <c r="G213" s="3">
+        <v>77.53</v>
+      </c>
       <c r="H213" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="I213" s="53"/>
       <c r="J213" s="56"/>
@@ -16553,11 +17111,15 @@
       <c r="E214" s="3">
         <v>12</v>
       </c>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
+      <c r="F214" s="3">
+        <v>78.09</v>
+      </c>
+      <c r="G214" s="3">
+        <v>80.11</v>
+      </c>
       <c r="H214" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-2.019999999999996</v>
       </c>
       <c r="I214" s="53"/>
       <c r="J214" s="56"/>
@@ -16567,11 +17129,15 @@
       <c r="E215" s="3">
         <v>13</v>
       </c>
-      <c r="F215" s="3"/>
-      <c r="G215" s="3"/>
+      <c r="F215" s="3">
+        <v>78.55</v>
+      </c>
+      <c r="G215" s="3">
+        <v>79.42</v>
+      </c>
       <c r="H215" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.87000000000000455</v>
       </c>
       <c r="I215" s="53"/>
       <c r="J215" s="56"/>
@@ -16581,11 +17147,15 @@
       <c r="E216" s="3">
         <v>14</v>
       </c>
-      <c r="F216" s="3"/>
-      <c r="G216" s="3"/>
+      <c r="F216" s="3">
+        <v>79.319999999999993</v>
+      </c>
+      <c r="G216" s="3">
+        <v>80.11</v>
+      </c>
       <c r="H216" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.79000000000000625</v>
       </c>
       <c r="I216" s="53"/>
       <c r="J216" s="56"/>
@@ -16595,11 +17165,15 @@
       <c r="E217" s="3">
         <v>15</v>
       </c>
-      <c r="F217" s="3"/>
-      <c r="G217" s="3"/>
+      <c r="F217" s="3">
+        <v>79.569999999999993</v>
+      </c>
+      <c r="G217" s="3">
+        <v>80.099999999999994</v>
+      </c>
       <c r="H217" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.53000000000000114</v>
       </c>
       <c r="I217" s="53"/>
       <c r="J217" s="56"/>
@@ -16609,11 +17183,15 @@
       <c r="E218" s="3">
         <v>16</v>
       </c>
-      <c r="F218" s="3"/>
-      <c r="G218" s="3"/>
+      <c r="F218" s="3">
+        <v>80.069999999999993</v>
+      </c>
+      <c r="G218" s="3">
+        <v>80.59</v>
+      </c>
       <c r="H218" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.52000000000001023</v>
       </c>
       <c r="I218" s="53"/>
       <c r="J218" s="56"/>
@@ -16623,11 +17201,15 @@
       <c r="E219" s="3">
         <v>17</v>
       </c>
-      <c r="F219" s="3"/>
-      <c r="G219" s="3"/>
+      <c r="F219" s="3">
+        <v>80.37</v>
+      </c>
+      <c r="G219" s="3">
+        <v>81.06</v>
+      </c>
       <c r="H219" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.68999999999999773</v>
       </c>
       <c r="I219" s="53"/>
       <c r="J219" s="56"/>
@@ -16637,11 +17219,15 @@
       <c r="E220" s="3">
         <v>18</v>
       </c>
-      <c r="F220" s="3"/>
-      <c r="G220" s="3"/>
+      <c r="F220" s="3">
+        <v>80.94</v>
+      </c>
+      <c r="G220" s="3">
+        <v>81.760000000000005</v>
+      </c>
       <c r="H220" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.82000000000000739</v>
       </c>
       <c r="I220" s="53"/>
       <c r="J220" s="56"/>
@@ -16651,11 +17237,15 @@
       <c r="E221" s="3">
         <v>19</v>
       </c>
-      <c r="F221" s="3"/>
-      <c r="G221" s="3"/>
+      <c r="F221" s="3">
+        <v>81.11</v>
+      </c>
+      <c r="G221" s="3">
+        <v>81.83</v>
+      </c>
       <c r="H221" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.71999999999999886</v>
       </c>
       <c r="I221" s="53"/>
       <c r="J221" s="56"/>
@@ -16665,11 +17255,15 @@
       <c r="E222" s="6">
         <v>20</v>
       </c>
-      <c r="F222" s="6"/>
-      <c r="G222" s="6"/>
+      <c r="F222" s="6">
+        <v>81.47</v>
+      </c>
+      <c r="G222" s="6">
+        <v>81.599999999999994</v>
+      </c>
       <c r="H222" s="6">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.12999999999999545</v>
       </c>
       <c r="I222" s="54"/>
       <c r="J222" s="57"/>
@@ -16681,19 +17275,23 @@
       <c r="E223" s="4">
         <v>1</v>
       </c>
-      <c r="F223" s="4"/>
-      <c r="G223" s="4"/>
+      <c r="F223" s="4">
+        <v>46.01</v>
+      </c>
+      <c r="G223" s="4">
+        <v>57.82</v>
+      </c>
       <c r="H223" s="4">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-11.810000000000002</v>
       </c>
       <c r="I223" s="52">
         <f t="shared" ref="I223" si="19">MAX(F223:F242)</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="J223" s="55">
         <f t="shared" ref="J223" si="20">MAX(G223:G242)</f>
-        <v>0</v>
+        <v>81.92</v>
       </c>
     </row>
     <row r="224" spans="4:10" x14ac:dyDescent="0.2">
@@ -16701,11 +17299,15 @@
       <c r="E224" s="3">
         <v>2</v>
       </c>
-      <c r="F224" s="3"/>
-      <c r="G224" s="3"/>
+      <c r="F224" s="3">
+        <v>61.65</v>
+      </c>
+      <c r="G224" s="3">
+        <v>66.22</v>
+      </c>
       <c r="H224" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-4.57</v>
       </c>
       <c r="I224" s="53"/>
       <c r="J224" s="56"/>
@@ -16715,11 +17317,15 @@
       <c r="E225" s="3">
         <v>3</v>
       </c>
-      <c r="F225" s="3"/>
-      <c r="G225" s="3"/>
+      <c r="F225" s="3">
+        <v>67.94</v>
+      </c>
+      <c r="G225" s="3">
+        <v>68.900000000000006</v>
+      </c>
       <c r="H225" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.96000000000000796</v>
       </c>
       <c r="I225" s="53"/>
       <c r="J225" s="56"/>
@@ -16729,11 +17335,15 @@
       <c r="E226" s="3">
         <v>4</v>
       </c>
-      <c r="F226" s="3"/>
-      <c r="G226" s="3"/>
+      <c r="F226" s="3">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="G226" s="3">
+        <v>73.209999999999994</v>
+      </c>
       <c r="H226" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.8099999999999881</v>
       </c>
       <c r="I226" s="53"/>
       <c r="J226" s="56"/>
@@ -16743,11 +17353,15 @@
       <c r="E227" s="3">
         <v>5</v>
       </c>
-      <c r="F227" s="3"/>
-      <c r="G227" s="3"/>
+      <c r="F227" s="3">
+        <v>73.489999999999995</v>
+      </c>
+      <c r="G227" s="3">
+        <v>73.849999999999994</v>
+      </c>
       <c r="H227" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.35999999999999943</v>
       </c>
       <c r="I227" s="53"/>
       <c r="J227" s="56"/>
@@ -16757,11 +17371,15 @@
       <c r="E228" s="3">
         <v>6</v>
       </c>
-      <c r="F228" s="3"/>
-      <c r="G228" s="3"/>
+      <c r="F228" s="3">
+        <v>75.23</v>
+      </c>
+      <c r="G228" s="3">
+        <v>76.180000000000007</v>
+      </c>
       <c r="H228" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.95000000000000284</v>
       </c>
       <c r="I228" s="53"/>
       <c r="J228" s="56"/>
@@ -16771,11 +17389,15 @@
       <c r="E229" s="3">
         <v>7</v>
       </c>
-      <c r="F229" s="3"/>
-      <c r="G229" s="3"/>
+      <c r="F229" s="3">
+        <v>76.61</v>
+      </c>
+      <c r="G229" s="3">
+        <v>75.33</v>
+      </c>
       <c r="H229" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.2800000000000011</v>
       </c>
       <c r="I229" s="53"/>
       <c r="J229" s="56"/>
@@ -16785,11 +17407,15 @@
       <c r="E230" s="3">
         <v>8</v>
       </c>
-      <c r="F230" s="3"/>
-      <c r="G230" s="3"/>
+      <c r="F230" s="3">
+        <v>77.59</v>
+      </c>
+      <c r="G230" s="3">
+        <v>78.650000000000006</v>
+      </c>
       <c r="H230" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.0600000000000023</v>
       </c>
       <c r="I230" s="53"/>
       <c r="J230" s="56"/>
@@ -16799,11 +17425,15 @@
       <c r="E231" s="3">
         <v>9</v>
       </c>
-      <c r="F231" s="3"/>
-      <c r="G231" s="3"/>
+      <c r="F231" s="3">
+        <v>78.58</v>
+      </c>
+      <c r="G231" s="3">
+        <v>78.36</v>
+      </c>
       <c r="H231" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="I231" s="53"/>
       <c r="J231" s="56"/>
@@ -16813,11 +17443,15 @@
       <c r="E232" s="3">
         <v>10</v>
       </c>
-      <c r="F232" s="3"/>
-      <c r="G232" s="3"/>
+      <c r="F232" s="3">
+        <v>79.260000000000005</v>
+      </c>
+      <c r="G232" s="3">
+        <v>79.209999999999994</v>
+      </c>
       <c r="H232" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>5.0000000000011369E-2</v>
       </c>
       <c r="I232" s="53"/>
       <c r="J232" s="56"/>
@@ -16827,11 +17461,15 @@
       <c r="E233" s="3">
         <v>11</v>
       </c>
-      <c r="F233" s="3"/>
-      <c r="G233" s="3"/>
+      <c r="F233" s="3">
+        <v>80.22</v>
+      </c>
+      <c r="G233" s="3">
+        <v>78.69</v>
+      </c>
       <c r="H233" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.5300000000000011</v>
       </c>
       <c r="I233" s="53"/>
       <c r="J233" s="56"/>
@@ -16841,11 +17479,15 @@
       <c r="E234" s="3">
         <v>12</v>
       </c>
-      <c r="F234" s="3"/>
-      <c r="G234" s="3"/>
+      <c r="F234" s="3">
+        <v>80.67</v>
+      </c>
+      <c r="G234" s="3">
+        <v>79.67</v>
+      </c>
       <c r="H234" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I234" s="53"/>
       <c r="J234" s="56"/>
@@ -16855,11 +17497,15 @@
       <c r="E235" s="3">
         <v>13</v>
       </c>
-      <c r="F235" s="3"/>
-      <c r="G235" s="3"/>
+      <c r="F235" s="3">
+        <v>81.12</v>
+      </c>
+      <c r="G235" s="3">
+        <v>80.540000000000006</v>
+      </c>
       <c r="H235" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.57999999999999829</v>
       </c>
       <c r="I235" s="53"/>
       <c r="J235" s="56"/>
@@ -16869,11 +17515,15 @@
       <c r="E236" s="3">
         <v>14</v>
       </c>
-      <c r="F236" s="3"/>
-      <c r="G236" s="3"/>
+      <c r="F236" s="3">
+        <v>81.64</v>
+      </c>
+      <c r="G236" s="3">
+        <v>80.38</v>
+      </c>
       <c r="H236" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.2600000000000051</v>
       </c>
       <c r="I236" s="53"/>
       <c r="J236" s="56"/>
@@ -16883,11 +17533,15 @@
       <c r="E237" s="3">
         <v>15</v>
       </c>
-      <c r="F237" s="3"/>
-      <c r="G237" s="3"/>
+      <c r="F237" s="3">
+        <v>82.14</v>
+      </c>
+      <c r="G237" s="3">
+        <v>80.239999999999995</v>
+      </c>
       <c r="H237" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.9000000000000057</v>
       </c>
       <c r="I237" s="53"/>
       <c r="J237" s="56"/>
@@ -16897,11 +17551,15 @@
       <c r="E238" s="3">
         <v>16</v>
       </c>
-      <c r="F238" s="3"/>
-      <c r="G238" s="3"/>
+      <c r="F238" s="3">
+        <v>82.59</v>
+      </c>
+      <c r="G238" s="3">
+        <v>80.959999999999994</v>
+      </c>
       <c r="H238" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.6300000000000097</v>
       </c>
       <c r="I238" s="53"/>
       <c r="J238" s="56"/>
@@ -16911,11 +17569,15 @@
       <c r="E239" s="3">
         <v>17</v>
       </c>
-      <c r="F239" s="3"/>
-      <c r="G239" s="3"/>
+      <c r="F239" s="3">
+        <v>82.87</v>
+      </c>
+      <c r="G239" s="3">
+        <v>81.31</v>
+      </c>
       <c r="H239" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.5600000000000023</v>
       </c>
       <c r="I239" s="53"/>
       <c r="J239" s="56"/>
@@ -16925,11 +17587,15 @@
       <c r="E240" s="3">
         <v>18</v>
       </c>
-      <c r="F240" s="3"/>
-      <c r="G240" s="3"/>
+      <c r="F240" s="3">
+        <v>83.35</v>
+      </c>
+      <c r="G240" s="3">
+        <v>81.650000000000006</v>
+      </c>
       <c r="H240" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.6999999999999886</v>
       </c>
       <c r="I240" s="53"/>
       <c r="J240" s="56"/>
@@ -16939,11 +17605,15 @@
       <c r="E241" s="3">
         <v>19</v>
       </c>
-      <c r="F241" s="3"/>
-      <c r="G241" s="3"/>
+      <c r="F241" s="3">
+        <v>83.8</v>
+      </c>
+      <c r="G241" s="3">
+        <v>81.92</v>
+      </c>
       <c r="H241" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.8799999999999955</v>
       </c>
       <c r="I241" s="53"/>
       <c r="J241" s="56"/>
@@ -16953,11 +17623,15 @@
       <c r="E242" s="6">
         <v>20</v>
       </c>
-      <c r="F242" s="6"/>
-      <c r="G242" s="6"/>
+      <c r="F242" s="6">
+        <v>84</v>
+      </c>
+      <c r="G242" s="6">
+        <v>80.27</v>
+      </c>
       <c r="H242" s="6">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3.730000000000004</v>
       </c>
       <c r="I242" s="54"/>
       <c r="J242" s="57"/>
@@ -16969,19 +17643,23 @@
       <c r="E243" s="4">
         <v>1</v>
       </c>
-      <c r="F243" s="4"/>
-      <c r="G243" s="4"/>
+      <c r="F243" s="4">
+        <v>43.89</v>
+      </c>
+      <c r="G243" s="4">
+        <v>56.19</v>
+      </c>
       <c r="H243" s="4">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-12.299999999999997</v>
       </c>
       <c r="I243" s="52">
         <f t="shared" ref="I243:J243" si="21">MAX(F243:F262)</f>
-        <v>0</v>
+        <v>81.48</v>
       </c>
       <c r="J243" s="55">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>82.47</v>
       </c>
     </row>
     <row r="244" spans="4:10" x14ac:dyDescent="0.2">
@@ -16989,11 +17667,15 @@
       <c r="E244" s="3">
         <v>2</v>
       </c>
-      <c r="F244" s="3"/>
-      <c r="G244" s="3"/>
+      <c r="F244" s="3">
+        <v>58.95</v>
+      </c>
+      <c r="G244" s="3">
+        <v>64.12</v>
+      </c>
       <c r="H244" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-5.1700000000000017</v>
       </c>
       <c r="I244" s="53"/>
       <c r="J244" s="56"/>
@@ -17003,11 +17685,15 @@
       <c r="E245" s="3">
         <v>3</v>
       </c>
-      <c r="F245" s="3"/>
-      <c r="G245" s="3"/>
+      <c r="F245" s="3">
+        <v>64.73</v>
+      </c>
+      <c r="G245" s="3">
+        <v>67.540000000000006</v>
+      </c>
       <c r="H245" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-2.8100000000000023</v>
       </c>
       <c r="I245" s="53"/>
       <c r="J245" s="56"/>
@@ -17017,11 +17703,15 @@
       <c r="E246" s="3">
         <v>4</v>
       </c>
-      <c r="F246" s="3"/>
-      <c r="G246" s="3"/>
+      <c r="F246" s="3">
+        <v>68.3</v>
+      </c>
+      <c r="G246" s="3">
+        <v>72.040000000000006</v>
+      </c>
       <c r="H246" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-3.7400000000000091</v>
       </c>
       <c r="I246" s="53"/>
       <c r="J246" s="56"/>
@@ -17031,11 +17721,15 @@
       <c r="E247" s="3">
         <v>5</v>
       </c>
-      <c r="F247" s="3"/>
-      <c r="G247" s="3"/>
+      <c r="F247" s="3">
+        <v>70.78</v>
+      </c>
+      <c r="G247" s="3">
+        <v>73.760000000000005</v>
+      </c>
       <c r="H247" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-2.980000000000004</v>
       </c>
       <c r="I247" s="53"/>
       <c r="J247" s="56"/>
@@ -17045,11 +17739,15 @@
       <c r="E248" s="3">
         <v>6</v>
       </c>
-      <c r="F248" s="3"/>
-      <c r="G248" s="3"/>
+      <c r="F248" s="3">
+        <v>72.790000000000006</v>
+      </c>
+      <c r="G248" s="3">
+        <v>74.599999999999994</v>
+      </c>
       <c r="H248" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.8099999999999881</v>
       </c>
       <c r="I248" s="53"/>
       <c r="J248" s="56"/>
@@ -17059,11 +17757,15 @@
       <c r="E249" s="3">
         <v>7</v>
       </c>
-      <c r="F249" s="3"/>
-      <c r="G249" s="3"/>
+      <c r="F249" s="3">
+        <v>73.8</v>
+      </c>
+      <c r="G249" s="3">
+        <v>76.599999999999994</v>
+      </c>
       <c r="H249" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-2.7999999999999972</v>
       </c>
       <c r="I249" s="53"/>
       <c r="J249" s="56"/>
@@ -17073,11 +17775,15 @@
       <c r="E250" s="3">
         <v>8</v>
       </c>
-      <c r="F250" s="3"/>
-      <c r="G250" s="3"/>
+      <c r="F250" s="3">
+        <v>75.12</v>
+      </c>
+      <c r="G250" s="3">
+        <v>77.89</v>
+      </c>
       <c r="H250" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-2.769999999999996</v>
       </c>
       <c r="I250" s="53"/>
       <c r="J250" s="56"/>
@@ -17087,11 +17793,15 @@
       <c r="E251" s="3">
         <v>9</v>
       </c>
-      <c r="F251" s="3"/>
-      <c r="G251" s="3"/>
+      <c r="F251" s="3">
+        <v>76.19</v>
+      </c>
+      <c r="G251" s="3">
+        <v>77.260000000000005</v>
+      </c>
       <c r="H251" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.0700000000000074</v>
       </c>
       <c r="I251" s="53"/>
       <c r="J251" s="56"/>
@@ -17101,11 +17811,15 @@
       <c r="E252" s="3">
         <v>10</v>
       </c>
-      <c r="F252" s="3"/>
-      <c r="G252" s="3"/>
+      <c r="F252" s="3">
+        <v>77.010000000000005</v>
+      </c>
+      <c r="G252" s="3">
+        <v>78.209999999999994</v>
+      </c>
       <c r="H252" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.1999999999999886</v>
       </c>
       <c r="I252" s="53"/>
       <c r="J252" s="56"/>
@@ -17115,11 +17829,15 @@
       <c r="E253" s="3">
         <v>11</v>
       </c>
-      <c r="F253" s="3"/>
-      <c r="G253" s="3"/>
+      <c r="F253" s="3">
+        <v>77.42</v>
+      </c>
+      <c r="G253" s="3">
+        <v>79.62</v>
+      </c>
       <c r="H253" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-2.2000000000000028</v>
       </c>
       <c r="I253" s="53"/>
       <c r="J253" s="56"/>
@@ -17129,11 +17847,15 @@
       <c r="E254" s="3">
         <v>12</v>
       </c>
-      <c r="F254" s="3"/>
-      <c r="G254" s="3"/>
+      <c r="F254" s="3">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="G254" s="3">
+        <v>80.13</v>
+      </c>
       <c r="H254" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.9499999999999886</v>
       </c>
       <c r="I254" s="53"/>
       <c r="J254" s="56"/>
@@ -17143,11 +17865,15 @@
       <c r="E255" s="3">
         <v>13</v>
       </c>
-      <c r="F255" s="3"/>
-      <c r="G255" s="3"/>
+      <c r="F255" s="3">
+        <v>78.59</v>
+      </c>
+      <c r="G255" s="3">
+        <v>79.760000000000005</v>
+      </c>
       <c r="H255" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.1700000000000017</v>
       </c>
       <c r="I255" s="53"/>
       <c r="J255" s="56"/>
@@ -17157,11 +17883,15 @@
       <c r="E256" s="3">
         <v>14</v>
       </c>
-      <c r="F256" s="3"/>
-      <c r="G256" s="3"/>
+      <c r="F256" s="3">
+        <v>79.23</v>
+      </c>
+      <c r="G256" s="3">
+        <v>80.040000000000006</v>
+      </c>
       <c r="H256" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.81000000000000227</v>
       </c>
       <c r="I256" s="53"/>
       <c r="J256" s="56"/>
@@ -17171,11 +17901,15 @@
       <c r="E257" s="3">
         <v>15</v>
       </c>
-      <c r="F257" s="3"/>
-      <c r="G257" s="3"/>
+      <c r="F257" s="3">
+        <v>79.540000000000006</v>
+      </c>
+      <c r="G257" s="3">
+        <v>80.650000000000006</v>
+      </c>
       <c r="H257" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.1099999999999994</v>
       </c>
       <c r="I257" s="53"/>
       <c r="J257" s="56"/>
@@ -17185,11 +17919,15 @@
       <c r="E258" s="3">
         <v>16</v>
       </c>
-      <c r="F258" s="3"/>
-      <c r="G258" s="3"/>
+      <c r="F258" s="3">
+        <v>80.09</v>
+      </c>
+      <c r="G258" s="3">
+        <v>81.599999999999994</v>
+      </c>
       <c r="H258" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.5099999999999909</v>
       </c>
       <c r="I258" s="53"/>
       <c r="J258" s="56"/>
@@ -17199,11 +17937,15 @@
       <c r="E259" s="3">
         <v>17</v>
       </c>
-      <c r="F259" s="3"/>
-      <c r="G259" s="3"/>
+      <c r="F259" s="3">
+        <v>80.42</v>
+      </c>
+      <c r="G259" s="3">
+        <v>81.900000000000006</v>
+      </c>
       <c r="H259" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.480000000000004</v>
       </c>
       <c r="I259" s="53"/>
       <c r="J259" s="56"/>
@@ -17213,11 +17955,15 @@
       <c r="E260" s="3">
         <v>18</v>
       </c>
-      <c r="F260" s="3"/>
-      <c r="G260" s="3"/>
+      <c r="F260" s="3">
+        <v>80.67</v>
+      </c>
+      <c r="G260" s="3">
+        <v>80.34</v>
+      </c>
       <c r="H260" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.32999999999999829</v>
       </c>
       <c r="I260" s="53"/>
       <c r="J260" s="56"/>
@@ -17227,11 +17973,15 @@
       <c r="E261" s="3">
         <v>19</v>
       </c>
-      <c r="F261" s="3"/>
-      <c r="G261" s="3"/>
+      <c r="F261" s="3">
+        <v>80.959999999999994</v>
+      </c>
+      <c r="G261" s="3">
+        <v>82.47</v>
+      </c>
       <c r="H261" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.5100000000000051</v>
       </c>
       <c r="I261" s="53"/>
       <c r="J261" s="56"/>
@@ -17241,11 +17991,15 @@
       <c r="E262" s="6">
         <v>20</v>
       </c>
-      <c r="F262" s="6"/>
-      <c r="G262" s="6"/>
+      <c r="F262" s="6">
+        <v>81.48</v>
+      </c>
+      <c r="G262" s="6">
+        <v>81.63</v>
+      </c>
       <c r="H262" s="6">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.14999999999999147</v>
       </c>
       <c r="I262" s="54"/>
       <c r="J262" s="57"/>
@@ -17257,19 +18011,23 @@
       <c r="E263" s="4">
         <v>1</v>
       </c>
-      <c r="F263" s="4"/>
-      <c r="G263" s="4"/>
+      <c r="F263" s="4">
+        <v>43.03</v>
+      </c>
+      <c r="G263" s="4">
+        <v>54.69</v>
+      </c>
       <c r="H263" s="4">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-11.659999999999997</v>
       </c>
       <c r="I263" s="52">
         <f t="shared" ref="I263" si="22">MAX(F263:F282)</f>
-        <v>0</v>
+        <v>85.17</v>
       </c>
       <c r="J263" s="55">
         <f t="shared" ref="J263" si="23">MAX(G263:G282)</f>
-        <v>0</v>
+        <v>85.51</v>
       </c>
     </row>
     <row r="264" spans="4:10" x14ac:dyDescent="0.2">
@@ -17277,11 +18035,15 @@
       <c r="E264" s="3">
         <v>2</v>
       </c>
-      <c r="F264" s="3"/>
-      <c r="G264" s="3"/>
+      <c r="F264" s="3">
+        <v>57.46</v>
+      </c>
+      <c r="G264" s="3">
+        <v>54.46</v>
+      </c>
       <c r="H264" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I264" s="53"/>
       <c r="J264" s="56"/>
@@ -17291,11 +18053,15 @@
       <c r="E265" s="3">
         <v>3</v>
       </c>
-      <c r="F265" s="3"/>
-      <c r="G265" s="3"/>
+      <c r="F265" s="3">
+        <v>62.43</v>
+      </c>
+      <c r="G265" s="3">
+        <v>62.34</v>
+      </c>
       <c r="H265" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>8.9999999999996305E-2</v>
       </c>
       <c r="I265" s="53"/>
       <c r="J265" s="56"/>
@@ -17305,11 +18071,15 @@
       <c r="E266" s="3">
         <v>4</v>
       </c>
-      <c r="F266" s="3"/>
-      <c r="G266" s="3"/>
+      <c r="F266" s="3">
+        <v>65.64</v>
+      </c>
+      <c r="G266" s="3">
+        <v>61.82</v>
+      </c>
       <c r="H266" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="I266" s="53"/>
       <c r="J266" s="56"/>
@@ -17319,11 +18089,15 @@
       <c r="E267" s="3">
         <v>5</v>
       </c>
-      <c r="F267" s="3"/>
-      <c r="G267" s="3"/>
+      <c r="F267" s="3">
+        <v>67.58</v>
+      </c>
+      <c r="G267" s="3">
+        <v>67.44</v>
+      </c>
       <c r="H267" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.14000000000000057</v>
       </c>
       <c r="I267" s="53"/>
       <c r="J267" s="56"/>
@@ -17333,11 +18107,15 @@
       <c r="E268" s="3">
         <v>6</v>
       </c>
-      <c r="F268" s="3"/>
-      <c r="G268" s="3"/>
+      <c r="F268" s="3">
+        <v>69.66</v>
+      </c>
+      <c r="G268" s="3">
+        <v>66.81</v>
+      </c>
       <c r="H268" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2.8499999999999943</v>
       </c>
       <c r="I268" s="53"/>
       <c r="J268" s="56"/>
@@ -17347,11 +18125,15 @@
       <c r="E269" s="3">
         <v>7</v>
       </c>
-      <c r="F269" s="3"/>
-      <c r="G269" s="3"/>
+      <c r="F269" s="3">
+        <v>70.8</v>
+      </c>
+      <c r="G269" s="3">
+        <v>72.680000000000007</v>
+      </c>
       <c r="H269" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.8800000000000097</v>
       </c>
       <c r="I269" s="53"/>
       <c r="J269" s="56"/>
@@ -17361,11 +18143,15 @@
       <c r="E270" s="3">
         <v>8</v>
       </c>
-      <c r="F270" s="3"/>
-      <c r="G270" s="3"/>
+      <c r="F270" s="3">
+        <v>71.5</v>
+      </c>
+      <c r="G270" s="3">
+        <v>72.52</v>
+      </c>
       <c r="H270" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.019999999999996</v>
       </c>
       <c r="I270" s="53"/>
       <c r="J270" s="56"/>
@@ -17375,11 +18161,15 @@
       <c r="E271" s="3">
         <v>9</v>
       </c>
-      <c r="F271" s="3"/>
-      <c r="G271" s="3"/>
+      <c r="F271" s="3">
+        <v>72.63</v>
+      </c>
+      <c r="G271" s="3">
+        <v>74.2</v>
+      </c>
       <c r="H271" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.5700000000000074</v>
       </c>
       <c r="I271" s="53"/>
       <c r="J271" s="56"/>
@@ -17389,11 +18179,15 @@
       <c r="E272" s="3">
         <v>10</v>
       </c>
-      <c r="F272" s="3"/>
-      <c r="G272" s="3"/>
+      <c r="F272" s="3">
+        <v>73.680000000000007</v>
+      </c>
+      <c r="G272" s="3">
+        <v>72.45</v>
+      </c>
       <c r="H272" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.230000000000004</v>
       </c>
       <c r="I272" s="53"/>
       <c r="J272" s="56"/>
@@ -17403,11 +18197,15 @@
       <c r="E273" s="3">
         <v>11</v>
       </c>
-      <c r="F273" s="3"/>
-      <c r="G273" s="3"/>
+      <c r="F273" s="3">
+        <v>74.45</v>
+      </c>
+      <c r="G273" s="3">
+        <v>75.09</v>
+      </c>
       <c r="H273" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.64000000000000057</v>
       </c>
       <c r="I273" s="53"/>
       <c r="J273" s="56"/>
@@ -17417,11 +18215,15 @@
       <c r="E274" s="3">
         <v>12</v>
       </c>
-      <c r="F274" s="3"/>
-      <c r="G274" s="3"/>
+      <c r="F274" s="3">
+        <v>75.44</v>
+      </c>
+      <c r="G274" s="3">
+        <v>77.69</v>
+      </c>
       <c r="H274" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="I274" s="53"/>
       <c r="J274" s="56"/>
@@ -17431,11 +18233,15 @@
       <c r="E275" s="3">
         <v>13</v>
       </c>
-      <c r="F275" s="3"/>
-      <c r="G275" s="3"/>
+      <c r="F275" s="3">
+        <v>76.62</v>
+      </c>
+      <c r="G275" s="3">
+        <v>79.23</v>
+      </c>
       <c r="H275" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-2.6099999999999994</v>
       </c>
       <c r="I275" s="53"/>
       <c r="J275" s="56"/>
@@ -17445,11 +18251,15 @@
       <c r="E276" s="3">
         <v>14</v>
       </c>
-      <c r="F276" s="3"/>
-      <c r="G276" s="3"/>
+      <c r="F276" s="3">
+        <v>78</v>
+      </c>
+      <c r="G276" s="3">
+        <v>79.180000000000007</v>
+      </c>
       <c r="H276" s="3">
         <f t="shared" ref="H276:H302" si="24">F276-G276</f>
-        <v>0</v>
+        <v>-1.1800000000000068</v>
       </c>
       <c r="I276" s="53"/>
       <c r="J276" s="56"/>
@@ -17459,11 +18269,15 @@
       <c r="E277" s="3">
         <v>15</v>
       </c>
-      <c r="F277" s="3"/>
-      <c r="G277" s="3"/>
+      <c r="F277" s="3">
+        <v>79.47</v>
+      </c>
+      <c r="G277" s="3">
+        <v>81.96</v>
+      </c>
       <c r="H277" s="3">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-2.4899999999999949</v>
       </c>
       <c r="I277" s="53"/>
       <c r="J277" s="56"/>
@@ -17473,11 +18287,15 @@
       <c r="E278" s="3">
         <v>16</v>
       </c>
-      <c r="F278" s="3"/>
-      <c r="G278" s="3"/>
+      <c r="F278" s="3">
+        <v>81</v>
+      </c>
+      <c r="G278" s="3">
+        <v>83.7</v>
+      </c>
       <c r="H278" s="3">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-2.7000000000000028</v>
       </c>
       <c r="I278" s="53"/>
       <c r="J278" s="56"/>
@@ -17487,11 +18305,15 @@
       <c r="E279" s="3">
         <v>17</v>
       </c>
-      <c r="F279" s="3"/>
-      <c r="G279" s="3"/>
+      <c r="F279" s="3">
+        <v>82.61</v>
+      </c>
+      <c r="G279" s="3">
+        <v>83.93</v>
+      </c>
       <c r="H279" s="3">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-1.3200000000000074</v>
       </c>
       <c r="I279" s="53"/>
       <c r="J279" s="56"/>
@@ -17501,11 +18323,15 @@
       <c r="E280" s="3">
         <v>18</v>
       </c>
-      <c r="F280" s="3"/>
-      <c r="G280" s="3"/>
+      <c r="F280" s="3">
+        <v>84.05</v>
+      </c>
+      <c r="G280" s="3">
+        <v>85.05</v>
+      </c>
       <c r="H280" s="3">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I280" s="53"/>
       <c r="J280" s="56"/>
@@ -17515,11 +18341,15 @@
       <c r="E281" s="3">
         <v>19</v>
       </c>
-      <c r="F281" s="3"/>
-      <c r="G281" s="3"/>
+      <c r="F281" s="3">
+        <v>84.9</v>
+      </c>
+      <c r="G281" s="3">
+        <v>85.38</v>
+      </c>
       <c r="H281" s="3">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-0.47999999999998977</v>
       </c>
       <c r="I281" s="53"/>
       <c r="J281" s="56"/>
@@ -17529,11 +18359,15 @@
       <c r="E282" s="6">
         <v>20</v>
       </c>
-      <c r="F282" s="6"/>
-      <c r="G282" s="6"/>
+      <c r="F282" s="6">
+        <v>85.17</v>
+      </c>
+      <c r="G282" s="6">
+        <v>85.51</v>
+      </c>
       <c r="H282" s="6">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-0.34000000000000341</v>
       </c>
       <c r="I282" s="54"/>
       <c r="J282" s="57"/>
@@ -19339,7 +20173,7 @@
   <dimension ref="G2:AA22"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y40" sqref="Y40"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19451,12 +20285,24 @@
       </c>
       <c r="Q3" s="9">
         <f>'Model logs'!H183</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
+        <v>-14.270000000000003</v>
+      </c>
+      <c r="R3" s="9">
+        <f>'Model logs'!H203</f>
+        <v>-13.200000000000003</v>
+      </c>
+      <c r="S3" s="9">
+        <f>'Model logs'!H223</f>
+        <v>-11.810000000000002</v>
+      </c>
+      <c r="T3" s="9">
+        <f>'Model logs'!H243</f>
+        <v>-12.299999999999997</v>
+      </c>
+      <c r="U3" s="9">
+        <f>'Model logs'!H263</f>
+        <v>-11.659999999999997</v>
+      </c>
       <c r="V3" s="12"/>
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
@@ -19506,12 +20352,24 @@
       </c>
       <c r="Q4" s="9">
         <f>'Model logs'!H184</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
+        <v>-6.9399999999999977</v>
+      </c>
+      <c r="R4" s="9">
+        <f>'Model logs'!H204</f>
+        <v>-4.5</v>
+      </c>
+      <c r="S4" s="9">
+        <f>'Model logs'!H224</f>
+        <v>-4.57</v>
+      </c>
+      <c r="T4" s="9">
+        <f>'Model logs'!H244</f>
+        <v>-5.1700000000000017</v>
+      </c>
+      <c r="U4" s="9">
+        <f>'Model logs'!H264</f>
+        <v>3</v>
+      </c>
       <c r="V4" s="12"/>
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
@@ -19561,12 +20419,24 @@
       </c>
       <c r="Q5" s="9">
         <f>'Model logs'!H185</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
+        <v>-2.5399999999999991</v>
+      </c>
+      <c r="R5" s="9">
+        <f>'Model logs'!H205</f>
+        <v>-1.4499999999999886</v>
+      </c>
+      <c r="S5" s="9">
+        <f>'Model logs'!H225</f>
+        <v>-0.96000000000000796</v>
+      </c>
+      <c r="T5" s="9">
+        <f>'Model logs'!H245</f>
+        <v>-2.8100000000000023</v>
+      </c>
+      <c r="U5" s="9">
+        <f>'Model logs'!H265</f>
+        <v>8.9999999999996305E-2</v>
+      </c>
       <c r="V5" s="12"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
@@ -19616,12 +20486,24 @@
       </c>
       <c r="Q6" s="9">
         <f>'Model logs'!H186</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
+        <v>-6.5999999999999943</v>
+      </c>
+      <c r="R6" s="9">
+        <f>'Model logs'!H206</f>
+        <v>-3.8100000000000023</v>
+      </c>
+      <c r="S6" s="9">
+        <f>'Model logs'!H226</f>
+        <v>-1.8099999999999881</v>
+      </c>
+      <c r="T6" s="9">
+        <f>'Model logs'!H246</f>
+        <v>-3.7400000000000091</v>
+      </c>
+      <c r="U6" s="9">
+        <f>'Model logs'!H266</f>
+        <v>3.8200000000000003</v>
+      </c>
       <c r="V6" s="12"/>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
@@ -19671,12 +20553,24 @@
       </c>
       <c r="Q7" s="9">
         <f>'Model logs'!H187</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
+        <v>-4.269999999999996</v>
+      </c>
+      <c r="R7" s="9">
+        <f>'Model logs'!H207</f>
+        <v>-2.9699999999999989</v>
+      </c>
+      <c r="S7" s="9">
+        <f>'Model logs'!H227</f>
+        <v>-0.35999999999999943</v>
+      </c>
+      <c r="T7" s="9">
+        <f>'Model logs'!H247</f>
+        <v>-2.980000000000004</v>
+      </c>
+      <c r="U7" s="9">
+        <f>'Model logs'!H267</f>
+        <v>0.14000000000000057</v>
+      </c>
       <c r="V7" s="12"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
@@ -19726,12 +20620,24 @@
       </c>
       <c r="Q8" s="9">
         <f>'Model logs'!H188</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
+        <v>-6.2700000000000102</v>
+      </c>
+      <c r="R8" s="9">
+        <f>'Model logs'!H208</f>
+        <v>-1.7399999999999949</v>
+      </c>
+      <c r="S8" s="9">
+        <f>'Model logs'!H228</f>
+        <v>-0.95000000000000284</v>
+      </c>
+      <c r="T8" s="9">
+        <f>'Model logs'!H248</f>
+        <v>-1.8099999999999881</v>
+      </c>
+      <c r="U8" s="9">
+        <f>'Model logs'!H268</f>
+        <v>2.8499999999999943</v>
+      </c>
       <c r="V8" s="12"/>
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
@@ -19781,12 +20687,24 @@
       </c>
       <c r="Q9" s="9">
         <f>'Model logs'!H189</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
+        <v>-4.5999999999999943</v>
+      </c>
+      <c r="R9" s="9">
+        <f>'Model logs'!H209</f>
+        <v>-1.6999999999999886</v>
+      </c>
+      <c r="S9" s="9">
+        <f>'Model logs'!H229</f>
+        <v>1.2800000000000011</v>
+      </c>
+      <c r="T9" s="9">
+        <f>'Model logs'!H249</f>
+        <v>-2.7999999999999972</v>
+      </c>
+      <c r="U9" s="9">
+        <f>'Model logs'!H269</f>
+        <v>-1.8800000000000097</v>
+      </c>
       <c r="V9" s="12"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
@@ -19836,12 +20754,24 @@
       </c>
       <c r="Q10" s="9">
         <f>'Model logs'!H190</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
+        <v>-3.9399999999999977</v>
+      </c>
+      <c r="R10" s="9">
+        <f>'Model logs'!H210</f>
+        <v>-2.1800000000000068</v>
+      </c>
+      <c r="S10" s="9">
+        <f>'Model logs'!H230</f>
+        <v>-1.0600000000000023</v>
+      </c>
+      <c r="T10" s="9">
+        <f>'Model logs'!H250</f>
+        <v>-2.769999999999996</v>
+      </c>
+      <c r="U10" s="9">
+        <f>'Model logs'!H270</f>
+        <v>-1.019999999999996</v>
+      </c>
       <c r="V10" s="12"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
@@ -19891,12 +20821,24 @@
       </c>
       <c r="Q11" s="9">
         <f>'Model logs'!H191</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
+        <v>-5.1800000000000068</v>
+      </c>
+      <c r="R11" s="9">
+        <f>'Model logs'!H211</f>
+        <v>-1.7000000000000028</v>
+      </c>
+      <c r="S11" s="9">
+        <f>'Model logs'!H231</f>
+        <v>0.21999999999999886</v>
+      </c>
+      <c r="T11" s="9">
+        <f>'Model logs'!H251</f>
+        <v>-1.0700000000000074</v>
+      </c>
+      <c r="U11" s="9">
+        <f>'Model logs'!H271</f>
+        <v>-1.5700000000000074</v>
+      </c>
       <c r="V11" s="12"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
@@ -19946,12 +20888,24 @@
       </c>
       <c r="Q12" s="9">
         <f>'Model logs'!H192</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
+        <v>-4.0400000000000063</v>
+      </c>
+      <c r="R12" s="9">
+        <f>'Model logs'!H212</f>
+        <v>-0.96000000000000796</v>
+      </c>
+      <c r="S12" s="9">
+        <f>'Model logs'!H232</f>
+        <v>5.0000000000011369E-2</v>
+      </c>
+      <c r="T12" s="9">
+        <f>'Model logs'!H252</f>
+        <v>-1.1999999999999886</v>
+      </c>
+      <c r="U12" s="9">
+        <f>'Model logs'!H272</f>
+        <v>1.230000000000004</v>
+      </c>
       <c r="V12" s="12"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
@@ -20001,12 +20955,24 @@
       </c>
       <c r="Q13" s="9">
         <f>'Model logs'!H193</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
+        <v>-4.3799999999999955</v>
+      </c>
+      <c r="R13" s="9">
+        <f>'Model logs'!H213</f>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="S13" s="9">
+        <f>'Model logs'!H233</f>
+        <v>1.5300000000000011</v>
+      </c>
+      <c r="T13" s="9">
+        <f>'Model logs'!H253</f>
+        <v>-2.2000000000000028</v>
+      </c>
+      <c r="U13" s="9">
+        <f>'Model logs'!H273</f>
+        <v>-0.64000000000000057</v>
+      </c>
       <c r="V13" s="12"/>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
@@ -20056,12 +21022,24 @@
       </c>
       <c r="Q14" s="9">
         <f>'Model logs'!H194</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
+        <v>-5.1700000000000017</v>
+      </c>
+      <c r="R14" s="9">
+        <f>'Model logs'!H214</f>
+        <v>-2.019999999999996</v>
+      </c>
+      <c r="S14" s="9">
+        <f>'Model logs'!H234</f>
+        <v>1</v>
+      </c>
+      <c r="T14" s="9">
+        <f>'Model logs'!H254</f>
+        <v>-1.9499999999999886</v>
+      </c>
+      <c r="U14" s="9">
+        <f>'Model logs'!H274</f>
+        <v>-2.25</v>
+      </c>
       <c r="V14" s="12"/>
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
@@ -20111,12 +21089,24 @@
       </c>
       <c r="Q15" s="9">
         <f>'Model logs'!H195</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
+        <v>-4.6799999999999926</v>
+      </c>
+      <c r="R15" s="9">
+        <f>'Model logs'!H215</f>
+        <v>-0.87000000000000455</v>
+      </c>
+      <c r="S15" s="9">
+        <f>'Model logs'!H235</f>
+        <v>0.57999999999999829</v>
+      </c>
+      <c r="T15" s="9">
+        <f>'Model logs'!H255</f>
+        <v>-1.1700000000000017</v>
+      </c>
+      <c r="U15" s="9">
+        <f>'Model logs'!H275</f>
+        <v>-2.6099999999999994</v>
+      </c>
       <c r="V15" s="12"/>
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
@@ -20166,12 +21156,24 @@
       </c>
       <c r="Q16" s="9">
         <f>'Model logs'!H196</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
+        <v>-3.9099999999999966</v>
+      </c>
+      <c r="R16" s="9">
+        <f>'Model logs'!H216</f>
+        <v>-0.79000000000000625</v>
+      </c>
+      <c r="S16" s="9">
+        <f>'Model logs'!H236</f>
+        <v>1.2600000000000051</v>
+      </c>
+      <c r="T16" s="9">
+        <f>'Model logs'!H256</f>
+        <v>-0.81000000000000227</v>
+      </c>
+      <c r="U16" s="9">
+        <f>'Model logs'!H276</f>
+        <v>-1.1800000000000068</v>
+      </c>
       <c r="V16" s="12"/>
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
@@ -20221,12 +21223,24 @@
       </c>
       <c r="Q17" s="9">
         <f>'Model logs'!H197</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
+        <v>-5.0499999999999972</v>
+      </c>
+      <c r="R17" s="9">
+        <f>'Model logs'!H217</f>
+        <v>-0.53000000000000114</v>
+      </c>
+      <c r="S17" s="9">
+        <f>'Model logs'!H237</f>
+        <v>1.9000000000000057</v>
+      </c>
+      <c r="T17" s="9">
+        <f>'Model logs'!H257</f>
+        <v>-1.1099999999999994</v>
+      </c>
+      <c r="U17" s="9">
+        <f>'Model logs'!H277</f>
+        <v>-2.4899999999999949</v>
+      </c>
       <c r="V17" s="12"/>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
@@ -20276,12 +21290,24 @@
       </c>
       <c r="Q18" s="9">
         <f>'Model logs'!H198</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
+        <v>-3.9200000000000017</v>
+      </c>
+      <c r="R18" s="9">
+        <f>'Model logs'!H218</f>
+        <v>-0.52000000000001023</v>
+      </c>
+      <c r="S18" s="9">
+        <f>'Model logs'!H238</f>
+        <v>1.6300000000000097</v>
+      </c>
+      <c r="T18" s="9">
+        <f>'Model logs'!H258</f>
+        <v>-1.5099999999999909</v>
+      </c>
+      <c r="U18" s="9">
+        <f>'Model logs'!H278</f>
+        <v>-2.7000000000000028</v>
+      </c>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
@@ -20331,12 +21357,24 @@
       </c>
       <c r="Q19" s="9">
         <f>'Model logs'!H199</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
+        <v>-4.019999999999996</v>
+      </c>
+      <c r="R19" s="9">
+        <f>'Model logs'!H219</f>
+        <v>-0.68999999999999773</v>
+      </c>
+      <c r="S19" s="9">
+        <f>'Model logs'!H239</f>
+        <v>1.5600000000000023</v>
+      </c>
+      <c r="T19" s="9">
+        <f>'Model logs'!H259</f>
+        <v>-1.480000000000004</v>
+      </c>
+      <c r="U19" s="9">
+        <f>'Model logs'!H279</f>
+        <v>-1.3200000000000074</v>
+      </c>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
@@ -20386,12 +21424,24 @@
       </c>
       <c r="Q20" s="9">
         <f>'Model logs'!H200</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
+        <v>-4.5300000000000011</v>
+      </c>
+      <c r="R20" s="9">
+        <f>'Model logs'!H220</f>
+        <v>-0.82000000000000739</v>
+      </c>
+      <c r="S20" s="9">
+        <f>'Model logs'!H240</f>
+        <v>1.6999999999999886</v>
+      </c>
+      <c r="T20" s="9">
+        <f>'Model logs'!H260</f>
+        <v>0.32999999999999829</v>
+      </c>
+      <c r="U20" s="9">
+        <f>'Model logs'!H280</f>
+        <v>-1</v>
+      </c>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
@@ -20441,12 +21491,24 @@
       </c>
       <c r="Q21" s="9">
         <f>'Model logs'!H201</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
+        <v>-2.5999999999999943</v>
+      </c>
+      <c r="R21" s="9">
+        <f>'Model logs'!H221</f>
+        <v>-0.71999999999999886</v>
+      </c>
+      <c r="S21" s="9">
+        <f>'Model logs'!H241</f>
+        <v>1.8799999999999955</v>
+      </c>
+      <c r="T21" s="9">
+        <f>'Model logs'!H261</f>
+        <v>-1.5100000000000051</v>
+      </c>
+      <c r="U21" s="9">
+        <f>'Model logs'!H281</f>
+        <v>-0.47999999999998977</v>
+      </c>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
@@ -20496,12 +21558,24 @@
       </c>
       <c r="Q22" s="9">
         <f>'Model logs'!H202</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
+        <v>-4.3199999999999932</v>
+      </c>
+      <c r="R22" s="9">
+        <f>'Model logs'!H222</f>
+        <v>-0.12999999999999545</v>
+      </c>
+      <c r="S22" s="9">
+        <f>'Model logs'!H242</f>
+        <v>3.730000000000004</v>
+      </c>
+      <c r="T22" s="9">
+        <f>'Model logs'!H262</f>
+        <v>-0.14999999999999147</v>
+      </c>
+      <c r="U22" s="9">
+        <f>'Model logs'!H282</f>
+        <v>-0.34000000000000341</v>
+      </c>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>

--- a/Model.xlsx
+++ b/Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aditya.Tiwari\Documents\Product Management\Begin AI\TSAI\Repositories\Session 8 assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79524350-C2A6-4893-B978-B9D54786E3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DB004F-FDBF-48BC-A08D-4B15A1A679EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="110">
   <si>
     <t>Epoch</t>
   </si>
@@ -314,9 +314,6 @@
     <t>Same as Model 4</t>
   </si>
   <si>
-    <t>Works, but not enough convolution blocks. But this proves that the issue was the large number of layers.</t>
-  </si>
-  <si>
     <t>Reduced layers slightly and added batchnorm. The vanishing gradients problem is resolved, and the model architecuture is as asked for.</t>
   </si>
   <si>
@@ -518,39 +515,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Back to Model 7, apply augmentations. Start with Horizontal flip. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Analysis - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Significant improvements in test accuracy. Training accuracy dropped, probably because data is harder to learn from. Or is it better seen as that we've addressed overfitting? Overall delta is much tighter. Best model so far. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Target - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Build up on model 10, apply more augmentation. This time ShiftScaleRotate. </t>
     </r>
     <r>
@@ -584,7 +548,172 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Build up on model 11, tune the ShiftScaleRotate hyperparameters. Earlier they dialed in low on the conservative side, this time trying out moderate values, in line with most research papers. </t>
+      <t xml:space="preserve">Build up on model 12, add more augmentation. CoarseDropout or cutouts this time. Hopefully, this will boost the model training accuracy, which should boost test accuracy, while keeping the delta as before. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Analysis - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Went the other way, model is now underfitting, and the test accuracy has dropped to. The training data is "too hard" to learn from.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Back to Model 7, apply augmentations. Start with Horizontal flip. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Analysis - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Significant improvements in test accuracy. Training accuracy dropped, we have begun to address overfitting. Overall delta is much tighter. Best model so far. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Try reducing the hole size in coarse dropout from 16 px to 8 px to see if it performs better. Cursor had warned of the hole size being half the image size. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Analysis - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Gained back the lost test accuracy, model is very, very close to Model 12. The delta is very tight too, the model is "just right" again. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Try dialing back the ScaleShiftRotate hyperparams to conservative than moderate. Maybe that can finally push the train and test accuracy together, combined with the cutouts. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Analysis - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Model is slightly overfitting now; the gain in train accuracy wasn't reflected in the gain in test accuracy. So let's stick to Model 14.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Back to Model 14. Try adding Learning Rate scheduler (ReduceLROnPlateau) to get some boost in train and test accuracy. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Analysis - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Very close performance to Model 14, not sure if LR was ever stepped. The log never reported it.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Build up on model 11, tune the ShiftScaleRotate hyperparameters. Earlier they dialed in low on the conservative side, this time trying out moderate values, in line with most research papers (as per Cursor). </t>
     </r>
     <r>
       <rPr>
@@ -617,7 +746,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Build up on model 12, add more augmentation. CoarseDropout or cutouts this time. Hopefully, this will boost the model training accuracy, which should boost test accuracy, while keeping the delta as before. </t>
+      <t xml:space="preserve">Back to Model 14. Trying a different Learning Rate scheduler on Cursor's advice (OneCycleLR). Hopefully it helps. </t>
     </r>
     <r>
       <rPr>
@@ -629,13 +758,54 @@
       </rPr>
       <t xml:space="preserve">Analysis - </t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Fuckin' did it! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OneCycleLR is proactive rather than reactive, i.e., the changes in learning rates are preplanned instead of reacting to changes in a metric (test loss in case of ReduceLROnPlateau). The model was already in a good place with steadily decreasing test loss, so the LR was never stepped in the previous model. OneCycleLR in this case solved the problem.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The delta oscillates across the epochs though, probably because of the changing LR.</t>
+    </r>
+  </si>
+  <si>
+    <t>Works, but not enough convolution blocks as needed in the assignment. But this proves that the issue was the large number of layers.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,6 +872,13 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1622,15 +1799,15 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:idx val="10"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model Comparisons'!$P$2</c:f>
+              <c:f>'Model Comparisons'!$R$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Model 12</c:v>
+                  <c:v>Model 14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1638,7 +1815,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -1651,13 +1828,13 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
+                  <a:schemeClr val="accent5">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -1724,57 +1901,57 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model Comparisons'!$P$7:$P$22</c:f>
+              <c:f>'Model Comparisons'!$R$7:$R$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>-3.0799999999999983</c:v>
+                  <c:v>-2.9699999999999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.019999999999996</c:v>
+                  <c:v>-1.7399999999999949</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.9200000000000017</c:v>
+                  <c:v>-1.6999999999999886</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>-2.1800000000000068</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.7000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.96000000000000796</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000001137E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.87000000000000455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.79000000000000625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.53000000000000114</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.52000000000001023</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>-0.68999999999999773</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.5799999999999983</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.76000000000000512</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.10999999999999943</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.51000000000000512</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.31999999999999318</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.17000000000000171</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2299999999999898</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.480000000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.46999999999999886</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.56000000000000227</c:v>
+                  <c:v>-0.82000000000000739</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.269999999999996</c:v>
+                  <c:v>-0.71999999999999886</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.56000000000000227</c:v>
+                  <c:v>-0.12999999999999545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1782,20 +1959,20 @@
           <c:smooth val="1"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-5168-4045-BDD9-686458049E54}"/>
+              <c16:uniqueId val="{0000000A-5168-4045-BDD9-686458049E54}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:idx val="12"/>
+          <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model Comparisons'!$Q$2</c:f>
+              <c:f>'Model Comparisons'!$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Model 13</c:v>
+                  <c:v>Model 16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1803,8 +1980,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1816,14 +1994,16 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -1889,57 +2069,57 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model Comparisons'!$Q$7:$Q$22</c:f>
+              <c:f>'Model Comparisons'!$T$7:$T$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-2.980000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-1.8099999999999881</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-2.7999999999999972</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-2.769999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-1.0700000000000074</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-1.1999999999999886</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-2.2000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-1.9499999999999886</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-1.1700000000000017</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-0.81000000000000227</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-1.1099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-1.5099999999999909</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-1.480000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.32999999999999829</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-1.5100000000000051</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-0.14999999999999147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1947,7 +2127,175 @@
           <c:smooth val="1"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-5168-4045-BDD9-686458049E54}"/>
+              <c16:uniqueId val="{0000000C-5168-4045-BDD9-686458049E54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model Comparisons'!$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model 17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model Comparisons'!$G$7:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model Comparisons'!$U$7:$U$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.14000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8499999999999943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8800000000000097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.5700000000000074</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.64000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.6099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.1800000000000068</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.4899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.7000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.3200000000000074</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.47999999999998977</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.34000000000000341</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-5168-4045-BDD9-686458049E54}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3409,21 +3757,21 @@
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="10"/>
-                <c:order val="10"/>
+                <c:idx val="8"/>
+                <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$R$2</c15:sqref>
+                          <c15:sqref>'Model Comparisons'!$P$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Model 14</c:v>
+                        <c:v>Model 12</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3431,7 +3779,7 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent5">
+                      <a:schemeClr val="accent3">
                         <a:lumMod val="60000"/>
                       </a:schemeClr>
                     </a:solidFill>
@@ -3444,13 +3792,13 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent5">
+                      <a:schemeClr val="accent3">
                         <a:lumMod val="60000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent5">
+                        <a:schemeClr val="accent3">
                           <a:lumMod val="60000"/>
                         </a:schemeClr>
                       </a:solidFill>
@@ -3526,20 +3874,253 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$R$7:$R$22</c15:sqref>
+                          <c15:sqref>'Model Comparisons'!$P$7:$P$22</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>-3.0799999999999983</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-1.019999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-1.9200000000000017</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-0.68999999999999773</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-1.5799999999999983</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-0.76000000000000512</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-0.10999999999999943</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.51000000000000512</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.31999999999999318</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-0.17000000000000171</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.2299999999999898</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.480000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.46999999999999886</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.56000000000000227</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.269999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.56000000000000227</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000A-5168-4045-BDD9-686458049E54}"/>
+                    <c16:uniqueId val="{00000008-5168-4045-BDD9-686458049E54}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$Q$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Model 13</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$G$7:$G$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model Comparisons'!$Q$7:$Q$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>-4.269999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-6.2700000000000102</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-4.5999999999999943</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-3.9399999999999977</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-5.1800000000000068</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-4.0400000000000063</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-4.3799999999999955</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-5.1700000000000017</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-4.6799999999999926</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-3.9099999999999966</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-5.0499999999999972</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-3.9200000000000017</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-4.019999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-4.5300000000000011</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-2.5999999999999943</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>-4.3199999999999932</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-5168-4045-BDD9-686458049E54}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -3670,6 +4251,54 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>-0.35999999999999943</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-0.95000000000000284</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.2800000000000011</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-1.0600000000000023</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.21999999999999886</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0000000000011369E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.5300000000000011</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.57999999999999829</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.2600000000000051</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.9000000000000057</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.6300000000000097</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.5600000000000023</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.6999999999999886</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.8799999999999955</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>3.730000000000004</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -3677,286 +4306,6 @@
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-5168-4045-BDD9-686458049E54}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="12"/>
-                <c:order val="12"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$T$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Model 16</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="80000"/>
-                          <a:lumOff val="20000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$G$7:$G$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                      <c:pt idx="0">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>20</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$T$7:$T$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="1"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000C-5168-4045-BDD9-686458049E54}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="13"/>
-                <c:order val="13"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$U$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Model 17</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2">
-                          <a:lumMod val="80000"/>
-                          <a:lumOff val="20000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$G$7:$G$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                      <c:pt idx="0">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>20</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Model Comparisons'!$U$7:$U$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="1"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000D-5168-4045-BDD9-686458049E54}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -5993,11 +6342,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5155A9C0-960B-43B5-AA06-FF471900653F}">
-  <dimension ref="C4:S124"/>
+  <dimension ref="C4:S128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S126" sqref="S126:S131"/>
+      <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6118,7 +6467,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.2">
@@ -7236,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="46" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.2">
@@ -8643,7 +8992,7 @@
         <v>1</v>
       </c>
       <c r="S51" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="3:19" x14ac:dyDescent="0.2">
@@ -9289,7 +9638,7 @@
       <c r="Q63" s="61"/>
       <c r="R63" s="62"/>
       <c r="S63" s="63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="3:19" ht="15" x14ac:dyDescent="0.2">
@@ -9346,7 +9695,7 @@
         <v>1</v>
       </c>
       <c r="S64" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="3:19" x14ac:dyDescent="0.2">
@@ -9693,7 +10042,7 @@
         <v>81</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" s="3">
         <v>3</v>
@@ -10079,7 +10428,7 @@
         <v>1</v>
       </c>
       <c r="S77" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="3:19" x14ac:dyDescent="0.2">
@@ -10257,7 +10606,7 @@
         <v>79</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F81" s="3">
         <v>3</v>
@@ -10312,7 +10661,7 @@
       <c r="C82" s="35"/>
       <c r="D82" s="27"/>
       <c r="E82" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
@@ -10481,7 +10830,7 @@
         <v>81</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="3">
         <v>3</v>
@@ -10867,7 +11216,7 @@
         <v>1</v>
       </c>
       <c r="S91" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="3:19" x14ac:dyDescent="0.2">
@@ -11155,7 +11504,7 @@
       <c r="C97" s="35"/>
       <c r="D97" s="28"/>
       <c r="E97" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F97" s="3">
         <v>3</v>
@@ -11210,7 +11559,7 @@
       <c r="C98" s="35"/>
       <c r="D98" s="27"/>
       <c r="E98" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
@@ -11379,7 +11728,7 @@
         <v>81</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="3">
         <v>3</v>
@@ -11765,7 +12114,7 @@
         <v>1</v>
       </c>
       <c r="S107" s="64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="3:19" x14ac:dyDescent="0.2">
@@ -11943,7 +12292,7 @@
         <v>79</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F111" s="3">
         <v>3</v>
@@ -11998,7 +12347,7 @@
       <c r="C112" s="35"/>
       <c r="D112" s="27"/>
       <c r="E112" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
@@ -12167,7 +12516,7 @@
         <v>81</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F115" s="3">
         <v>3</v>
@@ -12504,7 +12853,7 @@
         <v>10</v>
       </c>
       <c r="D121" s="66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E121" s="67"/>
       <c r="F121" s="67"/>
@@ -12521,7 +12870,7 @@
       <c r="Q121" s="67"/>
       <c r="R121" s="68"/>
       <c r="S121" s="69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122" spans="3:19" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12529,7 +12878,7 @@
         <v>11</v>
       </c>
       <c r="D122" s="66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E122" s="67"/>
       <c r="F122" s="67"/>
@@ -12546,15 +12895,15 @@
       <c r="Q122" s="67"/>
       <c r="R122" s="68"/>
       <c r="S122" s="69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="123" spans="3:19" ht="204" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="123" spans="3:19" ht="215.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C123" s="60">
         <v>12</v>
       </c>
       <c r="D123" s="66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E123" s="67"/>
       <c r="F123" s="67"/>
@@ -12571,7 +12920,7 @@
       <c r="Q123" s="67"/>
       <c r="R123" s="68"/>
       <c r="S123" s="69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124" spans="3:19" ht="200.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12579,7 +12928,7 @@
         <v>13</v>
       </c>
       <c r="D124" s="66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E124" s="67"/>
       <c r="F124" s="67"/>
@@ -12596,15 +12945,119 @@
       <c r="Q124" s="67"/>
       <c r="R124" s="68"/>
       <c r="S124" s="69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="125" spans="3:19" ht="149.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C125" s="60">
+        <v>14</v>
+      </c>
+      <c r="D125" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E125" s="67"/>
+      <c r="F125" s="67"/>
+      <c r="G125" s="67"/>
+      <c r="H125" s="67"/>
+      <c r="I125" s="67"/>
+      <c r="J125" s="67"/>
+      <c r="K125" s="67"/>
+      <c r="L125" s="67"/>
+      <c r="M125" s="67"/>
+      <c r="N125" s="67"/>
+      <c r="O125" s="67"/>
+      <c r="P125" s="67"/>
+      <c r="Q125" s="67"/>
+      <c r="R125" s="68"/>
+      <c r="S125" s="69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="126" spans="3:19" ht="154.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C126" s="60">
+        <v>15</v>
+      </c>
+      <c r="D126" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E126" s="67"/>
+      <c r="F126" s="67"/>
+      <c r="G126" s="67"/>
+      <c r="H126" s="67"/>
+      <c r="I126" s="67"/>
+      <c r="J126" s="67"/>
+      <c r="K126" s="67"/>
+      <c r="L126" s="67"/>
+      <c r="M126" s="67"/>
+      <c r="N126" s="67"/>
+      <c r="O126" s="67"/>
+      <c r="P126" s="67"/>
+      <c r="Q126" s="67"/>
+      <c r="R126" s="68"/>
+      <c r="S126" s="69" t="s">
         <v>105</v>
       </c>
     </row>
+    <row r="127" spans="3:19" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C127" s="60">
+        <v>16</v>
+      </c>
+      <c r="D127" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E127" s="67"/>
+      <c r="F127" s="67"/>
+      <c r="G127" s="67"/>
+      <c r="H127" s="67"/>
+      <c r="I127" s="67"/>
+      <c r="J127" s="67"/>
+      <c r="K127" s="67"/>
+      <c r="L127" s="67"/>
+      <c r="M127" s="67"/>
+      <c r="N127" s="67"/>
+      <c r="O127" s="67"/>
+      <c r="P127" s="67"/>
+      <c r="Q127" s="67"/>
+      <c r="R127" s="68"/>
+      <c r="S127" s="69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="128" spans="3:19" ht="270" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C128" s="60">
+        <v>17</v>
+      </c>
+      <c r="D128" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E128" s="67"/>
+      <c r="F128" s="67"/>
+      <c r="G128" s="67"/>
+      <c r="H128" s="67"/>
+      <c r="I128" s="67"/>
+      <c r="J128" s="67"/>
+      <c r="K128" s="67"/>
+      <c r="L128" s="67"/>
+      <c r="M128" s="67"/>
+      <c r="N128" s="67"/>
+      <c r="O128" s="67"/>
+      <c r="P128" s="67"/>
+      <c r="Q128" s="67"/>
+      <c r="R128" s="68"/>
+      <c r="S128" s="69" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="64">
     <mergeCell ref="D121:R121"/>
     <mergeCell ref="D122:R122"/>
     <mergeCell ref="D123:R123"/>
     <mergeCell ref="D124:R124"/>
+    <mergeCell ref="D125:R125"/>
+    <mergeCell ref="D126:R126"/>
+    <mergeCell ref="D127:R127"/>
+    <mergeCell ref="D128:R128"/>
     <mergeCell ref="C107:C120"/>
     <mergeCell ref="S107:S120"/>
     <mergeCell ref="D109:D110"/>
@@ -12672,8 +13125,8 @@
   <dimension ref="D1:Q402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A123" sqref="A123:XFD142"/>
+      <pane ySplit="2" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12712,7 +13165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D3" s="29">
         <v>4</v>
       </c>
@@ -12738,7 +13191,7 @@
         <v>72.59</v>
       </c>
     </row>
-    <row r="4" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D4" s="30"/>
       <c r="E4" s="3">
         <v>2</v>
@@ -12758,7 +13211,7 @@
       <c r="N4" s="58"/>
       <c r="Q4" s="58"/>
     </row>
-    <row r="5" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D5" s="30"/>
       <c r="E5" s="3">
         <v>3</v>
@@ -12778,7 +13231,7 @@
       <c r="N5" s="58"/>
       <c r="Q5" s="58"/>
     </row>
-    <row r="6" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D6" s="30"/>
       <c r="E6" s="3">
         <v>4</v>
@@ -12798,7 +13251,7 @@
       <c r="N6" s="58"/>
       <c r="Q6" s="58"/>
     </row>
-    <row r="7" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D7" s="30"/>
       <c r="E7" s="3">
         <v>5</v>
@@ -12818,7 +13271,7 @@
       <c r="N7" s="58"/>
       <c r="Q7" s="58"/>
     </row>
-    <row r="8" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D8" s="30"/>
       <c r="E8" s="3">
         <v>6</v>
@@ -12838,7 +13291,7 @@
       <c r="N8" s="58"/>
       <c r="Q8" s="58"/>
     </row>
-    <row r="9" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D9" s="30"/>
       <c r="E9" s="3">
         <v>7</v>
@@ -12858,7 +13311,7 @@
       <c r="N9" s="58"/>
       <c r="Q9" s="58"/>
     </row>
-    <row r="10" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D10" s="30"/>
       <c r="E10" s="3">
         <v>8</v>
@@ -12878,7 +13331,7 @@
       <c r="N10" s="58"/>
       <c r="Q10" s="58"/>
     </row>
-    <row r="11" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D11" s="30"/>
       <c r="E11" s="3">
         <v>9</v>
@@ -12898,7 +13351,7 @@
       <c r="N11" s="58"/>
       <c r="Q11" s="58"/>
     </row>
-    <row r="12" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D12" s="30"/>
       <c r="E12" s="3">
         <v>10</v>
@@ -12918,7 +13371,7 @@
       <c r="N12" s="58"/>
       <c r="Q12" s="58"/>
     </row>
-    <row r="13" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D13" s="30"/>
       <c r="E13" s="3">
         <v>11</v>
@@ -12938,7 +13391,7 @@
       <c r="N13" s="58"/>
       <c r="Q13" s="58"/>
     </row>
-    <row r="14" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D14" s="30"/>
       <c r="E14" s="3">
         <v>12</v>
@@ -12958,7 +13411,7 @@
       <c r="N14" s="58"/>
       <c r="Q14" s="58"/>
     </row>
-    <row r="15" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D15" s="30"/>
       <c r="E15" s="3">
         <v>13</v>
@@ -12978,7 +13431,7 @@
       <c r="N15" s="58"/>
       <c r="Q15" s="58"/>
     </row>
-    <row r="16" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D16" s="30"/>
       <c r="E16" s="3">
         <v>14</v>
@@ -12998,7 +13451,7 @@
       <c r="N16" s="58"/>
       <c r="Q16" s="58"/>
     </row>
-    <row r="17" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D17" s="30"/>
       <c r="E17" s="3">
         <v>15</v>
@@ -13018,7 +13471,7 @@
       <c r="N17" s="58"/>
       <c r="Q17" s="58"/>
     </row>
-    <row r="18" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D18" s="30"/>
       <c r="E18" s="3">
         <v>16</v>
@@ -13038,7 +13491,7 @@
       <c r="N18" s="58"/>
       <c r="Q18" s="58"/>
     </row>
-    <row r="19" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D19" s="30"/>
       <c r="E19" s="3">
         <v>17</v>
@@ -13058,7 +13511,7 @@
       <c r="N19" s="58"/>
       <c r="Q19" s="58"/>
     </row>
-    <row r="20" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D20" s="30"/>
       <c r="E20" s="3">
         <v>18</v>
@@ -13078,7 +13531,7 @@
       <c r="N20" s="58"/>
       <c r="Q20" s="58"/>
     </row>
-    <row r="21" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D21" s="30"/>
       <c r="E21" s="3">
         <v>19</v>
@@ -13098,7 +13551,7 @@
       <c r="N21" s="58"/>
       <c r="Q21" s="58"/>
     </row>
-    <row r="22" spans="4:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D22" s="32"/>
       <c r="E22" s="6">
         <v>20</v>
@@ -13118,7 +13571,7 @@
       <c r="N22" s="59"/>
       <c r="Q22" s="58"/>
     </row>
-    <row r="23" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D23" s="29">
         <v>5</v>
       </c>
@@ -13146,7 +13599,7 @@
       <c r="N23" s="59"/>
       <c r="Q23" s="58"/>
     </row>
-    <row r="24" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D24" s="30"/>
       <c r="E24" s="3">
         <v>2</v>
@@ -13166,7 +13619,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D25" s="30"/>
       <c r="E25" s="3">
         <v>3</v>
@@ -13186,7 +13639,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D26" s="30"/>
       <c r="E26" s="3">
         <v>4</v>
@@ -13206,7 +13659,7 @@
       <c r="N26"/>
       <c r="O26"/>
     </row>
-    <row r="27" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D27" s="30"/>
       <c r="E27" s="3">
         <v>5</v>
@@ -13226,7 +13679,7 @@
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row r="28" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D28" s="30"/>
       <c r="E28" s="3">
         <v>6</v>
@@ -13246,7 +13699,7 @@
       <c r="N28"/>
       <c r="O28"/>
     </row>
-    <row r="29" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D29" s="30"/>
       <c r="E29" s="3">
         <v>7</v>
@@ -13266,7 +13719,7 @@
       <c r="N29"/>
       <c r="O29"/>
     </row>
-    <row r="30" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D30" s="30"/>
       <c r="E30" s="3">
         <v>8</v>
@@ -13286,7 +13739,7 @@
       <c r="N30"/>
       <c r="O30"/>
     </row>
-    <row r="31" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D31" s="30"/>
       <c r="E31" s="3">
         <v>9</v>
@@ -13306,7 +13759,7 @@
       <c r="N31"/>
       <c r="O31"/>
     </row>
-    <row r="32" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D32" s="30"/>
       <c r="E32" s="3">
         <v>10</v>
@@ -13326,7 +13779,7 @@
       <c r="N32"/>
       <c r="O32"/>
     </row>
-    <row r="33" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D33" s="30"/>
       <c r="E33" s="3">
         <v>11</v>
@@ -13346,7 +13799,7 @@
       <c r="N33"/>
       <c r="O33"/>
     </row>
-    <row r="34" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D34" s="30"/>
       <c r="E34" s="3">
         <v>12</v>
@@ -13366,7 +13819,7 @@
       <c r="N34"/>
       <c r="O34"/>
     </row>
-    <row r="35" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D35" s="30"/>
       <c r="E35" s="3">
         <v>13</v>
@@ -13386,7 +13839,7 @@
       <c r="N35"/>
       <c r="O35"/>
     </row>
-    <row r="36" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D36" s="30"/>
       <c r="E36" s="3">
         <v>14</v>
@@ -13406,7 +13859,7 @@
       <c r="N36"/>
       <c r="O36"/>
     </row>
-    <row r="37" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D37" s="30"/>
       <c r="E37" s="3">
         <v>15</v>
@@ -13426,7 +13879,7 @@
       <c r="N37"/>
       <c r="O37"/>
     </row>
-    <row r="38" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D38" s="30"/>
       <c r="E38" s="3">
         <v>16</v>
@@ -13446,7 +13899,7 @@
       <c r="N38"/>
       <c r="O38"/>
     </row>
-    <row r="39" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D39" s="30"/>
       <c r="E39" s="3">
         <v>17</v>
@@ -13466,7 +13919,7 @@
       <c r="N39"/>
       <c r="O39"/>
     </row>
-    <row r="40" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D40" s="30"/>
       <c r="E40" s="3">
         <v>18</v>
@@ -13486,7 +13939,7 @@
       <c r="N40"/>
       <c r="O40"/>
     </row>
-    <row r="41" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D41" s="30"/>
       <c r="E41" s="3">
         <v>19</v>
@@ -13504,7 +13957,7 @@
       <c r="I41" s="53"/>
       <c r="J41" s="56"/>
     </row>
-    <row r="42" spans="4:15" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D42" s="32"/>
       <c r="E42" s="6">
         <v>20</v>
@@ -13522,7 +13975,7 @@
       <c r="I42" s="54"/>
       <c r="J42" s="57"/>
     </row>
-    <row r="43" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D43" s="29">
         <v>6</v>
       </c>
@@ -13548,7 +14001,7 @@
         <v>79.89</v>
       </c>
     </row>
-    <row r="44" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D44" s="30"/>
       <c r="E44" s="3">
         <v>2</v>
@@ -13566,7 +14019,7 @@
       <c r="I44" s="53"/>
       <c r="J44" s="56"/>
     </row>
-    <row r="45" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D45" s="30"/>
       <c r="E45" s="3">
         <v>3</v>
@@ -13584,7 +14037,7 @@
       <c r="I45" s="53"/>
       <c r="J45" s="56"/>
     </row>
-    <row r="46" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D46" s="30"/>
       <c r="E46" s="3">
         <v>4</v>
@@ -13602,7 +14055,7 @@
       <c r="I46" s="53"/>
       <c r="J46" s="56"/>
     </row>
-    <row r="47" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D47" s="30"/>
       <c r="E47" s="3">
         <v>5</v>
@@ -13620,7 +14073,7 @@
       <c r="I47" s="53"/>
       <c r="J47" s="56"/>
     </row>
-    <row r="48" spans="4:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D48" s="30"/>
       <c r="E48" s="3">
         <v>6</v>
@@ -13638,7 +14091,7 @@
       <c r="I48" s="53"/>
       <c r="J48" s="56"/>
     </row>
-    <row r="49" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D49" s="30"/>
       <c r="E49" s="3">
         <v>7</v>
@@ -13656,7 +14109,7 @@
       <c r="I49" s="53"/>
       <c r="J49" s="56"/>
     </row>
-    <row r="50" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D50" s="30"/>
       <c r="E50" s="3">
         <v>8</v>
@@ -13674,7 +14127,7 @@
       <c r="I50" s="53"/>
       <c r="J50" s="56"/>
     </row>
-    <row r="51" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D51" s="30"/>
       <c r="E51" s="3">
         <v>9</v>
@@ -13692,7 +14145,7 @@
       <c r="I51" s="53"/>
       <c r="J51" s="56"/>
     </row>
-    <row r="52" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D52" s="30"/>
       <c r="E52" s="3">
         <v>10</v>
@@ -13710,7 +14163,7 @@
       <c r="I52" s="53"/>
       <c r="J52" s="56"/>
     </row>
-    <row r="53" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D53" s="30"/>
       <c r="E53" s="3">
         <v>11</v>
@@ -13728,7 +14181,7 @@
       <c r="I53" s="53"/>
       <c r="J53" s="56"/>
     </row>
-    <row r="54" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D54" s="30"/>
       <c r="E54" s="3">
         <v>12</v>
@@ -13746,7 +14199,7 @@
       <c r="I54" s="53"/>
       <c r="J54" s="56"/>
     </row>
-    <row r="55" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D55" s="30"/>
       <c r="E55" s="3">
         <v>13</v>
@@ -13764,7 +14217,7 @@
       <c r="I55" s="53"/>
       <c r="J55" s="56"/>
     </row>
-    <row r="56" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D56" s="30"/>
       <c r="E56" s="3">
         <v>14</v>
@@ -13782,7 +14235,7 @@
       <c r="I56" s="53"/>
       <c r="J56" s="56"/>
     </row>
-    <row r="57" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D57" s="30"/>
       <c r="E57" s="3">
         <v>15</v>
@@ -13800,7 +14253,7 @@
       <c r="I57" s="53"/>
       <c r="J57" s="56"/>
     </row>
-    <row r="58" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D58" s="30"/>
       <c r="E58" s="3">
         <v>16</v>
@@ -13818,7 +14271,7 @@
       <c r="I58" s="53"/>
       <c r="J58" s="56"/>
     </row>
-    <row r="59" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D59" s="30"/>
       <c r="E59" s="3">
         <v>17</v>
@@ -13836,7 +14289,7 @@
       <c r="I59" s="53"/>
       <c r="J59" s="56"/>
     </row>
-    <row r="60" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D60" s="30"/>
       <c r="E60" s="3">
         <v>18</v>
@@ -13854,7 +14307,7 @@
       <c r="I60" s="53"/>
       <c r="J60" s="56"/>
     </row>
-    <row r="61" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D61" s="30"/>
       <c r="E61" s="3">
         <v>19</v>
@@ -13872,7 +14325,7 @@
       <c r="I61" s="53"/>
       <c r="J61" s="56"/>
     </row>
-    <row r="62" spans="4:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D62" s="32"/>
       <c r="E62" s="6">
         <v>20</v>
@@ -13890,7 +14343,7 @@
       <c r="I62" s="54"/>
       <c r="J62" s="57"/>
     </row>
-    <row r="63" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D63" s="29">
         <v>7</v>
       </c>
@@ -13916,7 +14369,7 @@
         <v>76.67</v>
       </c>
     </row>
-    <row r="64" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D64" s="30"/>
       <c r="E64" s="3">
         <v>2</v>
@@ -13934,7 +14387,7 @@
       <c r="I64" s="53"/>
       <c r="J64" s="56"/>
     </row>
-    <row r="65" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D65" s="30"/>
       <c r="E65" s="3">
         <v>3</v>
@@ -13952,7 +14405,7 @@
       <c r="I65" s="53"/>
       <c r="J65" s="56"/>
     </row>
-    <row r="66" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D66" s="30"/>
       <c r="E66" s="3">
         <v>4</v>
@@ -13970,7 +14423,7 @@
       <c r="I66" s="53"/>
       <c r="J66" s="56"/>
     </row>
-    <row r="67" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D67" s="30"/>
       <c r="E67" s="3">
         <v>5</v>
@@ -13988,7 +14441,7 @@
       <c r="I67" s="53"/>
       <c r="J67" s="56"/>
     </row>
-    <row r="68" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D68" s="30"/>
       <c r="E68" s="3">
         <v>6</v>
@@ -14006,7 +14459,7 @@
       <c r="I68" s="53"/>
       <c r="J68" s="56"/>
     </row>
-    <row r="69" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D69" s="30"/>
       <c r="E69" s="3">
         <v>7</v>
@@ -14024,7 +14477,7 @@
       <c r="I69" s="53"/>
       <c r="J69" s="56"/>
     </row>
-    <row r="70" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D70" s="30"/>
       <c r="E70" s="3">
         <v>8</v>
@@ -14042,7 +14495,7 @@
       <c r="I70" s="53"/>
       <c r="J70" s="56"/>
     </row>
-    <row r="71" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D71" s="30"/>
       <c r="E71" s="3">
         <v>9</v>
@@ -14060,7 +14513,7 @@
       <c r="I71" s="53"/>
       <c r="J71" s="56"/>
     </row>
-    <row r="72" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D72" s="30"/>
       <c r="E72" s="3">
         <v>10</v>
@@ -14078,7 +14531,7 @@
       <c r="I72" s="53"/>
       <c r="J72" s="56"/>
     </row>
-    <row r="73" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D73" s="30"/>
       <c r="E73" s="3">
         <v>11</v>
@@ -14096,7 +14549,7 @@
       <c r="I73" s="53"/>
       <c r="J73" s="56"/>
     </row>
-    <row r="74" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D74" s="30"/>
       <c r="E74" s="3">
         <v>12</v>
@@ -14114,7 +14567,7 @@
       <c r="I74" s="53"/>
       <c r="J74" s="56"/>
     </row>
-    <row r="75" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D75" s="30"/>
       <c r="E75" s="3">
         <v>13</v>
@@ -14132,7 +14585,7 @@
       <c r="I75" s="53"/>
       <c r="J75" s="56"/>
     </row>
-    <row r="76" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D76" s="30"/>
       <c r="E76" s="3">
         <v>14</v>
@@ -14150,7 +14603,7 @@
       <c r="I76" s="53"/>
       <c r="J76" s="56"/>
     </row>
-    <row r="77" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D77" s="30"/>
       <c r="E77" s="3">
         <v>15</v>
@@ -14168,7 +14621,7 @@
       <c r="I77" s="53"/>
       <c r="J77" s="56"/>
     </row>
-    <row r="78" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D78" s="30"/>
       <c r="E78" s="3">
         <v>16</v>
@@ -14186,7 +14639,7 @@
       <c r="I78" s="53"/>
       <c r="J78" s="56"/>
     </row>
-    <row r="79" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D79" s="30"/>
       <c r="E79" s="3">
         <v>17</v>
@@ -14204,7 +14657,7 @@
       <c r="I79" s="53"/>
       <c r="J79" s="56"/>
     </row>
-    <row r="80" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D80" s="30"/>
       <c r="E80" s="3">
         <v>18</v>
@@ -14222,7 +14675,7 @@
       <c r="I80" s="53"/>
       <c r="J80" s="56"/>
     </row>
-    <row r="81" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D81" s="30"/>
       <c r="E81" s="3">
         <v>19</v>
@@ -14240,7 +14693,7 @@
       <c r="I81" s="53"/>
       <c r="J81" s="56"/>
     </row>
-    <row r="82" spans="4:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D82" s="32"/>
       <c r="E82" s="6">
         <v>20</v>
@@ -14258,7 +14711,7 @@
       <c r="I82" s="54"/>
       <c r="J82" s="57"/>
     </row>
-    <row r="83" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D83" s="29">
         <v>8</v>
       </c>
@@ -14284,7 +14737,7 @@
         <v>78.89</v>
       </c>
     </row>
-    <row r="84" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D84" s="30"/>
       <c r="E84" s="3">
         <v>2</v>
@@ -14302,7 +14755,7 @@
       <c r="I84" s="53"/>
       <c r="J84" s="56"/>
     </row>
-    <row r="85" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D85" s="30"/>
       <c r="E85" s="3">
         <v>3</v>
@@ -14320,7 +14773,7 @@
       <c r="I85" s="53"/>
       <c r="J85" s="56"/>
     </row>
-    <row r="86" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D86" s="30"/>
       <c r="E86" s="3">
         <v>4</v>
@@ -14338,7 +14791,7 @@
       <c r="I86" s="53"/>
       <c r="J86" s="56"/>
     </row>
-    <row r="87" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D87" s="30"/>
       <c r="E87" s="3">
         <v>5</v>
@@ -14356,7 +14809,7 @@
       <c r="I87" s="53"/>
       <c r="J87" s="56"/>
     </row>
-    <row r="88" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D88" s="30"/>
       <c r="E88" s="3">
         <v>6</v>
@@ -14374,7 +14827,7 @@
       <c r="I88" s="53"/>
       <c r="J88" s="56"/>
     </row>
-    <row r="89" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D89" s="30"/>
       <c r="E89" s="3">
         <v>7</v>
@@ -14392,7 +14845,7 @@
       <c r="I89" s="53"/>
       <c r="J89" s="56"/>
     </row>
-    <row r="90" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D90" s="30"/>
       <c r="E90" s="3">
         <v>8</v>
@@ -14410,7 +14863,7 @@
       <c r="I90" s="53"/>
       <c r="J90" s="56"/>
     </row>
-    <row r="91" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D91" s="30"/>
       <c r="E91" s="3">
         <v>9</v>
@@ -14428,7 +14881,7 @@
       <c r="I91" s="53"/>
       <c r="J91" s="56"/>
     </row>
-    <row r="92" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D92" s="30"/>
       <c r="E92" s="3">
         <v>10</v>
@@ -14446,7 +14899,7 @@
       <c r="I92" s="53"/>
       <c r="J92" s="56"/>
     </row>
-    <row r="93" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D93" s="30"/>
       <c r="E93" s="3">
         <v>11</v>
@@ -14464,7 +14917,7 @@
       <c r="I93" s="53"/>
       <c r="J93" s="56"/>
     </row>
-    <row r="94" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D94" s="30"/>
       <c r="E94" s="3">
         <v>12</v>
@@ -14482,7 +14935,7 @@
       <c r="I94" s="53"/>
       <c r="J94" s="56"/>
     </row>
-    <row r="95" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D95" s="30"/>
       <c r="E95" s="3">
         <v>13</v>
@@ -14500,7 +14953,7 @@
       <c r="I95" s="53"/>
       <c r="J95" s="56"/>
     </row>
-    <row r="96" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D96" s="30"/>
       <c r="E96" s="3">
         <v>14</v>
@@ -14518,7 +14971,7 @@
       <c r="I96" s="53"/>
       <c r="J96" s="56"/>
     </row>
-    <row r="97" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D97" s="30"/>
       <c r="E97" s="3">
         <v>15</v>
@@ -14536,7 +14989,7 @@
       <c r="I97" s="53"/>
       <c r="J97" s="56"/>
     </row>
-    <row r="98" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D98" s="30"/>
       <c r="E98" s="3">
         <v>16</v>
@@ -14554,7 +15007,7 @@
       <c r="I98" s="53"/>
       <c r="J98" s="56"/>
     </row>
-    <row r="99" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D99" s="30"/>
       <c r="E99" s="3">
         <v>17</v>
@@ -14572,7 +15025,7 @@
       <c r="I99" s="53"/>
       <c r="J99" s="56"/>
     </row>
-    <row r="100" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D100" s="30"/>
       <c r="E100" s="3">
         <v>18</v>
@@ -14590,7 +15043,7 @@
       <c r="I100" s="53"/>
       <c r="J100" s="56"/>
     </row>
-    <row r="101" spans="4:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D101" s="30"/>
       <c r="E101" s="3">
         <v>19</v>
@@ -14608,7 +15061,7 @@
       <c r="I101" s="53"/>
       <c r="J101" s="56"/>
     </row>
-    <row r="102" spans="4:10" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D102" s="32"/>
       <c r="E102" s="6">
         <v>20</v>
@@ -14626,7 +15079,7 @@
       <c r="I102" s="54"/>
       <c r="J102" s="57"/>
     </row>
-    <row r="103" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D103" s="29">
         <v>9</v>
       </c>
@@ -14652,7 +15105,7 @@
         <v>76.67</v>
       </c>
     </row>
-    <row r="104" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D104" s="30"/>
       <c r="E104" s="3">
         <v>2</v>
@@ -14670,7 +15123,7 @@
       <c r="I104" s="53"/>
       <c r="J104" s="56"/>
     </row>
-    <row r="105" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D105" s="30"/>
       <c r="E105" s="3">
         <v>3</v>
@@ -14688,7 +15141,7 @@
       <c r="I105" s="53"/>
       <c r="J105" s="56"/>
     </row>
-    <row r="106" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D106" s="30"/>
       <c r="E106" s="3">
         <v>4</v>
@@ -14706,7 +15159,7 @@
       <c r="I106" s="53"/>
       <c r="J106" s="56"/>
     </row>
-    <row r="107" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D107" s="30"/>
       <c r="E107" s="3">
         <v>5</v>
@@ -14724,7 +15177,7 @@
       <c r="I107" s="53"/>
       <c r="J107" s="56"/>
     </row>
-    <row r="108" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D108" s="30"/>
       <c r="E108" s="3">
         <v>6</v>
@@ -14742,7 +15195,7 @@
       <c r="I108" s="53"/>
       <c r="J108" s="56"/>
     </row>
-    <row r="109" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D109" s="30"/>
       <c r="E109" s="3">
         <v>7</v>
@@ -14760,7 +15213,7 @@
       <c r="I109" s="53"/>
       <c r="J109" s="56"/>
     </row>
-    <row r="110" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D110" s="30"/>
       <c r="E110" s="3">
         <v>8</v>
@@ -14778,7 +15231,7 @@
       <c r="I110" s="53"/>
       <c r="J110" s="56"/>
     </row>
-    <row r="111" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D111" s="30"/>
       <c r="E111" s="3">
         <v>9</v>
@@ -14796,7 +15249,7 @@
       <c r="I111" s="53"/>
       <c r="J111" s="56"/>
     </row>
-    <row r="112" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D112" s="30"/>
       <c r="E112" s="3">
         <v>10</v>
@@ -14814,7 +15267,7 @@
       <c r="I112" s="53"/>
       <c r="J112" s="56"/>
     </row>
-    <row r="113" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D113" s="30"/>
       <c r="E113" s="3">
         <v>11</v>
@@ -14832,7 +15285,7 @@
       <c r="I113" s="53"/>
       <c r="J113" s="56"/>
     </row>
-    <row r="114" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D114" s="30"/>
       <c r="E114" s="3">
         <v>12</v>
@@ -14850,7 +15303,7 @@
       <c r="I114" s="53"/>
       <c r="J114" s="56"/>
     </row>
-    <row r="115" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D115" s="30"/>
       <c r="E115" s="3">
         <v>13</v>
@@ -14868,7 +15321,7 @@
       <c r="I115" s="53"/>
       <c r="J115" s="56"/>
     </row>
-    <row r="116" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D116" s="30"/>
       <c r="E116" s="3">
         <v>14</v>
@@ -14886,7 +15339,7 @@
       <c r="I116" s="53"/>
       <c r="J116" s="56"/>
     </row>
-    <row r="117" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D117" s="30"/>
       <c r="E117" s="3">
         <v>15</v>
@@ -14904,7 +15357,7 @@
       <c r="I117" s="53"/>
       <c r="J117" s="56"/>
     </row>
-    <row r="118" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D118" s="30"/>
       <c r="E118" s="3">
         <v>16</v>
@@ -14922,7 +15375,7 @@
       <c r="I118" s="53"/>
       <c r="J118" s="56"/>
     </row>
-    <row r="119" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D119" s="30"/>
       <c r="E119" s="3">
         <v>17</v>
@@ -14940,7 +15393,7 @@
       <c r="I119" s="53"/>
       <c r="J119" s="56"/>
     </row>
-    <row r="120" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D120" s="30"/>
       <c r="E120" s="3">
         <v>18</v>
@@ -14958,7 +15411,7 @@
       <c r="I120" s="53"/>
       <c r="J120" s="56"/>
     </row>
-    <row r="121" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D121" s="30"/>
       <c r="E121" s="3">
         <v>19</v>
@@ -14976,7 +15429,7 @@
       <c r="I121" s="53"/>
       <c r="J121" s="56"/>
     </row>
-    <row r="122" spans="4:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D122" s="32"/>
       <c r="E122" s="6">
         <v>20</v>
@@ -14994,7 +15447,7 @@
       <c r="I122" s="54"/>
       <c r="J122" s="57"/>
     </row>
-    <row r="123" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D123" s="29">
         <v>10</v>
       </c>
@@ -15020,7 +15473,7 @@
         <v>80.23</v>
       </c>
     </row>
-    <row r="124" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D124" s="30"/>
       <c r="E124" s="3">
         <v>2</v>
@@ -15038,7 +15491,7 @@
       <c r="I124" s="53"/>
       <c r="J124" s="56"/>
     </row>
-    <row r="125" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D125" s="30"/>
       <c r="E125" s="3">
         <v>3</v>
@@ -15056,7 +15509,7 @@
       <c r="I125" s="53"/>
       <c r="J125" s="56"/>
     </row>
-    <row r="126" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D126" s="30"/>
       <c r="E126" s="3">
         <v>4</v>
@@ -15074,7 +15527,7 @@
       <c r="I126" s="53"/>
       <c r="J126" s="56"/>
     </row>
-    <row r="127" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D127" s="30"/>
       <c r="E127" s="3">
         <v>5</v>
@@ -15092,7 +15545,7 @@
       <c r="I127" s="53"/>
       <c r="J127" s="56"/>
     </row>
-    <row r="128" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D128" s="30"/>
       <c r="E128" s="3">
         <v>6</v>
@@ -15110,7 +15563,7 @@
       <c r="I128" s="53"/>
       <c r="J128" s="56"/>
     </row>
-    <row r="129" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D129" s="30"/>
       <c r="E129" s="3">
         <v>7</v>
@@ -15128,7 +15581,7 @@
       <c r="I129" s="53"/>
       <c r="J129" s="56"/>
     </row>
-    <row r="130" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D130" s="30"/>
       <c r="E130" s="3">
         <v>8</v>
@@ -15146,7 +15599,7 @@
       <c r="I130" s="53"/>
       <c r="J130" s="56"/>
     </row>
-    <row r="131" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D131" s="30"/>
       <c r="E131" s="3">
         <v>9</v>
@@ -15164,7 +15617,7 @@
       <c r="I131" s="53"/>
       <c r="J131" s="56"/>
     </row>
-    <row r="132" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D132" s="30"/>
       <c r="E132" s="3">
         <v>10</v>
@@ -15182,7 +15635,7 @@
       <c r="I132" s="53"/>
       <c r="J132" s="56"/>
     </row>
-    <row r="133" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D133" s="30"/>
       <c r="E133" s="3">
         <v>11</v>
@@ -15200,7 +15653,7 @@
       <c r="I133" s="53"/>
       <c r="J133" s="56"/>
     </row>
-    <row r="134" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D134" s="30"/>
       <c r="E134" s="3">
         <v>12</v>
@@ -15218,7 +15671,7 @@
       <c r="I134" s="53"/>
       <c r="J134" s="56"/>
     </row>
-    <row r="135" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D135" s="30"/>
       <c r="E135" s="3">
         <v>13</v>
@@ -15236,7 +15689,7 @@
       <c r="I135" s="53"/>
       <c r="J135" s="56"/>
     </row>
-    <row r="136" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D136" s="30"/>
       <c r="E136" s="3">
         <v>14</v>
@@ -15254,7 +15707,7 @@
       <c r="I136" s="53"/>
       <c r="J136" s="56"/>
     </row>
-    <row r="137" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D137" s="30"/>
       <c r="E137" s="3">
         <v>15</v>
@@ -15272,7 +15725,7 @@
       <c r="I137" s="53"/>
       <c r="J137" s="56"/>
     </row>
-    <row r="138" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D138" s="30"/>
       <c r="E138" s="3">
         <v>16</v>
@@ -15290,7 +15743,7 @@
       <c r="I138" s="53"/>
       <c r="J138" s="56"/>
     </row>
-    <row r="139" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D139" s="30"/>
       <c r="E139" s="3">
         <v>17</v>
@@ -15308,7 +15761,7 @@
       <c r="I139" s="53"/>
       <c r="J139" s="56"/>
     </row>
-    <row r="140" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D140" s="30"/>
       <c r="E140" s="3">
         <v>18</v>
@@ -15326,7 +15779,7 @@
       <c r="I140" s="53"/>
       <c r="J140" s="56"/>
     </row>
-    <row r="141" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D141" s="30"/>
       <c r="E141" s="3">
         <v>19</v>
@@ -15344,7 +15797,7 @@
       <c r="I141" s="53"/>
       <c r="J141" s="56"/>
     </row>
-    <row r="142" spans="4:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D142" s="32"/>
       <c r="E142" s="6">
         <v>20</v>
@@ -16098,290 +16551,370 @@
       <c r="I182" s="54"/>
       <c r="J182" s="57"/>
     </row>
-    <row r="183" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D183" s="29">
         <v>13</v>
       </c>
       <c r="E183" s="4">
         <v>1</v>
       </c>
-      <c r="F183" s="4"/>
-      <c r="G183" s="4"/>
+      <c r="F183" s="4">
+        <v>40.909999999999997</v>
+      </c>
+      <c r="G183" s="4">
+        <v>55.18</v>
+      </c>
       <c r="H183" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-14.270000000000003</v>
       </c>
       <c r="I183" s="52">
         <f t="shared" ref="I183:J183" si="15">MAX(F183:F202)</f>
-        <v>0</v>
+        <v>76.31</v>
       </c>
       <c r="J183" s="55">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="4:10" x14ac:dyDescent="0.2">
+        <v>80.63</v>
+      </c>
+    </row>
+    <row r="184" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D184" s="30"/>
       <c r="E184" s="3">
         <v>2</v>
       </c>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
+      <c r="F184" s="3">
+        <v>54.56</v>
+      </c>
+      <c r="G184" s="3">
+        <v>61.5</v>
+      </c>
       <c r="H184" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-6.9399999999999977</v>
       </c>
       <c r="I184" s="53"/>
       <c r="J184" s="56"/>
     </row>
-    <row r="185" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D185" s="30"/>
       <c r="E185" s="3">
         <v>3</v>
       </c>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
+      <c r="F185" s="3">
+        <v>59.68</v>
+      </c>
+      <c r="G185" s="3">
+        <v>62.22</v>
+      </c>
       <c r="H185" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-2.5399999999999991</v>
       </c>
       <c r="I185" s="53"/>
       <c r="J185" s="56"/>
     </row>
-    <row r="186" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D186" s="30"/>
       <c r="E186" s="3">
         <v>4</v>
       </c>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
+      <c r="F186" s="3">
+        <v>63.03</v>
+      </c>
+      <c r="G186" s="3">
+        <v>69.63</v>
+      </c>
       <c r="H186" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-6.5999999999999943</v>
       </c>
       <c r="I186" s="53"/>
       <c r="J186" s="56"/>
     </row>
-    <row r="187" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D187" s="30"/>
       <c r="E187" s="3">
         <v>5</v>
       </c>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
+      <c r="F187" s="3">
+        <v>65.36</v>
+      </c>
+      <c r="G187" s="3">
+        <v>69.63</v>
+      </c>
       <c r="H187" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-4.269999999999996</v>
       </c>
       <c r="I187" s="53"/>
       <c r="J187" s="56"/>
     </row>
-    <row r="188" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D188" s="30"/>
       <c r="E188" s="3">
         <v>6</v>
       </c>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
+      <c r="F188" s="3">
+        <v>66.88</v>
+      </c>
+      <c r="G188" s="3">
+        <v>73.150000000000006</v>
+      </c>
       <c r="H188" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-6.2700000000000102</v>
       </c>
       <c r="I188" s="53"/>
       <c r="J188" s="56"/>
     </row>
-    <row r="189" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D189" s="30"/>
       <c r="E189" s="3">
         <v>7</v>
       </c>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
+      <c r="F189" s="3">
+        <v>68.62</v>
+      </c>
+      <c r="G189" s="3">
+        <v>73.22</v>
+      </c>
       <c r="H189" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-4.5999999999999943</v>
       </c>
       <c r="I189" s="53"/>
       <c r="J189" s="56"/>
     </row>
-    <row r="190" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D190" s="30"/>
       <c r="E190" s="3">
         <v>8</v>
       </c>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
+      <c r="F190" s="3">
+        <v>69.790000000000006</v>
+      </c>
+      <c r="G190" s="3">
+        <v>73.73</v>
+      </c>
       <c r="H190" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-3.9399999999999977</v>
       </c>
       <c r="I190" s="53"/>
       <c r="J190" s="56"/>
     </row>
-    <row r="191" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D191" s="30"/>
       <c r="E191" s="3">
         <v>9</v>
       </c>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
+      <c r="F191" s="3">
+        <v>70.69</v>
+      </c>
+      <c r="G191" s="3">
+        <v>75.87</v>
+      </c>
       <c r="H191" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-5.1800000000000068</v>
       </c>
       <c r="I191" s="53"/>
       <c r="J191" s="56"/>
     </row>
-    <row r="192" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D192" s="30"/>
       <c r="E192" s="3">
         <v>10</v>
       </c>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
+      <c r="F192" s="3">
+        <v>71.38</v>
+      </c>
+      <c r="G192" s="3">
+        <v>75.42</v>
+      </c>
       <c r="H192" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-4.0400000000000063</v>
       </c>
       <c r="I192" s="53"/>
       <c r="J192" s="56"/>
     </row>
-    <row r="193" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D193" s="30"/>
       <c r="E193" s="3">
         <v>11</v>
       </c>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
+      <c r="F193" s="3">
+        <v>72.34</v>
+      </c>
+      <c r="G193" s="3">
+        <v>76.72</v>
+      </c>
       <c r="H193" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-4.3799999999999955</v>
       </c>
       <c r="I193" s="53"/>
       <c r="J193" s="56"/>
     </row>
-    <row r="194" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D194" s="30"/>
       <c r="E194" s="3">
         <v>12</v>
       </c>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
+      <c r="F194" s="3">
+        <v>72.91</v>
+      </c>
+      <c r="G194" s="3">
+        <v>78.08</v>
+      </c>
       <c r="H194" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-5.1700000000000017</v>
       </c>
       <c r="I194" s="53"/>
       <c r="J194" s="56"/>
     </row>
-    <row r="195" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D195" s="30"/>
       <c r="E195" s="3">
         <v>13</v>
       </c>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
+      <c r="F195" s="3">
+        <v>73.760000000000005</v>
+      </c>
+      <c r="G195" s="3">
+        <v>78.44</v>
+      </c>
       <c r="H195" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-4.6799999999999926</v>
       </c>
       <c r="I195" s="53"/>
       <c r="J195" s="56"/>
     </row>
-    <row r="196" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D196" s="30"/>
       <c r="E196" s="3">
         <v>14</v>
       </c>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
+      <c r="F196" s="3">
+        <v>73.930000000000007</v>
+      </c>
+      <c r="G196" s="3">
+        <v>77.84</v>
+      </c>
       <c r="H196" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-3.9099999999999966</v>
       </c>
       <c r="I196" s="53"/>
       <c r="J196" s="56"/>
     </row>
-    <row r="197" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D197" s="30"/>
       <c r="E197" s="3">
         <v>15</v>
       </c>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
+      <c r="F197" s="3">
+        <v>74.39</v>
+      </c>
+      <c r="G197" s="3">
+        <v>79.44</v>
+      </c>
       <c r="H197" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-5.0499999999999972</v>
       </c>
       <c r="I197" s="53"/>
       <c r="J197" s="56"/>
     </row>
-    <row r="198" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D198" s="30"/>
       <c r="E198" s="3">
         <v>16</v>
       </c>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
+      <c r="F198" s="3">
+        <v>75.09</v>
+      </c>
+      <c r="G198" s="3">
+        <v>79.010000000000005</v>
+      </c>
       <c r="H198" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-3.9200000000000017</v>
       </c>
       <c r="I198" s="53"/>
       <c r="J198" s="56"/>
     </row>
-    <row r="199" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D199" s="30"/>
       <c r="E199" s="3">
         <v>17</v>
       </c>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
+      <c r="F199" s="3">
+        <v>75.56</v>
+      </c>
+      <c r="G199" s="3">
+        <v>79.58</v>
+      </c>
       <c r="H199" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-4.019999999999996</v>
       </c>
       <c r="I199" s="53"/>
       <c r="J199" s="56"/>
     </row>
-    <row r="200" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D200" s="30"/>
       <c r="E200" s="3">
         <v>18</v>
       </c>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
+      <c r="F200" s="3">
+        <v>75.56</v>
+      </c>
+      <c r="G200" s="3">
+        <v>80.09</v>
+      </c>
       <c r="H200" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-4.5300000000000011</v>
       </c>
       <c r="I200" s="53"/>
       <c r="J200" s="56"/>
     </row>
-    <row r="201" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="4:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="D201" s="30"/>
       <c r="E201" s="3">
         <v>19</v>
       </c>
-      <c r="F201" s="3"/>
-      <c r="G201" s="3"/>
+      <c r="F201" s="3">
+        <v>76.25</v>
+      </c>
+      <c r="G201" s="3">
+        <v>78.849999999999994</v>
+      </c>
       <c r="H201" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-2.5999999999999943</v>
       </c>
       <c r="I201" s="53"/>
       <c r="J201" s="56"/>
     </row>
-    <row r="202" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D202" s="32"/>
       <c r="E202" s="6">
         <v>20</v>
       </c>
-      <c r="F202" s="6"/>
-      <c r="G202" s="6"/>
+      <c r="F202" s="6">
+        <v>76.31</v>
+      </c>
+      <c r="G202" s="6">
+        <v>80.63</v>
+      </c>
       <c r="H202" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-4.3199999999999932</v>
       </c>
       <c r="I202" s="54"/>
       <c r="J202" s="57"/>
@@ -16393,19 +16926,23 @@
       <c r="E203" s="4">
         <v>1</v>
       </c>
-      <c r="F203" s="4"/>
-      <c r="G203" s="4"/>
+      <c r="F203" s="4">
+        <v>44.69</v>
+      </c>
+      <c r="G203" s="4">
+        <v>57.89</v>
+      </c>
       <c r="H203" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-13.200000000000003</v>
       </c>
       <c r="I203" s="52">
         <f t="shared" ref="I203" si="16">MAX(F203:F222)</f>
-        <v>0</v>
+        <v>81.47</v>
       </c>
       <c r="J203" s="55">
         <f t="shared" ref="J203" si="17">MAX(G203:G222)</f>
-        <v>0</v>
+        <v>81.83</v>
       </c>
     </row>
     <row r="204" spans="4:10" x14ac:dyDescent="0.2">
@@ -16413,11 +16950,15 @@
       <c r="E204" s="3">
         <v>2</v>
       </c>
-      <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
+      <c r="F204" s="3">
+        <v>59.5</v>
+      </c>
+      <c r="G204" s="3">
+        <v>64</v>
+      </c>
       <c r="H204" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-4.5</v>
       </c>
       <c r="I204" s="53"/>
       <c r="J204" s="56"/>
@@ -16427,11 +16968,15 @@
       <c r="E205" s="3">
         <v>3</v>
       </c>
-      <c r="F205" s="3"/>
-      <c r="G205" s="3"/>
+      <c r="F205" s="3">
+        <v>64.760000000000005</v>
+      </c>
+      <c r="G205" s="3">
+        <v>66.209999999999994</v>
+      </c>
       <c r="H205" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1.4499999999999886</v>
       </c>
       <c r="I205" s="53"/>
       <c r="J205" s="56"/>
@@ -16441,11 +16986,15 @@
       <c r="E206" s="3">
         <v>4</v>
       </c>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
+      <c r="F206" s="3">
+        <v>68.13</v>
+      </c>
+      <c r="G206" s="3">
+        <v>71.94</v>
+      </c>
       <c r="H206" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-3.8100000000000023</v>
       </c>
       <c r="I206" s="53"/>
       <c r="J206" s="56"/>
@@ -16455,11 +17004,15 @@
       <c r="E207" s="3">
         <v>5</v>
       </c>
-      <c r="F207" s="3"/>
-      <c r="G207" s="3"/>
+      <c r="F207" s="3">
+        <v>70.510000000000005</v>
+      </c>
+      <c r="G207" s="3">
+        <v>73.48</v>
+      </c>
       <c r="H207" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-2.9699999999999989</v>
       </c>
       <c r="I207" s="53"/>
       <c r="J207" s="56"/>
@@ -16469,11 +17022,15 @@
       <c r="E208" s="3">
         <v>6</v>
       </c>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
+      <c r="F208" s="3">
+        <v>72.72</v>
+      </c>
+      <c r="G208" s="3">
+        <v>74.459999999999994</v>
+      </c>
       <c r="H208" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1.7399999999999949</v>
       </c>
       <c r="I208" s="53"/>
       <c r="J208" s="56"/>
@@ -16483,11 +17040,15 @@
       <c r="E209" s="3">
         <v>7</v>
       </c>
-      <c r="F209" s="3"/>
-      <c r="G209" s="3"/>
+      <c r="F209" s="3">
+        <v>73.930000000000007</v>
+      </c>
+      <c r="G209" s="3">
+        <v>75.63</v>
+      </c>
       <c r="H209" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1.6999999999999886</v>
       </c>
       <c r="I209" s="53"/>
       <c r="J209" s="56"/>
@@ -16497,11 +17058,15 @@
       <c r="E210" s="3">
         <v>8</v>
       </c>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
+      <c r="F210" s="3">
+        <v>75.11</v>
+      </c>
+      <c r="G210" s="3">
+        <v>77.290000000000006</v>
+      </c>
       <c r="H210" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-2.1800000000000068</v>
       </c>
       <c r="I210" s="53"/>
       <c r="J210" s="56"/>
@@ -16511,11 +17076,15 @@
       <c r="E211" s="3">
         <v>9</v>
       </c>
-      <c r="F211" s="3"/>
-      <c r="G211" s="3"/>
+      <c r="F211" s="3">
+        <v>76.13</v>
+      </c>
+      <c r="G211" s="3">
+        <v>77.83</v>
+      </c>
       <c r="H211" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1.7000000000000028</v>
       </c>
       <c r="I211" s="53"/>
       <c r="J211" s="56"/>
@@ -16525,11 +17094,15 @@
       <c r="E212" s="3">
         <v>10</v>
       </c>
-      <c r="F212" s="3"/>
-      <c r="G212" s="3"/>
+      <c r="F212" s="3">
+        <v>76.94</v>
+      </c>
+      <c r="G212" s="3">
+        <v>77.900000000000006</v>
+      </c>
       <c r="H212" s="3">
         <f t="shared" ref="H212:H275" si="18">F212-G212</f>
-        <v>0</v>
+        <v>-0.96000000000000796</v>
       </c>
       <c r="I212" s="53"/>
       <c r="J212" s="56"/>
@@ -16539,11 +17112,15 @@
       <c r="E213" s="3">
         <v>11</v>
       </c>
-      <c r="F213" s="3"/>
-      <c r="G213" s="3"/>
+      <c r="F213" s="3">
+        <v>77.56</v>
+      </c>
+      <c r="G213" s="3">
+        <v>77.53</v>
+      </c>
       <c r="H213" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="I213" s="53"/>
       <c r="J213" s="56"/>
@@ -16553,11 +17130,15 @@
       <c r="E214" s="3">
         <v>12</v>
       </c>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
+      <c r="F214" s="3">
+        <v>78.09</v>
+      </c>
+      <c r="G214" s="3">
+        <v>80.11</v>
+      </c>
       <c r="H214" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-2.019999999999996</v>
       </c>
       <c r="I214" s="53"/>
       <c r="J214" s="56"/>
@@ -16567,11 +17148,15 @@
       <c r="E215" s="3">
         <v>13</v>
       </c>
-      <c r="F215" s="3"/>
-      <c r="G215" s="3"/>
+      <c r="F215" s="3">
+        <v>78.55</v>
+      </c>
+      <c r="G215" s="3">
+        <v>79.42</v>
+      </c>
       <c r="H215" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.87000000000000455</v>
       </c>
       <c r="I215" s="53"/>
       <c r="J215" s="56"/>
@@ -16581,11 +17166,15 @@
       <c r="E216" s="3">
         <v>14</v>
       </c>
-      <c r="F216" s="3"/>
-      <c r="G216" s="3"/>
+      <c r="F216" s="3">
+        <v>79.319999999999993</v>
+      </c>
+      <c r="G216" s="3">
+        <v>80.11</v>
+      </c>
       <c r="H216" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.79000000000000625</v>
       </c>
       <c r="I216" s="53"/>
       <c r="J216" s="56"/>
@@ -16595,11 +17184,15 @@
       <c r="E217" s="3">
         <v>15</v>
       </c>
-      <c r="F217" s="3"/>
-      <c r="G217" s="3"/>
+      <c r="F217" s="3">
+        <v>79.569999999999993</v>
+      </c>
+      <c r="G217" s="3">
+        <v>80.099999999999994</v>
+      </c>
       <c r="H217" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.53000000000000114</v>
       </c>
       <c r="I217" s="53"/>
       <c r="J217" s="56"/>
@@ -16609,11 +17202,15 @@
       <c r="E218" s="3">
         <v>16</v>
       </c>
-      <c r="F218" s="3"/>
-      <c r="G218" s="3"/>
+      <c r="F218" s="3">
+        <v>80.069999999999993</v>
+      </c>
+      <c r="G218" s="3">
+        <v>80.59</v>
+      </c>
       <c r="H218" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.52000000000001023</v>
       </c>
       <c r="I218" s="53"/>
       <c r="J218" s="56"/>
@@ -16623,11 +17220,15 @@
       <c r="E219" s="3">
         <v>17</v>
       </c>
-      <c r="F219" s="3"/>
-      <c r="G219" s="3"/>
+      <c r="F219" s="3">
+        <v>80.37</v>
+      </c>
+      <c r="G219" s="3">
+        <v>81.06</v>
+      </c>
       <c r="H219" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.68999999999999773</v>
       </c>
       <c r="I219" s="53"/>
       <c r="J219" s="56"/>
@@ -16637,11 +17238,15 @@
       <c r="E220" s="3">
         <v>18</v>
       </c>
-      <c r="F220" s="3"/>
-      <c r="G220" s="3"/>
+      <c r="F220" s="3">
+        <v>80.94</v>
+      </c>
+      <c r="G220" s="3">
+        <v>81.760000000000005</v>
+      </c>
       <c r="H220" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.82000000000000739</v>
       </c>
       <c r="I220" s="53"/>
       <c r="J220" s="56"/>
@@ -16651,11 +17256,15 @@
       <c r="E221" s="3">
         <v>19</v>
       </c>
-      <c r="F221" s="3"/>
-      <c r="G221" s="3"/>
+      <c r="F221" s="3">
+        <v>81.11</v>
+      </c>
+      <c r="G221" s="3">
+        <v>81.83</v>
+      </c>
       <c r="H221" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.71999999999999886</v>
       </c>
       <c r="I221" s="53"/>
       <c r="J221" s="56"/>
@@ -16665,11 +17274,15 @@
       <c r="E222" s="6">
         <v>20</v>
       </c>
-      <c r="F222" s="6"/>
-      <c r="G222" s="6"/>
+      <c r="F222" s="6">
+        <v>81.47</v>
+      </c>
+      <c r="G222" s="6">
+        <v>81.599999999999994</v>
+      </c>
       <c r="H222" s="6">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.12999999999999545</v>
       </c>
       <c r="I222" s="54"/>
       <c r="J222" s="57"/>
@@ -16681,19 +17294,23 @@
       <c r="E223" s="4">
         <v>1</v>
       </c>
-      <c r="F223" s="4"/>
-      <c r="G223" s="4"/>
+      <c r="F223" s="4">
+        <v>46.01</v>
+      </c>
+      <c r="G223" s="4">
+        <v>57.82</v>
+      </c>
       <c r="H223" s="4">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-11.810000000000002</v>
       </c>
       <c r="I223" s="52">
         <f t="shared" ref="I223" si="19">MAX(F223:F242)</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="J223" s="55">
         <f t="shared" ref="J223" si="20">MAX(G223:G242)</f>
-        <v>0</v>
+        <v>81.92</v>
       </c>
     </row>
     <row r="224" spans="4:10" x14ac:dyDescent="0.2">
@@ -16701,11 +17318,15 @@
       <c r="E224" s="3">
         <v>2</v>
       </c>
-      <c r="F224" s="3"/>
-      <c r="G224" s="3"/>
+      <c r="F224" s="3">
+        <v>61.65</v>
+      </c>
+      <c r="G224" s="3">
+        <v>66.22</v>
+      </c>
       <c r="H224" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-4.57</v>
       </c>
       <c r="I224" s="53"/>
       <c r="J224" s="56"/>
@@ -16715,11 +17336,15 @@
       <c r="E225" s="3">
         <v>3</v>
       </c>
-      <c r="F225" s="3"/>
-      <c r="G225" s="3"/>
+      <c r="F225" s="3">
+        <v>67.94</v>
+      </c>
+      <c r="G225" s="3">
+        <v>68.900000000000006</v>
+      </c>
       <c r="H225" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.96000000000000796</v>
       </c>
       <c r="I225" s="53"/>
       <c r="J225" s="56"/>
@@ -16729,11 +17354,15 @@
       <c r="E226" s="3">
         <v>4</v>
       </c>
-      <c r="F226" s="3"/>
-      <c r="G226" s="3"/>
+      <c r="F226" s="3">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="G226" s="3">
+        <v>73.209999999999994</v>
+      </c>
       <c r="H226" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.8099999999999881</v>
       </c>
       <c r="I226" s="53"/>
       <c r="J226" s="56"/>
@@ -16743,11 +17372,15 @@
       <c r="E227" s="3">
         <v>5</v>
       </c>
-      <c r="F227" s="3"/>
-      <c r="G227" s="3"/>
+      <c r="F227" s="3">
+        <v>73.489999999999995</v>
+      </c>
+      <c r="G227" s="3">
+        <v>73.849999999999994</v>
+      </c>
       <c r="H227" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.35999999999999943</v>
       </c>
       <c r="I227" s="53"/>
       <c r="J227" s="56"/>
@@ -16757,11 +17390,15 @@
       <c r="E228" s="3">
         <v>6</v>
       </c>
-      <c r="F228" s="3"/>
-      <c r="G228" s="3"/>
+      <c r="F228" s="3">
+        <v>75.23</v>
+      </c>
+      <c r="G228" s="3">
+        <v>76.180000000000007</v>
+      </c>
       <c r="H228" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.95000000000000284</v>
       </c>
       <c r="I228" s="53"/>
       <c r="J228" s="56"/>
@@ -16771,11 +17408,15 @@
       <c r="E229" s="3">
         <v>7</v>
       </c>
-      <c r="F229" s="3"/>
-      <c r="G229" s="3"/>
+      <c r="F229" s="3">
+        <v>76.61</v>
+      </c>
+      <c r="G229" s="3">
+        <v>75.33</v>
+      </c>
       <c r="H229" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.2800000000000011</v>
       </c>
       <c r="I229" s="53"/>
       <c r="J229" s="56"/>
@@ -16785,11 +17426,15 @@
       <c r="E230" s="3">
         <v>8</v>
       </c>
-      <c r="F230" s="3"/>
-      <c r="G230" s="3"/>
+      <c r="F230" s="3">
+        <v>77.59</v>
+      </c>
+      <c r="G230" s="3">
+        <v>78.650000000000006</v>
+      </c>
       <c r="H230" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.0600000000000023</v>
       </c>
       <c r="I230" s="53"/>
       <c r="J230" s="56"/>
@@ -16799,11 +17444,15 @@
       <c r="E231" s="3">
         <v>9</v>
       </c>
-      <c r="F231" s="3"/>
-      <c r="G231" s="3"/>
+      <c r="F231" s="3">
+        <v>78.58</v>
+      </c>
+      <c r="G231" s="3">
+        <v>78.36</v>
+      </c>
       <c r="H231" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="I231" s="53"/>
       <c r="J231" s="56"/>
@@ -16813,11 +17462,15 @@
       <c r="E232" s="3">
         <v>10</v>
       </c>
-      <c r="F232" s="3"/>
-      <c r="G232" s="3"/>
+      <c r="F232" s="3">
+        <v>79.260000000000005</v>
+      </c>
+      <c r="G232" s="3">
+        <v>79.209999999999994</v>
+      </c>
       <c r="H232" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>5.0000000000011369E-2</v>
       </c>
       <c r="I232" s="53"/>
       <c r="J232" s="56"/>
@@ -16827,11 +17480,15 @@
       <c r="E233" s="3">
         <v>11</v>
       </c>
-      <c r="F233" s="3"/>
-      <c r="G233" s="3"/>
+      <c r="F233" s="3">
+        <v>80.22</v>
+      </c>
+      <c r="G233" s="3">
+        <v>78.69</v>
+      </c>
       <c r="H233" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.5300000000000011</v>
       </c>
       <c r="I233" s="53"/>
       <c r="J233" s="56"/>
@@ -16841,11 +17498,15 @@
       <c r="E234" s="3">
         <v>12</v>
       </c>
-      <c r="F234" s="3"/>
-      <c r="G234" s="3"/>
+      <c r="F234" s="3">
+        <v>80.67</v>
+      </c>
+      <c r="G234" s="3">
+        <v>79.67</v>
+      </c>
       <c r="H234" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I234" s="53"/>
       <c r="J234" s="56"/>
@@ -16855,11 +17516,15 @@
       <c r="E235" s="3">
         <v>13</v>
       </c>
-      <c r="F235" s="3"/>
-      <c r="G235" s="3"/>
+      <c r="F235" s="3">
+        <v>81.12</v>
+      </c>
+      <c r="G235" s="3">
+        <v>80.540000000000006</v>
+      </c>
       <c r="H235" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.57999999999999829</v>
       </c>
       <c r="I235" s="53"/>
       <c r="J235" s="56"/>
@@ -16869,11 +17534,15 @@
       <c r="E236" s="3">
         <v>14</v>
       </c>
-      <c r="F236" s="3"/>
-      <c r="G236" s="3"/>
+      <c r="F236" s="3">
+        <v>81.64</v>
+      </c>
+      <c r="G236" s="3">
+        <v>80.38</v>
+      </c>
       <c r="H236" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.2600000000000051</v>
       </c>
       <c r="I236" s="53"/>
       <c r="J236" s="56"/>
@@ -16883,11 +17552,15 @@
       <c r="E237" s="3">
         <v>15</v>
       </c>
-      <c r="F237" s="3"/>
-      <c r="G237" s="3"/>
+      <c r="F237" s="3">
+        <v>82.14</v>
+      </c>
+      <c r="G237" s="3">
+        <v>80.239999999999995</v>
+      </c>
       <c r="H237" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.9000000000000057</v>
       </c>
       <c r="I237" s="53"/>
       <c r="J237" s="56"/>
@@ -16897,11 +17570,15 @@
       <c r="E238" s="3">
         <v>16</v>
       </c>
-      <c r="F238" s="3"/>
-      <c r="G238" s="3"/>
+      <c r="F238" s="3">
+        <v>82.59</v>
+      </c>
+      <c r="G238" s="3">
+        <v>80.959999999999994</v>
+      </c>
       <c r="H238" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.6300000000000097</v>
       </c>
       <c r="I238" s="53"/>
       <c r="J238" s="56"/>
@@ -16911,11 +17588,15 @@
       <c r="E239" s="3">
         <v>17</v>
       </c>
-      <c r="F239" s="3"/>
-      <c r="G239" s="3"/>
+      <c r="F239" s="3">
+        <v>82.87</v>
+      </c>
+      <c r="G239" s="3">
+        <v>81.31</v>
+      </c>
       <c r="H239" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.5600000000000023</v>
       </c>
       <c r="I239" s="53"/>
       <c r="J239" s="56"/>
@@ -16925,11 +17606,15 @@
       <c r="E240" s="3">
         <v>18</v>
       </c>
-      <c r="F240" s="3"/>
-      <c r="G240" s="3"/>
+      <c r="F240" s="3">
+        <v>83.35</v>
+      </c>
+      <c r="G240" s="3">
+        <v>81.650000000000006</v>
+      </c>
       <c r="H240" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.6999999999999886</v>
       </c>
       <c r="I240" s="53"/>
       <c r="J240" s="56"/>
@@ -16939,11 +17624,15 @@
       <c r="E241" s="3">
         <v>19</v>
       </c>
-      <c r="F241" s="3"/>
-      <c r="G241" s="3"/>
+      <c r="F241" s="3">
+        <v>83.8</v>
+      </c>
+      <c r="G241" s="3">
+        <v>81.92</v>
+      </c>
       <c r="H241" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.8799999999999955</v>
       </c>
       <c r="I241" s="53"/>
       <c r="J241" s="56"/>
@@ -16953,11 +17642,15 @@
       <c r="E242" s="6">
         <v>20</v>
       </c>
-      <c r="F242" s="6"/>
-      <c r="G242" s="6"/>
+      <c r="F242" s="6">
+        <v>84</v>
+      </c>
+      <c r="G242" s="6">
+        <v>80.27</v>
+      </c>
       <c r="H242" s="6">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3.730000000000004</v>
       </c>
       <c r="I242" s="54"/>
       <c r="J242" s="57"/>
@@ -16969,19 +17662,23 @@
       <c r="E243" s="4">
         <v>1</v>
       </c>
-      <c r="F243" s="4"/>
-      <c r="G243" s="4"/>
+      <c r="F243" s="4">
+        <v>43.89</v>
+      </c>
+      <c r="G243" s="4">
+        <v>56.19</v>
+      </c>
       <c r="H243" s="4">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-12.299999999999997</v>
       </c>
       <c r="I243" s="52">
         <f t="shared" ref="I243:J243" si="21">MAX(F243:F262)</f>
-        <v>0</v>
+        <v>81.48</v>
       </c>
       <c r="J243" s="55">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>82.47</v>
       </c>
     </row>
     <row r="244" spans="4:10" x14ac:dyDescent="0.2">
@@ -16989,11 +17686,15 @@
       <c r="E244" s="3">
         <v>2</v>
       </c>
-      <c r="F244" s="3"/>
-      <c r="G244" s="3"/>
+      <c r="F244" s="3">
+        <v>58.95</v>
+      </c>
+      <c r="G244" s="3">
+        <v>64.12</v>
+      </c>
       <c r="H244" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-5.1700000000000017</v>
       </c>
       <c r="I244" s="53"/>
       <c r="J244" s="56"/>
@@ -17003,11 +17704,15 @@
       <c r="E245" s="3">
         <v>3</v>
       </c>
-      <c r="F245" s="3"/>
-      <c r="G245" s="3"/>
+      <c r="F245" s="3">
+        <v>64.73</v>
+      </c>
+      <c r="G245" s="3">
+        <v>67.540000000000006</v>
+      </c>
       <c r="H245" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-2.8100000000000023</v>
       </c>
       <c r="I245" s="53"/>
       <c r="J245" s="56"/>
@@ -17017,11 +17722,15 @@
       <c r="E246" s="3">
         <v>4</v>
       </c>
-      <c r="F246" s="3"/>
-      <c r="G246" s="3"/>
+      <c r="F246" s="3">
+        <v>68.3</v>
+      </c>
+      <c r="G246" s="3">
+        <v>72.040000000000006</v>
+      </c>
       <c r="H246" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-3.7400000000000091</v>
       </c>
       <c r="I246" s="53"/>
       <c r="J246" s="56"/>
@@ -17031,11 +17740,15 @@
       <c r="E247" s="3">
         <v>5</v>
       </c>
-      <c r="F247" s="3"/>
-      <c r="G247" s="3"/>
+      <c r="F247" s="3">
+        <v>70.78</v>
+      </c>
+      <c r="G247" s="3">
+        <v>73.760000000000005</v>
+      </c>
       <c r="H247" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-2.980000000000004</v>
       </c>
       <c r="I247" s="53"/>
       <c r="J247" s="56"/>
@@ -17045,11 +17758,15 @@
       <c r="E248" s="3">
         <v>6</v>
       </c>
-      <c r="F248" s="3"/>
-      <c r="G248" s="3"/>
+      <c r="F248" s="3">
+        <v>72.790000000000006</v>
+      </c>
+      <c r="G248" s="3">
+        <v>74.599999999999994</v>
+      </c>
       <c r="H248" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.8099999999999881</v>
       </c>
       <c r="I248" s="53"/>
       <c r="J248" s="56"/>
@@ -17059,11 +17776,15 @@
       <c r="E249" s="3">
         <v>7</v>
       </c>
-      <c r="F249" s="3"/>
-      <c r="G249" s="3"/>
+      <c r="F249" s="3">
+        <v>73.8</v>
+      </c>
+      <c r="G249" s="3">
+        <v>76.599999999999994</v>
+      </c>
       <c r="H249" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-2.7999999999999972</v>
       </c>
       <c r="I249" s="53"/>
       <c r="J249" s="56"/>
@@ -17073,11 +17794,15 @@
       <c r="E250" s="3">
         <v>8</v>
       </c>
-      <c r="F250" s="3"/>
-      <c r="G250" s="3"/>
+      <c r="F250" s="3">
+        <v>75.12</v>
+      </c>
+      <c r="G250" s="3">
+        <v>77.89</v>
+      </c>
       <c r="H250" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-2.769999999999996</v>
       </c>
       <c r="I250" s="53"/>
       <c r="J250" s="56"/>
@@ -17087,11 +17812,15 @@
       <c r="E251" s="3">
         <v>9</v>
       </c>
-      <c r="F251" s="3"/>
-      <c r="G251" s="3"/>
+      <c r="F251" s="3">
+        <v>76.19</v>
+      </c>
+      <c r="G251" s="3">
+        <v>77.260000000000005</v>
+      </c>
       <c r="H251" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.0700000000000074</v>
       </c>
       <c r="I251" s="53"/>
       <c r="J251" s="56"/>
@@ -17101,11 +17830,15 @@
       <c r="E252" s="3">
         <v>10</v>
       </c>
-      <c r="F252" s="3"/>
-      <c r="G252" s="3"/>
+      <c r="F252" s="3">
+        <v>77.010000000000005</v>
+      </c>
+      <c r="G252" s="3">
+        <v>78.209999999999994</v>
+      </c>
       <c r="H252" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.1999999999999886</v>
       </c>
       <c r="I252" s="53"/>
       <c r="J252" s="56"/>
@@ -17115,11 +17848,15 @@
       <c r="E253" s="3">
         <v>11</v>
       </c>
-      <c r="F253" s="3"/>
-      <c r="G253" s="3"/>
+      <c r="F253" s="3">
+        <v>77.42</v>
+      </c>
+      <c r="G253" s="3">
+        <v>79.62</v>
+      </c>
       <c r="H253" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-2.2000000000000028</v>
       </c>
       <c r="I253" s="53"/>
       <c r="J253" s="56"/>
@@ -17129,11 +17866,15 @@
       <c r="E254" s="3">
         <v>12</v>
       </c>
-      <c r="F254" s="3"/>
-      <c r="G254" s="3"/>
+      <c r="F254" s="3">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="G254" s="3">
+        <v>80.13</v>
+      </c>
       <c r="H254" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.9499999999999886</v>
       </c>
       <c r="I254" s="53"/>
       <c r="J254" s="56"/>
@@ -17143,11 +17884,15 @@
       <c r="E255" s="3">
         <v>13</v>
       </c>
-      <c r="F255" s="3"/>
-      <c r="G255" s="3"/>
+      <c r="F255" s="3">
+        <v>78.59</v>
+      </c>
+      <c r="G255" s="3">
+        <v>79.760000000000005</v>
+      </c>
       <c r="H255" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.1700000000000017</v>
       </c>
       <c r="I255" s="53"/>
       <c r="J255" s="56"/>
@@ -17157,11 +17902,15 @@
       <c r="E256" s="3">
         <v>14</v>
       </c>
-      <c r="F256" s="3"/>
-      <c r="G256" s="3"/>
+      <c r="F256" s="3">
+        <v>79.23</v>
+      </c>
+      <c r="G256" s="3">
+        <v>80.040000000000006</v>
+      </c>
       <c r="H256" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.81000000000000227</v>
       </c>
       <c r="I256" s="53"/>
       <c r="J256" s="56"/>
@@ -17171,11 +17920,15 @@
       <c r="E257" s="3">
         <v>15</v>
       </c>
-      <c r="F257" s="3"/>
-      <c r="G257" s="3"/>
+      <c r="F257" s="3">
+        <v>79.540000000000006</v>
+      </c>
+      <c r="G257" s="3">
+        <v>80.650000000000006</v>
+      </c>
       <c r="H257" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.1099999999999994</v>
       </c>
       <c r="I257" s="53"/>
       <c r="J257" s="56"/>
@@ -17185,11 +17938,15 @@
       <c r="E258" s="3">
         <v>16</v>
       </c>
-      <c r="F258" s="3"/>
-      <c r="G258" s="3"/>
+      <c r="F258" s="3">
+        <v>80.09</v>
+      </c>
+      <c r="G258" s="3">
+        <v>81.599999999999994</v>
+      </c>
       <c r="H258" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.5099999999999909</v>
       </c>
       <c r="I258" s="53"/>
       <c r="J258" s="56"/>
@@ -17199,11 +17956,15 @@
       <c r="E259" s="3">
         <v>17</v>
       </c>
-      <c r="F259" s="3"/>
-      <c r="G259" s="3"/>
+      <c r="F259" s="3">
+        <v>80.42</v>
+      </c>
+      <c r="G259" s="3">
+        <v>81.900000000000006</v>
+      </c>
       <c r="H259" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.480000000000004</v>
       </c>
       <c r="I259" s="53"/>
       <c r="J259" s="56"/>
@@ -17213,11 +17974,15 @@
       <c r="E260" s="3">
         <v>18</v>
       </c>
-      <c r="F260" s="3"/>
-      <c r="G260" s="3"/>
+      <c r="F260" s="3">
+        <v>80.67</v>
+      </c>
+      <c r="G260" s="3">
+        <v>80.34</v>
+      </c>
       <c r="H260" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.32999999999999829</v>
       </c>
       <c r="I260" s="53"/>
       <c r="J260" s="56"/>
@@ -17227,11 +17992,15 @@
       <c r="E261" s="3">
         <v>19</v>
       </c>
-      <c r="F261" s="3"/>
-      <c r="G261" s="3"/>
+      <c r="F261" s="3">
+        <v>80.959999999999994</v>
+      </c>
+      <c r="G261" s="3">
+        <v>82.47</v>
+      </c>
       <c r="H261" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.5100000000000051</v>
       </c>
       <c r="I261" s="53"/>
       <c r="J261" s="56"/>
@@ -17241,11 +18010,15 @@
       <c r="E262" s="6">
         <v>20</v>
       </c>
-      <c r="F262" s="6"/>
-      <c r="G262" s="6"/>
+      <c r="F262" s="6">
+        <v>81.48</v>
+      </c>
+      <c r="G262" s="6">
+        <v>81.63</v>
+      </c>
       <c r="H262" s="6">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.14999999999999147</v>
       </c>
       <c r="I262" s="54"/>
       <c r="J262" s="57"/>
@@ -17257,19 +18030,23 @@
       <c r="E263" s="4">
         <v>1</v>
       </c>
-      <c r="F263" s="4"/>
-      <c r="G263" s="4"/>
+      <c r="F263" s="4">
+        <v>43.03</v>
+      </c>
+      <c r="G263" s="4">
+        <v>54.69</v>
+      </c>
       <c r="H263" s="4">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-11.659999999999997</v>
       </c>
       <c r="I263" s="52">
         <f t="shared" ref="I263" si="22">MAX(F263:F282)</f>
-        <v>0</v>
+        <v>85.17</v>
       </c>
       <c r="J263" s="55">
         <f t="shared" ref="J263" si="23">MAX(G263:G282)</f>
-        <v>0</v>
+        <v>85.51</v>
       </c>
     </row>
     <row r="264" spans="4:10" x14ac:dyDescent="0.2">
@@ -17277,11 +18054,15 @@
       <c r="E264" s="3">
         <v>2</v>
       </c>
-      <c r="F264" s="3"/>
-      <c r="G264" s="3"/>
+      <c r="F264" s="3">
+        <v>57.46</v>
+      </c>
+      <c r="G264" s="3">
+        <v>54.46</v>
+      </c>
       <c r="H264" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I264" s="53"/>
       <c r="J264" s="56"/>
@@ -17291,11 +18072,15 @@
       <c r="E265" s="3">
         <v>3</v>
       </c>
-      <c r="F265" s="3"/>
-      <c r="G265" s="3"/>
+      <c r="F265" s="3">
+        <v>62.43</v>
+      </c>
+      <c r="G265" s="3">
+        <v>62.34</v>
+      </c>
       <c r="H265" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>8.9999999999996305E-2</v>
       </c>
       <c r="I265" s="53"/>
       <c r="J265" s="56"/>
@@ -17305,11 +18090,15 @@
       <c r="E266" s="3">
         <v>4</v>
       </c>
-      <c r="F266" s="3"/>
-      <c r="G266" s="3"/>
+      <c r="F266" s="3">
+        <v>65.64</v>
+      </c>
+      <c r="G266" s="3">
+        <v>61.82</v>
+      </c>
       <c r="H266" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="I266" s="53"/>
       <c r="J266" s="56"/>
@@ -17319,11 +18108,15 @@
       <c r="E267" s="3">
         <v>5</v>
       </c>
-      <c r="F267" s="3"/>
-      <c r="G267" s="3"/>
+      <c r="F267" s="3">
+        <v>67.58</v>
+      </c>
+      <c r="G267" s="3">
+        <v>67.44</v>
+      </c>
       <c r="H267" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.14000000000000057</v>
       </c>
       <c r="I267" s="53"/>
       <c r="J267" s="56"/>
@@ -17333,11 +18126,15 @@
       <c r="E268" s="3">
         <v>6</v>
       </c>
-      <c r="F268" s="3"/>
-      <c r="G268" s="3"/>
+      <c r="F268" s="3">
+        <v>69.66</v>
+      </c>
+      <c r="G268" s="3">
+        <v>66.81</v>
+      </c>
       <c r="H268" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2.8499999999999943</v>
       </c>
       <c r="I268" s="53"/>
       <c r="J268" s="56"/>
@@ -17347,11 +18144,15 @@
       <c r="E269" s="3">
         <v>7</v>
       </c>
-      <c r="F269" s="3"/>
-      <c r="G269" s="3"/>
+      <c r="F269" s="3">
+        <v>70.8</v>
+      </c>
+      <c r="G269" s="3">
+        <v>72.680000000000007</v>
+      </c>
       <c r="H269" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.8800000000000097</v>
       </c>
       <c r="I269" s="53"/>
       <c r="J269" s="56"/>
@@ -17361,11 +18162,15 @@
       <c r="E270" s="3">
         <v>8</v>
       </c>
-      <c r="F270" s="3"/>
-      <c r="G270" s="3"/>
+      <c r="F270" s="3">
+        <v>71.5</v>
+      </c>
+      <c r="G270" s="3">
+        <v>72.52</v>
+      </c>
       <c r="H270" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.019999999999996</v>
       </c>
       <c r="I270" s="53"/>
       <c r="J270" s="56"/>
@@ -17375,11 +18180,15 @@
       <c r="E271" s="3">
         <v>9</v>
       </c>
-      <c r="F271" s="3"/>
-      <c r="G271" s="3"/>
+      <c r="F271" s="3">
+        <v>72.63</v>
+      </c>
+      <c r="G271" s="3">
+        <v>74.2</v>
+      </c>
       <c r="H271" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.5700000000000074</v>
       </c>
       <c r="I271" s="53"/>
       <c r="J271" s="56"/>
@@ -17389,11 +18198,15 @@
       <c r="E272" s="3">
         <v>10</v>
       </c>
-      <c r="F272" s="3"/>
-      <c r="G272" s="3"/>
+      <c r="F272" s="3">
+        <v>73.680000000000007</v>
+      </c>
+      <c r="G272" s="3">
+        <v>72.45</v>
+      </c>
       <c r="H272" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.230000000000004</v>
       </c>
       <c r="I272" s="53"/>
       <c r="J272" s="56"/>
@@ -17403,11 +18216,15 @@
       <c r="E273" s="3">
         <v>11</v>
       </c>
-      <c r="F273" s="3"/>
-      <c r="G273" s="3"/>
+      <c r="F273" s="3">
+        <v>74.45</v>
+      </c>
+      <c r="G273" s="3">
+        <v>75.09</v>
+      </c>
       <c r="H273" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.64000000000000057</v>
       </c>
       <c r="I273" s="53"/>
       <c r="J273" s="56"/>
@@ -17417,11 +18234,15 @@
       <c r="E274" s="3">
         <v>12</v>
       </c>
-      <c r="F274" s="3"/>
-      <c r="G274" s="3"/>
+      <c r="F274" s="3">
+        <v>75.44</v>
+      </c>
+      <c r="G274" s="3">
+        <v>77.69</v>
+      </c>
       <c r="H274" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="I274" s="53"/>
       <c r="J274" s="56"/>
@@ -17431,11 +18252,15 @@
       <c r="E275" s="3">
         <v>13</v>
       </c>
-      <c r="F275" s="3"/>
-      <c r="G275" s="3"/>
+      <c r="F275" s="3">
+        <v>76.62</v>
+      </c>
+      <c r="G275" s="3">
+        <v>79.23</v>
+      </c>
       <c r="H275" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-2.6099999999999994</v>
       </c>
       <c r="I275" s="53"/>
       <c r="J275" s="56"/>
@@ -17445,11 +18270,15 @@
       <c r="E276" s="3">
         <v>14</v>
       </c>
-      <c r="F276" s="3"/>
-      <c r="G276" s="3"/>
+      <c r="F276" s="3">
+        <v>78</v>
+      </c>
+      <c r="G276" s="3">
+        <v>79.180000000000007</v>
+      </c>
       <c r="H276" s="3">
         <f t="shared" ref="H276:H302" si="24">F276-G276</f>
-        <v>0</v>
+        <v>-1.1800000000000068</v>
       </c>
       <c r="I276" s="53"/>
       <c r="J276" s="56"/>
@@ -17459,11 +18288,15 @@
       <c r="E277" s="3">
         <v>15</v>
       </c>
-      <c r="F277" s="3"/>
-      <c r="G277" s="3"/>
+      <c r="F277" s="3">
+        <v>79.47</v>
+      </c>
+      <c r="G277" s="3">
+        <v>81.96</v>
+      </c>
       <c r="H277" s="3">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-2.4899999999999949</v>
       </c>
       <c r="I277" s="53"/>
       <c r="J277" s="56"/>
@@ -17473,11 +18306,15 @@
       <c r="E278" s="3">
         <v>16</v>
       </c>
-      <c r="F278" s="3"/>
-      <c r="G278" s="3"/>
+      <c r="F278" s="3">
+        <v>81</v>
+      </c>
+      <c r="G278" s="3">
+        <v>83.7</v>
+      </c>
       <c r="H278" s="3">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-2.7000000000000028</v>
       </c>
       <c r="I278" s="53"/>
       <c r="J278" s="56"/>
@@ -17487,11 +18324,15 @@
       <c r="E279" s="3">
         <v>17</v>
       </c>
-      <c r="F279" s="3"/>
-      <c r="G279" s="3"/>
+      <c r="F279" s="3">
+        <v>82.61</v>
+      </c>
+      <c r="G279" s="3">
+        <v>83.93</v>
+      </c>
       <c r="H279" s="3">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-1.3200000000000074</v>
       </c>
       <c r="I279" s="53"/>
       <c r="J279" s="56"/>
@@ -17501,11 +18342,15 @@
       <c r="E280" s="3">
         <v>18</v>
       </c>
-      <c r="F280" s="3"/>
-      <c r="G280" s="3"/>
+      <c r="F280" s="3">
+        <v>84.05</v>
+      </c>
+      <c r="G280" s="3">
+        <v>85.05</v>
+      </c>
       <c r="H280" s="3">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I280" s="53"/>
       <c r="J280" s="56"/>
@@ -17515,11 +18360,15 @@
       <c r="E281" s="3">
         <v>19</v>
       </c>
-      <c r="F281" s="3"/>
-      <c r="G281" s="3"/>
+      <c r="F281" s="3">
+        <v>84.9</v>
+      </c>
+      <c r="G281" s="3">
+        <v>85.38</v>
+      </c>
       <c r="H281" s="3">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-0.47999999999998977</v>
       </c>
       <c r="I281" s="53"/>
       <c r="J281" s="56"/>
@@ -17529,11 +18378,15 @@
       <c r="E282" s="6">
         <v>20</v>
       </c>
-      <c r="F282" s="6"/>
-      <c r="G282" s="6"/>
+      <c r="F282" s="6">
+        <v>85.17</v>
+      </c>
+      <c r="G282" s="6">
+        <v>85.51</v>
+      </c>
       <c r="H282" s="6">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-0.34000000000000341</v>
       </c>
       <c r="I282" s="54"/>
       <c r="J282" s="57"/>
@@ -19338,8 +20191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7711C3A-5153-46B1-ADD9-E0A1899966C0}">
   <dimension ref="G2:AA22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y40" sqref="Y40"/>
+    <sheetView topLeftCell="C24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19451,12 +20304,24 @@
       </c>
       <c r="Q3" s="9">
         <f>'Model logs'!H183</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
+        <v>-14.270000000000003</v>
+      </c>
+      <c r="R3" s="9">
+        <f>'Model logs'!H203</f>
+        <v>-13.200000000000003</v>
+      </c>
+      <c r="S3" s="9">
+        <f>'Model logs'!H223</f>
+        <v>-11.810000000000002</v>
+      </c>
+      <c r="T3" s="9">
+        <f>'Model logs'!H243</f>
+        <v>-12.299999999999997</v>
+      </c>
+      <c r="U3" s="9">
+        <f>'Model logs'!H263</f>
+        <v>-11.659999999999997</v>
+      </c>
       <c r="V3" s="12"/>
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
@@ -19506,12 +20371,24 @@
       </c>
       <c r="Q4" s="9">
         <f>'Model logs'!H184</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
+        <v>-6.9399999999999977</v>
+      </c>
+      <c r="R4" s="9">
+        <f>'Model logs'!H204</f>
+        <v>-4.5</v>
+      </c>
+      <c r="S4" s="9">
+        <f>'Model logs'!H224</f>
+        <v>-4.57</v>
+      </c>
+      <c r="T4" s="9">
+        <f>'Model logs'!H244</f>
+        <v>-5.1700000000000017</v>
+      </c>
+      <c r="U4" s="9">
+        <f>'Model logs'!H264</f>
+        <v>3</v>
+      </c>
       <c r="V4" s="12"/>
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
@@ -19561,12 +20438,24 @@
       </c>
       <c r="Q5" s="9">
         <f>'Model logs'!H185</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
+        <v>-2.5399999999999991</v>
+      </c>
+      <c r="R5" s="9">
+        <f>'Model logs'!H205</f>
+        <v>-1.4499999999999886</v>
+      </c>
+      <c r="S5" s="9">
+        <f>'Model logs'!H225</f>
+        <v>-0.96000000000000796</v>
+      </c>
+      <c r="T5" s="9">
+        <f>'Model logs'!H245</f>
+        <v>-2.8100000000000023</v>
+      </c>
+      <c r="U5" s="9">
+        <f>'Model logs'!H265</f>
+        <v>8.9999999999996305E-2</v>
+      </c>
       <c r="V5" s="12"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
@@ -19616,12 +20505,24 @@
       </c>
       <c r="Q6" s="9">
         <f>'Model logs'!H186</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
+        <v>-6.5999999999999943</v>
+      </c>
+      <c r="R6" s="9">
+        <f>'Model logs'!H206</f>
+        <v>-3.8100000000000023</v>
+      </c>
+      <c r="S6" s="9">
+        <f>'Model logs'!H226</f>
+        <v>-1.8099999999999881</v>
+      </c>
+      <c r="T6" s="9">
+        <f>'Model logs'!H246</f>
+        <v>-3.7400000000000091</v>
+      </c>
+      <c r="U6" s="9">
+        <f>'Model logs'!H266</f>
+        <v>3.8200000000000003</v>
+      </c>
       <c r="V6" s="12"/>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
@@ -19671,12 +20572,24 @@
       </c>
       <c r="Q7" s="9">
         <f>'Model logs'!H187</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
+        <v>-4.269999999999996</v>
+      </c>
+      <c r="R7" s="9">
+        <f>'Model logs'!H207</f>
+        <v>-2.9699999999999989</v>
+      </c>
+      <c r="S7" s="9">
+        <f>'Model logs'!H227</f>
+        <v>-0.35999999999999943</v>
+      </c>
+      <c r="T7" s="9">
+        <f>'Model logs'!H247</f>
+        <v>-2.980000000000004</v>
+      </c>
+      <c r="U7" s="9">
+        <f>'Model logs'!H267</f>
+        <v>0.14000000000000057</v>
+      </c>
       <c r="V7" s="12"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
@@ -19726,12 +20639,24 @@
       </c>
       <c r="Q8" s="9">
         <f>'Model logs'!H188</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
+        <v>-6.2700000000000102</v>
+      </c>
+      <c r="R8" s="9">
+        <f>'Model logs'!H208</f>
+        <v>-1.7399999999999949</v>
+      </c>
+      <c r="S8" s="9">
+        <f>'Model logs'!H228</f>
+        <v>-0.95000000000000284</v>
+      </c>
+      <c r="T8" s="9">
+        <f>'Model logs'!H248</f>
+        <v>-1.8099999999999881</v>
+      </c>
+      <c r="U8" s="9">
+        <f>'Model logs'!H268</f>
+        <v>2.8499999999999943</v>
+      </c>
       <c r="V8" s="12"/>
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
@@ -19781,12 +20706,24 @@
       </c>
       <c r="Q9" s="9">
         <f>'Model logs'!H189</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
+        <v>-4.5999999999999943</v>
+      </c>
+      <c r="R9" s="9">
+        <f>'Model logs'!H209</f>
+        <v>-1.6999999999999886</v>
+      </c>
+      <c r="S9" s="9">
+        <f>'Model logs'!H229</f>
+        <v>1.2800000000000011</v>
+      </c>
+      <c r="T9" s="9">
+        <f>'Model logs'!H249</f>
+        <v>-2.7999999999999972</v>
+      </c>
+      <c r="U9" s="9">
+        <f>'Model logs'!H269</f>
+        <v>-1.8800000000000097</v>
+      </c>
       <c r="V9" s="12"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
@@ -19836,12 +20773,24 @@
       </c>
       <c r="Q10" s="9">
         <f>'Model logs'!H190</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
+        <v>-3.9399999999999977</v>
+      </c>
+      <c r="R10" s="9">
+        <f>'Model logs'!H210</f>
+        <v>-2.1800000000000068</v>
+      </c>
+      <c r="S10" s="9">
+        <f>'Model logs'!H230</f>
+        <v>-1.0600000000000023</v>
+      </c>
+      <c r="T10" s="9">
+        <f>'Model logs'!H250</f>
+        <v>-2.769999999999996</v>
+      </c>
+      <c r="U10" s="9">
+        <f>'Model logs'!H270</f>
+        <v>-1.019999999999996</v>
+      </c>
       <c r="V10" s="12"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
@@ -19891,12 +20840,24 @@
       </c>
       <c r="Q11" s="9">
         <f>'Model logs'!H191</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
+        <v>-5.1800000000000068</v>
+      </c>
+      <c r="R11" s="9">
+        <f>'Model logs'!H211</f>
+        <v>-1.7000000000000028</v>
+      </c>
+      <c r="S11" s="9">
+        <f>'Model logs'!H231</f>
+        <v>0.21999999999999886</v>
+      </c>
+      <c r="T11" s="9">
+        <f>'Model logs'!H251</f>
+        <v>-1.0700000000000074</v>
+      </c>
+      <c r="U11" s="9">
+        <f>'Model logs'!H271</f>
+        <v>-1.5700000000000074</v>
+      </c>
       <c r="V11" s="12"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
@@ -19946,12 +20907,24 @@
       </c>
       <c r="Q12" s="9">
         <f>'Model logs'!H192</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
+        <v>-4.0400000000000063</v>
+      </c>
+      <c r="R12" s="9">
+        <f>'Model logs'!H212</f>
+        <v>-0.96000000000000796</v>
+      </c>
+      <c r="S12" s="9">
+        <f>'Model logs'!H232</f>
+        <v>5.0000000000011369E-2</v>
+      </c>
+      <c r="T12" s="9">
+        <f>'Model logs'!H252</f>
+        <v>-1.1999999999999886</v>
+      </c>
+      <c r="U12" s="9">
+        <f>'Model logs'!H272</f>
+        <v>1.230000000000004</v>
+      </c>
       <c r="V12" s="12"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
@@ -20001,12 +20974,24 @@
       </c>
       <c r="Q13" s="9">
         <f>'Model logs'!H193</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
+        <v>-4.3799999999999955</v>
+      </c>
+      <c r="R13" s="9">
+        <f>'Model logs'!H213</f>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="S13" s="9">
+        <f>'Model logs'!H233</f>
+        <v>1.5300000000000011</v>
+      </c>
+      <c r="T13" s="9">
+        <f>'Model logs'!H253</f>
+        <v>-2.2000000000000028</v>
+      </c>
+      <c r="U13" s="9">
+        <f>'Model logs'!H273</f>
+        <v>-0.64000000000000057</v>
+      </c>
       <c r="V13" s="12"/>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
@@ -20056,12 +21041,24 @@
       </c>
       <c r="Q14" s="9">
         <f>'Model logs'!H194</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
+        <v>-5.1700000000000017</v>
+      </c>
+      <c r="R14" s="9">
+        <f>'Model logs'!H214</f>
+        <v>-2.019999999999996</v>
+      </c>
+      <c r="S14" s="9">
+        <f>'Model logs'!H234</f>
+        <v>1</v>
+      </c>
+      <c r="T14" s="9">
+        <f>'Model logs'!H254</f>
+        <v>-1.9499999999999886</v>
+      </c>
+      <c r="U14" s="9">
+        <f>'Model logs'!H274</f>
+        <v>-2.25</v>
+      </c>
       <c r="V14" s="12"/>
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
@@ -20111,12 +21108,24 @@
       </c>
       <c r="Q15" s="9">
         <f>'Model logs'!H195</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
+        <v>-4.6799999999999926</v>
+      </c>
+      <c r="R15" s="9">
+        <f>'Model logs'!H215</f>
+        <v>-0.87000000000000455</v>
+      </c>
+      <c r="S15" s="9">
+        <f>'Model logs'!H235</f>
+        <v>0.57999999999999829</v>
+      </c>
+      <c r="T15" s="9">
+        <f>'Model logs'!H255</f>
+        <v>-1.1700000000000017</v>
+      </c>
+      <c r="U15" s="9">
+        <f>'Model logs'!H275</f>
+        <v>-2.6099999999999994</v>
+      </c>
       <c r="V15" s="12"/>
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
@@ -20166,12 +21175,24 @@
       </c>
       <c r="Q16" s="9">
         <f>'Model logs'!H196</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
+        <v>-3.9099999999999966</v>
+      </c>
+      <c r="R16" s="9">
+        <f>'Model logs'!H216</f>
+        <v>-0.79000000000000625</v>
+      </c>
+      <c r="S16" s="9">
+        <f>'Model logs'!H236</f>
+        <v>1.2600000000000051</v>
+      </c>
+      <c r="T16" s="9">
+        <f>'Model logs'!H256</f>
+        <v>-0.81000000000000227</v>
+      </c>
+      <c r="U16" s="9">
+        <f>'Model logs'!H276</f>
+        <v>-1.1800000000000068</v>
+      </c>
       <c r="V16" s="12"/>
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
@@ -20221,12 +21242,24 @@
       </c>
       <c r="Q17" s="9">
         <f>'Model logs'!H197</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
+        <v>-5.0499999999999972</v>
+      </c>
+      <c r="R17" s="9">
+        <f>'Model logs'!H217</f>
+        <v>-0.53000000000000114</v>
+      </c>
+      <c r="S17" s="9">
+        <f>'Model logs'!H237</f>
+        <v>1.9000000000000057</v>
+      </c>
+      <c r="T17" s="9">
+        <f>'Model logs'!H257</f>
+        <v>-1.1099999999999994</v>
+      </c>
+      <c r="U17" s="9">
+        <f>'Model logs'!H277</f>
+        <v>-2.4899999999999949</v>
+      </c>
       <c r="V17" s="12"/>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
@@ -20276,12 +21309,24 @@
       </c>
       <c r="Q18" s="9">
         <f>'Model logs'!H198</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
+        <v>-3.9200000000000017</v>
+      </c>
+      <c r="R18" s="9">
+        <f>'Model logs'!H218</f>
+        <v>-0.52000000000001023</v>
+      </c>
+      <c r="S18" s="9">
+        <f>'Model logs'!H238</f>
+        <v>1.6300000000000097</v>
+      </c>
+      <c r="T18" s="9">
+        <f>'Model logs'!H258</f>
+        <v>-1.5099999999999909</v>
+      </c>
+      <c r="U18" s="9">
+        <f>'Model logs'!H278</f>
+        <v>-2.7000000000000028</v>
+      </c>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
@@ -20331,12 +21376,24 @@
       </c>
       <c r="Q19" s="9">
         <f>'Model logs'!H199</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
+        <v>-4.019999999999996</v>
+      </c>
+      <c r="R19" s="9">
+        <f>'Model logs'!H219</f>
+        <v>-0.68999999999999773</v>
+      </c>
+      <c r="S19" s="9">
+        <f>'Model logs'!H239</f>
+        <v>1.5600000000000023</v>
+      </c>
+      <c r="T19" s="9">
+        <f>'Model logs'!H259</f>
+        <v>-1.480000000000004</v>
+      </c>
+      <c r="U19" s="9">
+        <f>'Model logs'!H279</f>
+        <v>-1.3200000000000074</v>
+      </c>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
@@ -20386,12 +21443,24 @@
       </c>
       <c r="Q20" s="9">
         <f>'Model logs'!H200</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
+        <v>-4.5300000000000011</v>
+      </c>
+      <c r="R20" s="9">
+        <f>'Model logs'!H220</f>
+        <v>-0.82000000000000739</v>
+      </c>
+      <c r="S20" s="9">
+        <f>'Model logs'!H240</f>
+        <v>1.6999999999999886</v>
+      </c>
+      <c r="T20" s="9">
+        <f>'Model logs'!H260</f>
+        <v>0.32999999999999829</v>
+      </c>
+      <c r="U20" s="9">
+        <f>'Model logs'!H280</f>
+        <v>-1</v>
+      </c>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
@@ -20441,12 +21510,24 @@
       </c>
       <c r="Q21" s="9">
         <f>'Model logs'!H201</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
+        <v>-2.5999999999999943</v>
+      </c>
+      <c r="R21" s="9">
+        <f>'Model logs'!H221</f>
+        <v>-0.71999999999999886</v>
+      </c>
+      <c r="S21" s="9">
+        <f>'Model logs'!H241</f>
+        <v>1.8799999999999955</v>
+      </c>
+      <c r="T21" s="9">
+        <f>'Model logs'!H261</f>
+        <v>-1.5100000000000051</v>
+      </c>
+      <c r="U21" s="9">
+        <f>'Model logs'!H281</f>
+        <v>-0.47999999999998977</v>
+      </c>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
@@ -20496,12 +21577,24 @@
       </c>
       <c r="Q22" s="9">
         <f>'Model logs'!H202</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
+        <v>-4.3199999999999932</v>
+      </c>
+      <c r="R22" s="9">
+        <f>'Model logs'!H222</f>
+        <v>-0.12999999999999545</v>
+      </c>
+      <c r="S22" s="9">
+        <f>'Model logs'!H242</f>
+        <v>3.730000000000004</v>
+      </c>
+      <c r="T22" s="9">
+        <f>'Model logs'!H262</f>
+        <v>-0.14999999999999147</v>
+      </c>
+      <c r="U22" s="9">
+        <f>'Model logs'!H282</f>
+        <v>-0.34000000000000341</v>
+      </c>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
